--- a/Documentação/Planilhas/Conferencia_WMS.xlsx
+++ b/Documentação/Planilhas/Conferencia_WMS.xlsx
@@ -4,15 +4,15 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="30" windowWidth="20115" windowHeight="8010" firstSheet="2" activeTab="3"/>
+    <workbookView xWindow="240" yWindow="30" windowWidth="20115" windowHeight="8010" firstSheet="3" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="stg_dom_wms_onda" sheetId="1" r:id="rId1"/>
     <sheet name="stg_dom_wms_tracking_pedido" sheetId="5" r:id="rId2"/>
     <sheet name="stg_dom_wms_trp_ocorrencia" sheetId="6" r:id="rId3"/>
     <sheet name="stg_wms_eventos_tracking" sheetId="7" r:id="rId4"/>
-    <sheet name="Plan2" sheetId="2" r:id="rId5"/>
-    <sheet name="Plan3" sheetId="3" r:id="rId6"/>
+    <sheet name="stg_wms_pedido_det" sheetId="8" r:id="rId5"/>
+    <sheet name="stg_wms_pedido_cab" sheetId="9" r:id="rId6"/>
     <sheet name="Plan4" sheetId="4" r:id="rId7"/>
   </sheets>
   <calcPr calcId="125725"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="296" uniqueCount="168">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="691" uniqueCount="319">
   <si>
     <t>CD_ONDA</t>
   </si>
@@ -511,9 +511,6 @@
     <t>2014-08-29 18:32:53.000</t>
   </si>
   <si>
-    <t>No menu do topo da tela, selecionar WMS, Saída e Ordem de Expedição. Informar o NR_PEDIDO na coluna "Nº Pedido". Para a ocorrência WMS, pegar a informação da coluna "Data do Pedido"</t>
-  </si>
-  <si>
     <t>0000013145</t>
   </si>
   <si>
@@ -524,6 +521,462 @@
   </si>
   <si>
     <t>2014-08-27 18:58:44.000</t>
+  </si>
+  <si>
+    <t>dbo.stg_wms_pedido_det</t>
+  </si>
+  <si>
+    <t>CD_ITEM</t>
+  </si>
+  <si>
+    <t>SQ_PEDIDO</t>
+  </si>
+  <si>
+    <t>CD_LOTE</t>
+  </si>
+  <si>
+    <t>QT_PEDIDA</t>
+  </si>
+  <si>
+    <t>QT_ATENDIDA</t>
+  </si>
+  <si>
+    <t>CD_SITUACAO_ITEM</t>
+  </si>
+  <si>
+    <t>QT_LIQUIDADA</t>
+  </si>
+  <si>
+    <t>DT_SITUACAO_ITEM</t>
+  </si>
+  <si>
+    <t>QT_CANCELADA</t>
+  </si>
+  <si>
+    <t>00001</t>
+  </si>
+  <si>
+    <t>1603234</t>
+  </si>
+  <si>
+    <t>3</t>
+  </si>
+  <si>
+    <t>1806090</t>
+  </si>
+  <si>
+    <t>2014-08-29 21:32:53.000</t>
+  </si>
+  <si>
+    <t>0000000057</t>
+  </si>
+  <si>
+    <t>0000000059</t>
+  </si>
+  <si>
+    <t>2013-09-23 16:00:47.000</t>
+  </si>
+  <si>
+    <t>2014-08-14 14:34:33.000</t>
+  </si>
+  <si>
+    <t>2014-08-14 15:24:02.000</t>
+  </si>
+  <si>
+    <t>2013-10-31 17:05:14.000</t>
+  </si>
+  <si>
+    <t>2013-10-31 17:05:00.000</t>
+  </si>
+  <si>
+    <t>Para conferir o Armazém WMWHSE1 : Acessar o WMS e no menu no topo da tela, selecionar "N.TESTE W_001A01"</t>
+  </si>
+  <si>
+    <t>CD_GAIOLA</t>
+  </si>
+  <si>
+    <t>2013-09-20 19:06:04.000</t>
+  </si>
+  <si>
+    <t>2014-08-14 14:34:32.000</t>
+  </si>
+  <si>
+    <t>0000000008</t>
+  </si>
+  <si>
+    <t>0000000905</t>
+  </si>
+  <si>
+    <t>No menu do topo da tela, selecionar WMS, Saída e Ordem de Expedição. Informar o NR_PEDIDO na coluna "Nº Pedido". Para a ocorrência WMS, pegar a informação da coluna "Data do Pedido". Para a ocorrência SEC, pegar a informação da coluna "Data real de expedição"</t>
+  </si>
+  <si>
+    <t>Esta informação é criada de acordo com a data do Registro, conforme descrito ao lado.</t>
+  </si>
+  <si>
+    <t>Para a informação GAI, usar o CD_GAIOLA. No menu do topo da tela, selecionar WMS, Saída e Checkout Gaiola. Informar o CD_GAIOLA  na coluna "Gaiola". Pegar a informação da coluna "Data de Fechamento"</t>
+  </si>
+  <si>
+    <t>Usado para pegar a informação da Data de registro das gaiolas</t>
+  </si>
+  <si>
+    <t>A01200REVERSA</t>
+  </si>
+  <si>
+    <t>0000000011</t>
+  </si>
+  <si>
+    <t>2015-01-21 13:41:35.000</t>
+  </si>
+  <si>
+    <t>DESENVOLVIMENTO</t>
+  </si>
+  <si>
+    <t>No menu do topo da tela, selecionar WMS, Saída e Ordem de Expedição. Informar o NR_PEDIDO na coluna "Nº Pedido" e pedir o seu detalhamento. Pegar a informação da coluna "Nº Linha"</t>
+  </si>
+  <si>
+    <t>No menu do topo da tela, selecionar WMS, Saída e Ordem de Expedição. Informar o NR_PEDIDO na coluna "Nº Pedido" e pedir o seu detalhamento. Pegar a informação da coluna "Item"</t>
+  </si>
+  <si>
+    <t>No menu do topo da tela, selecionar WMS, Saída e Ordem de Expedição. Informar o NR_PEDIDO na coluna "Nº Pedido" e pedir o seu detalhamento. Pegar a informação da coluna "Quantidade do Pedido"</t>
+  </si>
+  <si>
+    <t xml:space="preserve">No menu do topo da tela, selecionar WMS, Saída e Ordem de Expedição. Informar o NR_PEDIDO na coluna "Nº Pedido" e pedir o seu detalhamento. Pegar a informação da coluna "Status".  </t>
+  </si>
+  <si>
+    <t>Os códigos utilizados são:</t>
+  </si>
+  <si>
+    <t>-2=SemSincronismo</t>
+  </si>
+  <si>
+    <t>-1=Desc.</t>
+  </si>
+  <si>
+    <t>00=Pedido em branco</t>
+  </si>
+  <si>
+    <t>02=Criado extern.</t>
+  </si>
+  <si>
+    <t>04=Criado intern.</t>
+  </si>
+  <si>
+    <t>06=Não alocou</t>
+  </si>
+  <si>
+    <t>08=Convertido</t>
+  </si>
+  <si>
+    <t>09=Não inic.</t>
+  </si>
+  <si>
+    <t>11=Volume pré-alocado</t>
+  </si>
+  <si>
+    <t>12=Pré-alocado</t>
+  </si>
+  <si>
+    <t>13=Liberado p/planej. depósito</t>
+  </si>
+  <si>
+    <t>14=Volume alocado</t>
+  </si>
+  <si>
+    <t>15=Volume aloc./volume sep.</t>
+  </si>
+  <si>
+    <t>16=Volume alocado/volume exp.</t>
+  </si>
+  <si>
+    <t>17=Alocado(a)</t>
+  </si>
+  <si>
+    <t>18=Substituído</t>
+  </si>
+  <si>
+    <t>22=Volume liberado</t>
+  </si>
+  <si>
+    <t>25=Volume liberado/volume sep.</t>
+  </si>
+  <si>
+    <t>27=Volume liberado/volume exp.</t>
+  </si>
+  <si>
+    <t>29=Liberado</t>
+  </si>
+  <si>
+    <t>51=Em coleta</t>
+  </si>
+  <si>
+    <t>52=Vol. sep.</t>
+  </si>
+  <si>
+    <t>53=Vol. separado/volume exp.</t>
+  </si>
+  <si>
+    <t>55=Coleta concluída</t>
+  </si>
+  <si>
+    <t>57=Separado/volume exp.</t>
+  </si>
+  <si>
+    <t>61=Em emb.</t>
+  </si>
+  <si>
+    <t>68=Emb. concluída</t>
+  </si>
+  <si>
+    <t>75=Área intermediária</t>
+  </si>
+  <si>
+    <t>78=Manifestado</t>
+  </si>
+  <si>
+    <t>82=Em carreg.</t>
+  </si>
+  <si>
+    <t>88=Carregado</t>
+  </si>
+  <si>
+    <t>92=Volume expedido</t>
+  </si>
+  <si>
+    <t>94=Fechar produção</t>
+  </si>
+  <si>
+    <t>95=Expedição concluída</t>
+  </si>
+  <si>
+    <t>96=Entrega aceita</t>
+  </si>
+  <si>
+    <t>97=Entrega recusada</t>
+  </si>
+  <si>
+    <t>98=Cancelado extern.</t>
+  </si>
+  <si>
+    <t>99=Cancelado intern.</t>
+  </si>
+  <si>
+    <t>100=Logistic Loss</t>
+  </si>
+  <si>
+    <t>No menu do topo da tela, selecionar WMS, Saída e Ordem de Expedição. Informar o NR_PEDIDO na coluna "Nº Pedido" e pedir o seu detalhamento. Pegar a informação da coluna "Quantidade Expedida"</t>
+  </si>
+  <si>
+    <t>No menu do topo da tela, selecionar WMS, Saída e Ordem de Expedição. Informar o NR_PEDIDO na coluna "Nº Pedido" e pedir o seu detalhamento. Pegar a informação da coluna "Quantidade do Pedido" - "Qtd em Aberto"</t>
+  </si>
+  <si>
+    <t>Este campo é interno da tabela e não é apresentado em Tela</t>
+  </si>
+  <si>
+    <t>No menu do topo da tela, selecionar WMS, Saída e Ordem de Expedição. Informar o NR_PEDIDO na coluna "Nº Pedido". Pegar a informação da coluna "Data do Pedido"</t>
+  </si>
+  <si>
+    <t>No menu do topo da tela, selecionar WMS, Saída e Ordem de Expedição. Informar o NR_PEDIDO na coluna "Nº Pedido" e pedir o seu detalhamento. Pedir o detalhamento da linha do CD_ITEM desejado. Selecionar no menu inferior  o"Histórico de Status". Pegar a informação mais antiga da coluna "Data/Hora" para o CD_SITUACAO_ITEM que estamos analisando</t>
+  </si>
+  <si>
+    <t>Caso não tenha registro em "Histórico de Status", pegar a informação da coluna "Data do Pedido" da tela principal da "Ordem de Expedição"</t>
+  </si>
+  <si>
+    <t>dbo.stg_wms_pedido_cab</t>
+  </si>
+  <si>
+    <t>CD_FILIAL</t>
+  </si>
+  <si>
+    <t>CD_PARCEIRO</t>
+  </si>
+  <si>
+    <t>NR_ENTREGA</t>
+  </si>
+  <si>
+    <t>CD_RESTRICAO</t>
+  </si>
+  <si>
+    <t>CD_IDENTIFICADO_PRE_VOLUME</t>
+  </si>
+  <si>
+    <t>CD_ROTA</t>
+  </si>
+  <si>
+    <t>DT_ESTIMADA_ENTREGA</t>
+  </si>
+  <si>
+    <t>DT_EMISSAO_PEDIDO</t>
+  </si>
+  <si>
+    <t>DS_SITUACAO</t>
+  </si>
+  <si>
+    <t>DT_SITUACAO</t>
+  </si>
+  <si>
+    <t>NR_CNPJ_TRANSPORTADORA</t>
+  </si>
+  <si>
+    <t>CD_CONTRATO_TRANSPORTADORA</t>
+  </si>
+  <si>
+    <t>DT_LIMITE_EXPEDICAO</t>
+  </si>
+  <si>
+    <t>CD_CANAL_VENDA</t>
+  </si>
+  <si>
+    <t>CD_CEP_ENTREGA</t>
+  </si>
+  <si>
+    <t>DT_MINIMA_EXPEDICAO</t>
+  </si>
+  <si>
+    <t>CD_REGIAO</t>
+  </si>
+  <si>
+    <t>CD_MEGA_ROTA</t>
+  </si>
+  <si>
+    <t>DT_LIMITE_ORIGINAL</t>
+  </si>
+  <si>
+    <t>CD_ORIGEM_PEDIDO</t>
+  </si>
+  <si>
+    <t>000002849</t>
+  </si>
+  <si>
+    <t>4219021201</t>
+  </si>
+  <si>
+    <t>2014-08-18 13:01:00.000</t>
+  </si>
+  <si>
+    <t>2014-08-14 14:34:18.000</t>
+  </si>
+  <si>
+    <t>NULL</t>
+  </si>
+  <si>
+    <t>BR</t>
+  </si>
+  <si>
+    <t>2014-08-14 18:24:03.000</t>
+  </si>
+  <si>
+    <t>10</t>
+  </si>
+  <si>
+    <t>600000010</t>
+  </si>
+  <si>
+    <t>5023382201</t>
+  </si>
+  <si>
+    <t>2015-01-15 08:40:00.000</t>
+  </si>
+  <si>
+    <t>2015-03-04 11:49:15.000</t>
+  </si>
+  <si>
+    <t>2015-03-04 14:49:49.000</t>
+  </si>
+  <si>
+    <t>000037638</t>
+  </si>
+  <si>
+    <t>4219107201</t>
+  </si>
+  <si>
+    <t>2014-09-02 11:54:00.000</t>
+  </si>
+  <si>
+    <t>2014-08-26 11:24:24.000</t>
+  </si>
+  <si>
+    <t>SP</t>
+  </si>
+  <si>
+    <t>000037970</t>
+  </si>
+  <si>
+    <t>5023407401</t>
+  </si>
+  <si>
+    <t>2015-02-09 09:00:00.000</t>
+  </si>
+  <si>
+    <t>2015-03-23 15:23:53.000</t>
+  </si>
+  <si>
+    <t>2015-03-23 18:24:01.000</t>
+  </si>
+  <si>
+    <t>0000000012</t>
+  </si>
+  <si>
+    <t>000037980</t>
+  </si>
+  <si>
+    <t>0000000031</t>
+  </si>
+  <si>
+    <t>5023405701</t>
+  </si>
+  <si>
+    <t>2015-03-05 19:48:52.000</t>
+  </si>
+  <si>
+    <t>2015-03-05 22:49:20.000</t>
+  </si>
+  <si>
+    <t>Está fixo com brancos na view</t>
+  </si>
+  <si>
+    <t>No menu do topo da tela, selecionar WMS, Saída e Detalhe de Coleta. Informar o NR_PEDIDO na coluna "Nº Pedido". Pegar a informação da coluna "Lote"</t>
+  </si>
+  <si>
+    <t>A view está buscando o campo ADJUSTEDQTY quando o mesmo é menor do que zero, porém esse campo não é apresentado em tela.</t>
+  </si>
+  <si>
+    <t>2013-10-31 15:58:52.000</t>
+  </si>
+  <si>
+    <t>2013-10-31 15:58:39.000</t>
+  </si>
+  <si>
+    <t>No menu do topo da tela, selecionar WMS, Saída e Ordem de Expedição. Informar o NR_PEDIDO na coluna "Nº Pedido". Pegar a informação da coluna "Status"</t>
+  </si>
+  <si>
+    <t>11169431000100</t>
+  </si>
+  <si>
+    <t>58818022000143</t>
+  </si>
+  <si>
+    <t>34028316000294</t>
+  </si>
+  <si>
+    <t>Cabeçalho, Receptor</t>
+  </si>
+  <si>
+    <t>Expedir, CEP</t>
+  </si>
+  <si>
+    <t>Transportadora, Data Entrega Programada</t>
+  </si>
+  <si>
+    <t>Carga, Rota</t>
+  </si>
+  <si>
+    <t>Expedir, Região Mega Rota</t>
+  </si>
+  <si>
+    <t>3.0000</t>
+  </si>
+  <si>
+    <t>1.0000</t>
   </si>
 </sst>
 </file>
@@ -584,7 +1037,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="5">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -609,8 +1062,14 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF0000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="2">
+  <borders count="5">
     <border>
       <left/>
       <right/>
@@ -633,11 +1092,48 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="26">
+  <cellXfs count="39">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -675,12 +1171,6 @@
     <xf numFmtId="49" fontId="2" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -697,8 +1187,49 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="22" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1004,9 +1535,7 @@
   </sheetPr>
   <dimension ref="A2:AJ184"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="D25" sqref="D25"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
@@ -1209,108 +1738,108 @@
     </row>
     <row r="10" spans="1:36" s="9" customFormat="1" ht="11.25"/>
     <row r="11" spans="1:36" s="9" customFormat="1" ht="11.25">
-      <c r="B11" s="17" t="s">
+      <c r="B11" s="23" t="s">
         <v>20</v>
       </c>
-      <c r="C11" s="17" t="s">
+      <c r="C11" s="23" t="s">
         <v>21</v>
       </c>
-      <c r="D11" s="17" t="s">
+      <c r="D11" s="23" t="s">
         <v>22</v>
       </c>
-      <c r="E11" s="17" t="s">
+      <c r="E11" s="23" t="s">
         <v>24</v>
       </c>
-      <c r="F11" s="17" t="s">
+      <c r="F11" s="23" t="s">
         <v>25</v>
       </c>
-      <c r="G11" s="17" t="s">
+      <c r="G11" s="23" t="s">
         <v>26</v>
       </c>
-      <c r="H11" s="17" t="s">
+      <c r="H11" s="23" t="s">
         <v>28</v>
       </c>
     </row>
     <row r="12" spans="1:36" s="9" customFormat="1" ht="11.25">
-      <c r="B12" s="17"/>
-      <c r="C12" s="17"/>
-      <c r="D12" s="17"/>
-      <c r="E12" s="17"/>
-      <c r="F12" s="17"/>
-      <c r="G12" s="17"/>
-      <c r="H12" s="17"/>
+      <c r="B12" s="23"/>
+      <c r="C12" s="23"/>
+      <c r="D12" s="23"/>
+      <c r="E12" s="23"/>
+      <c r="F12" s="23"/>
+      <c r="G12" s="23"/>
+      <c r="H12" s="23"/>
     </row>
     <row r="13" spans="1:36" s="9" customFormat="1" ht="11.25">
-      <c r="B13" s="17"/>
-      <c r="C13" s="17"/>
-      <c r="D13" s="17"/>
-      <c r="E13" s="17"/>
-      <c r="F13" s="17"/>
-      <c r="G13" s="17"/>
-      <c r="H13" s="17"/>
+      <c r="B13" s="23"/>
+      <c r="C13" s="23"/>
+      <c r="D13" s="23"/>
+      <c r="E13" s="23"/>
+      <c r="F13" s="23"/>
+      <c r="G13" s="23"/>
+      <c r="H13" s="23"/>
     </row>
     <row r="14" spans="1:36" s="9" customFormat="1" ht="11.25">
-      <c r="B14" s="17"/>
-      <c r="C14" s="17"/>
-      <c r="D14" s="17"/>
-      <c r="E14" s="17"/>
-      <c r="F14" s="17"/>
-      <c r="G14" s="17"/>
-      <c r="H14" s="17"/>
+      <c r="B14" s="23"/>
+      <c r="C14" s="23"/>
+      <c r="D14" s="23"/>
+      <c r="E14" s="23"/>
+      <c r="F14" s="23"/>
+      <c r="G14" s="23"/>
+      <c r="H14" s="23"/>
     </row>
     <row r="15" spans="1:36" s="9" customFormat="1" ht="11.25">
-      <c r="B15" s="17"/>
-      <c r="C15" s="17"/>
-      <c r="D15" s="17"/>
-      <c r="E15" s="17"/>
-      <c r="F15" s="17"/>
-      <c r="G15" s="17"/>
-      <c r="H15" s="17"/>
+      <c r="B15" s="23"/>
+      <c r="C15" s="23"/>
+      <c r="D15" s="23"/>
+      <c r="E15" s="23"/>
+      <c r="F15" s="23"/>
+      <c r="G15" s="23"/>
+      <c r="H15" s="23"/>
     </row>
     <row r="16" spans="1:36" s="9" customFormat="1" ht="11.25">
-      <c r="B16" s="17"/>
-      <c r="C16" s="17"/>
-      <c r="D16" s="17"/>
-      <c r="E16" s="17"/>
-      <c r="F16" s="17"/>
-      <c r="G16" s="17"/>
-      <c r="H16" s="17"/>
+      <c r="B16" s="23"/>
+      <c r="C16" s="23"/>
+      <c r="D16" s="23"/>
+      <c r="E16" s="23"/>
+      <c r="F16" s="23"/>
+      <c r="G16" s="23"/>
+      <c r="H16" s="23"/>
     </row>
     <row r="17" spans="1:8" s="9" customFormat="1" ht="11.25">
-      <c r="B17" s="17"/>
-      <c r="C17" s="17"/>
-      <c r="D17" s="17"/>
-      <c r="E17" s="17"/>
-      <c r="F17" s="17"/>
-      <c r="G17" s="17"/>
-      <c r="H17" s="17"/>
+      <c r="B17" s="23"/>
+      <c r="C17" s="23"/>
+      <c r="D17" s="23"/>
+      <c r="E17" s="23"/>
+      <c r="F17" s="23"/>
+      <c r="G17" s="23"/>
+      <c r="H17" s="23"/>
     </row>
     <row r="18" spans="1:8" s="9" customFormat="1" ht="11.25">
-      <c r="B18" s="17"/>
-      <c r="C18" s="17"/>
-      <c r="D18" s="17"/>
-      <c r="E18" s="17"/>
-      <c r="F18" s="17"/>
-      <c r="G18" s="17"/>
-      <c r="H18" s="17"/>
+      <c r="B18" s="23"/>
+      <c r="C18" s="23"/>
+      <c r="D18" s="23"/>
+      <c r="E18" s="23"/>
+      <c r="F18" s="23"/>
+      <c r="G18" s="23"/>
+      <c r="H18" s="23"/>
     </row>
     <row r="19" spans="1:8" s="9" customFormat="1" ht="11.25">
-      <c r="B19" s="17"/>
-      <c r="C19" s="17"/>
-      <c r="D19" s="17"/>
-      <c r="E19" s="17"/>
-      <c r="F19" s="17"/>
-      <c r="G19" s="17"/>
-      <c r="H19" s="17"/>
+      <c r="B19" s="23"/>
+      <c r="C19" s="23"/>
+      <c r="D19" s="23"/>
+      <c r="E19" s="23"/>
+      <c r="F19" s="23"/>
+      <c r="G19" s="23"/>
+      <c r="H19" s="23"/>
     </row>
     <row r="20" spans="1:8" s="9" customFormat="1" ht="11.25">
-      <c r="B20" s="17"/>
-      <c r="C20" s="17"/>
-      <c r="D20" s="17"/>
-      <c r="E20" s="17"/>
-      <c r="F20" s="17"/>
-      <c r="G20" s="17"/>
-      <c r="H20" s="17"/>
+      <c r="B20" s="23"/>
+      <c r="C20" s="23"/>
+      <c r="D20" s="23"/>
+      <c r="E20" s="23"/>
+      <c r="F20" s="23"/>
+      <c r="G20" s="23"/>
+      <c r="H20" s="23"/>
     </row>
     <row r="21" spans="1:8" s="9" customFormat="1" ht="11.25" customHeight="1">
       <c r="B21" s="14"/>
@@ -1318,7 +1847,7 @@
       <c r="D21" s="14"/>
       <c r="E21" s="14"/>
       <c r="F21" s="14"/>
-      <c r="G21" s="17" t="s">
+      <c r="G21" s="23" t="s">
         <v>27</v>
       </c>
     </row>
@@ -1328,129 +1857,133 @@
       <c r="D22" s="14"/>
       <c r="E22" s="14"/>
       <c r="F22" s="14"/>
-      <c r="G22" s="17"/>
+      <c r="G22" s="23"/>
     </row>
     <row r="23" spans="1:8" s="9" customFormat="1" ht="11.25">
-      <c r="A23" s="18" t="s">
+      <c r="A23" s="24" t="s">
         <v>49</v>
       </c>
-      <c r="B23" s="18"/>
+      <c r="B23" s="24"/>
       <c r="C23" s="14"/>
       <c r="D23" s="14"/>
       <c r="E23" s="14"/>
       <c r="F23" s="14"/>
-      <c r="G23" s="17"/>
+      <c r="G23" s="23"/>
     </row>
     <row r="24" spans="1:8" s="9" customFormat="1" ht="11.25">
-      <c r="A24" s="18"/>
-      <c r="B24" s="18"/>
+      <c r="A24" s="24"/>
+      <c r="B24" s="24"/>
       <c r="C24" s="14"/>
       <c r="D24" s="14"/>
       <c r="E24" s="14"/>
       <c r="F24" s="14"/>
-      <c r="G24" s="17"/>
+      <c r="G24" s="23"/>
     </row>
     <row r="25" spans="1:8" s="9" customFormat="1" ht="15.75" customHeight="1">
-      <c r="A25" s="22" t="s">
+      <c r="A25" s="20" t="s">
         <v>47</v>
       </c>
-      <c r="B25" s="22" t="s">
+      <c r="B25" s="20" t="s">
         <v>48</v>
       </c>
       <c r="C25" s="14"/>
       <c r="D25" s="14"/>
       <c r="E25" s="14"/>
       <c r="F25" s="14"/>
-      <c r="G25" s="17"/>
+      <c r="G25" s="23"/>
     </row>
     <row r="26" spans="1:8" s="9" customFormat="1" ht="11.25">
-      <c r="A26" s="19" t="s">
+      <c r="A26" s="17" t="s">
         <v>38</v>
       </c>
-      <c r="B26" s="20" t="s">
+      <c r="B26" s="18" t="s">
         <v>41</v>
       </c>
       <c r="C26" s="14"/>
       <c r="D26" s="14"/>
       <c r="E26" s="14"/>
       <c r="F26" s="14"/>
-      <c r="G26" s="17"/>
+      <c r="G26" s="23"/>
     </row>
     <row r="27" spans="1:8" s="7" customFormat="1" ht="12">
-      <c r="A27" s="19" t="s">
+      <c r="A27" s="17" t="s">
         <v>8</v>
       </c>
-      <c r="B27" s="20" t="s">
+      <c r="B27" s="18" t="s">
         <v>42</v>
       </c>
       <c r="C27" s="15"/>
       <c r="D27" s="15"/>
       <c r="E27" s="15"/>
       <c r="F27" s="15"/>
-      <c r="G27" s="17"/>
+      <c r="G27" s="23"/>
     </row>
     <row r="28" spans="1:8" s="7" customFormat="1" ht="12">
-      <c r="A28" s="19" t="s">
+      <c r="A28" s="17" t="s">
         <v>39</v>
       </c>
-      <c r="B28" s="20"/>
+      <c r="B28" s="18" t="s">
+        <v>202</v>
+      </c>
       <c r="C28" s="15"/>
       <c r="D28" s="15"/>
       <c r="E28" s="15"/>
       <c r="F28" s="15"/>
-      <c r="G28" s="17"/>
+      <c r="G28" s="23"/>
     </row>
     <row r="29" spans="1:8" s="7" customFormat="1" ht="12">
-      <c r="A29" s="19" t="s">
+      <c r="A29" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="B29" s="21" t="s">
+      <c r="B29" s="19" t="s">
         <v>43</v>
       </c>
       <c r="C29" s="15"/>
       <c r="D29" s="15"/>
       <c r="E29" s="15"/>
       <c r="F29" s="15"/>
-      <c r="G29" s="17"/>
+      <c r="G29" s="23"/>
     </row>
     <row r="30" spans="1:8" s="7" customFormat="1" ht="12">
-      <c r="A30" s="19" t="s">
+      <c r="A30" s="17" t="s">
         <v>11</v>
       </c>
-      <c r="B30" s="21" t="s">
+      <c r="B30" s="19" t="s">
         <v>44</v>
       </c>
       <c r="C30" s="15"/>
       <c r="D30" s="15"/>
       <c r="E30" s="15"/>
       <c r="F30" s="15"/>
-      <c r="G30" s="17"/>
+      <c r="G30" s="23"/>
     </row>
     <row r="31" spans="1:8" s="7" customFormat="1" ht="12">
-      <c r="A31" s="19" t="s">
+      <c r="A31" s="17" t="s">
         <v>40</v>
       </c>
-      <c r="B31" s="21" t="s">
+      <c r="B31" s="19" t="s">
         <v>45</v>
       </c>
       <c r="C31" s="15"/>
       <c r="D31" s="15"/>
       <c r="E31" s="15"/>
       <c r="F31" s="15"/>
-      <c r="G31" s="17"/>
+      <c r="G31" s="23"/>
     </row>
     <row r="32" spans="1:8" s="7" customFormat="1" ht="12">
-      <c r="A32" s="19" t="s">
+      <c r="A32" s="17" t="s">
         <v>12</v>
       </c>
-      <c r="B32" s="21"/>
-      <c r="G32" s="17"/>
+      <c r="B32" s="19" t="s">
+        <v>199</v>
+      </c>
+      <c r="G32" s="23"/>
     </row>
     <row r="33" spans="1:2" s="7" customFormat="1" ht="12">
-      <c r="A33" s="19" t="s">
+      <c r="A33" s="17" t="s">
         <v>13</v>
       </c>
-      <c r="B33" s="21" t="s">
+      <c r="B33" s="19" t="s">
         <v>46</v>
       </c>
     </row>
@@ -1629,9 +2162,7 @@
   </sheetPr>
   <dimension ref="A2:V188"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="D15" sqref="D15:E24"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
@@ -1714,181 +2245,181 @@
         <v>53</v>
       </c>
     </row>
-    <row r="7" spans="1:22" s="24" customFormat="1" ht="11.25">
-      <c r="A7" s="23" t="s">
+    <row r="7" spans="1:22" s="22" customFormat="1" ht="11.25">
+      <c r="A7" s="21" t="s">
         <v>8</v>
       </c>
-      <c r="B7" s="23" t="s">
+      <c r="B7" s="21" t="s">
         <v>16</v>
       </c>
-      <c r="C7" s="23" t="s">
+      <c r="C7" s="21" t="s">
         <v>55</v>
       </c>
-      <c r="D7" s="23" t="s">
+      <c r="D7" s="21" t="s">
         <v>56</v>
       </c>
-      <c r="E7" s="23" t="s">
+      <c r="E7" s="21" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="8" spans="1:22" s="24" customFormat="1" ht="11.25">
-      <c r="A8" s="23" t="s">
+    <row r="8" spans="1:22" s="22" customFormat="1" ht="11.25">
+      <c r="A8" s="21" t="s">
         <v>8</v>
       </c>
-      <c r="B8" s="23" t="s">
+      <c r="B8" s="21" t="s">
         <v>16</v>
       </c>
-      <c r="C8" s="23" t="s">
+      <c r="C8" s="21" t="s">
         <v>55</v>
       </c>
-      <c r="D8" s="23" t="s">
+      <c r="D8" s="21" t="s">
         <v>57</v>
       </c>
-      <c r="E8" s="23" t="s">
+      <c r="E8" s="21" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="9" spans="1:22" s="24" customFormat="1" ht="11.25">
-      <c r="A9" s="23" t="s">
+    <row r="9" spans="1:22" s="22" customFormat="1" ht="11.25">
+      <c r="A9" s="21" t="s">
         <v>8</v>
       </c>
-      <c r="B9" s="23" t="s">
+      <c r="B9" s="21" t="s">
         <v>16</v>
       </c>
-      <c r="C9" s="23" t="s">
+      <c r="C9" s="21" t="s">
         <v>55</v>
       </c>
-      <c r="D9" s="23" t="s">
+      <c r="D9" s="21" t="s">
         <v>58</v>
       </c>
-      <c r="E9" s="23" t="s">
+      <c r="E9" s="21" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="10" spans="1:22" s="24" customFormat="1" ht="11.25">
-      <c r="A10" s="23" t="s">
+    <row r="10" spans="1:22" s="22" customFormat="1" ht="11.25">
+      <c r="A10" s="21" t="s">
         <v>8</v>
       </c>
-      <c r="B10" s="23" t="s">
+      <c r="B10" s="21" t="s">
         <v>16</v>
       </c>
-      <c r="C10" s="23" t="s">
+      <c r="C10" s="21" t="s">
         <v>55</v>
       </c>
-      <c r="D10" s="23" t="s">
+      <c r="D10" s="21" t="s">
         <v>59</v>
       </c>
-      <c r="E10" s="23" t="s">
+      <c r="E10" s="21" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="11" spans="1:22" s="24" customFormat="1" ht="11.25">
-      <c r="A11" s="23" t="s">
+    <row r="11" spans="1:22" s="22" customFormat="1" ht="11.25">
+      <c r="A11" s="21" t="s">
         <v>8</v>
       </c>
-      <c r="B11" s="23" t="s">
+      <c r="B11" s="21" t="s">
         <v>16</v>
       </c>
-      <c r="C11" s="23" t="s">
+      <c r="C11" s="21" t="s">
         <v>55</v>
       </c>
-      <c r="D11" s="23" t="s">
+      <c r="D11" s="21" t="s">
         <v>60</v>
       </c>
-      <c r="E11" s="23" t="s">
+      <c r="E11" s="21" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="12" spans="1:22" s="24" customFormat="1" ht="11.25">
-      <c r="A12" s="23" t="s">
+    <row r="12" spans="1:22" s="22" customFormat="1" ht="11.25">
+      <c r="A12" s="21" t="s">
         <v>8</v>
       </c>
-      <c r="B12" s="23" t="s">
+      <c r="B12" s="21" t="s">
         <v>16</v>
       </c>
-      <c r="C12" s="23" t="s">
+      <c r="C12" s="21" t="s">
         <v>55</v>
       </c>
-      <c r="D12" s="23" t="s">
+      <c r="D12" s="21" t="s">
         <v>61</v>
       </c>
-      <c r="E12" s="23" t="s">
+      <c r="E12" s="21" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="13" spans="1:22" s="24" customFormat="1" ht="11.25">
-      <c r="A13" s="23"/>
-      <c r="B13" s="23"/>
-      <c r="C13" s="23"/>
-      <c r="D13" s="23"/>
-      <c r="E13" s="23"/>
+    <row r="13" spans="1:22" s="22" customFormat="1" ht="11.25">
+      <c r="A13" s="21"/>
+      <c r="B13" s="21"/>
+      <c r="C13" s="21"/>
+      <c r="D13" s="21"/>
+      <c r="E13" s="21"/>
     </row>
     <row r="14" spans="1:22" s="9" customFormat="1" ht="11.25"/>
     <row r="15" spans="1:22" s="9" customFormat="1" ht="11.25" customHeight="1">
-      <c r="B15" s="17" t="s">
+      <c r="B15" s="23" t="s">
         <v>67</v>
       </c>
-      <c r="C15" s="17" t="s">
+      <c r="C15" s="23" t="s">
         <v>62</v>
       </c>
-      <c r="D15" s="17" t="s">
+      <c r="D15" s="23" t="s">
         <v>68</v>
       </c>
-      <c r="E15" s="17"/>
+      <c r="E15" s="23"/>
     </row>
     <row r="16" spans="1:22" s="9" customFormat="1" ht="11.25">
-      <c r="B16" s="17"/>
-      <c r="C16" s="17"/>
-      <c r="D16" s="17"/>
-      <c r="E16" s="17"/>
+      <c r="B16" s="23"/>
+      <c r="C16" s="23"/>
+      <c r="D16" s="23"/>
+      <c r="E16" s="23"/>
     </row>
     <row r="17" spans="1:5" s="9" customFormat="1" ht="11.25">
-      <c r="B17" s="17"/>
-      <c r="C17" s="17"/>
-      <c r="D17" s="17"/>
-      <c r="E17" s="17"/>
+      <c r="B17" s="23"/>
+      <c r="C17" s="23"/>
+      <c r="D17" s="23"/>
+      <c r="E17" s="23"/>
     </row>
     <row r="18" spans="1:5" s="9" customFormat="1" ht="11.25">
-      <c r="B18" s="17"/>
-      <c r="C18" s="17"/>
-      <c r="D18" s="17"/>
-      <c r="E18" s="17"/>
+      <c r="B18" s="23"/>
+      <c r="C18" s="23"/>
+      <c r="D18" s="23"/>
+      <c r="E18" s="23"/>
     </row>
     <row r="19" spans="1:5" s="9" customFormat="1" ht="11.25">
-      <c r="B19" s="17"/>
-      <c r="C19" s="17"/>
-      <c r="D19" s="17"/>
-      <c r="E19" s="17"/>
+      <c r="B19" s="23"/>
+      <c r="C19" s="23"/>
+      <c r="D19" s="23"/>
+      <c r="E19" s="23"/>
     </row>
     <row r="20" spans="1:5" s="9" customFormat="1" ht="11.25">
-      <c r="B20" s="17"/>
-      <c r="C20" s="17"/>
-      <c r="D20" s="17"/>
-      <c r="E20" s="17"/>
+      <c r="B20" s="23"/>
+      <c r="C20" s="23"/>
+      <c r="D20" s="23"/>
+      <c r="E20" s="23"/>
     </row>
     <row r="21" spans="1:5" s="9" customFormat="1" ht="11.25">
-      <c r="B21" s="17"/>
-      <c r="C21" s="17"/>
-      <c r="D21" s="17"/>
-      <c r="E21" s="17"/>
+      <c r="B21" s="23"/>
+      <c r="C21" s="23"/>
+      <c r="D21" s="23"/>
+      <c r="E21" s="23"/>
     </row>
     <row r="22" spans="1:5" s="9" customFormat="1" ht="11.25">
-      <c r="B22" s="17"/>
-      <c r="C22" s="17"/>
-      <c r="D22" s="17"/>
-      <c r="E22" s="17"/>
+      <c r="B22" s="23"/>
+      <c r="C22" s="23"/>
+      <c r="D22" s="23"/>
+      <c r="E22" s="23"/>
     </row>
     <row r="23" spans="1:5" s="9" customFormat="1" ht="11.25">
-      <c r="B23" s="17"/>
-      <c r="C23" s="17"/>
-      <c r="D23" s="17"/>
-      <c r="E23" s="17"/>
+      <c r="B23" s="23"/>
+      <c r="C23" s="23"/>
+      <c r="D23" s="23"/>
+      <c r="E23" s="23"/>
     </row>
     <row r="24" spans="1:5" s="9" customFormat="1" ht="11.25">
-      <c r="B24" s="17"/>
-      <c r="C24" s="17"/>
-      <c r="D24" s="17"/>
-      <c r="E24" s="17"/>
+      <c r="B24" s="23"/>
+      <c r="C24" s="23"/>
+      <c r="D24" s="23"/>
+      <c r="E24" s="23"/>
     </row>
     <row r="25" spans="1:5" s="9" customFormat="1" ht="11.25" customHeight="1">
       <c r="B25" s="14"/>
@@ -1899,45 +2430,45 @@
     <row r="26" spans="1:5" s="9" customFormat="1" ht="11.25">
       <c r="B26" s="14"/>
       <c r="C26" s="14"/>
-      <c r="D26" s="17" t="s">
+      <c r="D26" s="23" t="s">
         <v>69</v>
       </c>
-      <c r="E26" s="17" t="s">
+      <c r="E26" s="23" t="s">
         <v>70</v>
       </c>
     </row>
     <row r="27" spans="1:5" s="9" customFormat="1" ht="11.25">
-      <c r="A27" s="18" t="s">
+      <c r="A27" s="24" t="s">
         <v>49</v>
       </c>
-      <c r="B27" s="18"/>
+      <c r="B27" s="24"/>
       <c r="C27" s="14"/>
-      <c r="D27" s="17"/>
-      <c r="E27" s="17"/>
+      <c r="D27" s="23"/>
+      <c r="E27" s="23"/>
     </row>
     <row r="28" spans="1:5" s="9" customFormat="1" ht="11.25">
-      <c r="A28" s="18"/>
-      <c r="B28" s="18"/>
+      <c r="A28" s="24"/>
+      <c r="B28" s="24"/>
       <c r="C28" s="14"/>
-      <c r="D28" s="17"/>
-      <c r="E28" s="17"/>
+      <c r="D28" s="23"/>
+      <c r="E28" s="23"/>
     </row>
     <row r="29" spans="1:5" s="9" customFormat="1" ht="15.75" customHeight="1">
-      <c r="A29" s="22" t="s">
+      <c r="A29" s="20" t="s">
         <v>47</v>
       </c>
-      <c r="B29" s="22" t="s">
+      <c r="B29" s="20" t="s">
         <v>48</v>
       </c>
       <c r="C29" s="14"/>
-      <c r="D29" s="17"/>
-      <c r="E29" s="17"/>
+      <c r="D29" s="23"/>
+      <c r="E29" s="23"/>
     </row>
     <row r="30" spans="1:5" s="9" customFormat="1" ht="11.25">
-      <c r="A30" s="19" t="s">
+      <c r="A30" s="17" t="s">
         <v>38</v>
       </c>
-      <c r="B30" s="20" t="s">
+      <c r="B30" s="18" t="s">
         <v>41</v>
       </c>
       <c r="C30" s="14"/>
@@ -1945,10 +2476,10 @@
       <c r="E30" s="14"/>
     </row>
     <row r="31" spans="1:5" s="7" customFormat="1" ht="12">
-      <c r="A31" s="19" t="s">
+      <c r="A31" s="17" t="s">
         <v>8</v>
       </c>
-      <c r="B31" s="20" t="s">
+      <c r="B31" s="18" t="s">
         <v>42</v>
       </c>
       <c r="C31" s="15"/>
@@ -1956,19 +2487,21 @@
       <c r="E31" s="15"/>
     </row>
     <row r="32" spans="1:5" s="7" customFormat="1" ht="12">
-      <c r="A32" s="19" t="s">
+      <c r="A32" s="17" t="s">
         <v>39</v>
       </c>
-      <c r="B32" s="20"/>
+      <c r="B32" s="18" t="s">
+        <v>202</v>
+      </c>
       <c r="C32" s="15"/>
       <c r="D32" s="15"/>
       <c r="E32" s="15"/>
     </row>
     <row r="33" spans="1:5" s="7" customFormat="1" ht="12">
-      <c r="A33" s="19" t="s">
+      <c r="A33" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="B33" s="21" t="s">
+      <c r="B33" s="19" t="s">
         <v>43</v>
       </c>
       <c r="C33" s="15"/>
@@ -1976,10 +2509,10 @@
       <c r="E33" s="15"/>
     </row>
     <row r="34" spans="1:5" s="7" customFormat="1" ht="12">
-      <c r="A34" s="19" t="s">
+      <c r="A34" s="17" t="s">
         <v>11</v>
       </c>
-      <c r="B34" s="21" t="s">
+      <c r="B34" s="19" t="s">
         <v>44</v>
       </c>
       <c r="C34" s="15"/>
@@ -1987,10 +2520,10 @@
       <c r="E34" s="15"/>
     </row>
     <row r="35" spans="1:5" s="7" customFormat="1" ht="12">
-      <c r="A35" s="19" t="s">
+      <c r="A35" s="17" t="s">
         <v>40</v>
       </c>
-      <c r="B35" s="21" t="s">
+      <c r="B35" s="19" t="s">
         <v>45</v>
       </c>
       <c r="C35" s="15"/>
@@ -1998,16 +2531,18 @@
       <c r="E35" s="15"/>
     </row>
     <row r="36" spans="1:5" s="7" customFormat="1" ht="12">
-      <c r="A36" s="19" t="s">
+      <c r="A36" s="17" t="s">
         <v>12</v>
       </c>
-      <c r="B36" s="21"/>
+      <c r="B36" s="19" t="s">
+        <v>199</v>
+      </c>
     </row>
     <row r="37" spans="1:5" s="7" customFormat="1" ht="12">
-      <c r="A37" s="19" t="s">
+      <c r="A37" s="17" t="s">
         <v>13</v>
       </c>
-      <c r="B37" s="21" t="s">
+      <c r="B37" s="19" t="s">
         <v>46</v>
       </c>
     </row>
@@ -2183,9 +2718,7 @@
   </sheetPr>
   <dimension ref="A2:V82"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F10" sqref="F10"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
@@ -2264,22 +2797,26 @@
       <c r="D6" s="7"/>
       <c r="E6" s="7"/>
     </row>
-    <row r="7" spans="1:22" s="24" customFormat="1" ht="12">
-      <c r="A7" s="23" t="s">
+    <row r="7" spans="1:22" s="22" customFormat="1" ht="12">
+      <c r="A7" s="21" t="s">
         <v>74</v>
       </c>
-      <c r="B7" s="23" t="s">
+      <c r="B7" s="21" t="s">
         <v>75</v>
       </c>
       <c r="C7" s="7"/>
       <c r="D7" s="7"/>
       <c r="E7" s="7"/>
-    </row>
-    <row r="8" spans="1:22" s="24" customFormat="1" ht="12" customHeight="1">
-      <c r="A8" s="23" t="s">
+      <c r="G7" s="29" t="str">
+        <f>CONCATENATE(A7,"=",B7)</f>
+        <v>-2=SemSincronismo</v>
+      </c>
+    </row>
+    <row r="8" spans="1:22" s="22" customFormat="1" ht="12" customHeight="1">
+      <c r="A8" s="21" t="s">
         <v>76</v>
       </c>
-      <c r="B8" s="23" t="s">
+      <c r="B8" s="21" t="s">
         <v>77</v>
       </c>
       <c r="C8" s="7"/>
@@ -2287,331 +2824,485 @@
         <v>147</v>
       </c>
       <c r="E8" s="7"/>
-    </row>
-    <row r="9" spans="1:22" s="24" customFormat="1" ht="12">
-      <c r="A9" s="23" t="s">
+      <c r="G8" s="29" t="str">
+        <f t="shared" ref="G8:G46" si="0">CONCATENATE(A8,"=",B8)</f>
+        <v>-1=Desc.</v>
+      </c>
+    </row>
+    <row r="9" spans="1:22" s="22" customFormat="1" ht="12">
+      <c r="A9" s="21" t="s">
         <v>78</v>
       </c>
-      <c r="B9" s="23" t="s">
+      <c r="B9" s="21" t="s">
         <v>79</v>
       </c>
       <c r="C9" s="7"/>
       <c r="D9" s="25"/>
       <c r="E9" s="7"/>
-    </row>
-    <row r="10" spans="1:22" s="24" customFormat="1" ht="12">
-      <c r="A10" s="23" t="s">
+      <c r="G9" s="29" t="str">
+        <f t="shared" si="0"/>
+        <v>00=Pedido em branco</v>
+      </c>
+    </row>
+    <row r="10" spans="1:22" s="22" customFormat="1" ht="12">
+      <c r="A10" s="21" t="s">
         <v>56</v>
       </c>
-      <c r="B10" s="23" t="s">
+      <c r="B10" s="21" t="s">
         <v>80</v>
       </c>
       <c r="C10" s="7"/>
       <c r="D10" s="25"/>
       <c r="E10" s="7"/>
-    </row>
-    <row r="11" spans="1:22" s="24" customFormat="1" ht="12">
-      <c r="A11" s="23" t="s">
+      <c r="G10" s="29" t="str">
+        <f t="shared" si="0"/>
+        <v>02=Criado extern.</v>
+      </c>
+    </row>
+    <row r="11" spans="1:22" s="22" customFormat="1" ht="12">
+      <c r="A11" s="21" t="s">
         <v>81</v>
       </c>
-      <c r="B11" s="23" t="s">
+      <c r="B11" s="21" t="s">
         <v>82</v>
       </c>
       <c r="C11" s="7"/>
       <c r="D11" s="25"/>
       <c r="E11" s="7"/>
-    </row>
-    <row r="12" spans="1:22" s="24" customFormat="1" ht="12">
-      <c r="A12" s="23" t="s">
+      <c r="G11" s="29" t="str">
+        <f t="shared" si="0"/>
+        <v>04=Criado intern.</v>
+      </c>
+    </row>
+    <row r="12" spans="1:22" s="22" customFormat="1" ht="12">
+      <c r="A12" s="21" t="s">
         <v>83</v>
       </c>
-      <c r="B12" s="23" t="s">
+      <c r="B12" s="21" t="s">
         <v>84</v>
       </c>
       <c r="C12" s="7"/>
       <c r="D12" s="25"/>
       <c r="E12" s="7"/>
-    </row>
-    <row r="13" spans="1:22" s="24" customFormat="1" ht="12">
-      <c r="A13" s="23" t="s">
+      <c r="G12" s="29" t="str">
+        <f t="shared" si="0"/>
+        <v>06=Não alocou</v>
+      </c>
+    </row>
+    <row r="13" spans="1:22" s="22" customFormat="1" ht="12">
+      <c r="A13" s="21" t="s">
         <v>85</v>
       </c>
-      <c r="B13" s="23" t="s">
+      <c r="B13" s="21" t="s">
         <v>86</v>
       </c>
       <c r="C13" s="7"/>
       <c r="D13" s="25"/>
       <c r="E13" s="7"/>
+      <c r="G13" s="29" t="str">
+        <f t="shared" si="0"/>
+        <v>08=Convertido</v>
+      </c>
     </row>
     <row r="14" spans="1:22" s="7" customFormat="1" ht="12">
-      <c r="A14" s="23" t="s">
+      <c r="A14" s="21" t="s">
         <v>58</v>
       </c>
-      <c r="B14" s="23" t="s">
+      <c r="B14" s="21" t="s">
         <v>87</v>
       </c>
       <c r="D14" s="25"/>
+      <c r="G14" s="29" t="str">
+        <f t="shared" si="0"/>
+        <v>09=Não inic.</v>
+      </c>
     </row>
     <row r="15" spans="1:22" s="7" customFormat="1" ht="12">
-      <c r="A15" s="23" t="s">
+      <c r="A15" s="21" t="s">
         <v>119</v>
       </c>
-      <c r="B15" s="23" t="s">
+      <c r="B15" s="21" t="s">
         <v>88</v>
       </c>
       <c r="D15" s="25"/>
+      <c r="G15" s="29" t="str">
+        <f t="shared" si="0"/>
+        <v>11=Volume pré-alocado</v>
+      </c>
     </row>
     <row r="16" spans="1:22" s="7" customFormat="1" ht="12">
-      <c r="A16" s="23" t="s">
+      <c r="A16" s="21" t="s">
         <v>57</v>
       </c>
-      <c r="B16" s="23" t="s">
+      <c r="B16" s="21" t="s">
         <v>89</v>
       </c>
       <c r="D16" s="25"/>
-    </row>
-    <row r="17" spans="1:4" s="7" customFormat="1" ht="12">
-      <c r="A17" s="23" t="s">
+      <c r="G16" s="29" t="str">
+        <f t="shared" si="0"/>
+        <v>12=Pré-alocado</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" s="7" customFormat="1" ht="12">
+      <c r="A17" s="21" t="s">
         <v>120</v>
       </c>
-      <c r="B17" s="23" t="s">
+      <c r="B17" s="21" t="s">
         <v>90</v>
       </c>
       <c r="D17" s="25"/>
-    </row>
-    <row r="18" spans="1:4" s="7" customFormat="1" ht="12">
-      <c r="A18" s="23" t="s">
+      <c r="G17" s="29" t="str">
+        <f t="shared" si="0"/>
+        <v>13=Liberado p/planej. depósito</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" s="7" customFormat="1" ht="12">
+      <c r="A18" s="21" t="s">
         <v>121</v>
       </c>
-      <c r="B18" s="23" t="s">
+      <c r="B18" s="21" t="s">
         <v>91</v>
       </c>
       <c r="D18" s="25"/>
-    </row>
-    <row r="19" spans="1:4" s="7" customFormat="1" ht="12">
-      <c r="A19" s="23" t="s">
+      <c r="G18" s="29" t="str">
+        <f t="shared" si="0"/>
+        <v>14=Volume alocado</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" s="7" customFormat="1" ht="12">
+      <c r="A19" s="21" t="s">
         <v>122</v>
       </c>
-      <c r="B19" s="23" t="s">
+      <c r="B19" s="21" t="s">
         <v>92</v>
       </c>
       <c r="D19" s="25"/>
-    </row>
-    <row r="20" spans="1:4" s="7" customFormat="1" ht="12">
-      <c r="A20" s="23" t="s">
+      <c r="G19" s="29" t="str">
+        <f t="shared" si="0"/>
+        <v>15=Volume aloc./volume sep.</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" s="7" customFormat="1" ht="12">
+      <c r="A20" s="21" t="s">
         <v>123</v>
       </c>
-      <c r="B20" s="23" t="s">
+      <c r="B20" s="21" t="s">
         <v>93</v>
       </c>
       <c r="D20" s="25"/>
-    </row>
-    <row r="21" spans="1:4" s="7" customFormat="1" ht="12">
-      <c r="A21" s="23" t="s">
+      <c r="G20" s="29" t="str">
+        <f t="shared" si="0"/>
+        <v>16=Volume alocado/volume exp.</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" s="7" customFormat="1" ht="12">
+      <c r="A21" s="21" t="s">
         <v>59</v>
       </c>
-      <c r="B21" s="23" t="s">
+      <c r="B21" s="21" t="s">
         <v>94</v>
       </c>
       <c r="D21" s="25"/>
-    </row>
-    <row r="22" spans="1:4" s="7" customFormat="1" ht="12">
-      <c r="A22" s="23" t="s">
+      <c r="G21" s="29" t="str">
+        <f t="shared" si="0"/>
+        <v>17=Alocado(a)</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" s="7" customFormat="1" ht="12">
+      <c r="A22" s="21" t="s">
         <v>124</v>
       </c>
-      <c r="B22" s="23" t="s">
+      <c r="B22" s="21" t="s">
         <v>95</v>
       </c>
       <c r="D22" s="25"/>
-    </row>
-    <row r="23" spans="1:4" s="7" customFormat="1" ht="12">
-      <c r="A23" s="23" t="s">
+      <c r="G22" s="29" t="str">
+        <f t="shared" si="0"/>
+        <v>18=Substituído</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" s="7" customFormat="1" ht="12">
+      <c r="A23" s="21" t="s">
         <v>125</v>
       </c>
-      <c r="B23" s="23" t="s">
+      <c r="B23" s="21" t="s">
         <v>96</v>
       </c>
       <c r="D23" s="25"/>
-    </row>
-    <row r="24" spans="1:4" s="7" customFormat="1" ht="12">
-      <c r="A24" s="23" t="s">
+      <c r="G23" s="29" t="str">
+        <f t="shared" si="0"/>
+        <v>22=Volume liberado</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" s="7" customFormat="1" ht="12">
+      <c r="A24" s="21" t="s">
         <v>126</v>
       </c>
-      <c r="B24" s="23" t="s">
+      <c r="B24" s="21" t="s">
         <v>97</v>
       </c>
-    </row>
-    <row r="25" spans="1:4" s="7" customFormat="1" ht="12">
-      <c r="A25" s="23" t="s">
+      <c r="G24" s="29" t="str">
+        <f t="shared" si="0"/>
+        <v>25=Volume liberado/volume sep.</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" s="7" customFormat="1" ht="12">
+      <c r="A25" s="21" t="s">
         <v>127</v>
       </c>
-      <c r="B25" s="23" t="s">
+      <c r="B25" s="21" t="s">
         <v>98</v>
       </c>
-    </row>
-    <row r="26" spans="1:4" s="7" customFormat="1" ht="12">
-      <c r="A26" s="23" t="s">
+      <c r="G25" s="29" t="str">
+        <f t="shared" si="0"/>
+        <v>27=Volume liberado/volume exp.</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" s="7" customFormat="1" ht="12">
+      <c r="A26" s="21" t="s">
         <v>60</v>
       </c>
-      <c r="B26" s="23" t="s">
+      <c r="B26" s="21" t="s">
         <v>99</v>
       </c>
-    </row>
-    <row r="27" spans="1:4" s="7" customFormat="1" ht="12">
-      <c r="A27" s="23" t="s">
+      <c r="G26" s="29" t="str">
+        <f t="shared" si="0"/>
+        <v>29=Liberado</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" s="7" customFormat="1" ht="12">
+      <c r="A27" s="21" t="s">
         <v>128</v>
       </c>
-      <c r="B27" s="23" t="s">
+      <c r="B27" s="21" t="s">
         <v>100</v>
       </c>
-    </row>
-    <row r="28" spans="1:4" s="7" customFormat="1" ht="12">
-      <c r="A28" s="23" t="s">
+      <c r="G27" s="29" t="str">
+        <f t="shared" si="0"/>
+        <v>51=Em coleta</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" s="7" customFormat="1" ht="12">
+      <c r="A28" s="21" t="s">
         <v>129</v>
       </c>
-      <c r="B28" s="23" t="s">
+      <c r="B28" s="21" t="s">
         <v>101</v>
       </c>
-    </row>
-    <row r="29" spans="1:4" s="7" customFormat="1" ht="12">
-      <c r="A29" s="23" t="s">
+      <c r="G28" s="29" t="str">
+        <f t="shared" si="0"/>
+        <v>52=Vol. sep.</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7" s="7" customFormat="1" ht="12">
+      <c r="A29" s="21" t="s">
         <v>130</v>
       </c>
-      <c r="B29" s="23" t="s">
+      <c r="B29" s="21" t="s">
         <v>102</v>
       </c>
-    </row>
-    <row r="30" spans="1:4" s="7" customFormat="1" ht="12">
-      <c r="A30" s="23" t="s">
+      <c r="G29" s="29" t="str">
+        <f t="shared" si="0"/>
+        <v>53=Vol. separado/volume exp.</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7" s="7" customFormat="1" ht="12">
+      <c r="A30" s="21" t="s">
         <v>131</v>
       </c>
-      <c r="B30" s="23" t="s">
+      <c r="B30" s="21" t="s">
         <v>103</v>
       </c>
-    </row>
-    <row r="31" spans="1:4" s="7" customFormat="1" ht="12">
-      <c r="A31" s="23" t="s">
+      <c r="G30" s="29" t="str">
+        <f t="shared" si="0"/>
+        <v>55=Coleta concluída</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7" s="7" customFormat="1" ht="12">
+      <c r="A31" s="21" t="s">
         <v>132</v>
       </c>
-      <c r="B31" s="23" t="s">
+      <c r="B31" s="21" t="s">
         <v>104</v>
       </c>
-    </row>
-    <row r="32" spans="1:4" s="7" customFormat="1" ht="12">
-      <c r="A32" s="23" t="s">
+      <c r="G31" s="29" t="str">
+        <f t="shared" si="0"/>
+        <v>57=Separado/volume exp.</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7" s="7" customFormat="1" ht="12">
+      <c r="A32" s="21" t="s">
         <v>133</v>
       </c>
-      <c r="B32" s="23" t="s">
+      <c r="B32" s="21" t="s">
         <v>105</v>
       </c>
-    </row>
-    <row r="33" spans="1:2" s="7" customFormat="1" ht="12">
-      <c r="A33" s="23" t="s">
+      <c r="G32" s="29" t="str">
+        <f t="shared" si="0"/>
+        <v>61=Em emb.</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7" s="7" customFormat="1" ht="12">
+      <c r="A33" s="21" t="s">
         <v>134</v>
       </c>
-      <c r="B33" s="23" t="s">
+      <c r="B33" s="21" t="s">
         <v>106</v>
       </c>
-    </row>
-    <row r="34" spans="1:2" s="7" customFormat="1" ht="12">
-      <c r="A34" s="23" t="s">
+      <c r="G33" s="29" t="str">
+        <f t="shared" si="0"/>
+        <v>68=Emb. concluída</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7" s="7" customFormat="1" ht="12">
+      <c r="A34" s="21" t="s">
         <v>135</v>
       </c>
-      <c r="B34" s="23" t="s">
+      <c r="B34" s="21" t="s">
         <v>107</v>
       </c>
-    </row>
-    <row r="35" spans="1:2" s="7" customFormat="1" ht="12">
-      <c r="A35" s="23" t="s">
+      <c r="G34" s="29" t="str">
+        <f t="shared" si="0"/>
+        <v>75=Área intermediária</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7" s="7" customFormat="1" ht="12">
+      <c r="A35" s="21" t="s">
         <v>136</v>
       </c>
-      <c r="B35" s="23" t="s">
+      <c r="B35" s="21" t="s">
         <v>108</v>
       </c>
-    </row>
-    <row r="36" spans="1:2" s="7" customFormat="1" ht="12">
-      <c r="A36" s="23" t="s">
+      <c r="G35" s="29" t="str">
+        <f t="shared" si="0"/>
+        <v>78=Manifestado</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7" s="7" customFormat="1" ht="12">
+      <c r="A36" s="21" t="s">
         <v>137</v>
       </c>
-      <c r="B36" s="23" t="s">
+      <c r="B36" s="21" t="s">
         <v>109</v>
       </c>
-    </row>
-    <row r="37" spans="1:2" s="7" customFormat="1" ht="12">
-      <c r="A37" s="23" t="s">
+      <c r="G36" s="29" t="str">
+        <f t="shared" si="0"/>
+        <v>82=Em carreg.</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7" s="7" customFormat="1" ht="12">
+      <c r="A37" s="21" t="s">
         <v>138</v>
       </c>
-      <c r="B37" s="23" t="s">
+      <c r="B37" s="21" t="s">
         <v>110</v>
       </c>
-    </row>
-    <row r="38" spans="1:2" s="7" customFormat="1" ht="12">
-      <c r="A38" s="23" t="s">
+      <c r="G37" s="29" t="str">
+        <f t="shared" si="0"/>
+        <v>88=Carregado</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7" s="7" customFormat="1" ht="12">
+      <c r="A38" s="21" t="s">
         <v>139</v>
       </c>
-      <c r="B38" s="23" t="s">
+      <c r="B38" s="21" t="s">
         <v>111</v>
       </c>
-    </row>
-    <row r="39" spans="1:2" s="7" customFormat="1" ht="12">
-      <c r="A39" s="23" t="s">
+      <c r="G38" s="29" t="str">
+        <f t="shared" si="0"/>
+        <v>92=Volume expedido</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7" s="7" customFormat="1" ht="12">
+      <c r="A39" s="21" t="s">
         <v>140</v>
       </c>
-      <c r="B39" s="23" t="s">
+      <c r="B39" s="21" t="s">
         <v>112</v>
       </c>
-    </row>
-    <row r="40" spans="1:2" s="7" customFormat="1" ht="12">
-      <c r="A40" s="23" t="s">
+      <c r="G39" s="29" t="str">
+        <f t="shared" si="0"/>
+        <v>94=Fechar produção</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7" s="7" customFormat="1" ht="12">
+      <c r="A40" s="21" t="s">
         <v>61</v>
       </c>
-      <c r="B40" s="23" t="s">
+      <c r="B40" s="21" t="s">
         <v>113</v>
       </c>
-    </row>
-    <row r="41" spans="1:2" s="7" customFormat="1" ht="12">
-      <c r="A41" s="23" t="s">
+      <c r="G40" s="29" t="str">
+        <f t="shared" si="0"/>
+        <v>95=Expedição concluída</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7" s="7" customFormat="1" ht="12">
+      <c r="A41" s="21" t="s">
         <v>141</v>
       </c>
-      <c r="B41" s="23" t="s">
+      <c r="B41" s="21" t="s">
         <v>114</v>
       </c>
-    </row>
-    <row r="42" spans="1:2" s="7" customFormat="1" ht="12">
-      <c r="A42" s="23" t="s">
+      <c r="G41" s="29" t="str">
+        <f t="shared" si="0"/>
+        <v>96=Entrega aceita</v>
+      </c>
+    </row>
+    <row r="42" spans="1:7" s="7" customFormat="1" ht="12">
+      <c r="A42" s="21" t="s">
         <v>142</v>
       </c>
-      <c r="B42" s="23" t="s">
+      <c r="B42" s="21" t="s">
         <v>115</v>
       </c>
-    </row>
-    <row r="43" spans="1:2" s="7" customFormat="1" ht="12">
-      <c r="A43" s="23" t="s">
+      <c r="G42" s="29" t="str">
+        <f t="shared" si="0"/>
+        <v>97=Entrega recusada</v>
+      </c>
+    </row>
+    <row r="43" spans="1:7" s="7" customFormat="1" ht="12">
+      <c r="A43" s="21" t="s">
         <v>143</v>
       </c>
-      <c r="B43" s="23" t="s">
+      <c r="B43" s="21" t="s">
         <v>116</v>
       </c>
-    </row>
-    <row r="44" spans="1:2" s="7" customFormat="1" ht="12">
-      <c r="A44" s="23" t="s">
+      <c r="G43" s="29" t="str">
+        <f t="shared" si="0"/>
+        <v>98=Cancelado extern.</v>
+      </c>
+    </row>
+    <row r="44" spans="1:7" s="7" customFormat="1" ht="12">
+      <c r="A44" s="21" t="s">
         <v>144</v>
       </c>
-      <c r="B44" s="23" t="s">
+      <c r="B44" s="21" t="s">
         <v>117</v>
       </c>
-    </row>
-    <row r="45" spans="1:2" s="7" customFormat="1" ht="12">
-      <c r="A45" s="23" t="s">
+      <c r="G44" s="29" t="str">
+        <f t="shared" si="0"/>
+        <v>99=Cancelado intern.</v>
+      </c>
+    </row>
+    <row r="45" spans="1:7" s="7" customFormat="1" ht="12">
+      <c r="A45" s="21" t="s">
         <v>145</v>
       </c>
-      <c r="B45" s="23" t="s">
+      <c r="B45" s="21" t="s">
         <v>118</v>
       </c>
-    </row>
-    <row r="46" spans="1:2" s="7" customFormat="1" ht="12"/>
-    <row r="47" spans="1:2" s="7" customFormat="1" ht="12"/>
-    <row r="48" spans="1:2" s="7" customFormat="1" ht="12"/>
+      <c r="G45" s="29" t="str">
+        <f t="shared" si="0"/>
+        <v>100=Logistic Loss</v>
+      </c>
+    </row>
+    <row r="46" spans="1:7" s="7" customFormat="1" ht="12">
+      <c r="G46" s="29"/>
+    </row>
+    <row r="47" spans="1:7" s="7" customFormat="1" ht="12"/>
+    <row r="48" spans="1:7" s="7" customFormat="1" ht="12"/>
     <row r="49" spans="3:5" s="7" customFormat="1" ht="12"/>
     <row r="50" spans="3:5" s="7" customFormat="1" ht="12"/>
     <row r="51" spans="3:5" s="7" customFormat="1" ht="12"/>
@@ -2748,17 +3439,16 @@
   <sheetPr>
     <tabColor rgb="FF00B050"/>
   </sheetPr>
-  <dimension ref="A2:V191"/>
+  <dimension ref="A2:V195"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B14" sqref="B14"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="17.5703125" customWidth="1"/>
     <col min="2" max="5" width="23.7109375" customWidth="1"/>
     <col min="6" max="6" width="19.7109375" customWidth="1"/>
+    <col min="7" max="7" width="20.85546875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="1:22" s="3" customFormat="1" ht="21">
@@ -2833,387 +3523,525 @@
         <v>53</v>
       </c>
       <c r="E6" s="10" t="s">
+        <v>190</v>
+      </c>
+      <c r="F6" s="10" t="s">
         <v>54</v>
       </c>
-      <c r="F6" s="10" t="s">
+      <c r="G6" s="10" t="s">
         <v>148</v>
       </c>
     </row>
-    <row r="7" spans="1:22" s="24" customFormat="1" ht="11.25">
-      <c r="A7" s="23" t="s">
+    <row r="7" spans="1:22" s="22" customFormat="1" ht="11.25">
+      <c r="A7" s="21" t="s">
         <v>38</v>
       </c>
-      <c r="B7" s="23" t="s">
+      <c r="B7" s="16" t="s">
         <v>16</v>
       </c>
-      <c r="C7" s="23" t="s">
+      <c r="C7" s="16" t="s">
         <v>55</v>
       </c>
-      <c r="D7" s="23" t="s">
+      <c r="D7" s="16" t="s">
         <v>152</v>
       </c>
-      <c r="E7" s="23" t="s">
+      <c r="E7" s="16" t="s">
+        <v>9</v>
+      </c>
+      <c r="F7" s="27" t="s">
         <v>153</v>
       </c>
-      <c r="F7" s="23" t="s">
+      <c r="G7" s="21" t="s">
         <v>151</v>
       </c>
     </row>
-    <row r="8" spans="1:22" s="24" customFormat="1" ht="11.25">
-      <c r="A8" s="23" t="s">
+    <row r="8" spans="1:22" s="22" customFormat="1" ht="11.25">
+      <c r="A8" s="21" t="s">
         <v>38</v>
       </c>
-      <c r="B8" s="23" t="s">
+      <c r="B8" s="16" t="s">
         <v>16</v>
       </c>
-      <c r="C8" s="23" t="s">
+      <c r="C8" s="16" t="s">
         <v>157</v>
       </c>
-      <c r="D8" s="23" t="s">
+      <c r="D8" s="16" t="s">
         <v>156</v>
       </c>
-      <c r="E8" s="23" t="s">
+      <c r="E8" s="16" t="s">
+        <v>9</v>
+      </c>
+      <c r="F8" s="27" t="s">
         <v>153</v>
       </c>
-      <c r="F8" s="23" t="s">
+      <c r="G8" s="21" t="s">
         <v>151</v>
       </c>
     </row>
-    <row r="9" spans="1:22" s="24" customFormat="1" ht="11.25">
-      <c r="A9" s="23" t="s">
+    <row r="9" spans="1:22" s="22" customFormat="1" ht="11.25">
+      <c r="A9" s="21" t="s">
+        <v>8</v>
+      </c>
+      <c r="B9" s="16" t="s">
+        <v>16</v>
+      </c>
+      <c r="C9" s="16" t="s">
+        <v>55</v>
+      </c>
+      <c r="D9" s="16" t="s">
+        <v>191</v>
+      </c>
+      <c r="E9" s="21" t="s">
+        <v>9</v>
+      </c>
+      <c r="F9" s="26" t="s">
+        <v>153</v>
+      </c>
+      <c r="G9" s="21" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="10" spans="1:22" s="22" customFormat="1" ht="11.25">
+      <c r="A10" s="21" t="s">
+        <v>8</v>
+      </c>
+      <c r="B10" s="16" t="s">
+        <v>16</v>
+      </c>
+      <c r="C10" s="16" t="s">
+        <v>157</v>
+      </c>
+      <c r="D10" s="16" t="s">
+        <v>184</v>
+      </c>
+      <c r="E10" s="21" t="s">
+        <v>9</v>
+      </c>
+      <c r="F10" s="26" t="s">
+        <v>153</v>
+      </c>
+      <c r="G10" s="21" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="11" spans="1:22" s="22" customFormat="1" ht="11.25">
+      <c r="A11" s="21" t="s">
+        <v>11</v>
+      </c>
+      <c r="B11" s="16" t="s">
+        <v>16</v>
+      </c>
+      <c r="C11" s="16" t="s">
+        <v>55</v>
+      </c>
+      <c r="D11" s="16" t="s">
+        <v>192</v>
+      </c>
+      <c r="E11" s="21" t="s">
+        <v>9</v>
+      </c>
+      <c r="F11" s="26" t="s">
+        <v>153</v>
+      </c>
+      <c r="G11" s="21" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="12" spans="1:22" s="22" customFormat="1" ht="11.25">
+      <c r="A12" s="21" t="s">
+        <v>40</v>
+      </c>
+      <c r="B12" s="28" t="s">
+        <v>16</v>
+      </c>
+      <c r="C12" s="28" t="s">
+        <v>55</v>
+      </c>
+      <c r="D12" s="28" t="s">
+        <v>158</v>
+      </c>
+      <c r="E12" s="21" t="s">
+        <v>9</v>
+      </c>
+      <c r="F12" s="26" t="s">
+        <v>153</v>
+      </c>
+      <c r="G12" s="21" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="13" spans="1:22" s="22" customFormat="1" ht="11.25">
+      <c r="A13" s="21" t="s">
+        <v>12</v>
+      </c>
+      <c r="B13" s="16" t="s">
+        <v>16</v>
+      </c>
+      <c r="C13" s="16" t="s">
+        <v>55</v>
+      </c>
+      <c r="D13" s="16" t="s">
+        <v>159</v>
+      </c>
+      <c r="E13" s="21" t="s">
+        <v>9</v>
+      </c>
+      <c r="F13" s="26" t="s">
+        <v>153</v>
+      </c>
+      <c r="G13" s="21" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="14" spans="1:22" s="22" customFormat="1" ht="11.25">
+      <c r="A14" s="21" t="s">
+        <v>12</v>
+      </c>
+      <c r="B14" s="16" t="s">
+        <v>16</v>
+      </c>
+      <c r="C14" s="16" t="s">
+        <v>161</v>
+      </c>
+      <c r="D14" s="16" t="s">
+        <v>160</v>
+      </c>
+      <c r="E14" s="16" t="s">
+        <v>193</v>
+      </c>
+      <c r="F14" s="27" t="s">
+        <v>153</v>
+      </c>
+      <c r="G14" s="21" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="15" spans="1:22" s="22" customFormat="1" ht="11.25">
+      <c r="A15" s="21" t="s">
+        <v>12</v>
+      </c>
+      <c r="B15" s="16" t="s">
+        <v>16</v>
+      </c>
+      <c r="C15" s="16" t="s">
+        <v>157</v>
+      </c>
+      <c r="D15" s="16" t="s">
+        <v>162</v>
+      </c>
+      <c r="E15" s="21" t="s">
+        <v>9</v>
+      </c>
+      <c r="F15" s="26" t="s">
+        <v>153</v>
+      </c>
+      <c r="G15" s="21" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="16" spans="1:22" s="22" customFormat="1" ht="11.25">
+      <c r="A16" s="21" t="s">
         <v>10</v>
       </c>
-      <c r="B9" s="23" t="s">
+      <c r="B16" s="16" t="s">
+        <v>163</v>
+      </c>
+      <c r="C16" s="16" t="s">
+        <v>55</v>
+      </c>
+      <c r="D16" s="16" t="s">
         <v>164</v>
       </c>
-      <c r="C9" s="23" t="s">
+      <c r="E16" s="21" t="s">
+        <v>9</v>
+      </c>
+      <c r="F16" s="26" t="s">
+        <v>153</v>
+      </c>
+      <c r="G16" s="21" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" s="22" customFormat="1" ht="11.25">
+      <c r="A17" s="21" t="s">
+        <v>10</v>
+      </c>
+      <c r="B17" s="16" t="s">
+        <v>163</v>
+      </c>
+      <c r="C17" s="16" t="s">
+        <v>161</v>
+      </c>
+      <c r="D17" s="16" t="s">
+        <v>165</v>
+      </c>
+      <c r="E17" s="21" t="s">
+        <v>194</v>
+      </c>
+      <c r="F17" s="26" t="s">
+        <v>153</v>
+      </c>
+      <c r="G17" s="21" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" s="22" customFormat="1" ht="11.25">
+      <c r="A18" s="21" t="s">
+        <v>10</v>
+      </c>
+      <c r="B18" s="16" t="s">
+        <v>163</v>
+      </c>
+      <c r="C18" s="16" t="s">
+        <v>157</v>
+      </c>
+      <c r="D18" s="16" t="s">
+        <v>166</v>
+      </c>
+      <c r="E18" s="21" t="s">
+        <v>9</v>
+      </c>
+      <c r="F18" s="26" t="s">
+        <v>153</v>
+      </c>
+      <c r="G18" s="21" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" s="22" customFormat="1" ht="11.25">
+      <c r="A19" s="21" t="s">
+        <v>39</v>
+      </c>
+      <c r="B19" s="16" t="s">
+        <v>200</v>
+      </c>
+      <c r="C19" s="16" t="s">
         <v>55</v>
       </c>
-      <c r="D9" s="23" t="s">
-        <v>165</v>
-      </c>
-      <c r="E9" s="23" t="s">
+      <c r="D19" s="16" t="s">
+        <v>201</v>
+      </c>
+      <c r="F19" s="26" t="s">
         <v>153</v>
       </c>
-      <c r="F9" s="23" t="s">
+      <c r="G19" s="21" t="s">
         <v>151</v>
       </c>
     </row>
-    <row r="10" spans="1:22" s="24" customFormat="1" ht="11.25">
-      <c r="A10" s="23" t="s">
+    <row r="20" spans="1:7" s="22" customFormat="1" ht="11.25">
+      <c r="A20" s="21"/>
+      <c r="B20" s="21"/>
+      <c r="C20" s="21"/>
+      <c r="D20" s="21"/>
+      <c r="E20" s="21"/>
+      <c r="G20" s="21"/>
+    </row>
+    <row r="21" spans="1:7" s="9" customFormat="1" ht="11.25"/>
+    <row r="22" spans="1:7" s="9" customFormat="1" ht="11.25" customHeight="1">
+      <c r="B22" s="23" t="s">
+        <v>67</v>
+      </c>
+      <c r="C22" s="23" t="s">
+        <v>196</v>
+      </c>
+      <c r="D22" s="23" t="s">
+        <v>195</v>
+      </c>
+      <c r="E22" s="23" t="s">
+        <v>198</v>
+      </c>
+      <c r="F22" s="23" t="s">
+        <v>155</v>
+      </c>
+      <c r="G22" s="23"/>
+    </row>
+    <row r="23" spans="1:7" s="9" customFormat="1" ht="11.25">
+      <c r="B23" s="23"/>
+      <c r="C23" s="23"/>
+      <c r="D23" s="23"/>
+      <c r="E23" s="23"/>
+      <c r="F23" s="23"/>
+      <c r="G23" s="23"/>
+    </row>
+    <row r="24" spans="1:7" s="9" customFormat="1" ht="11.25">
+      <c r="B24" s="23"/>
+      <c r="C24" s="23"/>
+      <c r="D24" s="23"/>
+      <c r="E24" s="23"/>
+      <c r="F24" s="23"/>
+      <c r="G24" s="23"/>
+    </row>
+    <row r="25" spans="1:7" s="9" customFormat="1" ht="11.25">
+      <c r="B25" s="23"/>
+      <c r="C25" s="23"/>
+      <c r="D25" s="23"/>
+      <c r="E25" s="23"/>
+      <c r="F25" s="23"/>
+      <c r="G25" s="23"/>
+    </row>
+    <row r="26" spans="1:7" s="9" customFormat="1" ht="11.25">
+      <c r="B26" s="23"/>
+      <c r="C26" s="23"/>
+      <c r="D26" s="23"/>
+      <c r="E26" s="23"/>
+      <c r="F26" s="23"/>
+      <c r="G26" s="23"/>
+    </row>
+    <row r="27" spans="1:7" s="9" customFormat="1" ht="11.25">
+      <c r="B27" s="23"/>
+      <c r="C27" s="23"/>
+      <c r="D27" s="23"/>
+      <c r="E27" s="23"/>
+      <c r="F27" s="23"/>
+      <c r="G27" s="23"/>
+    </row>
+    <row r="28" spans="1:7" s="9" customFormat="1" ht="11.25">
+      <c r="B28" s="23"/>
+      <c r="C28" s="23"/>
+      <c r="D28" s="23"/>
+      <c r="E28" s="23"/>
+      <c r="F28" s="23"/>
+      <c r="G28" s="23"/>
+    </row>
+    <row r="29" spans="1:7" s="9" customFormat="1" ht="11.25">
+      <c r="B29" s="23"/>
+      <c r="C29" s="23"/>
+      <c r="D29" s="23"/>
+      <c r="E29" s="23"/>
+      <c r="F29" s="23"/>
+      <c r="G29" s="23"/>
+    </row>
+    <row r="30" spans="1:7" s="9" customFormat="1" ht="11.25">
+      <c r="B30" s="23"/>
+      <c r="C30" s="23"/>
+      <c r="D30" s="23"/>
+      <c r="E30" s="23"/>
+      <c r="F30" s="23"/>
+      <c r="G30" s="23"/>
+    </row>
+    <row r="31" spans="1:7" s="9" customFormat="1" ht="11.25">
+      <c r="B31" s="23"/>
+      <c r="C31" s="23"/>
+      <c r="D31" s="23"/>
+      <c r="E31" s="23"/>
+      <c r="F31" s="23"/>
+      <c r="G31" s="23"/>
+    </row>
+    <row r="32" spans="1:7" s="9" customFormat="1" ht="11.25" customHeight="1">
+      <c r="B32" s="14"/>
+      <c r="C32" s="14"/>
+      <c r="D32" s="14"/>
+      <c r="E32" s="14"/>
+    </row>
+    <row r="33" spans="1:5" s="9" customFormat="1" ht="11.25">
+      <c r="B33" s="14"/>
+      <c r="C33" s="14"/>
+      <c r="D33" s="23" t="s">
+        <v>197</v>
+      </c>
+      <c r="E33" s="14"/>
+    </row>
+    <row r="34" spans="1:5" s="9" customFormat="1" ht="12">
+      <c r="A34" s="24" t="s">
+        <v>49</v>
+      </c>
+      <c r="B34" s="24"/>
+      <c r="C34" s="15"/>
+      <c r="D34" s="23"/>
+      <c r="E34" s="15"/>
+    </row>
+    <row r="35" spans="1:5" s="9" customFormat="1" ht="12">
+      <c r="A35" s="24"/>
+      <c r="B35" s="24"/>
+      <c r="C35" s="15"/>
+      <c r="D35" s="23"/>
+      <c r="E35" s="15"/>
+    </row>
+    <row r="36" spans="1:5" s="9" customFormat="1" ht="15.75" customHeight="1">
+      <c r="A36" s="20" t="s">
+        <v>47</v>
+      </c>
+      <c r="B36" s="20" t="s">
+        <v>48</v>
+      </c>
+      <c r="C36" s="15"/>
+      <c r="D36" s="23"/>
+      <c r="E36" s="15"/>
+    </row>
+    <row r="37" spans="1:5" s="9" customFormat="1" ht="12">
+      <c r="A37" s="17" t="s">
+        <v>38</v>
+      </c>
+      <c r="B37" s="18" t="s">
+        <v>41</v>
+      </c>
+      <c r="C37" s="15"/>
+      <c r="D37" s="23"/>
+      <c r="E37" s="15"/>
+    </row>
+    <row r="38" spans="1:5" s="7" customFormat="1" ht="12">
+      <c r="A38" s="17" t="s">
+        <v>8</v>
+      </c>
+      <c r="B38" s="18" t="s">
+        <v>42</v>
+      </c>
+      <c r="C38" s="15"/>
+      <c r="D38" s="23"/>
+      <c r="E38" s="15"/>
+    </row>
+    <row r="39" spans="1:5" s="7" customFormat="1" ht="12">
+      <c r="A39" s="17" t="s">
+        <v>39</v>
+      </c>
+      <c r="B39" s="18" t="s">
+        <v>202</v>
+      </c>
+      <c r="D39" s="23"/>
+    </row>
+    <row r="40" spans="1:5" s="7" customFormat="1" ht="12">
+      <c r="A40" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="B10" s="23" t="s">
-        <v>164</v>
-      </c>
-      <c r="C10" s="23" t="s">
-        <v>161</v>
-      </c>
-      <c r="D10" s="23" t="s">
-        <v>166</v>
-      </c>
-      <c r="E10" s="23" t="s">
-        <v>153</v>
-      </c>
-      <c r="F10" s="23" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="11" spans="1:22" s="24" customFormat="1" ht="11.25">
-      <c r="A11" s="23" t="s">
-        <v>10</v>
-      </c>
-      <c r="B11" s="23" t="s">
-        <v>164</v>
-      </c>
-      <c r="C11" s="23" t="s">
-        <v>157</v>
-      </c>
-      <c r="D11" s="23" t="s">
-        <v>167</v>
-      </c>
-      <c r="E11" s="23" t="s">
-        <v>153</v>
-      </c>
-      <c r="F11" s="23" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="12" spans="1:22" s="24" customFormat="1" ht="11.25">
-      <c r="A12" s="23" t="s">
+      <c r="B40" s="19" t="s">
+        <v>43</v>
+      </c>
+      <c r="D40" s="23"/>
+    </row>
+    <row r="41" spans="1:5" s="7" customFormat="1" ht="12">
+      <c r="A41" s="17" t="s">
+        <v>11</v>
+      </c>
+      <c r="B41" s="19" t="s">
+        <v>44</v>
+      </c>
+      <c r="D41" s="23"/>
+    </row>
+    <row r="42" spans="1:5" s="7" customFormat="1" ht="12">
+      <c r="A42" s="17" t="s">
         <v>40</v>
       </c>
-      <c r="B12" s="23" t="s">
-        <v>16</v>
-      </c>
-      <c r="C12" s="23" t="s">
-        <v>55</v>
-      </c>
-      <c r="D12" s="23" t="s">
-        <v>158</v>
-      </c>
-      <c r="E12" s="23" t="s">
-        <v>153</v>
-      </c>
-      <c r="F12" s="23" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="13" spans="1:22" s="24" customFormat="1" ht="11.25">
-      <c r="A13" s="23" t="s">
+      <c r="B42" s="19" t="s">
+        <v>45</v>
+      </c>
+      <c r="D42" s="23"/>
+    </row>
+    <row r="43" spans="1:5" s="7" customFormat="1" ht="12">
+      <c r="A43" s="17" t="s">
         <v>12</v>
       </c>
-      <c r="B13" s="23" t="s">
-        <v>16</v>
-      </c>
-      <c r="C13" s="23" t="s">
-        <v>55</v>
-      </c>
-      <c r="D13" s="23" t="s">
-        <v>159</v>
-      </c>
-      <c r="E13" s="23" t="s">
-        <v>153</v>
-      </c>
-      <c r="F13" s="23" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="14" spans="1:22" s="24" customFormat="1" ht="11.25">
-      <c r="A14" s="23" t="s">
-        <v>12</v>
-      </c>
-      <c r="B14" s="23" t="s">
-        <v>16</v>
-      </c>
-      <c r="C14" s="23" t="s">
-        <v>161</v>
-      </c>
-      <c r="D14" s="23" t="s">
-        <v>160</v>
-      </c>
-      <c r="E14" s="23" t="s">
-        <v>153</v>
-      </c>
-      <c r="F14" s="23" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="15" spans="1:22" s="24" customFormat="1" ht="11.25">
-      <c r="A15" s="23" t="s">
-        <v>12</v>
-      </c>
-      <c r="B15" s="23" t="s">
-        <v>16</v>
-      </c>
-      <c r="C15" s="23" t="s">
-        <v>157</v>
-      </c>
-      <c r="D15" s="23" t="s">
-        <v>162</v>
-      </c>
-      <c r="E15" s="23" t="s">
-        <v>153</v>
-      </c>
-      <c r="F15" s="23" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="16" spans="1:22" s="24" customFormat="1" ht="11.25">
-      <c r="A16" s="23"/>
-      <c r="B16" s="23"/>
-      <c r="C16" s="23"/>
-      <c r="D16" s="23"/>
-      <c r="F16" s="23"/>
-    </row>
-    <row r="17" spans="1:6" s="9" customFormat="1" ht="11.25"/>
-    <row r="18" spans="1:6" s="9" customFormat="1" ht="11.25" customHeight="1">
-      <c r="B18" s="17" t="s">
-        <v>67</v>
-      </c>
-      <c r="C18" s="17" t="s">
-        <v>62</v>
-      </c>
-      <c r="D18" s="17" t="s">
-        <v>163</v>
-      </c>
-      <c r="E18" s="17" t="s">
-        <v>155</v>
-      </c>
-      <c r="F18" s="17"/>
-    </row>
-    <row r="19" spans="1:6" s="9" customFormat="1" ht="11.25">
-      <c r="B19" s="17"/>
-      <c r="C19" s="17"/>
-      <c r="D19" s="17"/>
-      <c r="E19" s="17"/>
-      <c r="F19" s="17"/>
-    </row>
-    <row r="20" spans="1:6" s="9" customFormat="1" ht="11.25">
-      <c r="B20" s="17"/>
-      <c r="C20" s="17"/>
-      <c r="D20" s="17"/>
-      <c r="E20" s="17"/>
-      <c r="F20" s="17"/>
-    </row>
-    <row r="21" spans="1:6" s="9" customFormat="1" ht="11.25">
-      <c r="B21" s="17"/>
-      <c r="C21" s="17"/>
-      <c r="D21" s="17"/>
-      <c r="E21" s="17"/>
-      <c r="F21" s="17"/>
-    </row>
-    <row r="22" spans="1:6" s="9" customFormat="1" ht="11.25">
-      <c r="B22" s="17"/>
-      <c r="C22" s="17"/>
-      <c r="D22" s="17"/>
-      <c r="E22" s="17"/>
-      <c r="F22" s="17"/>
-    </row>
-    <row r="23" spans="1:6" s="9" customFormat="1" ht="11.25">
-      <c r="B23" s="17"/>
-      <c r="C23" s="17"/>
-      <c r="D23" s="17"/>
-      <c r="E23" s="17"/>
-      <c r="F23" s="17"/>
-    </row>
-    <row r="24" spans="1:6" s="9" customFormat="1" ht="11.25">
-      <c r="B24" s="17"/>
-      <c r="C24" s="17"/>
-      <c r="D24" s="17"/>
-      <c r="E24" s="17"/>
-      <c r="F24" s="17"/>
-    </row>
-    <row r="25" spans="1:6" s="9" customFormat="1" ht="11.25">
-      <c r="B25" s="17"/>
-      <c r="C25" s="17"/>
-      <c r="D25" s="17"/>
-      <c r="E25" s="17"/>
-      <c r="F25" s="17"/>
-    </row>
-    <row r="26" spans="1:6" s="9" customFormat="1" ht="11.25">
-      <c r="B26" s="17"/>
-      <c r="C26" s="17"/>
-      <c r="D26" s="17"/>
-      <c r="E26" s="17"/>
-      <c r="F26" s="17"/>
-    </row>
-    <row r="27" spans="1:6" s="9" customFormat="1" ht="11.25">
-      <c r="B27" s="17"/>
-      <c r="C27" s="17"/>
-      <c r="D27" s="17"/>
-      <c r="E27" s="17"/>
-      <c r="F27" s="17"/>
-    </row>
-    <row r="28" spans="1:6" s="9" customFormat="1" ht="11.25" customHeight="1">
-      <c r="B28" s="14"/>
-      <c r="C28" s="14"/>
-      <c r="D28" s="14"/>
-      <c r="E28" s="14"/>
-    </row>
-    <row r="29" spans="1:6" s="9" customFormat="1" ht="11.25">
-      <c r="B29" s="14"/>
-      <c r="C29" s="14"/>
-      <c r="D29" s="14"/>
-      <c r="E29" s="14"/>
-    </row>
-    <row r="30" spans="1:6" s="9" customFormat="1" ht="12">
-      <c r="A30" s="18" t="s">
-        <v>49</v>
-      </c>
-      <c r="B30" s="18"/>
-      <c r="C30" s="15"/>
-      <c r="D30" s="15"/>
-      <c r="E30" s="15"/>
-    </row>
-    <row r="31" spans="1:6" s="9" customFormat="1" ht="12">
-      <c r="A31" s="18"/>
-      <c r="B31" s="18"/>
-      <c r="C31" s="15"/>
-      <c r="D31" s="15"/>
-      <c r="E31" s="15"/>
-    </row>
-    <row r="32" spans="1:6" s="9" customFormat="1" ht="15.75" customHeight="1">
-      <c r="A32" s="22" t="s">
-        <v>47</v>
-      </c>
-      <c r="B32" s="22" t="s">
-        <v>48</v>
-      </c>
-      <c r="C32" s="15"/>
-      <c r="D32" s="15"/>
-      <c r="E32" s="15"/>
-    </row>
-    <row r="33" spans="1:5" s="9" customFormat="1" ht="12">
-      <c r="A33" s="19" t="s">
-        <v>38</v>
-      </c>
-      <c r="B33" s="20" t="s">
-        <v>41</v>
-      </c>
-      <c r="C33" s="15"/>
-      <c r="D33" s="15"/>
-      <c r="E33" s="15"/>
-    </row>
-    <row r="34" spans="1:5" s="7" customFormat="1" ht="12">
-      <c r="A34" s="19" t="s">
-        <v>8</v>
-      </c>
-      <c r="B34" s="20" t="s">
-        <v>42</v>
-      </c>
-      <c r="C34" s="15"/>
-      <c r="D34" s="15"/>
-      <c r="E34" s="15"/>
-    </row>
-    <row r="35" spans="1:5" s="7" customFormat="1" ht="12">
-      <c r="A35" s="19" t="s">
-        <v>39</v>
-      </c>
-      <c r="B35" s="20"/>
-    </row>
-    <row r="36" spans="1:5" s="7" customFormat="1" ht="12">
-      <c r="A36" s="19" t="s">
-        <v>10</v>
-      </c>
-      <c r="B36" s="21" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="37" spans="1:5" s="7" customFormat="1" ht="12">
-      <c r="A37" s="19" t="s">
-        <v>11</v>
-      </c>
-      <c r="B37" s="21" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="38" spans="1:5" s="7" customFormat="1" ht="12">
-      <c r="A38" s="19" t="s">
-        <v>40</v>
-      </c>
-      <c r="B38" s="21" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="39" spans="1:5" s="7" customFormat="1" ht="12">
-      <c r="A39" s="19" t="s">
-        <v>12</v>
-      </c>
-      <c r="B39" s="21"/>
-    </row>
-    <row r="40" spans="1:5" s="7" customFormat="1" ht="12">
-      <c r="A40" s="19" t="s">
+      <c r="B43" s="19" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="44" spans="1:5" s="7" customFormat="1" ht="12">
+      <c r="A44" s="17" t="s">
         <v>13</v>
       </c>
-      <c r="B40" s="21" t="s">
+      <c r="B44" s="19" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="41" spans="1:5" s="7" customFormat="1" ht="12"/>
-    <row r="42" spans="1:5" s="7" customFormat="1" ht="12"/>
-    <row r="43" spans="1:5" s="7" customFormat="1" ht="12"/>
-    <row r="44" spans="1:5" s="7" customFormat="1" ht="12"/>
     <row r="45" spans="1:5" s="7" customFormat="1" ht="12"/>
     <row r="46" spans="1:5" s="7" customFormat="1" ht="12"/>
     <row r="47" spans="1:5" s="7" customFormat="1" ht="12"/>
@@ -3357,34 +4185,40 @@
     <row r="185" spans="3:5" s="7" customFormat="1" ht="12"/>
     <row r="186" spans="3:5" s="7" customFormat="1" ht="12"/>
     <row r="187" spans="3:5" s="7" customFormat="1" ht="12"/>
-    <row r="188" spans="3:5" s="7" customFormat="1">
-      <c r="C188"/>
-      <c r="D188"/>
-      <c r="E188"/>
-    </row>
-    <row r="189" spans="3:5" s="7" customFormat="1">
-      <c r="C189"/>
-      <c r="D189"/>
-      <c r="E189"/>
-    </row>
-    <row r="190" spans="3:5" s="7" customFormat="1">
-      <c r="C190"/>
-      <c r="D190"/>
-      <c r="E190"/>
-    </row>
-    <row r="191" spans="3:5" s="7" customFormat="1">
-      <c r="C191"/>
-      <c r="D191"/>
-      <c r="E191"/>
+    <row r="188" spans="3:5" s="7" customFormat="1" ht="12"/>
+    <row r="189" spans="3:5" s="7" customFormat="1" ht="12"/>
+    <row r="190" spans="3:5" s="7" customFormat="1" ht="12"/>
+    <row r="191" spans="3:5" s="7" customFormat="1" ht="12"/>
+    <row r="192" spans="3:5" s="7" customFormat="1">
+      <c r="C192"/>
+      <c r="D192"/>
+      <c r="E192"/>
+    </row>
+    <row r="193" spans="3:5" s="7" customFormat="1">
+      <c r="C193"/>
+      <c r="D193"/>
+      <c r="E193"/>
+    </row>
+    <row r="194" spans="3:5" s="7" customFormat="1">
+      <c r="C194"/>
+      <c r="D194"/>
+      <c r="E194"/>
+    </row>
+    <row r="195" spans="3:5" s="7" customFormat="1">
+      <c r="C195"/>
+      <c r="D195"/>
+      <c r="E195"/>
     </row>
   </sheetData>
-  <mergeCells count="6">
-    <mergeCell ref="F18:F27"/>
-    <mergeCell ref="B18:B27"/>
-    <mergeCell ref="A30:B31"/>
-    <mergeCell ref="C18:C27"/>
-    <mergeCell ref="E18:E27"/>
-    <mergeCell ref="D18:D27"/>
+  <mergeCells count="8">
+    <mergeCell ref="G22:G31"/>
+    <mergeCell ref="B22:B31"/>
+    <mergeCell ref="A34:B35"/>
+    <mergeCell ref="C22:C31"/>
+    <mergeCell ref="F22:F31"/>
+    <mergeCell ref="D22:D31"/>
+    <mergeCell ref="E22:E31"/>
+    <mergeCell ref="D33:D42"/>
   </mergeCells>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -3393,43 +4227,39 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1"/>
+  <sheetPr>
+    <tabColor rgb="FF00B050"/>
+  </sheetPr>
+  <dimension ref="A2:U189"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E19" sqref="E19"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="3" max="3" width="17.5703125" customWidth="1"/>
-  </cols>
-  <sheetData/>
-  <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="C2:AJ3"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F11" sqref="F11"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <cols>
-    <col min="3" max="3" width="17.5703125" customWidth="1"/>
+    <col min="1" max="1" width="17.5703125" customWidth="1"/>
+    <col min="2" max="2" width="23.7109375" customWidth="1"/>
+    <col min="3" max="3" width="24.140625" customWidth="1"/>
+    <col min="4" max="4" width="19.7109375" customWidth="1"/>
+    <col min="5" max="6" width="23.7109375" customWidth="1"/>
+    <col min="7" max="7" width="27.140625" customWidth="1"/>
+    <col min="8" max="8" width="23.7109375" customWidth="1"/>
+    <col min="9" max="9" width="24.42578125" customWidth="1"/>
+    <col min="10" max="10" width="21.7109375" customWidth="1"/>
+    <col min="11" max="11" width="23.42578125" customWidth="1"/>
+    <col min="12" max="12" width="21.5703125" customWidth="1"/>
+    <col min="13" max="13" width="20" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="3:36" s="3" customFormat="1" ht="21">
-      <c r="C2" s="4" t="s">
+    <row r="2" spans="1:21" s="3" customFormat="1" ht="21">
+      <c r="B2" s="2"/>
+      <c r="C2" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="D2" s="4"/>
-      <c r="F2" s="1" t="s">
-        <v>15</v>
+      <c r="D2" s="1" t="s">
+        <v>167</v>
       </c>
       <c r="G2" s="2"/>
+      <c r="H2" s="6"/>
       <c r="I2" s="2"/>
       <c r="J2" s="2"/>
       <c r="K2" s="2"/>
@@ -3443,29 +4273,14 @@
       <c r="S2" s="2"/>
       <c r="T2" s="2"/>
       <c r="U2" s="2"/>
-      <c r="V2" s="2"/>
-      <c r="W2" s="2"/>
-      <c r="X2" s="2"/>
-      <c r="Y2" s="2"/>
-      <c r="Z2" s="2"/>
-      <c r="AA2" s="2"/>
-      <c r="AB2" s="2"/>
-      <c r="AC2" s="2"/>
-      <c r="AD2" s="2"/>
-      <c r="AE2" s="2"/>
-      <c r="AF2" s="2"/>
-      <c r="AG2" s="2"/>
-      <c r="AH2" s="2"/>
-      <c r="AI2" s="2"/>
-      <c r="AJ2" s="2"/>
-    </row>
-    <row r="3" spans="3:36" s="3" customFormat="1" ht="21">
-      <c r="C3" s="4"/>
-      <c r="D3" s="4"/>
-      <c r="E3" s="1"/>
-      <c r="F3" s="2"/>
+    </row>
+    <row r="3" spans="1:21" s="3" customFormat="1" ht="21">
+      <c r="C3" s="2"/>
+      <c r="D3" s="2"/>
+      <c r="E3" s="4"/>
+      <c r="F3" s="4"/>
       <c r="G3" s="2"/>
-      <c r="H3" s="2"/>
+      <c r="H3" s="1"/>
       <c r="I3" s="2"/>
       <c r="J3" s="2"/>
       <c r="K3" s="2"/>
@@ -3479,34 +4294,2132 @@
       <c r="S3" s="2"/>
       <c r="T3" s="2"/>
       <c r="U3" s="2"/>
-      <c r="V3" s="2"/>
-      <c r="W3" s="2"/>
-      <c r="X3" s="2"/>
+    </row>
+    <row r="4" spans="1:21" s="9" customFormat="1" ht="23.25" customHeight="1">
+      <c r="A4" s="11" t="s">
+        <v>189</v>
+      </c>
+      <c r="B4" s="12"/>
+      <c r="C4" s="33"/>
+      <c r="D4" s="12"/>
+      <c r="E4" s="12"/>
+      <c r="F4" s="4"/>
+      <c r="H4" s="1"/>
+    </row>
+    <row r="5" spans="1:21" s="9" customFormat="1" ht="11.25"/>
+    <row r="6" spans="1:21" s="9" customFormat="1" ht="22.5" customHeight="1">
+      <c r="A6" s="10" t="s">
+        <v>1</v>
+      </c>
+      <c r="B6" s="10" t="s">
+        <v>149</v>
+      </c>
+      <c r="C6" s="10" t="s">
+        <v>169</v>
+      </c>
+      <c r="D6" s="10" t="s">
+        <v>168</v>
+      </c>
+      <c r="E6" s="10" t="s">
+        <v>173</v>
+      </c>
+      <c r="F6" s="10" t="s">
+        <v>171</v>
+      </c>
+      <c r="G6" s="10" t="s">
+        <v>172</v>
+      </c>
+      <c r="H6" s="10" t="s">
+        <v>174</v>
+      </c>
+      <c r="I6" s="10" t="s">
+        <v>176</v>
+      </c>
+      <c r="J6" s="10" t="s">
+        <v>175</v>
+      </c>
+      <c r="K6" s="10" t="s">
+        <v>170</v>
+      </c>
+      <c r="L6" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="M6" s="10" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="7" spans="1:21" s="22" customFormat="1" ht="11.25">
+      <c r="A7" s="21" t="s">
+        <v>38</v>
+      </c>
+      <c r="B7" s="16" t="s">
+        <v>16</v>
+      </c>
+      <c r="C7" s="16" t="s">
+        <v>177</v>
+      </c>
+      <c r="D7" s="16" t="s">
+        <v>17</v>
+      </c>
+      <c r="E7" s="16" t="s">
+        <v>61</v>
+      </c>
+      <c r="F7" s="16" t="s">
+        <v>17</v>
+      </c>
+      <c r="G7" s="16" t="s">
+        <v>17</v>
+      </c>
+      <c r="H7" s="16" t="s">
+        <v>17</v>
+      </c>
+      <c r="I7" s="21" t="s">
+        <v>32</v>
+      </c>
+      <c r="J7" s="16" t="s">
+        <v>152</v>
+      </c>
+      <c r="K7" s="16" t="s">
+        <v>16</v>
+      </c>
+      <c r="L7" s="21" t="s">
+        <v>156</v>
+      </c>
+      <c r="M7" s="21" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="8" spans="1:21" s="22" customFormat="1" ht="11.25">
+      <c r="A8" s="21" t="s">
+        <v>8</v>
+      </c>
+      <c r="B8" s="16" t="s">
+        <v>16</v>
+      </c>
+      <c r="C8" s="16" t="s">
+        <v>177</v>
+      </c>
+      <c r="D8" s="16" t="s">
+        <v>178</v>
+      </c>
+      <c r="E8" s="16" t="s">
+        <v>61</v>
+      </c>
+      <c r="F8" s="16" t="s">
+        <v>179</v>
+      </c>
+      <c r="G8" s="16" t="s">
+        <v>179</v>
+      </c>
+      <c r="H8" s="16" t="s">
+        <v>179</v>
+      </c>
+      <c r="I8" s="21" t="s">
+        <v>32</v>
+      </c>
+      <c r="J8" s="16" t="s">
+        <v>66</v>
+      </c>
+      <c r="K8" s="16" t="s">
+        <v>200</v>
+      </c>
+      <c r="L8" s="21" t="s">
+        <v>184</v>
+      </c>
+      <c r="M8" s="21" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="9" spans="1:21" s="22" customFormat="1" ht="11.25">
+      <c r="A9" s="21" t="s">
+        <v>11</v>
+      </c>
+      <c r="B9" s="16" t="s">
+        <v>16</v>
+      </c>
+      <c r="C9" s="16" t="s">
+        <v>177</v>
+      </c>
+      <c r="D9" s="16" t="s">
+        <v>180</v>
+      </c>
+      <c r="E9" s="16" t="s">
+        <v>131</v>
+      </c>
+      <c r="F9" s="16" t="s">
+        <v>179</v>
+      </c>
+      <c r="G9" s="16" t="s">
+        <v>32</v>
+      </c>
+      <c r="H9" s="16" t="s">
+        <v>32</v>
+      </c>
+      <c r="I9" s="21" t="s">
+        <v>32</v>
+      </c>
+      <c r="J9" s="16" t="s">
+        <v>185</v>
+      </c>
+      <c r="K9" s="16" t="s">
+        <v>16</v>
+      </c>
+      <c r="L9" s="21" t="s">
+        <v>186</v>
+      </c>
+      <c r="M9" s="21" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="10" spans="1:21" s="22" customFormat="1" ht="11.25">
+      <c r="A10" s="21" t="s">
+        <v>8</v>
+      </c>
+      <c r="B10" s="16" t="s">
+        <v>182</v>
+      </c>
+      <c r="C10" s="16" t="s">
+        <v>177</v>
+      </c>
+      <c r="D10" s="16" t="s">
+        <v>178</v>
+      </c>
+      <c r="E10" s="16" t="s">
+        <v>61</v>
+      </c>
+      <c r="F10" s="16" t="s">
+        <v>17</v>
+      </c>
+      <c r="G10" s="16" t="s">
+        <v>17</v>
+      </c>
+      <c r="H10" s="16" t="s">
+        <v>32</v>
+      </c>
+      <c r="I10" s="21" t="s">
+        <v>17</v>
+      </c>
+      <c r="J10" s="16" t="s">
+        <v>187</v>
+      </c>
+      <c r="K10" s="21" t="s">
+        <v>278</v>
+      </c>
+      <c r="L10" s="21" t="s">
+        <v>188</v>
+      </c>
+      <c r="M10" s="21" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="11" spans="1:21" s="22" customFormat="1" ht="11.25">
+      <c r="A11" s="21" t="s">
+        <v>8</v>
+      </c>
+      <c r="B11" s="21" t="s">
+        <v>183</v>
+      </c>
+      <c r="C11" s="21" t="s">
+        <v>177</v>
+      </c>
+      <c r="D11" s="21" t="s">
+        <v>178</v>
+      </c>
+      <c r="E11" s="21" t="s">
+        <v>61</v>
+      </c>
+      <c r="F11" s="21" t="s">
+        <v>17</v>
+      </c>
+      <c r="G11" s="21" t="s">
+        <v>17</v>
+      </c>
+      <c r="H11" s="21" t="s">
+        <v>32</v>
+      </c>
+      <c r="I11" s="21" t="s">
+        <v>17</v>
+      </c>
+      <c r="J11" s="21" t="s">
+        <v>306</v>
+      </c>
+      <c r="K11" s="21" t="s">
+        <v>278</v>
+      </c>
+      <c r="L11" s="21" t="s">
+        <v>307</v>
+      </c>
+      <c r="M11" s="21" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="12" spans="1:21" s="22" customFormat="1" ht="11.25">
+      <c r="A12" s="21"/>
+      <c r="B12" s="21"/>
+      <c r="C12" s="21"/>
+      <c r="D12" s="21"/>
+      <c r="E12" s="21"/>
+      <c r="F12" s="21"/>
+      <c r="G12" s="21"/>
+      <c r="H12" s="21"/>
+      <c r="I12" s="21"/>
+      <c r="J12" s="21"/>
+      <c r="K12" s="21"/>
+      <c r="L12" s="21"/>
+      <c r="M12" s="21"/>
+    </row>
+    <row r="13" spans="1:21" s="22" customFormat="1" ht="11.25">
+      <c r="A13" s="21"/>
+      <c r="B13" s="21"/>
+      <c r="C13" s="21"/>
+      <c r="D13" s="21"/>
+      <c r="E13" s="21"/>
+      <c r="F13" s="21"/>
+      <c r="G13" s="21"/>
+      <c r="H13" s="21"/>
+      <c r="I13" s="21"/>
+      <c r="J13" s="21"/>
+      <c r="K13" s="21"/>
+      <c r="L13" s="21"/>
+      <c r="M13" s="21"/>
+    </row>
+    <row r="14" spans="1:21" s="22" customFormat="1" ht="11.25">
+      <c r="A14" s="21"/>
+      <c r="B14" s="21"/>
+      <c r="C14" s="21"/>
+      <c r="D14" s="21"/>
+      <c r="E14" s="21"/>
+      <c r="F14" s="21"/>
+      <c r="G14" s="21"/>
+      <c r="H14" s="21"/>
+      <c r="I14" s="21"/>
+      <c r="J14" s="21"/>
+      <c r="L14" s="21"/>
+      <c r="M14" s="21"/>
+    </row>
+    <row r="15" spans="1:21" s="9" customFormat="1" ht="11.25">
+      <c r="A15" s="21"/>
+    </row>
+    <row r="16" spans="1:21" s="9" customFormat="1" ht="11.25" customHeight="1">
+      <c r="B16" s="23" t="s">
+        <v>67</v>
+      </c>
+      <c r="C16" s="23" t="s">
+        <v>203</v>
+      </c>
+      <c r="D16" s="23" t="s">
+        <v>204</v>
+      </c>
+      <c r="E16" s="23" t="s">
+        <v>206</v>
+      </c>
+      <c r="F16" s="23" t="s">
+        <v>205</v>
+      </c>
+      <c r="G16" s="23" t="s">
+        <v>248</v>
+      </c>
+      <c r="H16" s="23" t="s">
+        <v>247</v>
+      </c>
+      <c r="I16" s="23" t="s">
+        <v>305</v>
+      </c>
+      <c r="J16" s="23" t="s">
+        <v>251</v>
+      </c>
+      <c r="K16" s="23" t="s">
+        <v>304</v>
+      </c>
+      <c r="L16" s="23" t="s">
+        <v>249</v>
+      </c>
+      <c r="M16" s="23"/>
+    </row>
+    <row r="17" spans="1:13" s="9" customFormat="1" ht="11.25">
+      <c r="B17" s="23"/>
+      <c r="C17" s="23"/>
+      <c r="D17" s="23"/>
+      <c r="E17" s="23"/>
+      <c r="F17" s="23"/>
+      <c r="G17" s="23"/>
+      <c r="H17" s="23"/>
+      <c r="I17" s="23"/>
+      <c r="J17" s="23"/>
+      <c r="K17" s="23"/>
+      <c r="L17" s="23"/>
+      <c r="M17" s="23"/>
+    </row>
+    <row r="18" spans="1:13" s="9" customFormat="1" ht="11.25">
+      <c r="B18" s="23"/>
+      <c r="C18" s="23"/>
+      <c r="D18" s="23"/>
+      <c r="E18" s="23"/>
+      <c r="F18" s="23"/>
+      <c r="G18" s="23"/>
+      <c r="H18" s="23"/>
+      <c r="I18" s="23"/>
+      <c r="J18" s="23"/>
+      <c r="K18" s="23"/>
+      <c r="L18" s="23"/>
+      <c r="M18" s="23"/>
+    </row>
+    <row r="19" spans="1:13" s="9" customFormat="1" ht="11.25">
+      <c r="B19" s="23"/>
+      <c r="C19" s="23"/>
+      <c r="D19" s="23"/>
+      <c r="E19" s="23"/>
+      <c r="F19" s="23"/>
+      <c r="G19" s="23"/>
+      <c r="H19" s="23"/>
+      <c r="I19" s="23"/>
+      <c r="J19" s="23"/>
+      <c r="K19" s="23"/>
+      <c r="L19" s="23"/>
+      <c r="M19" s="23"/>
+    </row>
+    <row r="20" spans="1:13" s="9" customFormat="1" ht="11.25">
+      <c r="B20" s="23"/>
+      <c r="C20" s="23"/>
+      <c r="D20" s="23"/>
+      <c r="E20" s="23"/>
+      <c r="F20" s="23"/>
+      <c r="G20" s="23"/>
+      <c r="H20" s="23"/>
+      <c r="I20" s="23"/>
+      <c r="J20" s="23"/>
+      <c r="K20" s="23"/>
+      <c r="L20" s="23"/>
+      <c r="M20" s="23"/>
+    </row>
+    <row r="21" spans="1:13" s="9" customFormat="1" ht="11.25">
+      <c r="B21" s="23"/>
+      <c r="C21" s="23"/>
+      <c r="D21" s="23"/>
+      <c r="E21" s="23"/>
+      <c r="F21" s="23"/>
+      <c r="G21" s="23"/>
+      <c r="H21" s="23"/>
+      <c r="I21" s="23"/>
+      <c r="J21" s="23"/>
+      <c r="K21" s="23"/>
+      <c r="L21" s="23"/>
+      <c r="M21" s="23"/>
+    </row>
+    <row r="22" spans="1:13" s="9" customFormat="1" ht="11.25">
+      <c r="B22" s="23"/>
+      <c r="C22" s="23"/>
+      <c r="D22" s="23"/>
+      <c r="E22" s="23"/>
+      <c r="F22" s="23"/>
+      <c r="G22" s="23"/>
+      <c r="H22" s="23"/>
+      <c r="I22" s="23"/>
+      <c r="J22" s="23"/>
+      <c r="K22" s="23"/>
+      <c r="L22" s="23"/>
+      <c r="M22" s="23"/>
+    </row>
+    <row r="23" spans="1:13" s="9" customFormat="1" ht="11.25">
+      <c r="B23" s="23"/>
+      <c r="C23" s="23"/>
+      <c r="D23" s="23"/>
+      <c r="E23" s="23"/>
+      <c r="F23" s="23"/>
+      <c r="G23" s="23"/>
+      <c r="H23" s="23"/>
+      <c r="I23" s="23"/>
+      <c r="J23" s="23"/>
+      <c r="K23" s="23"/>
+      <c r="L23" s="23"/>
+      <c r="M23" s="23"/>
+    </row>
+    <row r="24" spans="1:13" s="9" customFormat="1" ht="11.25">
+      <c r="B24" s="23"/>
+      <c r="C24" s="23"/>
+      <c r="D24" s="23"/>
+      <c r="E24" s="23"/>
+      <c r="F24" s="23"/>
+      <c r="G24" s="23"/>
+      <c r="H24" s="23"/>
+      <c r="I24" s="23"/>
+      <c r="J24" s="23"/>
+      <c r="K24" s="23"/>
+      <c r="L24" s="23"/>
+      <c r="M24" s="23"/>
+    </row>
+    <row r="25" spans="1:13" s="9" customFormat="1" ht="11.25">
+      <c r="B25" s="23"/>
+      <c r="C25" s="23"/>
+      <c r="D25" s="23"/>
+      <c r="E25" s="23"/>
+      <c r="F25" s="23"/>
+      <c r="G25" s="23"/>
+      <c r="H25" s="23"/>
+      <c r="I25" s="23"/>
+      <c r="J25" s="23"/>
+      <c r="K25" s="23"/>
+      <c r="L25" s="23"/>
+      <c r="M25" s="23"/>
+    </row>
+    <row r="26" spans="1:13" s="9" customFormat="1" ht="11.25" customHeight="1">
+      <c r="C26" s="14"/>
+      <c r="D26" s="14"/>
+      <c r="F26" s="14"/>
+      <c r="K26" s="14"/>
+    </row>
+    <row r="27" spans="1:13" s="9" customFormat="1" ht="11.25">
+      <c r="B27" s="14"/>
+      <c r="C27" s="14"/>
+      <c r="D27" s="14"/>
+      <c r="E27" s="30" t="s">
+        <v>207</v>
+      </c>
+      <c r="F27" s="14"/>
+      <c r="J27" s="23" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="28" spans="1:13" s="9" customFormat="1" ht="12">
+      <c r="A28" s="24" t="s">
+        <v>49</v>
+      </c>
+      <c r="B28" s="24"/>
+      <c r="C28" s="15"/>
+      <c r="D28" s="15"/>
+      <c r="E28" s="31" t="s">
+        <v>208</v>
+      </c>
+      <c r="F28" s="15"/>
+      <c r="J28" s="23"/>
+    </row>
+    <row r="29" spans="1:13" s="9" customFormat="1" ht="12">
+      <c r="A29" s="24"/>
+      <c r="B29" s="24"/>
+      <c r="C29" s="15"/>
+      <c r="D29" s="15"/>
+      <c r="E29" s="31" t="s">
+        <v>209</v>
+      </c>
+      <c r="F29" s="15"/>
+      <c r="J29" s="23"/>
+    </row>
+    <row r="30" spans="1:13" s="9" customFormat="1" ht="15.75" customHeight="1">
+      <c r="A30" s="20" t="s">
+        <v>47</v>
+      </c>
+      <c r="B30" s="20" t="s">
+        <v>48</v>
+      </c>
+      <c r="C30" s="15"/>
+      <c r="D30" s="15"/>
+      <c r="E30" s="31" t="s">
+        <v>210</v>
+      </c>
+      <c r="F30" s="15"/>
+      <c r="J30" s="23"/>
+    </row>
+    <row r="31" spans="1:13" s="9" customFormat="1" ht="12">
+      <c r="A31" s="17" t="s">
+        <v>38</v>
+      </c>
+      <c r="B31" s="18" t="s">
+        <v>41</v>
+      </c>
+      <c r="C31" s="15"/>
+      <c r="D31" s="15"/>
+      <c r="E31" s="31" t="s">
+        <v>211</v>
+      </c>
+      <c r="F31" s="15"/>
+      <c r="J31" s="23"/>
+    </row>
+    <row r="32" spans="1:13" s="7" customFormat="1" ht="12">
+      <c r="A32" s="17" t="s">
+        <v>8</v>
+      </c>
+      <c r="B32" s="18" t="s">
+        <v>42</v>
+      </c>
+      <c r="C32" s="15"/>
+      <c r="D32" s="15"/>
+      <c r="E32" s="31" t="s">
+        <v>212</v>
+      </c>
+      <c r="F32" s="15"/>
+      <c r="J32" s="23"/>
+    </row>
+    <row r="33" spans="1:10" s="7" customFormat="1" ht="12">
+      <c r="A33" s="17" t="s">
+        <v>39</v>
+      </c>
+      <c r="B33" s="18" t="s">
+        <v>202</v>
+      </c>
+      <c r="E33" s="31" t="s">
+        <v>213</v>
+      </c>
+      <c r="J33" s="23"/>
+    </row>
+    <row r="34" spans="1:10" s="7" customFormat="1" ht="12">
+      <c r="A34" s="17" t="s">
+        <v>10</v>
+      </c>
+      <c r="B34" s="19" t="s">
+        <v>43</v>
+      </c>
+      <c r="E34" s="31" t="s">
+        <v>214</v>
+      </c>
+      <c r="J34" s="23"/>
+    </row>
+    <row r="35" spans="1:10" s="7" customFormat="1" ht="12">
+      <c r="A35" s="17" t="s">
+        <v>11</v>
+      </c>
+      <c r="B35" s="19" t="s">
+        <v>44</v>
+      </c>
+      <c r="E35" s="31" t="s">
+        <v>215</v>
+      </c>
+      <c r="J35" s="23"/>
+    </row>
+    <row r="36" spans="1:10" s="7" customFormat="1" ht="12">
+      <c r="A36" s="17" t="s">
+        <v>40</v>
+      </c>
+      <c r="B36" s="19" t="s">
+        <v>45</v>
+      </c>
+      <c r="E36" s="31" t="s">
+        <v>216</v>
+      </c>
+      <c r="J36" s="23"/>
+    </row>
+    <row r="37" spans="1:10" s="7" customFormat="1" ht="12">
+      <c r="A37" s="17" t="s">
+        <v>12</v>
+      </c>
+      <c r="B37" s="19" t="s">
+        <v>199</v>
+      </c>
+      <c r="E37" s="31" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="38" spans="1:10" s="7" customFormat="1" ht="12">
+      <c r="A38" s="17" t="s">
+        <v>13</v>
+      </c>
+      <c r="B38" s="19" t="s">
+        <v>46</v>
+      </c>
+      <c r="E38" s="31" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="39" spans="1:10" s="7" customFormat="1" ht="12">
+      <c r="E39" s="31" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="40" spans="1:10" s="7" customFormat="1" ht="12">
+      <c r="E40" s="31" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="41" spans="1:10" s="7" customFormat="1" ht="12">
+      <c r="E41" s="31" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="42" spans="1:10" s="7" customFormat="1" ht="12">
+      <c r="E42" s="31" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="43" spans="1:10" s="7" customFormat="1" ht="12">
+      <c r="E43" s="31" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="44" spans="1:10" s="7" customFormat="1" ht="12">
+      <c r="E44" s="31" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="45" spans="1:10" s="7" customFormat="1" ht="12">
+      <c r="E45" s="31" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="46" spans="1:10" s="7" customFormat="1" ht="12">
+      <c r="E46" s="31" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="47" spans="1:10" s="7" customFormat="1" ht="12">
+      <c r="E47" s="31" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="48" spans="1:10" s="7" customFormat="1" ht="12">
+      <c r="E48" s="31" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="49" spans="5:5" s="7" customFormat="1" ht="12">
+      <c r="E49" s="31" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="50" spans="5:5" s="7" customFormat="1" ht="12">
+      <c r="E50" s="31" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="51" spans="5:5" s="7" customFormat="1" ht="12">
+      <c r="E51" s="31" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="52" spans="5:5" s="7" customFormat="1" ht="12">
+      <c r="E52" s="31" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="53" spans="5:5" s="7" customFormat="1" ht="12">
+      <c r="E53" s="31" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="54" spans="5:5" s="7" customFormat="1" ht="12">
+      <c r="E54" s="31" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="55" spans="5:5" s="7" customFormat="1" ht="12">
+      <c r="E55" s="31" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="56" spans="5:5" s="7" customFormat="1" ht="12">
+      <c r="E56" s="31" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="57" spans="5:5" s="7" customFormat="1" ht="12">
+      <c r="E57" s="31" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="58" spans="5:5" s="7" customFormat="1" ht="12">
+      <c r="E58" s="31" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="59" spans="5:5" s="7" customFormat="1" ht="12">
+      <c r="E59" s="31" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="60" spans="5:5" s="7" customFormat="1" ht="12">
+      <c r="E60" s="31" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="61" spans="5:5" s="7" customFormat="1" ht="12">
+      <c r="E61" s="31" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="62" spans="5:5" s="7" customFormat="1" ht="12">
+      <c r="E62" s="31" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="63" spans="5:5" s="7" customFormat="1" ht="12">
+      <c r="E63" s="31" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="64" spans="5:5" s="7" customFormat="1" ht="12">
+      <c r="E64" s="31" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="65" spans="5:5" s="7" customFormat="1" ht="12">
+      <c r="E65" s="31" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="66" spans="5:5" s="7" customFormat="1" ht="12">
+      <c r="E66" s="32" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="67" spans="5:5" s="7" customFormat="1" ht="12"/>
+    <row r="68" spans="5:5" s="7" customFormat="1" ht="12"/>
+    <row r="69" spans="5:5" s="7" customFormat="1" ht="12"/>
+    <row r="70" spans="5:5" s="7" customFormat="1" ht="12"/>
+    <row r="71" spans="5:5" s="7" customFormat="1" ht="12"/>
+    <row r="72" spans="5:5" s="7" customFormat="1" ht="12"/>
+    <row r="73" spans="5:5" s="7" customFormat="1" ht="12"/>
+    <row r="74" spans="5:5" s="7" customFormat="1" ht="12"/>
+    <row r="75" spans="5:5" s="7" customFormat="1" ht="12"/>
+    <row r="76" spans="5:5" s="7" customFormat="1" ht="12"/>
+    <row r="77" spans="5:5" s="7" customFormat="1" ht="12"/>
+    <row r="78" spans="5:5" s="7" customFormat="1" ht="12"/>
+    <row r="79" spans="5:5" s="7" customFormat="1" ht="12"/>
+    <row r="80" spans="5:5" s="7" customFormat="1" ht="12"/>
+    <row r="81" s="7" customFormat="1" ht="12"/>
+    <row r="82" s="7" customFormat="1" ht="12"/>
+    <row r="83" s="7" customFormat="1" ht="12"/>
+    <row r="84" s="7" customFormat="1" ht="12"/>
+    <row r="85" s="7" customFormat="1" ht="12"/>
+    <row r="86" s="7" customFormat="1" ht="12"/>
+    <row r="87" s="7" customFormat="1" ht="12"/>
+    <row r="88" s="7" customFormat="1" ht="12"/>
+    <row r="89" s="7" customFormat="1" ht="12"/>
+    <row r="90" s="7" customFormat="1" ht="12"/>
+    <row r="91" s="7" customFormat="1" ht="12"/>
+    <row r="92" s="7" customFormat="1" ht="12"/>
+    <row r="93" s="7" customFormat="1" ht="12"/>
+    <row r="94" s="7" customFormat="1" ht="12"/>
+    <row r="95" s="7" customFormat="1" ht="12"/>
+    <row r="96" s="7" customFormat="1" ht="12"/>
+    <row r="97" s="7" customFormat="1" ht="12"/>
+    <row r="98" s="7" customFormat="1" ht="12"/>
+    <row r="99" s="7" customFormat="1" ht="12"/>
+    <row r="100" s="7" customFormat="1" ht="12"/>
+    <row r="101" s="7" customFormat="1" ht="12"/>
+    <row r="102" s="7" customFormat="1" ht="12"/>
+    <row r="103" s="7" customFormat="1" ht="12"/>
+    <row r="104" s="7" customFormat="1" ht="12"/>
+    <row r="105" s="7" customFormat="1" ht="12"/>
+    <row r="106" s="7" customFormat="1" ht="12"/>
+    <row r="107" s="7" customFormat="1" ht="12"/>
+    <row r="108" s="7" customFormat="1" ht="12"/>
+    <row r="109" s="7" customFormat="1" ht="12"/>
+    <row r="110" s="7" customFormat="1" ht="12"/>
+    <row r="111" s="7" customFormat="1" ht="12"/>
+    <row r="112" s="7" customFormat="1" ht="12"/>
+    <row r="113" s="7" customFormat="1" ht="12"/>
+    <row r="114" s="7" customFormat="1" ht="12"/>
+    <row r="115" s="7" customFormat="1" ht="12"/>
+    <row r="116" s="7" customFormat="1" ht="12"/>
+    <row r="117" s="7" customFormat="1" ht="12"/>
+    <row r="118" s="7" customFormat="1" ht="12"/>
+    <row r="119" s="7" customFormat="1" ht="12"/>
+    <row r="120" s="7" customFormat="1" ht="12"/>
+    <row r="121" s="7" customFormat="1" ht="12"/>
+    <row r="122" s="7" customFormat="1" ht="12"/>
+    <row r="123" s="7" customFormat="1" ht="12"/>
+    <row r="124" s="7" customFormat="1" ht="12"/>
+    <row r="125" s="7" customFormat="1" ht="12"/>
+    <row r="126" s="7" customFormat="1" ht="12"/>
+    <row r="127" s="7" customFormat="1" ht="12"/>
+    <row r="128" s="7" customFormat="1" ht="12"/>
+    <row r="129" s="7" customFormat="1" ht="12"/>
+    <row r="130" s="7" customFormat="1" ht="12"/>
+    <row r="131" s="7" customFormat="1" ht="12"/>
+    <row r="132" s="7" customFormat="1" ht="12"/>
+    <row r="133" s="7" customFormat="1" ht="12"/>
+    <row r="134" s="7" customFormat="1" ht="12"/>
+    <row r="135" s="7" customFormat="1" ht="12"/>
+    <row r="136" s="7" customFormat="1" ht="12"/>
+    <row r="137" s="7" customFormat="1" ht="12"/>
+    <row r="138" s="7" customFormat="1" ht="12"/>
+    <row r="139" s="7" customFormat="1" ht="12"/>
+    <row r="140" s="7" customFormat="1" ht="12"/>
+    <row r="141" s="7" customFormat="1" ht="12"/>
+    <row r="142" s="7" customFormat="1" ht="12"/>
+    <row r="143" s="7" customFormat="1" ht="12"/>
+    <row r="144" s="7" customFormat="1" ht="12"/>
+    <row r="145" s="7" customFormat="1" ht="12"/>
+    <row r="146" s="7" customFormat="1" ht="12"/>
+    <row r="147" s="7" customFormat="1" ht="12"/>
+    <row r="148" s="7" customFormat="1" ht="12"/>
+    <row r="149" s="7" customFormat="1" ht="12"/>
+    <row r="150" s="7" customFormat="1" ht="12"/>
+    <row r="151" s="7" customFormat="1" ht="12"/>
+    <row r="152" s="7" customFormat="1" ht="12"/>
+    <row r="153" s="7" customFormat="1" ht="12"/>
+    <row r="154" s="7" customFormat="1" ht="12"/>
+    <row r="155" s="7" customFormat="1" ht="12"/>
+    <row r="156" s="7" customFormat="1" ht="12"/>
+    <row r="157" s="7" customFormat="1" ht="12"/>
+    <row r="158" s="7" customFormat="1" ht="12"/>
+    <row r="159" s="7" customFormat="1" ht="12"/>
+    <row r="160" s="7" customFormat="1" ht="12"/>
+    <row r="161" s="7" customFormat="1" ht="12"/>
+    <row r="162" s="7" customFormat="1" ht="12"/>
+    <row r="163" s="7" customFormat="1" ht="12"/>
+    <row r="164" s="7" customFormat="1" ht="12"/>
+    <row r="165" s="7" customFormat="1" ht="12"/>
+    <row r="166" s="7" customFormat="1" ht="12"/>
+    <row r="167" s="7" customFormat="1" ht="12"/>
+    <row r="168" s="7" customFormat="1" ht="12"/>
+    <row r="169" s="7" customFormat="1" ht="12"/>
+    <row r="170" s="7" customFormat="1" ht="12"/>
+    <row r="171" s="7" customFormat="1" ht="12"/>
+    <row r="172" s="7" customFormat="1" ht="12"/>
+    <row r="173" s="7" customFormat="1" ht="12"/>
+    <row r="174" s="7" customFormat="1" ht="12"/>
+    <row r="175" s="7" customFormat="1" ht="12"/>
+    <row r="176" s="7" customFormat="1" ht="12"/>
+    <row r="177" spans="5:8" s="7" customFormat="1" ht="12"/>
+    <row r="178" spans="5:8" s="7" customFormat="1" ht="12"/>
+    <row r="179" spans="5:8" s="7" customFormat="1" ht="12"/>
+    <row r="180" spans="5:8" s="7" customFormat="1" ht="12"/>
+    <row r="181" spans="5:8" s="7" customFormat="1" ht="12"/>
+    <row r="182" spans="5:8" s="7" customFormat="1" ht="12"/>
+    <row r="183" spans="5:8" s="7" customFormat="1" ht="12"/>
+    <row r="184" spans="5:8" s="7" customFormat="1" ht="12"/>
+    <row r="185" spans="5:8" s="7" customFormat="1" ht="12"/>
+    <row r="186" spans="5:8" s="7" customFormat="1">
+      <c r="E186"/>
+      <c r="F186"/>
+      <c r="H186"/>
+    </row>
+    <row r="187" spans="5:8" s="7" customFormat="1">
+      <c r="E187"/>
+      <c r="F187"/>
+      <c r="H187"/>
+    </row>
+    <row r="188" spans="5:8" s="7" customFormat="1">
+      <c r="E188"/>
+      <c r="F188"/>
+      <c r="H188"/>
+    </row>
+    <row r="189" spans="5:8" s="7" customFormat="1">
+      <c r="E189"/>
+      <c r="F189"/>
+      <c r="H189"/>
+    </row>
+  </sheetData>
+  <mergeCells count="14">
+    <mergeCell ref="B16:B25"/>
+    <mergeCell ref="J27:J36"/>
+    <mergeCell ref="G16:G25"/>
+    <mergeCell ref="E16:E25"/>
+    <mergeCell ref="H16:H25"/>
+    <mergeCell ref="J16:J25"/>
+    <mergeCell ref="I16:I25"/>
+    <mergeCell ref="L16:L25"/>
+    <mergeCell ref="M16:M25"/>
+    <mergeCell ref="D16:D25"/>
+    <mergeCell ref="C16:C25"/>
+    <mergeCell ref="K16:K25"/>
+    <mergeCell ref="F16:F25"/>
+    <mergeCell ref="A28:B29"/>
+  </mergeCells>
+  <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <sheetPr>
+    <tabColor rgb="FFFFFF00"/>
+  </sheetPr>
+  <dimension ref="A2:AB191"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="17.5703125" customWidth="1"/>
+    <col min="2" max="3" width="23.7109375" customWidth="1"/>
+    <col min="4" max="4" width="21.28515625" customWidth="1"/>
+    <col min="5" max="6" width="20" customWidth="1"/>
+    <col min="7" max="8" width="23.7109375" customWidth="1"/>
+    <col min="9" max="10" width="20" customWidth="1"/>
+    <col min="11" max="12" width="19.7109375" customWidth="1"/>
+    <col min="13" max="13" width="24.140625" customWidth="1"/>
+    <col min="14" max="14" width="19.7109375" customWidth="1"/>
+    <col min="15" max="15" width="20" customWidth="1"/>
+    <col min="16" max="16" width="20.42578125" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="24.42578125" bestFit="1" customWidth="1"/>
+    <col min="18" max="24" width="20" customWidth="1"/>
+    <col min="25" max="26" width="19.7109375" customWidth="1"/>
+    <col min="27" max="27" width="23" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="20" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="1:28" s="3" customFormat="1" ht="21">
+      <c r="C2" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>253</v>
+      </c>
+      <c r="E2" s="2"/>
+      <c r="F2" s="2"/>
+      <c r="H2" s="6"/>
+      <c r="J2" s="2"/>
+      <c r="K2" s="2"/>
+      <c r="L2" s="2"/>
+      <c r="M2" s="2"/>
+      <c r="N2" s="2"/>
+      <c r="O2" s="2"/>
+      <c r="P2" s="2"/>
+      <c r="Q2" s="2"/>
+      <c r="R2" s="2"/>
+      <c r="Y2" s="2"/>
+      <c r="Z2" s="2"/>
+      <c r="AA2" s="2"/>
+      <c r="AB2" s="2"/>
+    </row>
+    <row r="3" spans="1:28" s="3" customFormat="1" ht="21">
+      <c r="C3" s="4"/>
+      <c r="D3" s="2"/>
+      <c r="E3" s="2"/>
+      <c r="F3" s="2"/>
+      <c r="G3" s="4"/>
+      <c r="H3" s="1"/>
+      <c r="J3" s="2"/>
+      <c r="K3" s="2"/>
+      <c r="L3" s="2"/>
+      <c r="M3" s="2"/>
+      <c r="N3" s="2"/>
+      <c r="O3" s="2"/>
+      <c r="P3" s="2"/>
+      <c r="Q3" s="2"/>
+      <c r="R3" s="2"/>
       <c r="Y3" s="2"/>
       <c r="Z3" s="2"/>
       <c r="AA3" s="2"/>
       <c r="AB3" s="2"/>
-      <c r="AC3" s="2"/>
-      <c r="AD3" s="2"/>
-      <c r="AE3" s="2"/>
-      <c r="AF3" s="2"/>
-      <c r="AG3" s="2"/>
-      <c r="AH3" s="2"/>
-      <c r="AI3" s="2"/>
-      <c r="AJ3" s="2"/>
+    </row>
+    <row r="4" spans="1:28" s="9" customFormat="1" ht="23.25" customHeight="1">
+      <c r="A4" s="11" t="s">
+        <v>189</v>
+      </c>
+      <c r="B4" s="12"/>
+      <c r="C4" s="12"/>
+      <c r="D4" s="13"/>
+      <c r="E4" s="12"/>
+    </row>
+    <row r="5" spans="1:28" s="9" customFormat="1" ht="11.25"/>
+    <row r="6" spans="1:28" s="8" customFormat="1" ht="22.5" customHeight="1">
+      <c r="A6" s="10" t="s">
+        <v>1</v>
+      </c>
+      <c r="B6" s="10" t="s">
+        <v>149</v>
+      </c>
+      <c r="C6" s="10" t="s">
+        <v>262</v>
+      </c>
+      <c r="D6" s="10" t="s">
+        <v>261</v>
+      </c>
+      <c r="E6" s="10" t="s">
+        <v>53</v>
+      </c>
+      <c r="F6" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="G6" s="10" t="s">
+        <v>254</v>
+      </c>
+      <c r="H6" s="10" t="s">
+        <v>255</v>
+      </c>
+      <c r="I6" s="10" t="s">
+        <v>271</v>
+      </c>
+      <c r="J6" s="10" t="s">
+        <v>268</v>
+      </c>
+      <c r="K6" s="10" t="s">
+        <v>260</v>
+      </c>
+      <c r="L6" s="10" t="s">
+        <v>259</v>
+      </c>
+      <c r="M6" s="10" t="s">
+        <v>0</v>
+      </c>
+      <c r="N6" s="10" t="s">
+        <v>256</v>
+      </c>
+      <c r="O6" s="10" t="s">
+        <v>263</v>
+      </c>
+      <c r="P6" s="10" t="s">
+        <v>264</v>
+      </c>
+      <c r="Q6" s="10" t="s">
+        <v>265</v>
+      </c>
+      <c r="R6" s="10" t="s">
+        <v>266</v>
+      </c>
+      <c r="S6" s="10" t="s">
+        <v>269</v>
+      </c>
+      <c r="T6" s="10" t="s">
+        <v>270</v>
+      </c>
+      <c r="U6" s="10" t="s">
+        <v>272</v>
+      </c>
+      <c r="V6" s="10" t="s">
+        <v>273</v>
+      </c>
+      <c r="W6" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="X6" s="10" t="s">
+        <v>148</v>
+      </c>
+      <c r="Y6" s="10" t="s">
+        <v>2</v>
+      </c>
+      <c r="Z6" s="10" t="s">
+        <v>257</v>
+      </c>
+      <c r="AA6" s="10" t="s">
+        <v>258</v>
+      </c>
+      <c r="AB6" s="10" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="7" spans="1:28" s="22" customFormat="1" ht="11.25">
+      <c r="A7" s="35" t="s">
+        <v>11</v>
+      </c>
+      <c r="B7" s="16" t="s">
+        <v>16</v>
+      </c>
+      <c r="C7" s="37" t="s">
+        <v>103</v>
+      </c>
+      <c r="D7" s="38" t="s">
+        <v>277</v>
+      </c>
+      <c r="E7" s="38" t="s">
+        <v>277</v>
+      </c>
+      <c r="F7" s="34" t="s">
+        <v>317</v>
+      </c>
+      <c r="G7" s="34" t="s">
+        <v>179</v>
+      </c>
+      <c r="H7" s="34" t="s">
+        <v>274</v>
+      </c>
+      <c r="I7" s="35" t="s">
+        <v>279</v>
+      </c>
+      <c r="J7" s="35">
+        <v>6454010</v>
+      </c>
+      <c r="K7" s="34" t="s">
+        <v>276</v>
+      </c>
+      <c r="L7" s="34" t="s">
+        <v>9</v>
+      </c>
+      <c r="M7" s="34" t="s">
+        <v>16</v>
+      </c>
+      <c r="N7" s="34" t="s">
+        <v>275</v>
+      </c>
+      <c r="O7" s="35" t="s">
+        <v>278</v>
+      </c>
+      <c r="P7" s="34" t="s">
+        <v>309</v>
+      </c>
+      <c r="Q7" s="35" t="s">
+        <v>9</v>
+      </c>
+      <c r="R7" s="36">
+        <v>41869.666666666664</v>
+      </c>
+      <c r="S7" s="35" t="s">
+        <v>276</v>
+      </c>
+      <c r="T7" s="35" t="s">
+        <v>9</v>
+      </c>
+      <c r="U7" s="35" t="s">
+        <v>276</v>
+      </c>
+      <c r="V7" s="35" t="s">
+        <v>9</v>
+      </c>
+      <c r="W7" s="35" t="s">
+        <v>280</v>
+      </c>
+      <c r="X7" s="34" t="s">
+        <v>151</v>
+      </c>
+      <c r="Y7" s="34" t="s">
+        <v>9</v>
+      </c>
+      <c r="Z7" s="34" t="s">
+        <v>9</v>
+      </c>
+      <c r="AA7" s="34" t="s">
+        <v>9</v>
+      </c>
+      <c r="AB7" s="35" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="8" spans="1:28" s="22" customFormat="1" ht="11.25">
+      <c r="A8" s="35" t="s">
+        <v>40</v>
+      </c>
+      <c r="B8" s="21" t="s">
+        <v>16</v>
+      </c>
+      <c r="C8" s="35" t="s">
+        <v>87</v>
+      </c>
+      <c r="D8" s="34" t="s">
+        <v>285</v>
+      </c>
+      <c r="E8" s="34" t="s">
+        <v>285</v>
+      </c>
+      <c r="F8" s="34" t="s">
+        <v>318</v>
+      </c>
+      <c r="G8" s="34" t="s">
+        <v>281</v>
+      </c>
+      <c r="H8" s="34" t="s">
+        <v>282</v>
+      </c>
+      <c r="I8" s="35" t="s">
+        <v>279</v>
+      </c>
+      <c r="J8" s="35">
+        <v>91050090</v>
+      </c>
+      <c r="K8" s="34" t="s">
+        <v>284</v>
+      </c>
+      <c r="L8" s="34" t="s">
+        <v>9</v>
+      </c>
+      <c r="M8" s="34" t="s">
+        <v>278</v>
+      </c>
+      <c r="N8" s="34" t="s">
+        <v>283</v>
+      </c>
+      <c r="O8" s="35" t="s">
+        <v>278</v>
+      </c>
+      <c r="P8" s="34" t="s">
+        <v>309</v>
+      </c>
+      <c r="Q8" s="35" t="s">
+        <v>9</v>
+      </c>
+      <c r="R8" s="36">
+        <v>42018.444444444445</v>
+      </c>
+      <c r="S8" s="35" t="s">
+        <v>284</v>
+      </c>
+      <c r="T8" s="35" t="s">
+        <v>9</v>
+      </c>
+      <c r="U8" s="35" t="s">
+        <v>284</v>
+      </c>
+      <c r="V8" s="35" t="s">
+        <v>9</v>
+      </c>
+      <c r="W8" s="35" t="s">
+        <v>286</v>
+      </c>
+      <c r="X8" s="34" t="s">
+        <v>151</v>
+      </c>
+      <c r="Y8" s="34" t="s">
+        <v>9</v>
+      </c>
+      <c r="Z8" s="34" t="s">
+        <v>9</v>
+      </c>
+      <c r="AA8" s="34" t="s">
+        <v>9</v>
+      </c>
+      <c r="AB8" s="35" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="9" spans="1:28" s="22" customFormat="1" ht="11.25">
+      <c r="A9" s="35" t="s">
+        <v>12</v>
+      </c>
+      <c r="B9" s="21" t="s">
+        <v>16</v>
+      </c>
+      <c r="C9" s="35" t="s">
+        <v>113</v>
+      </c>
+      <c r="D9" s="34" t="s">
+        <v>290</v>
+      </c>
+      <c r="E9" s="34" t="s">
+        <v>290</v>
+      </c>
+      <c r="F9" s="34" t="s">
+        <v>318</v>
+      </c>
+      <c r="G9" s="34" t="s">
+        <v>57</v>
+      </c>
+      <c r="H9" s="34" t="s">
+        <v>287</v>
+      </c>
+      <c r="I9" s="35" t="s">
+        <v>291</v>
+      </c>
+      <c r="J9" s="35">
+        <v>6180180</v>
+      </c>
+      <c r="K9" s="34" t="s">
+        <v>289</v>
+      </c>
+      <c r="L9" s="34" t="s">
+        <v>9</v>
+      </c>
+      <c r="M9" s="34" t="s">
+        <v>16</v>
+      </c>
+      <c r="N9" s="34" t="s">
+        <v>288</v>
+      </c>
+      <c r="O9" s="35" t="s">
+        <v>278</v>
+      </c>
+      <c r="P9" s="34" t="s">
+        <v>309</v>
+      </c>
+      <c r="Q9" s="35" t="s">
+        <v>9</v>
+      </c>
+      <c r="R9" s="36">
+        <v>41877.620833333334</v>
+      </c>
+      <c r="S9" s="35" t="s">
+        <v>289</v>
+      </c>
+      <c r="T9" s="35" t="s">
+        <v>9</v>
+      </c>
+      <c r="U9" s="35" t="s">
+        <v>289</v>
+      </c>
+      <c r="V9" s="35" t="s">
+        <v>9</v>
+      </c>
+      <c r="W9" s="35" t="s">
+        <v>181</v>
+      </c>
+      <c r="X9" s="34" t="s">
+        <v>151</v>
+      </c>
+      <c r="Y9" s="34" t="s">
+        <v>9</v>
+      </c>
+      <c r="Z9" s="34" t="s">
+        <v>9</v>
+      </c>
+      <c r="AA9" s="34" t="s">
+        <v>9</v>
+      </c>
+      <c r="AB9" s="35" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="10" spans="1:28" s="22" customFormat="1" ht="11.25">
+      <c r="A10" s="35" t="s">
+        <v>40</v>
+      </c>
+      <c r="B10" s="21" t="s">
+        <v>200</v>
+      </c>
+      <c r="C10" s="35" t="s">
+        <v>80</v>
+      </c>
+      <c r="D10" s="34" t="s">
+        <v>295</v>
+      </c>
+      <c r="E10" s="34" t="s">
+        <v>295</v>
+      </c>
+      <c r="F10" s="34" t="s">
+        <v>318</v>
+      </c>
+      <c r="G10" s="34" t="s">
+        <v>281</v>
+      </c>
+      <c r="H10" s="34" t="s">
+        <v>292</v>
+      </c>
+      <c r="I10" s="35" t="s">
+        <v>291</v>
+      </c>
+      <c r="J10" s="35">
+        <v>6413110</v>
+      </c>
+      <c r="K10" s="34" t="s">
+        <v>294</v>
+      </c>
+      <c r="L10" s="34" t="s">
+        <v>9</v>
+      </c>
+      <c r="M10" s="34" t="s">
+        <v>278</v>
+      </c>
+      <c r="N10" s="34" t="s">
+        <v>293</v>
+      </c>
+      <c r="O10" s="35" t="s">
+        <v>278</v>
+      </c>
+      <c r="P10" s="34" t="s">
+        <v>310</v>
+      </c>
+      <c r="Q10" s="35" t="s">
+        <v>9</v>
+      </c>
+      <c r="R10" s="36">
+        <v>42035.396527777775</v>
+      </c>
+      <c r="S10" s="35" t="s">
+        <v>294</v>
+      </c>
+      <c r="T10" s="35" t="s">
+        <v>9</v>
+      </c>
+      <c r="U10" s="35" t="s">
+        <v>294</v>
+      </c>
+      <c r="V10" s="35" t="s">
+        <v>9</v>
+      </c>
+      <c r="W10" s="35" t="s">
+        <v>296</v>
+      </c>
+      <c r="X10" s="34" t="s">
+        <v>151</v>
+      </c>
+      <c r="Y10" s="34" t="s">
+        <v>9</v>
+      </c>
+      <c r="Z10" s="34" t="s">
+        <v>9</v>
+      </c>
+      <c r="AA10" s="34" t="s">
+        <v>9</v>
+      </c>
+      <c r="AB10" s="35" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="11" spans="1:28" s="22" customFormat="1" ht="11.25">
+      <c r="A11" s="35" t="s">
+        <v>40</v>
+      </c>
+      <c r="B11" s="21" t="s">
+        <v>297</v>
+      </c>
+      <c r="C11" s="35" t="s">
+        <v>80</v>
+      </c>
+      <c r="D11" s="34" t="s">
+        <v>301</v>
+      </c>
+      <c r="E11" s="34" t="s">
+        <v>301</v>
+      </c>
+      <c r="F11" s="34" t="s">
+        <v>318</v>
+      </c>
+      <c r="G11" s="34" t="s">
+        <v>281</v>
+      </c>
+      <c r="H11" s="34" t="s">
+        <v>298</v>
+      </c>
+      <c r="I11" s="35" t="s">
+        <v>279</v>
+      </c>
+      <c r="J11" s="35">
+        <v>44340000</v>
+      </c>
+      <c r="K11" s="34" t="s">
+        <v>294</v>
+      </c>
+      <c r="L11" s="34" t="s">
+        <v>9</v>
+      </c>
+      <c r="M11" s="34" t="s">
+        <v>299</v>
+      </c>
+      <c r="N11" s="34" t="s">
+        <v>300</v>
+      </c>
+      <c r="O11" s="35" t="s">
+        <v>278</v>
+      </c>
+      <c r="P11" s="34" t="s">
+        <v>311</v>
+      </c>
+      <c r="Q11" s="35" t="s">
+        <v>9</v>
+      </c>
+      <c r="R11" s="36">
+        <v>42035.397916666669</v>
+      </c>
+      <c r="S11" s="35" t="s">
+        <v>294</v>
+      </c>
+      <c r="T11" s="35" t="s">
+        <v>9</v>
+      </c>
+      <c r="U11" s="35" t="s">
+        <v>294</v>
+      </c>
+      <c r="V11" s="35" t="s">
+        <v>9</v>
+      </c>
+      <c r="W11" s="35" t="s">
+        <v>302</v>
+      </c>
+      <c r="X11" s="34" t="s">
+        <v>151</v>
+      </c>
+      <c r="Y11" s="34" t="s">
+        <v>9</v>
+      </c>
+      <c r="Z11" s="34" t="s">
+        <v>9</v>
+      </c>
+      <c r="AA11" s="34" t="s">
+        <v>9</v>
+      </c>
+      <c r="AB11" s="35" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="12" spans="1:28" s="22" customFormat="1" ht="11.25">
+      <c r="B12" s="21"/>
+      <c r="D12" s="21"/>
+      <c r="E12" s="21"/>
+      <c r="G12" s="21"/>
+      <c r="H12" s="21"/>
+      <c r="K12" s="21"/>
+      <c r="L12" s="21"/>
+      <c r="M12" s="21"/>
+      <c r="N12" s="21"/>
+      <c r="X12" s="21"/>
+      <c r="Y12" s="21"/>
+      <c r="Z12" s="21"/>
+      <c r="AA12" s="21"/>
+    </row>
+    <row r="13" spans="1:28" s="22" customFormat="1" ht="11.25">
+      <c r="B13" s="21"/>
+      <c r="D13" s="21"/>
+      <c r="E13" s="21"/>
+      <c r="G13" s="21"/>
+      <c r="H13" s="21"/>
+      <c r="K13" s="21"/>
+      <c r="L13" s="21"/>
+      <c r="M13" s="21"/>
+      <c r="N13" s="21"/>
+      <c r="X13" s="21"/>
+      <c r="Y13" s="21"/>
+      <c r="Z13" s="21"/>
+      <c r="AA13" s="21"/>
+    </row>
+    <row r="14" spans="1:28" s="22" customFormat="1" ht="11.25">
+      <c r="B14" s="21"/>
+      <c r="D14" s="21"/>
+      <c r="E14" s="21"/>
+      <c r="G14" s="21"/>
+      <c r="H14" s="21"/>
+      <c r="K14" s="21"/>
+      <c r="L14" s="21"/>
+      <c r="M14" s="21"/>
+      <c r="N14" s="21"/>
+      <c r="X14" s="21"/>
+      <c r="Y14" s="21"/>
+      <c r="Z14" s="21"/>
+      <c r="AA14" s="21"/>
+    </row>
+    <row r="15" spans="1:28" s="22" customFormat="1" ht="11.25">
+      <c r="B15" s="21"/>
+      <c r="D15" s="21"/>
+      <c r="E15" s="21"/>
+      <c r="G15" s="21"/>
+      <c r="H15" s="21"/>
+      <c r="K15" s="21"/>
+      <c r="L15" s="21"/>
+      <c r="M15" s="21"/>
+      <c r="N15" s="21"/>
+      <c r="X15" s="21"/>
+      <c r="Y15" s="21"/>
+      <c r="Z15" s="21"/>
+      <c r="AA15" s="21"/>
+    </row>
+    <row r="16" spans="1:28" s="22" customFormat="1" ht="11.25">
+      <c r="B16" s="21"/>
+      <c r="D16" s="21"/>
+      <c r="E16" s="21"/>
+      <c r="G16" s="21"/>
+      <c r="H16" s="21"/>
+      <c r="K16" s="21"/>
+      <c r="L16" s="21"/>
+      <c r="N16" s="21"/>
+      <c r="X16" s="21"/>
+      <c r="Y16" s="21"/>
+      <c r="Z16" s="21"/>
+      <c r="AA16" s="21"/>
+    </row>
+    <row r="17" spans="1:28" s="9" customFormat="1" ht="11.25">
+      <c r="B17" s="21"/>
+    </row>
+    <row r="18" spans="1:28" s="9" customFormat="1" ht="11.25" customHeight="1">
+      <c r="B18" s="23" t="s">
+        <v>67</v>
+      </c>
+      <c r="C18" s="23" t="s">
+        <v>308</v>
+      </c>
+      <c r="D18" s="23" t="s">
+        <v>250</v>
+      </c>
+      <c r="E18" s="23" t="s">
+        <v>250</v>
+      </c>
+      <c r="G18" s="23"/>
+      <c r="H18" s="23" t="s">
+        <v>312</v>
+      </c>
+      <c r="I18" s="23" t="s">
+        <v>316</v>
+      </c>
+      <c r="J18" s="23" t="s">
+        <v>313</v>
+      </c>
+      <c r="K18" s="23" t="s">
+        <v>314</v>
+      </c>
+      <c r="L18" s="23" t="s">
+        <v>315</v>
+      </c>
+      <c r="M18" s="23"/>
+      <c r="N18" s="23"/>
+      <c r="X18" s="23"/>
+      <c r="Y18" s="23" t="s">
+        <v>303</v>
+      </c>
+      <c r="Z18" s="23" t="s">
+        <v>303</v>
+      </c>
+      <c r="AA18" s="23" t="s">
+        <v>303</v>
+      </c>
+      <c r="AB18" s="23" t="s">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="19" spans="1:28" s="9" customFormat="1" ht="11.25">
+      <c r="B19" s="23"/>
+      <c r="C19" s="23"/>
+      <c r="D19" s="23"/>
+      <c r="E19" s="23"/>
+      <c r="G19" s="23"/>
+      <c r="H19" s="23"/>
+      <c r="I19" s="23"/>
+      <c r="J19" s="23"/>
+      <c r="K19" s="23"/>
+      <c r="L19" s="23"/>
+      <c r="M19" s="23"/>
+      <c r="N19" s="23"/>
+      <c r="X19" s="23"/>
+      <c r="Y19" s="23"/>
+      <c r="Z19" s="23"/>
+      <c r="AA19" s="23"/>
+      <c r="AB19" s="23"/>
+    </row>
+    <row r="20" spans="1:28" s="9" customFormat="1" ht="11.25">
+      <c r="B20" s="23"/>
+      <c r="C20" s="23"/>
+      <c r="D20" s="23"/>
+      <c r="E20" s="23"/>
+      <c r="G20" s="23"/>
+      <c r="H20" s="23"/>
+      <c r="I20" s="23"/>
+      <c r="J20" s="23"/>
+      <c r="K20" s="23"/>
+      <c r="L20" s="23"/>
+      <c r="M20" s="23"/>
+      <c r="N20" s="23"/>
+      <c r="X20" s="23"/>
+      <c r="Y20" s="23"/>
+      <c r="Z20" s="23"/>
+      <c r="AA20" s="23"/>
+      <c r="AB20" s="23"/>
+    </row>
+    <row r="21" spans="1:28" s="9" customFormat="1" ht="11.25">
+      <c r="B21" s="23"/>
+      <c r="C21" s="23"/>
+      <c r="D21" s="23"/>
+      <c r="E21" s="23"/>
+      <c r="G21" s="23"/>
+      <c r="H21" s="23"/>
+      <c r="I21" s="23"/>
+      <c r="J21" s="23"/>
+      <c r="K21" s="23"/>
+      <c r="L21" s="23"/>
+      <c r="M21" s="23"/>
+      <c r="N21" s="23"/>
+      <c r="X21" s="23"/>
+      <c r="Y21" s="23"/>
+      <c r="Z21" s="23"/>
+      <c r="AA21" s="23"/>
+      <c r="AB21" s="23"/>
+    </row>
+    <row r="22" spans="1:28" s="9" customFormat="1" ht="11.25">
+      <c r="B22" s="23"/>
+      <c r="C22" s="23"/>
+      <c r="D22" s="23"/>
+      <c r="E22" s="23"/>
+      <c r="G22" s="23"/>
+      <c r="H22" s="23"/>
+      <c r="I22" s="23"/>
+      <c r="J22" s="23"/>
+      <c r="K22" s="23"/>
+      <c r="L22" s="23"/>
+      <c r="M22" s="23"/>
+      <c r="N22" s="23"/>
+      <c r="X22" s="23"/>
+      <c r="Y22" s="23"/>
+      <c r="Z22" s="23"/>
+      <c r="AA22" s="23"/>
+      <c r="AB22" s="23"/>
+    </row>
+    <row r="23" spans="1:28" s="9" customFormat="1" ht="11.25">
+      <c r="B23" s="23"/>
+      <c r="C23" s="23"/>
+      <c r="D23" s="23"/>
+      <c r="E23" s="23"/>
+      <c r="G23" s="23"/>
+      <c r="H23" s="23"/>
+      <c r="I23" s="23"/>
+      <c r="J23" s="23"/>
+      <c r="K23" s="23"/>
+      <c r="L23" s="23"/>
+      <c r="M23" s="23"/>
+      <c r="N23" s="23"/>
+      <c r="X23" s="23"/>
+      <c r="Y23" s="23"/>
+      <c r="Z23" s="23"/>
+      <c r="AA23" s="23"/>
+      <c r="AB23" s="23"/>
+    </row>
+    <row r="24" spans="1:28" s="9" customFormat="1" ht="11.25">
+      <c r="B24" s="23"/>
+      <c r="C24" s="23"/>
+      <c r="D24" s="23"/>
+      <c r="E24" s="23"/>
+      <c r="G24" s="23"/>
+      <c r="H24" s="23"/>
+      <c r="I24" s="23"/>
+      <c r="J24" s="23"/>
+      <c r="K24" s="23"/>
+      <c r="L24" s="23"/>
+      <c r="M24" s="23"/>
+      <c r="N24" s="23"/>
+      <c r="X24" s="23"/>
+      <c r="Y24" s="23"/>
+      <c r="Z24" s="23"/>
+      <c r="AA24" s="23"/>
+      <c r="AB24" s="23"/>
+    </row>
+    <row r="25" spans="1:28" s="9" customFormat="1" ht="11.25">
+      <c r="B25" s="23"/>
+      <c r="C25" s="23"/>
+      <c r="D25" s="23"/>
+      <c r="E25" s="23"/>
+      <c r="G25" s="23"/>
+      <c r="H25" s="23"/>
+      <c r="I25" s="23"/>
+      <c r="J25" s="23"/>
+      <c r="K25" s="23"/>
+      <c r="L25" s="23"/>
+      <c r="M25" s="23"/>
+      <c r="N25" s="23"/>
+      <c r="X25" s="23"/>
+      <c r="Y25" s="23"/>
+      <c r="Z25" s="23"/>
+      <c r="AA25" s="23"/>
+      <c r="AB25" s="23"/>
+    </row>
+    <row r="26" spans="1:28" s="9" customFormat="1" ht="11.25">
+      <c r="B26" s="23"/>
+      <c r="C26" s="23"/>
+      <c r="D26" s="23"/>
+      <c r="E26" s="23"/>
+      <c r="G26" s="23"/>
+      <c r="H26" s="23"/>
+      <c r="I26" s="23"/>
+      <c r="J26" s="23"/>
+      <c r="K26" s="23"/>
+      <c r="L26" s="23"/>
+      <c r="M26" s="23"/>
+      <c r="N26" s="23"/>
+      <c r="X26" s="23"/>
+      <c r="Y26" s="23"/>
+      <c r="Z26" s="23"/>
+      <c r="AA26" s="23"/>
+      <c r="AB26" s="23"/>
+    </row>
+    <row r="27" spans="1:28" s="9" customFormat="1" ht="11.25">
+      <c r="B27" s="23"/>
+      <c r="C27" s="23"/>
+      <c r="D27" s="23"/>
+      <c r="E27" s="23"/>
+      <c r="G27" s="23"/>
+      <c r="H27" s="23"/>
+      <c r="I27" s="23"/>
+      <c r="J27" s="23"/>
+      <c r="K27" s="23"/>
+      <c r="L27" s="23"/>
+      <c r="M27" s="23"/>
+      <c r="N27" s="23"/>
+      <c r="X27" s="23"/>
+      <c r="Y27" s="23"/>
+      <c r="Z27" s="23"/>
+      <c r="AA27" s="23"/>
+      <c r="AB27" s="23"/>
+    </row>
+    <row r="28" spans="1:28" s="9" customFormat="1" ht="11.25" customHeight="1">
+      <c r="H28" s="14"/>
+      <c r="M28" s="14"/>
+      <c r="N28" s="14"/>
+      <c r="Z28" s="14"/>
+    </row>
+    <row r="29" spans="1:28" s="9" customFormat="1" ht="11.25">
+      <c r="G29" s="14"/>
+      <c r="H29" s="14"/>
+      <c r="M29" s="14"/>
+      <c r="N29" s="14"/>
+    </row>
+    <row r="30" spans="1:28" s="9" customFormat="1" ht="12">
+      <c r="A30" s="24" t="s">
+        <v>49</v>
+      </c>
+      <c r="B30" s="24"/>
+      <c r="G30" s="15"/>
+      <c r="H30" s="15"/>
+      <c r="M30" s="15"/>
+    </row>
+    <row r="31" spans="1:28" s="9" customFormat="1" ht="12">
+      <c r="A31" s="24"/>
+      <c r="B31" s="24"/>
+      <c r="G31" s="15"/>
+      <c r="H31" s="15"/>
+      <c r="M31" s="15"/>
+    </row>
+    <row r="32" spans="1:28" s="9" customFormat="1" ht="15.75" customHeight="1">
+      <c r="A32" s="20" t="s">
+        <v>47</v>
+      </c>
+      <c r="B32" s="20" t="s">
+        <v>48</v>
+      </c>
+      <c r="G32" s="15"/>
+      <c r="H32" s="15"/>
+      <c r="M32" s="15"/>
+    </row>
+    <row r="33" spans="1:13" s="9" customFormat="1" ht="12">
+      <c r="A33" s="17" t="s">
+        <v>38</v>
+      </c>
+      <c r="B33" s="18" t="s">
+        <v>41</v>
+      </c>
+      <c r="G33" s="15"/>
+      <c r="H33" s="15"/>
+      <c r="M33" s="15"/>
+    </row>
+    <row r="34" spans="1:13" s="7" customFormat="1" ht="12">
+      <c r="A34" s="17" t="s">
+        <v>8</v>
+      </c>
+      <c r="B34" s="18" t="s">
+        <v>42</v>
+      </c>
+      <c r="G34" s="15"/>
+      <c r="H34" s="15"/>
+      <c r="M34" s="15"/>
+    </row>
+    <row r="35" spans="1:13" s="7" customFormat="1" ht="12">
+      <c r="A35" s="17" t="s">
+        <v>39</v>
+      </c>
+      <c r="B35" s="18" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="36" spans="1:13" s="7" customFormat="1" ht="12">
+      <c r="A36" s="17" t="s">
+        <v>10</v>
+      </c>
+      <c r="B36" s="19" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="37" spans="1:13" s="7" customFormat="1" ht="12">
+      <c r="A37" s="17" t="s">
+        <v>11</v>
+      </c>
+      <c r="B37" s="19" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="38" spans="1:13" s="7" customFormat="1" ht="12">
+      <c r="A38" s="17" t="s">
+        <v>40</v>
+      </c>
+      <c r="B38" s="19" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="39" spans="1:13" s="7" customFormat="1" ht="12">
+      <c r="A39" s="17" t="s">
+        <v>12</v>
+      </c>
+      <c r="B39" s="19" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="40" spans="1:13" s="7" customFormat="1" ht="12">
+      <c r="A40" s="17" t="s">
+        <v>13</v>
+      </c>
+      <c r="B40" s="19" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="41" spans="1:13" s="7" customFormat="1" ht="12"/>
+    <row r="42" spans="1:13" s="7" customFormat="1" ht="12"/>
+    <row r="43" spans="1:13" s="7" customFormat="1" ht="12"/>
+    <row r="44" spans="1:13" s="7" customFormat="1" ht="12"/>
+    <row r="45" spans="1:13" s="7" customFormat="1" ht="12"/>
+    <row r="46" spans="1:13" s="7" customFormat="1" ht="12"/>
+    <row r="47" spans="1:13" s="7" customFormat="1" ht="12"/>
+    <row r="48" spans="1:13" s="7" customFormat="1" ht="12"/>
+    <row r="49" s="7" customFormat="1" ht="12"/>
+    <row r="50" s="7" customFormat="1" ht="12"/>
+    <row r="51" s="7" customFormat="1" ht="12"/>
+    <row r="52" s="7" customFormat="1" ht="12"/>
+    <row r="53" s="7" customFormat="1" ht="12"/>
+    <row r="54" s="7" customFormat="1" ht="12"/>
+    <row r="55" s="7" customFormat="1" ht="12"/>
+    <row r="56" s="7" customFormat="1" ht="12"/>
+    <row r="57" s="7" customFormat="1" ht="12"/>
+    <row r="58" s="7" customFormat="1" ht="12"/>
+    <row r="59" s="7" customFormat="1" ht="12"/>
+    <row r="60" s="7" customFormat="1" ht="12"/>
+    <row r="61" s="7" customFormat="1" ht="12"/>
+    <row r="62" s="7" customFormat="1" ht="12"/>
+    <row r="63" s="7" customFormat="1" ht="12"/>
+    <row r="64" s="7" customFormat="1" ht="12"/>
+    <row r="65" s="7" customFormat="1" ht="12"/>
+    <row r="66" s="7" customFormat="1" ht="12"/>
+    <row r="67" s="7" customFormat="1" ht="12"/>
+    <row r="68" s="7" customFormat="1" ht="12"/>
+    <row r="69" s="7" customFormat="1" ht="12"/>
+    <row r="70" s="7" customFormat="1" ht="12"/>
+    <row r="71" s="7" customFormat="1" ht="12"/>
+    <row r="72" s="7" customFormat="1" ht="12"/>
+    <row r="73" s="7" customFormat="1" ht="12"/>
+    <row r="74" s="7" customFormat="1" ht="12"/>
+    <row r="75" s="7" customFormat="1" ht="12"/>
+    <row r="76" s="7" customFormat="1" ht="12"/>
+    <row r="77" s="7" customFormat="1" ht="12"/>
+    <row r="78" s="7" customFormat="1" ht="12"/>
+    <row r="79" s="7" customFormat="1" ht="12"/>
+    <row r="80" s="7" customFormat="1" ht="12"/>
+    <row r="81" s="7" customFormat="1" ht="12"/>
+    <row r="82" s="7" customFormat="1" ht="12"/>
+    <row r="83" s="7" customFormat="1" ht="12"/>
+    <row r="84" s="7" customFormat="1" ht="12"/>
+    <row r="85" s="7" customFormat="1" ht="12"/>
+    <row r="86" s="7" customFormat="1" ht="12"/>
+    <row r="87" s="7" customFormat="1" ht="12"/>
+    <row r="88" s="7" customFormat="1" ht="12"/>
+    <row r="89" s="7" customFormat="1" ht="12"/>
+    <row r="90" s="7" customFormat="1" ht="12"/>
+    <row r="91" s="7" customFormat="1" ht="12"/>
+    <row r="92" s="7" customFormat="1" ht="12"/>
+    <row r="93" s="7" customFormat="1" ht="12"/>
+    <row r="94" s="7" customFormat="1" ht="12"/>
+    <row r="95" s="7" customFormat="1" ht="12"/>
+    <row r="96" s="7" customFormat="1" ht="12"/>
+    <row r="97" s="7" customFormat="1" ht="12"/>
+    <row r="98" s="7" customFormat="1" ht="12"/>
+    <row r="99" s="7" customFormat="1" ht="12"/>
+    <row r="100" s="7" customFormat="1" ht="12"/>
+    <row r="101" s="7" customFormat="1" ht="12"/>
+    <row r="102" s="7" customFormat="1" ht="12"/>
+    <row r="103" s="7" customFormat="1" ht="12"/>
+    <row r="104" s="7" customFormat="1" ht="12"/>
+    <row r="105" s="7" customFormat="1" ht="12"/>
+    <row r="106" s="7" customFormat="1" ht="12"/>
+    <row r="107" s="7" customFormat="1" ht="12"/>
+    <row r="108" s="7" customFormat="1" ht="12"/>
+    <row r="109" s="7" customFormat="1" ht="12"/>
+    <row r="110" s="7" customFormat="1" ht="12"/>
+    <row r="111" s="7" customFormat="1" ht="12"/>
+    <row r="112" s="7" customFormat="1" ht="12"/>
+    <row r="113" s="7" customFormat="1" ht="12"/>
+    <row r="114" s="7" customFormat="1" ht="12"/>
+    <row r="115" s="7" customFormat="1" ht="12"/>
+    <row r="116" s="7" customFormat="1" ht="12"/>
+    <row r="117" s="7" customFormat="1" ht="12"/>
+    <row r="118" s="7" customFormat="1" ht="12"/>
+    <row r="119" s="7" customFormat="1" ht="12"/>
+    <row r="120" s="7" customFormat="1" ht="12"/>
+    <row r="121" s="7" customFormat="1" ht="12"/>
+    <row r="122" s="7" customFormat="1" ht="12"/>
+    <row r="123" s="7" customFormat="1" ht="12"/>
+    <row r="124" s="7" customFormat="1" ht="12"/>
+    <row r="125" s="7" customFormat="1" ht="12"/>
+    <row r="126" s="7" customFormat="1" ht="12"/>
+    <row r="127" s="7" customFormat="1" ht="12"/>
+    <row r="128" s="7" customFormat="1" ht="12"/>
+    <row r="129" s="7" customFormat="1" ht="12"/>
+    <row r="130" s="7" customFormat="1" ht="12"/>
+    <row r="131" s="7" customFormat="1" ht="12"/>
+    <row r="132" s="7" customFormat="1" ht="12"/>
+    <row r="133" s="7" customFormat="1" ht="12"/>
+    <row r="134" s="7" customFormat="1" ht="12"/>
+    <row r="135" s="7" customFormat="1" ht="12"/>
+    <row r="136" s="7" customFormat="1" ht="12"/>
+    <row r="137" s="7" customFormat="1" ht="12"/>
+    <row r="138" s="7" customFormat="1" ht="12"/>
+    <row r="139" s="7" customFormat="1" ht="12"/>
+    <row r="140" s="7" customFormat="1" ht="12"/>
+    <row r="141" s="7" customFormat="1" ht="12"/>
+    <row r="142" s="7" customFormat="1" ht="12"/>
+    <row r="143" s="7" customFormat="1" ht="12"/>
+    <row r="144" s="7" customFormat="1" ht="12"/>
+    <row r="145" s="7" customFormat="1" ht="12"/>
+    <row r="146" s="7" customFormat="1" ht="12"/>
+    <row r="147" s="7" customFormat="1" ht="12"/>
+    <row r="148" s="7" customFormat="1" ht="12"/>
+    <row r="149" s="7" customFormat="1" ht="12"/>
+    <row r="150" s="7" customFormat="1" ht="12"/>
+    <row r="151" s="7" customFormat="1" ht="12"/>
+    <row r="152" s="7" customFormat="1" ht="12"/>
+    <row r="153" s="7" customFormat="1" ht="12"/>
+    <row r="154" s="7" customFormat="1" ht="12"/>
+    <row r="155" s="7" customFormat="1" ht="12"/>
+    <row r="156" s="7" customFormat="1" ht="12"/>
+    <row r="157" s="7" customFormat="1" ht="12"/>
+    <row r="158" s="7" customFormat="1" ht="12"/>
+    <row r="159" s="7" customFormat="1" ht="12"/>
+    <row r="160" s="7" customFormat="1" ht="12"/>
+    <row r="161" s="7" customFormat="1" ht="12"/>
+    <row r="162" s="7" customFormat="1" ht="12"/>
+    <row r="163" s="7" customFormat="1" ht="12"/>
+    <row r="164" s="7" customFormat="1" ht="12"/>
+    <row r="165" s="7" customFormat="1" ht="12"/>
+    <row r="166" s="7" customFormat="1" ht="12"/>
+    <row r="167" s="7" customFormat="1" ht="12"/>
+    <row r="168" s="7" customFormat="1" ht="12"/>
+    <row r="169" s="7" customFormat="1" ht="12"/>
+    <row r="170" s="7" customFormat="1" ht="12"/>
+    <row r="171" s="7" customFormat="1" ht="12"/>
+    <row r="172" s="7" customFormat="1" ht="12"/>
+    <row r="173" s="7" customFormat="1" ht="12"/>
+    <row r="174" s="7" customFormat="1" ht="12"/>
+    <row r="175" s="7" customFormat="1" ht="12"/>
+    <row r="176" s="7" customFormat="1" ht="12"/>
+    <row r="177" spans="3:8" s="7" customFormat="1" ht="12"/>
+    <row r="178" spans="3:8" s="7" customFormat="1" ht="12"/>
+    <row r="179" spans="3:8" s="7" customFormat="1" ht="12"/>
+    <row r="180" spans="3:8" s="7" customFormat="1" ht="12"/>
+    <row r="181" spans="3:8" s="7" customFormat="1" ht="12"/>
+    <row r="182" spans="3:8" s="7" customFormat="1" ht="12"/>
+    <row r="183" spans="3:8" s="7" customFormat="1" ht="12"/>
+    <row r="184" spans="3:8" s="7" customFormat="1" ht="12"/>
+    <row r="185" spans="3:8" s="7" customFormat="1" ht="12"/>
+    <row r="186" spans="3:8" s="7" customFormat="1" ht="12"/>
+    <row r="187" spans="3:8" s="7" customFormat="1" ht="12"/>
+    <row r="188" spans="3:8" s="7" customFormat="1">
+      <c r="C188"/>
+      <c r="G188"/>
+      <c r="H188"/>
+    </row>
+    <row r="189" spans="3:8" s="7" customFormat="1">
+      <c r="C189"/>
+      <c r="G189"/>
+      <c r="H189"/>
+    </row>
+    <row r="190" spans="3:8" s="7" customFormat="1">
+      <c r="C190"/>
+      <c r="G190"/>
+      <c r="H190"/>
+    </row>
+    <row r="191" spans="3:8" s="7" customFormat="1">
+      <c r="C191"/>
+      <c r="G191"/>
+      <c r="H191"/>
     </row>
   </sheetData>
+  <mergeCells count="18">
+    <mergeCell ref="A30:B31"/>
+    <mergeCell ref="AB18:AB27"/>
+    <mergeCell ref="B18:B27"/>
+    <mergeCell ref="C18:C27"/>
+    <mergeCell ref="J18:J27"/>
+    <mergeCell ref="I18:I27"/>
+    <mergeCell ref="Z18:Z27"/>
+    <mergeCell ref="AA18:AA27"/>
+    <mergeCell ref="L18:L27"/>
+    <mergeCell ref="K18:K27"/>
+    <mergeCell ref="D18:D27"/>
+    <mergeCell ref="E18:E27"/>
+    <mergeCell ref="G18:G27"/>
+    <mergeCell ref="X18:X27"/>
+    <mergeCell ref="Y18:Y27"/>
+    <mergeCell ref="H18:H27"/>
+    <mergeCell ref="M18:M27"/>
+    <mergeCell ref="N18:N27"/>
+  </mergeCells>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="C2:G9"/>
+  <dimension ref="C2:G14"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="I19" sqref="I19"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
@@ -3524,56 +6437,107 @@
         <v>149</v>
       </c>
       <c r="G3" t="str">
-        <f t="shared" ref="G3:G9" si="0">CONCATENATE(C3,",")</f>
+        <f t="shared" ref="G3:G14" si="0">CONCATENATE(C3,",")</f>
         <v>NR_PEDIDO_WMS,</v>
       </c>
     </row>
     <row r="4" spans="3:7">
       <c r="C4" t="s">
-        <v>150</v>
+        <v>169</v>
       </c>
       <c r="G4" t="str">
         <f t="shared" si="0"/>
-        <v>CD_OCORRENCIA_TERCEIRO,</v>
+        <v>SQ_PEDIDO,</v>
       </c>
     </row>
     <row r="5" spans="3:7">
       <c r="C5" t="s">
-        <v>53</v>
+        <v>168</v>
       </c>
       <c r="G5" t="str">
         <f t="shared" si="0"/>
-        <v>DT_REGISTRO,</v>
+        <v>CD_ITEM,</v>
       </c>
     </row>
     <row r="6" spans="3:7">
       <c r="C6" t="s">
-        <v>54</v>
+        <v>173</v>
       </c>
       <c r="G6" t="str">
         <f t="shared" si="0"/>
-        <v>CD_SITUACAO,</v>
+        <v>CD_SITUACAO_ITEM,</v>
       </c>
     </row>
     <row r="7" spans="3:7">
       <c r="C7" t="s">
-        <v>148</v>
+        <v>171</v>
       </c>
       <c r="G7" t="str">
         <f t="shared" si="0"/>
-        <v>CD_PLANTA,</v>
+        <v>QT_PEDIDA,</v>
       </c>
     </row>
     <row r="8" spans="3:7">
+      <c r="C8" t="s">
+        <v>172</v>
+      </c>
       <c r="G8" t="str">
         <f t="shared" si="0"/>
-        <v>,</v>
+        <v>QT_ATENDIDA,</v>
       </c>
     </row>
     <row r="9" spans="3:7">
+      <c r="C9" t="s">
+        <v>174</v>
+      </c>
       <c r="G9" t="str">
         <f t="shared" si="0"/>
-        <v>,</v>
+        <v>QT_LIQUIDADA,</v>
+      </c>
+    </row>
+    <row r="10" spans="3:7">
+      <c r="C10" t="s">
+        <v>176</v>
+      </c>
+      <c r="G10" t="str">
+        <f t="shared" si="0"/>
+        <v>QT_CANCELADA,</v>
+      </c>
+    </row>
+    <row r="11" spans="3:7">
+      <c r="C11" t="s">
+        <v>175</v>
+      </c>
+      <c r="G11" t="str">
+        <f t="shared" si="0"/>
+        <v>DT_SITUACAO_ITEM,</v>
+      </c>
+    </row>
+    <row r="12" spans="3:7">
+      <c r="C12" t="s">
+        <v>170</v>
+      </c>
+      <c r="G12" t="str">
+        <f t="shared" si="0"/>
+        <v>CD_LOTE,</v>
+      </c>
+    </row>
+    <row r="13" spans="3:7">
+      <c r="C13" t="s">
+        <v>7</v>
+      </c>
+      <c r="G13" t="str">
+        <f t="shared" si="0"/>
+        <v>DT_ULT_ATUALIZACAO,</v>
+      </c>
+    </row>
+    <row r="14" spans="3:7">
+      <c r="C14" t="s">
+        <v>148</v>
+      </c>
+      <c r="G14" t="str">
+        <f t="shared" si="0"/>
+        <v>CD_PLANTA,</v>
       </c>
     </row>
   </sheetData>

--- a/Documentação/Planilhas/Conferencia_WMS.xlsx
+++ b/Documentação/Planilhas/Conferencia_WMS.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="30" windowWidth="20115" windowHeight="8010" firstSheet="7" activeTab="10"/>
+    <workbookView xWindow="240" yWindow="30" windowWidth="20115" windowHeight="8010" firstSheet="8" activeTab="9"/>
   </bookViews>
   <sheets>
     <sheet name="stg_dom_wms_onda" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1781" uniqueCount="895">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1813" uniqueCount="893">
   <si>
     <t>CD_ONDA</t>
   </si>
@@ -2642,9 +2642,6 @@
     <t>DOCK</t>
   </si>
   <si>
-    <t>STAGE</t>
-  </si>
-  <si>
     <t>WN</t>
   </si>
   <si>
@@ -2654,103 +2651,101 @@
     <t>dbo.stg_wms_volumetria</t>
   </si>
   <si>
-    <t>W1943</t>
-  </si>
-  <si>
-    <t>20</t>
-  </si>
-  <si>
-    <t>4000</t>
-  </si>
-  <si>
-    <t>160</t>
-  </si>
-  <si>
-    <t>wmwhse1</t>
-  </si>
-  <si>
-    <t>853811</t>
-  </si>
-  <si>
     <t>PPA0</t>
   </si>
   <si>
-    <t>PP0100300</t>
-  </si>
-  <si>
-    <t>612.72</t>
-  </si>
-  <si>
-    <t>5.589</t>
-  </si>
-  <si>
-    <t>112483</t>
-  </si>
-  <si>
     <t>WF</t>
   </si>
   <si>
     <t>PP0100100</t>
   </si>
   <si>
-    <t>3090</t>
-  </si>
-  <si>
-    <t>1436.85</t>
-  </si>
-  <si>
-    <t>1.1948</t>
-  </si>
-  <si>
-    <t>203408</t>
-  </si>
-  <si>
-    <t>REA</t>
-  </si>
-  <si>
-    <t>RE0100403</t>
-  </si>
-  <si>
-    <t>21.318</t>
-  </si>
-  <si>
-    <t>0.56886</t>
-  </si>
-  <si>
-    <t>468322</t>
-  </si>
-  <si>
-    <t>UNKNOWN</t>
-  </si>
-  <si>
-    <t>500</t>
-  </si>
-  <si>
-    <t>1022.5</t>
-  </si>
-  <si>
-    <t>4.79</t>
-  </si>
-  <si>
-    <t>1718192</t>
-  </si>
-  <si>
-    <t>300</t>
-  </si>
-  <si>
-    <t>45.3</t>
-  </si>
-  <si>
-    <t>0.648</t>
-  </si>
-  <si>
-    <t>Item, detalhando o item. Menu Atribuir Locs., Local</t>
-  </si>
-  <si>
-    <t>Item, detalhando o item. Menu Atribuir Locs., Qtd</t>
-  </si>
-  <si>
-    <t>Item, detalhando o item. Menu Geral, Cubo * Qt_PC</t>
+    <t>No menu do topo da tela, selecionar WMS, Execução, Inventário, Saldos. Em Ações, selecionar Lote por Local. Pegar a informação da coluna "Hold Reason" para o Item desejado. Caso a informação seja branco, a view retornará WN</t>
+  </si>
+  <si>
+    <t>RACK</t>
+  </si>
+  <si>
+    <t>DOCA1</t>
+  </si>
+  <si>
+    <t>0.00058</t>
+  </si>
+  <si>
+    <t>PICKTO</t>
+  </si>
+  <si>
+    <t>ESA</t>
+  </si>
+  <si>
+    <t>ES0100201</t>
+  </si>
+  <si>
+    <t>PP0100200</t>
+  </si>
+  <si>
+    <t>ES0100200</t>
+  </si>
+  <si>
+    <t>Com o CD_LOCAL identificado, ir no menu do topo da tela, selecionar WMS, Configuração, Local. Informar o CD_LOCAL no campo Local. Pegar a informação da coluna Zona.</t>
+  </si>
+  <si>
+    <t>Ir no menu do topo da tela, selecionar WMS, Configuração, Zona. Informar a Zona no campo Descrição. Pegar a informação da coluna Zona
+[é preciso que o nome seja informado como é apresentado na configuração do Local, respeitando maíuscula, minúscula, etc]</t>
+  </si>
+  <si>
+    <t>0.03654</t>
+  </si>
+  <si>
+    <t>0.029</t>
+  </si>
+  <si>
+    <t>230184.3</t>
+  </si>
+  <si>
+    <t>0.2987</t>
+  </si>
+  <si>
+    <t>0.00174</t>
+  </si>
+  <si>
+    <t>63</t>
+  </si>
+  <si>
+    <t>2884.4308</t>
+  </si>
+  <si>
+    <t>50</t>
+  </si>
+  <si>
+    <t>2325</t>
+  </si>
+  <si>
+    <t>45.7846</t>
+  </si>
+  <si>
+    <t>515</t>
+  </si>
+  <si>
+    <t>239.475</t>
+  </si>
+  <si>
+    <t>No menu do topo da tela, selecionar WMS, Configuração, Item. Informar o Item na coluna Item e pedir o seu detalhamento. detalhando o item. No menu Geral, pegar a informação de Cubo e multiplicar pela Qt_PC</t>
+  </si>
+  <si>
+    <t>No menu do topo da tela, selecionar WMS, Execução, Inventário, Saldos. Em Ações, selecionar Lote por Local por LPN com Pesos. Pegar a informação da coluna Item</t>
+  </si>
+  <si>
+    <t>No menu do topo da tela, selecionar WMS, Execução, Inventário, Saldos. Em Ações, selecionar Lote por Local por LPN com Pesos. Pegar a informação da coluna "Local" para o Item desejado. Caso exista o mesmo local mais de uma vez, a view agrupará os dados</t>
+  </si>
+  <si>
+    <t>No menu do topo da tela, selecionar WMS, Execução, Inventário, Saldos. Em Ações, selecionar Lote por Local por LPN com Pesos. Pegar a informação da coluna "Total" para o Item e Local desejado, somando os valores</t>
+  </si>
+  <si>
+    <t>No menu do topo da tela, selecionar WMS, Execução, Inventário, Saldos. Em Ações, selecionar Lote por Local por LPN com Pesos. Pegar a informação da coluna "Peso Líquido" para o Item e Local desejado, somando os valores</t>
+  </si>
+  <si>
+    <t>CD_ARMAZEM_LN</t>
   </si>
 </sst>
 </file>
@@ -2980,7 +2975,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="56">
+  <cellXfs count="57">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -3069,32 +3064,14 @@
     <xf numFmtId="49" fontId="2" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="22" fontId="2" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="49" fontId="6" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -3104,6 +3081,30 @@
     </xf>
     <xf numFmtId="49" fontId="2" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="9" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="49" fontId="8" fillId="8" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -3117,18 +3118,13 @@
     <xf numFmtId="49" fontId="2" fillId="4" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="2" fillId="9" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
+    <xf numFmtId="3" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -3639,108 +3635,108 @@
     </row>
     <row r="10" spans="1:36" s="9" customFormat="1" ht="11.25"/>
     <row r="11" spans="1:36" s="9" customFormat="1" ht="11.25">
-      <c r="B11" s="36" t="s">
+      <c r="B11" s="44" t="s">
         <v>20</v>
       </c>
-      <c r="C11" s="36" t="s">
+      <c r="C11" s="44" t="s">
         <v>21</v>
       </c>
-      <c r="D11" s="36" t="s">
+      <c r="D11" s="44" t="s">
         <v>22</v>
       </c>
-      <c r="E11" s="36" t="s">
+      <c r="E11" s="44" t="s">
         <v>24</v>
       </c>
-      <c r="F11" s="36" t="s">
+      <c r="F11" s="44" t="s">
         <v>25</v>
       </c>
-      <c r="G11" s="36" t="s">
+      <c r="G11" s="44" t="s">
         <v>26</v>
       </c>
-      <c r="H11" s="36" t="s">
+      <c r="H11" s="44" t="s">
         <v>28</v>
       </c>
     </row>
     <row r="12" spans="1:36" s="9" customFormat="1" ht="11.25">
-      <c r="B12" s="36"/>
-      <c r="C12" s="36"/>
-      <c r="D12" s="36"/>
-      <c r="E12" s="36"/>
-      <c r="F12" s="36"/>
-      <c r="G12" s="36"/>
-      <c r="H12" s="36"/>
+      <c r="B12" s="44"/>
+      <c r="C12" s="44"/>
+      <c r="D12" s="44"/>
+      <c r="E12" s="44"/>
+      <c r="F12" s="44"/>
+      <c r="G12" s="44"/>
+      <c r="H12" s="44"/>
     </row>
     <row r="13" spans="1:36" s="9" customFormat="1" ht="11.25">
-      <c r="B13" s="36"/>
-      <c r="C13" s="36"/>
-      <c r="D13" s="36"/>
-      <c r="E13" s="36"/>
-      <c r="F13" s="36"/>
-      <c r="G13" s="36"/>
-      <c r="H13" s="36"/>
+      <c r="B13" s="44"/>
+      <c r="C13" s="44"/>
+      <c r="D13" s="44"/>
+      <c r="E13" s="44"/>
+      <c r="F13" s="44"/>
+      <c r="G13" s="44"/>
+      <c r="H13" s="44"/>
     </row>
     <row r="14" spans="1:36" s="9" customFormat="1" ht="11.25">
-      <c r="B14" s="36"/>
-      <c r="C14" s="36"/>
-      <c r="D14" s="36"/>
-      <c r="E14" s="36"/>
-      <c r="F14" s="36"/>
-      <c r="G14" s="36"/>
-      <c r="H14" s="36"/>
+      <c r="B14" s="44"/>
+      <c r="C14" s="44"/>
+      <c r="D14" s="44"/>
+      <c r="E14" s="44"/>
+      <c r="F14" s="44"/>
+      <c r="G14" s="44"/>
+      <c r="H14" s="44"/>
     </row>
     <row r="15" spans="1:36" s="9" customFormat="1" ht="11.25">
-      <c r="B15" s="36"/>
-      <c r="C15" s="36"/>
-      <c r="D15" s="36"/>
-      <c r="E15" s="36"/>
-      <c r="F15" s="36"/>
-      <c r="G15" s="36"/>
-      <c r="H15" s="36"/>
+      <c r="B15" s="44"/>
+      <c r="C15" s="44"/>
+      <c r="D15" s="44"/>
+      <c r="E15" s="44"/>
+      <c r="F15" s="44"/>
+      <c r="G15" s="44"/>
+      <c r="H15" s="44"/>
     </row>
     <row r="16" spans="1:36" s="9" customFormat="1" ht="11.25">
-      <c r="B16" s="36"/>
-      <c r="C16" s="36"/>
-      <c r="D16" s="36"/>
-      <c r="E16" s="36"/>
-      <c r="F16" s="36"/>
-      <c r="G16" s="36"/>
-      <c r="H16" s="36"/>
+      <c r="B16" s="44"/>
+      <c r="C16" s="44"/>
+      <c r="D16" s="44"/>
+      <c r="E16" s="44"/>
+      <c r="F16" s="44"/>
+      <c r="G16" s="44"/>
+      <c r="H16" s="44"/>
     </row>
     <row r="17" spans="1:8" s="9" customFormat="1" ht="11.25">
-      <c r="B17" s="36"/>
-      <c r="C17" s="36"/>
-      <c r="D17" s="36"/>
-      <c r="E17" s="36"/>
-      <c r="F17" s="36"/>
-      <c r="G17" s="36"/>
-      <c r="H17" s="36"/>
+      <c r="B17" s="44"/>
+      <c r="C17" s="44"/>
+      <c r="D17" s="44"/>
+      <c r="E17" s="44"/>
+      <c r="F17" s="44"/>
+      <c r="G17" s="44"/>
+      <c r="H17" s="44"/>
     </row>
     <row r="18" spans="1:8" s="9" customFormat="1" ht="11.25">
-      <c r="B18" s="36"/>
-      <c r="C18" s="36"/>
-      <c r="D18" s="36"/>
-      <c r="E18" s="36"/>
-      <c r="F18" s="36"/>
-      <c r="G18" s="36"/>
-      <c r="H18" s="36"/>
+      <c r="B18" s="44"/>
+      <c r="C18" s="44"/>
+      <c r="D18" s="44"/>
+      <c r="E18" s="44"/>
+      <c r="F18" s="44"/>
+      <c r="G18" s="44"/>
+      <c r="H18" s="44"/>
     </row>
     <row r="19" spans="1:8" s="9" customFormat="1" ht="11.25">
-      <c r="B19" s="36"/>
-      <c r="C19" s="36"/>
-      <c r="D19" s="36"/>
-      <c r="E19" s="36"/>
-      <c r="F19" s="36"/>
-      <c r="G19" s="36"/>
-      <c r="H19" s="36"/>
+      <c r="B19" s="44"/>
+      <c r="C19" s="44"/>
+      <c r="D19" s="44"/>
+      <c r="E19" s="44"/>
+      <c r="F19" s="44"/>
+      <c r="G19" s="44"/>
+      <c r="H19" s="44"/>
     </row>
     <row r="20" spans="1:8" s="9" customFormat="1" ht="11.25">
-      <c r="B20" s="36"/>
-      <c r="C20" s="36"/>
-      <c r="D20" s="36"/>
-      <c r="E20" s="36"/>
-      <c r="F20" s="36"/>
-      <c r="G20" s="36"/>
-      <c r="H20" s="36"/>
+      <c r="B20" s="44"/>
+      <c r="C20" s="44"/>
+      <c r="D20" s="44"/>
+      <c r="E20" s="44"/>
+      <c r="F20" s="44"/>
+      <c r="G20" s="44"/>
+      <c r="H20" s="44"/>
     </row>
     <row r="21" spans="1:8" s="9" customFormat="1" ht="11.25" customHeight="1">
       <c r="B21" s="14"/>
@@ -3748,7 +3744,7 @@
       <c r="D21" s="14"/>
       <c r="E21" s="14"/>
       <c r="F21" s="14"/>
-      <c r="G21" s="36" t="s">
+      <c r="G21" s="44" t="s">
         <v>27</v>
       </c>
     </row>
@@ -3758,27 +3754,27 @@
       <c r="D22" s="14"/>
       <c r="E22" s="14"/>
       <c r="F22" s="14"/>
-      <c r="G22" s="36"/>
+      <c r="G22" s="44"/>
     </row>
     <row r="23" spans="1:8" s="9" customFormat="1" ht="11.25">
-      <c r="A23" s="37" t="s">
+      <c r="A23" s="45" t="s">
         <v>49</v>
       </c>
-      <c r="B23" s="37"/>
+      <c r="B23" s="45"/>
       <c r="C23" s="14"/>
       <c r="D23" s="14"/>
       <c r="E23" s="14"/>
       <c r="F23" s="14"/>
-      <c r="G23" s="36"/>
+      <c r="G23" s="44"/>
     </row>
     <row r="24" spans="1:8" s="9" customFormat="1" ht="11.25">
-      <c r="A24" s="37"/>
-      <c r="B24" s="37"/>
+      <c r="A24" s="45"/>
+      <c r="B24" s="45"/>
       <c r="C24" s="14"/>
       <c r="D24" s="14"/>
       <c r="E24" s="14"/>
       <c r="F24" s="14"/>
-      <c r="G24" s="36"/>
+      <c r="G24" s="44"/>
     </row>
     <row r="25" spans="1:8" s="9" customFormat="1" ht="15.75" customHeight="1">
       <c r="A25" s="20" t="s">
@@ -3791,7 +3787,7 @@
       <c r="D25" s="14"/>
       <c r="E25" s="14"/>
       <c r="F25" s="14"/>
-      <c r="G25" s="36"/>
+      <c r="G25" s="44"/>
     </row>
     <row r="26" spans="1:8" s="9" customFormat="1" ht="11.25">
       <c r="A26" s="17" t="s">
@@ -3804,7 +3800,7 @@
       <c r="D26" s="14"/>
       <c r="E26" s="14"/>
       <c r="F26" s="14"/>
-      <c r="G26" s="36"/>
+      <c r="G26" s="44"/>
     </row>
     <row r="27" spans="1:8" s="7" customFormat="1" ht="12">
       <c r="A27" s="17" t="s">
@@ -3817,7 +3813,7 @@
       <c r="D27" s="15"/>
       <c r="E27" s="15"/>
       <c r="F27" s="15"/>
-      <c r="G27" s="36"/>
+      <c r="G27" s="44"/>
     </row>
     <row r="28" spans="1:8" s="7" customFormat="1" ht="12">
       <c r="A28" s="17" t="s">
@@ -3830,7 +3826,7 @@
       <c r="D28" s="15"/>
       <c r="E28" s="15"/>
       <c r="F28" s="15"/>
-      <c r="G28" s="36"/>
+      <c r="G28" s="44"/>
     </row>
     <row r="29" spans="1:8" s="7" customFormat="1" ht="12">
       <c r="A29" s="17" t="s">
@@ -3843,7 +3839,7 @@
       <c r="D29" s="15"/>
       <c r="E29" s="15"/>
       <c r="F29" s="15"/>
-      <c r="G29" s="36"/>
+      <c r="G29" s="44"/>
     </row>
     <row r="30" spans="1:8" s="7" customFormat="1" ht="12">
       <c r="A30" s="17" t="s">
@@ -3856,7 +3852,7 @@
       <c r="D30" s="15"/>
       <c r="E30" s="15"/>
       <c r="F30" s="15"/>
-      <c r="G30" s="36"/>
+      <c r="G30" s="44"/>
     </row>
     <row r="31" spans="1:8" s="7" customFormat="1" ht="12">
       <c r="A31" s="17" t="s">
@@ -3869,7 +3865,7 @@
       <c r="D31" s="15"/>
       <c r="E31" s="15"/>
       <c r="F31" s="15"/>
-      <c r="G31" s="36"/>
+      <c r="G31" s="44"/>
     </row>
     <row r="32" spans="1:8" s="7" customFormat="1" ht="12">
       <c r="A32" s="17" t="s">
@@ -3878,7 +3874,7 @@
       <c r="B32" s="19" t="s">
         <v>198</v>
       </c>
-      <c r="G32" s="36"/>
+      <c r="G32" s="44"/>
     </row>
     <row r="33" spans="1:2" s="7" customFormat="1" ht="12">
       <c r="A33" s="17" t="s">
@@ -4063,9 +4059,7 @@
   </sheetPr>
   <dimension ref="A2:P192"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="E29" sqref="E29"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
@@ -4124,52 +4118,52 @@
     </row>
     <row r="5" spans="1:16" s="9" customFormat="1" ht="11.25"/>
     <row r="6" spans="1:16" s="8" customFormat="1" ht="22.5" customHeight="1">
-      <c r="A6" s="42" t="s">
+      <c r="A6" s="38" t="s">
         <v>1</v>
       </c>
-      <c r="B6" s="42" t="s">
+      <c r="B6" s="38" t="s">
         <v>148</v>
       </c>
-      <c r="C6" s="42" t="s">
+      <c r="C6" s="38" t="s">
         <v>149</v>
       </c>
-      <c r="D6" s="42" t="s">
+      <c r="D6" s="38" t="s">
         <v>360</v>
       </c>
-      <c r="E6" s="42" t="s">
+      <c r="E6" s="38" t="s">
         <v>363</v>
       </c>
-      <c r="F6" s="42" t="s">
+      <c r="F6" s="38" t="s">
         <v>356</v>
       </c>
-      <c r="G6" s="42" t="s">
+      <c r="G6" s="38" t="s">
         <v>359</v>
       </c>
-      <c r="H6" s="42" t="s">
+      <c r="H6" s="38" t="s">
         <v>355</v>
       </c>
-      <c r="I6" s="42" t="s">
+      <c r="I6" s="38" t="s">
         <v>357</v>
       </c>
-      <c r="J6" s="42" t="s">
+      <c r="J6" s="38" t="s">
         <v>358</v>
       </c>
-      <c r="K6" s="42" t="s">
+      <c r="K6" s="38" t="s">
         <v>361</v>
       </c>
-      <c r="L6" s="42" t="s">
+      <c r="L6" s="38" t="s">
         <v>189</v>
       </c>
-      <c r="M6" s="42" t="s">
+      <c r="M6" s="38" t="s">
         <v>364</v>
       </c>
-      <c r="N6" s="42" t="s">
+      <c r="N6" s="38" t="s">
         <v>362</v>
       </c>
-      <c r="O6" s="42" t="s">
+      <c r="O6" s="38" t="s">
         <v>7</v>
       </c>
-      <c r="P6" s="42" t="s">
+      <c r="P6" s="38" t="s">
         <v>263</v>
       </c>
     </row>
@@ -4702,228 +4696,228 @@
       <c r="P18" s="21"/>
     </row>
     <row r="19" spans="1:16" s="9" customFormat="1" ht="11.25" customHeight="1">
-      <c r="A19" s="36"/>
-      <c r="B19" s="36" t="s">
+      <c r="A19" s="44"/>
+      <c r="B19" s="44" t="s">
         <v>849</v>
       </c>
-      <c r="C19" s="36" t="s">
+      <c r="C19" s="44" t="s">
         <v>67</v>
       </c>
-      <c r="D19" s="36" t="s">
+      <c r="D19" s="44" t="s">
         <v>370</v>
       </c>
-      <c r="E19" s="36" t="s">
+      <c r="E19" s="44" t="s">
         <v>414</v>
       </c>
-      <c r="F19" s="36" t="s">
+      <c r="F19" s="44" t="s">
         <v>412</v>
       </c>
-      <c r="G19" s="36" t="s">
+      <c r="G19" s="44" t="s">
         <v>413</v>
       </c>
-      <c r="H19" s="36" t="s">
+      <c r="H19" s="44" t="s">
         <v>441</v>
       </c>
-      <c r="I19" s="36" t="s">
+      <c r="I19" s="44" t="s">
         <v>442</v>
       </c>
-      <c r="J19" s="36" t="s">
+      <c r="J19" s="44" t="s">
         <v>443</v>
       </c>
-      <c r="K19" s="36" t="s">
+      <c r="K19" s="44" t="s">
         <v>371</v>
       </c>
-      <c r="L19" s="43" t="s">
+      <c r="L19" s="46" t="s">
         <v>440</v>
       </c>
-      <c r="M19" s="36" t="s">
+      <c r="M19" s="44" t="s">
         <v>439</v>
       </c>
-      <c r="N19" s="36"/>
-      <c r="O19" s="36"/>
-      <c r="P19" s="36" t="s">
+      <c r="N19" s="44"/>
+      <c r="O19" s="44"/>
+      <c r="P19" s="44" t="s">
         <v>843</v>
       </c>
     </row>
     <row r="20" spans="1:16" s="9" customFormat="1" ht="11.25">
-      <c r="A20" s="36"/>
-      <c r="B20" s="36"/>
-      <c r="C20" s="36"/>
-      <c r="D20" s="36"/>
-      <c r="E20" s="36"/>
-      <c r="F20" s="36"/>
-      <c r="G20" s="36"/>
-      <c r="H20" s="36"/>
-      <c r="I20" s="36"/>
-      <c r="J20" s="36"/>
-      <c r="K20" s="36"/>
-      <c r="L20" s="43"/>
-      <c r="M20" s="36"/>
-      <c r="N20" s="36"/>
-      <c r="O20" s="36"/>
-      <c r="P20" s="36"/>
+      <c r="A20" s="44"/>
+      <c r="B20" s="44"/>
+      <c r="C20" s="44"/>
+      <c r="D20" s="44"/>
+      <c r="E20" s="44"/>
+      <c r="F20" s="44"/>
+      <c r="G20" s="44"/>
+      <c r="H20" s="44"/>
+      <c r="I20" s="44"/>
+      <c r="J20" s="44"/>
+      <c r="K20" s="44"/>
+      <c r="L20" s="46"/>
+      <c r="M20" s="44"/>
+      <c r="N20" s="44"/>
+      <c r="O20" s="44"/>
+      <c r="P20" s="44"/>
     </row>
     <row r="21" spans="1:16" s="9" customFormat="1" ht="11.25">
-      <c r="A21" s="36"/>
-      <c r="B21" s="36"/>
-      <c r="C21" s="36"/>
-      <c r="D21" s="36"/>
-      <c r="E21" s="36"/>
-      <c r="F21" s="36"/>
-      <c r="G21" s="36"/>
-      <c r="H21" s="36"/>
-      <c r="I21" s="36"/>
-      <c r="J21" s="36"/>
-      <c r="K21" s="36"/>
-      <c r="L21" s="43"/>
-      <c r="M21" s="36"/>
-      <c r="N21" s="36"/>
-      <c r="O21" s="36"/>
-      <c r="P21" s="36"/>
+      <c r="A21" s="44"/>
+      <c r="B21" s="44"/>
+      <c r="C21" s="44"/>
+      <c r="D21" s="44"/>
+      <c r="E21" s="44"/>
+      <c r="F21" s="44"/>
+      <c r="G21" s="44"/>
+      <c r="H21" s="44"/>
+      <c r="I21" s="44"/>
+      <c r="J21" s="44"/>
+      <c r="K21" s="44"/>
+      <c r="L21" s="46"/>
+      <c r="M21" s="44"/>
+      <c r="N21" s="44"/>
+      <c r="O21" s="44"/>
+      <c r="P21" s="44"/>
     </row>
     <row r="22" spans="1:16" s="9" customFormat="1" ht="11.25">
-      <c r="A22" s="36"/>
-      <c r="B22" s="36"/>
-      <c r="C22" s="36"/>
-      <c r="D22" s="36"/>
-      <c r="E22" s="36"/>
-      <c r="F22" s="36"/>
-      <c r="G22" s="36"/>
-      <c r="H22" s="36"/>
-      <c r="I22" s="36"/>
-      <c r="J22" s="36"/>
-      <c r="K22" s="36"/>
-      <c r="L22" s="43"/>
-      <c r="M22" s="36"/>
-      <c r="N22" s="36"/>
-      <c r="O22" s="36"/>
-      <c r="P22" s="36"/>
+      <c r="A22" s="44"/>
+      <c r="B22" s="44"/>
+      <c r="C22" s="44"/>
+      <c r="D22" s="44"/>
+      <c r="E22" s="44"/>
+      <c r="F22" s="44"/>
+      <c r="G22" s="44"/>
+      <c r="H22" s="44"/>
+      <c r="I22" s="44"/>
+      <c r="J22" s="44"/>
+      <c r="K22" s="44"/>
+      <c r="L22" s="46"/>
+      <c r="M22" s="44"/>
+      <c r="N22" s="44"/>
+      <c r="O22" s="44"/>
+      <c r="P22" s="44"/>
     </row>
     <row r="23" spans="1:16" s="9" customFormat="1" ht="11.25">
-      <c r="A23" s="36"/>
-      <c r="B23" s="36"/>
-      <c r="C23" s="36"/>
-      <c r="D23" s="36"/>
-      <c r="E23" s="36"/>
-      <c r="F23" s="36"/>
-      <c r="G23" s="36"/>
-      <c r="H23" s="36"/>
-      <c r="I23" s="36"/>
-      <c r="J23" s="36"/>
-      <c r="K23" s="36"/>
-      <c r="L23" s="43"/>
-      <c r="M23" s="36"/>
-      <c r="N23" s="36"/>
-      <c r="O23" s="36"/>
-      <c r="P23" s="36"/>
+      <c r="A23" s="44"/>
+      <c r="B23" s="44"/>
+      <c r="C23" s="44"/>
+      <c r="D23" s="44"/>
+      <c r="E23" s="44"/>
+      <c r="F23" s="44"/>
+      <c r="G23" s="44"/>
+      <c r="H23" s="44"/>
+      <c r="I23" s="44"/>
+      <c r="J23" s="44"/>
+      <c r="K23" s="44"/>
+      <c r="L23" s="46"/>
+      <c r="M23" s="44"/>
+      <c r="N23" s="44"/>
+      <c r="O23" s="44"/>
+      <c r="P23" s="44"/>
     </row>
     <row r="24" spans="1:16" s="9" customFormat="1" ht="11.25">
-      <c r="A24" s="36"/>
-      <c r="B24" s="36"/>
-      <c r="C24" s="36"/>
-      <c r="D24" s="36"/>
-      <c r="E24" s="36"/>
-      <c r="F24" s="36"/>
-      <c r="G24" s="36"/>
-      <c r="H24" s="36"/>
-      <c r="I24" s="36"/>
-      <c r="J24" s="36"/>
-      <c r="K24" s="36"/>
-      <c r="L24" s="43"/>
-      <c r="M24" s="36"/>
-      <c r="N24" s="36"/>
-      <c r="O24" s="36"/>
-      <c r="P24" s="36"/>
+      <c r="A24" s="44"/>
+      <c r="B24" s="44"/>
+      <c r="C24" s="44"/>
+      <c r="D24" s="44"/>
+      <c r="E24" s="44"/>
+      <c r="F24" s="44"/>
+      <c r="G24" s="44"/>
+      <c r="H24" s="44"/>
+      <c r="I24" s="44"/>
+      <c r="J24" s="44"/>
+      <c r="K24" s="44"/>
+      <c r="L24" s="46"/>
+      <c r="M24" s="44"/>
+      <c r="N24" s="44"/>
+      <c r="O24" s="44"/>
+      <c r="P24" s="44"/>
     </row>
     <row r="25" spans="1:16" s="9" customFormat="1" ht="11.25">
-      <c r="A25" s="36"/>
-      <c r="B25" s="36"/>
-      <c r="C25" s="36"/>
-      <c r="D25" s="36"/>
-      <c r="E25" s="36"/>
-      <c r="F25" s="36"/>
-      <c r="G25" s="36"/>
-      <c r="H25" s="36"/>
-      <c r="I25" s="36"/>
-      <c r="J25" s="36"/>
-      <c r="K25" s="36"/>
-      <c r="L25" s="43"/>
-      <c r="M25" s="36"/>
-      <c r="N25" s="36"/>
-      <c r="O25" s="36"/>
-      <c r="P25" s="36"/>
+      <c r="A25" s="44"/>
+      <c r="B25" s="44"/>
+      <c r="C25" s="44"/>
+      <c r="D25" s="44"/>
+      <c r="E25" s="44"/>
+      <c r="F25" s="44"/>
+      <c r="G25" s="44"/>
+      <c r="H25" s="44"/>
+      <c r="I25" s="44"/>
+      <c r="J25" s="44"/>
+      <c r="K25" s="44"/>
+      <c r="L25" s="46"/>
+      <c r="M25" s="44"/>
+      <c r="N25" s="44"/>
+      <c r="O25" s="44"/>
+      <c r="P25" s="44"/>
     </row>
     <row r="26" spans="1:16" s="9" customFormat="1" ht="11.25">
-      <c r="A26" s="36"/>
-      <c r="B26" s="36"/>
-      <c r="C26" s="36"/>
-      <c r="D26" s="36"/>
-      <c r="E26" s="36"/>
-      <c r="F26" s="36"/>
-      <c r="G26" s="36"/>
-      <c r="H26" s="36"/>
-      <c r="I26" s="36"/>
-      <c r="J26" s="36"/>
-      <c r="K26" s="36"/>
-      <c r="L26" s="43"/>
-      <c r="M26" s="36"/>
-      <c r="N26" s="36"/>
-      <c r="O26" s="36"/>
-      <c r="P26" s="36"/>
+      <c r="A26" s="44"/>
+      <c r="B26" s="44"/>
+      <c r="C26" s="44"/>
+      <c r="D26" s="44"/>
+      <c r="E26" s="44"/>
+      <c r="F26" s="44"/>
+      <c r="G26" s="44"/>
+      <c r="H26" s="44"/>
+      <c r="I26" s="44"/>
+      <c r="J26" s="44"/>
+      <c r="K26" s="44"/>
+      <c r="L26" s="46"/>
+      <c r="M26" s="44"/>
+      <c r="N26" s="44"/>
+      <c r="O26" s="44"/>
+      <c r="P26" s="44"/>
     </row>
     <row r="27" spans="1:16" s="9" customFormat="1" ht="11.25">
-      <c r="A27" s="36"/>
-      <c r="B27" s="36"/>
-      <c r="C27" s="36"/>
-      <c r="D27" s="36"/>
-      <c r="E27" s="36"/>
-      <c r="F27" s="36"/>
-      <c r="G27" s="36"/>
-      <c r="H27" s="36"/>
-      <c r="I27" s="36"/>
-      <c r="J27" s="36"/>
-      <c r="K27" s="36"/>
-      <c r="L27" s="43"/>
-      <c r="M27" s="36"/>
-      <c r="N27" s="36"/>
-      <c r="O27" s="36"/>
-      <c r="P27" s="36"/>
+      <c r="A27" s="44"/>
+      <c r="B27" s="44"/>
+      <c r="C27" s="44"/>
+      <c r="D27" s="44"/>
+      <c r="E27" s="44"/>
+      <c r="F27" s="44"/>
+      <c r="G27" s="44"/>
+      <c r="H27" s="44"/>
+      <c r="I27" s="44"/>
+      <c r="J27" s="44"/>
+      <c r="K27" s="44"/>
+      <c r="L27" s="46"/>
+      <c r="M27" s="44"/>
+      <c r="N27" s="44"/>
+      <c r="O27" s="44"/>
+      <c r="P27" s="44"/>
     </row>
     <row r="28" spans="1:16" s="9" customFormat="1" ht="11.25">
-      <c r="A28" s="36"/>
-      <c r="B28" s="36"/>
-      <c r="C28" s="36"/>
-      <c r="D28" s="36"/>
-      <c r="E28" s="36"/>
-      <c r="F28" s="36"/>
-      <c r="G28" s="36"/>
-      <c r="H28" s="36"/>
-      <c r="I28" s="36"/>
-      <c r="J28" s="36"/>
-      <c r="K28" s="36"/>
-      <c r="L28" s="43"/>
-      <c r="M28" s="36"/>
-      <c r="N28" s="36"/>
-      <c r="O28" s="36"/>
-      <c r="P28" s="36"/>
+      <c r="A28" s="44"/>
+      <c r="B28" s="44"/>
+      <c r="C28" s="44"/>
+      <c r="D28" s="44"/>
+      <c r="E28" s="44"/>
+      <c r="F28" s="44"/>
+      <c r="G28" s="44"/>
+      <c r="H28" s="44"/>
+      <c r="I28" s="44"/>
+      <c r="J28" s="44"/>
+      <c r="K28" s="44"/>
+      <c r="L28" s="46"/>
+      <c r="M28" s="44"/>
+      <c r="N28" s="44"/>
+      <c r="O28" s="44"/>
+      <c r="P28" s="44"/>
     </row>
     <row r="29" spans="1:16" s="9" customFormat="1" ht="11.25" customHeight="1"/>
     <row r="30" spans="1:16" s="9" customFormat="1" ht="11.25" customHeight="1">
-      <c r="P30" s="36" t="s">
+      <c r="P30" s="44" t="s">
         <v>844</v>
       </c>
     </row>
     <row r="31" spans="1:16" s="9" customFormat="1" ht="11.25">
-      <c r="A31" s="37" t="s">
+      <c r="A31" s="45" t="s">
         <v>49</v>
       </c>
-      <c r="B31" s="37"/>
-      <c r="P31" s="36"/>
+      <c r="B31" s="45"/>
+      <c r="P31" s="44"/>
     </row>
     <row r="32" spans="1:16" s="9" customFormat="1" ht="11.25">
-      <c r="A32" s="37"/>
-      <c r="B32" s="37"/>
-      <c r="P32" s="36"/>
+      <c r="A32" s="45"/>
+      <c r="B32" s="45"/>
+      <c r="P32" s="44"/>
     </row>
     <row r="33" spans="1:16" s="9" customFormat="1" ht="15.75" customHeight="1">
       <c r="A33" s="20" t="s">
@@ -4932,7 +4926,7 @@
       <c r="B33" s="20" t="s">
         <v>48</v>
       </c>
-      <c r="P33" s="36"/>
+      <c r="P33" s="44"/>
     </row>
     <row r="34" spans="1:16" s="9" customFormat="1" ht="11.25">
       <c r="A34" s="17" t="s">
@@ -4941,7 +4935,7 @@
       <c r="B34" s="18" t="s">
         <v>41</v>
       </c>
-      <c r="P34" s="36"/>
+      <c r="P34" s="44"/>
     </row>
     <row r="35" spans="1:16" s="7" customFormat="1" ht="12">
       <c r="A35" s="17" t="s">
@@ -4950,7 +4944,7 @@
       <c r="B35" s="18" t="s">
         <v>42</v>
       </c>
-      <c r="P35" s="36"/>
+      <c r="P35" s="44"/>
     </row>
     <row r="36" spans="1:16" s="7" customFormat="1" ht="12">
       <c r="A36" s="17" t="s">
@@ -4959,7 +4953,7 @@
       <c r="B36" s="18" t="s">
         <v>201</v>
       </c>
-      <c r="P36" s="36"/>
+      <c r="P36" s="44"/>
     </row>
     <row r="37" spans="1:16" s="7" customFormat="1" ht="12">
       <c r="A37" s="17" t="s">
@@ -4968,7 +4962,7 @@
       <c r="B37" s="19" t="s">
         <v>43</v>
       </c>
-      <c r="P37" s="36"/>
+      <c r="P37" s="44"/>
     </row>
     <row r="38" spans="1:16" s="7" customFormat="1" ht="12">
       <c r="A38" s="17" t="s">
@@ -4977,7 +4971,7 @@
       <c r="B38" s="19" t="s">
         <v>44</v>
       </c>
-      <c r="P38" s="36"/>
+      <c r="P38" s="44"/>
     </row>
     <row r="39" spans="1:16" s="7" customFormat="1" ht="12">
       <c r="A39" s="17" t="s">
@@ -4986,7 +4980,7 @@
       <c r="B39" s="19" t="s">
         <v>45</v>
       </c>
-      <c r="P39" s="36"/>
+      <c r="P39" s="44"/>
     </row>
     <row r="40" spans="1:16" s="7" customFormat="1" ht="12">
       <c r="A40" s="17" t="s">
@@ -5165,9 +5159,6 @@
     </row>
   </sheetData>
   <mergeCells count="18">
-    <mergeCell ref="N19:N28"/>
-    <mergeCell ref="E19:E28"/>
-    <mergeCell ref="M19:M28"/>
     <mergeCell ref="A19:A28"/>
     <mergeCell ref="L19:L28"/>
     <mergeCell ref="P30:P39"/>
@@ -5183,6 +5174,9 @@
     <mergeCell ref="F19:F28"/>
     <mergeCell ref="I19:I28"/>
     <mergeCell ref="J19:J28"/>
+    <mergeCell ref="N19:N28"/>
+    <mergeCell ref="E19:E28"/>
+    <mergeCell ref="M19:M28"/>
   </mergeCells>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -5192,12 +5186,12 @@
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr>
-    <tabColor rgb="FFFFFF00"/>
+    <tabColor rgb="FF00B050"/>
   </sheetPr>
-  <dimension ref="A2:J192"/>
+  <dimension ref="A2:J191"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="E15" sqref="E15"/>
+    <sheetView topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="I3" sqref="I3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -5207,8 +5201,7 @@
     <col min="3" max="3" width="23.7109375" customWidth="1"/>
     <col min="4" max="4" width="28.42578125" customWidth="1"/>
     <col min="5" max="5" width="27.85546875" customWidth="1"/>
-    <col min="6" max="9" width="23.5703125" customWidth="1"/>
-    <col min="10" max="10" width="9.140625" customWidth="1"/>
+    <col min="6" max="10" width="23.5703125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="1:10" s="3" customFormat="1" ht="21">
@@ -5216,13 +5209,14 @@
         <v>14</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>861</v>
+        <v>860</v>
       </c>
       <c r="E2" s="2"/>
       <c r="F2" s="2"/>
       <c r="G2" s="2"/>
       <c r="H2" s="2"/>
       <c r="I2" s="2"/>
+      <c r="J2" s="2"/>
     </row>
     <row r="3" spans="1:10" s="3" customFormat="1" ht="21">
       <c r="C3" s="4"/>
@@ -5232,6 +5226,7 @@
       <c r="G3" s="2"/>
       <c r="H3" s="2"/>
       <c r="I3" s="2"/>
+      <c r="J3" s="2"/>
     </row>
     <row r="4" spans="1:10" s="9" customFormat="1" ht="23.25" customHeight="1">
       <c r="A4" s="11" t="s">
@@ -5244,224 +5239,227 @@
     </row>
     <row r="5" spans="1:10" s="9" customFormat="1" ht="11.25"/>
     <row r="6" spans="1:10" s="8" customFormat="1" ht="22.5" customHeight="1">
-      <c r="A6" s="42" t="s">
+      <c r="A6" s="38" t="s">
+        <v>1</v>
+      </c>
+      <c r="B6" s="38" t="s">
         <v>850</v>
       </c>
-      <c r="B6" s="42" t="s">
+      <c r="C6" s="38" t="s">
         <v>168</v>
       </c>
-      <c r="C6" s="42" t="s">
+      <c r="D6" s="38" t="s">
         <v>851</v>
       </c>
-      <c r="D6" s="42" t="s">
+      <c r="E6" s="38" t="s">
+        <v>853</v>
+      </c>
+      <c r="F6" s="38" t="s">
         <v>852</v>
       </c>
-      <c r="E6" s="42" t="s">
-        <v>853</v>
-      </c>
-      <c r="F6" s="42" t="s">
+      <c r="G6" s="38" t="s">
         <v>854</v>
       </c>
-      <c r="G6" s="42" t="s">
+      <c r="H6" s="38" t="s">
         <v>855</v>
       </c>
-      <c r="H6" s="42" t="s">
+      <c r="I6" s="38" t="s">
         <v>856</v>
       </c>
-      <c r="I6" s="42" t="s">
-        <v>1</v>
+      <c r="J6" s="38" t="s">
+        <v>892</v>
       </c>
     </row>
     <row r="7" spans="1:10" s="22" customFormat="1" ht="11.25">
       <c r="A7" s="31" t="s">
-        <v>862</v>
-      </c>
-      <c r="B7" s="31" t="s">
-        <v>862</v>
-      </c>
-      <c r="C7" s="31" t="s">
+        <v>38</v>
+      </c>
+      <c r="B7" s="35">
+        <v>112483</v>
+      </c>
+      <c r="C7" s="35">
+        <v>112483</v>
+      </c>
+      <c r="D7" s="35" t="s">
+        <v>858</v>
+      </c>
+      <c r="E7" s="35" t="s">
+        <v>872</v>
+      </c>
+      <c r="F7" s="35" t="s">
+        <v>869</v>
+      </c>
+      <c r="G7" s="35" t="s">
+        <v>880</v>
+      </c>
+      <c r="H7" s="35" t="s">
+        <v>881</v>
+      </c>
+      <c r="I7" s="35" t="s">
+        <v>875</v>
+      </c>
+      <c r="J7" s="31" t="s">
         <v>859</v>
-      </c>
-      <c r="D7" s="31" t="s">
-        <v>857</v>
-      </c>
-      <c r="E7" s="31" t="s">
-        <v>858</v>
-      </c>
-      <c r="F7" s="31" t="s">
-        <v>863</v>
-      </c>
-      <c r="G7" s="31" t="s">
-        <v>864</v>
-      </c>
-      <c r="H7" s="31" t="s">
-        <v>865</v>
-      </c>
-      <c r="I7" s="31" t="s">
-        <v>860</v>
-      </c>
-      <c r="J7" s="22" t="s">
-        <v>866</v>
       </c>
     </row>
     <row r="8" spans="1:10" s="22" customFormat="1" ht="11.25">
       <c r="A8" s="31" t="s">
-        <v>867</v>
-      </c>
-      <c r="B8" s="31" t="s">
-        <v>867</v>
-      </c>
-      <c r="C8" s="31" t="s">
+        <v>38</v>
+      </c>
+      <c r="B8" s="35">
+        <v>112483</v>
+      </c>
+      <c r="C8" s="35">
+        <v>112483</v>
+      </c>
+      <c r="D8" s="35" t="s">
+        <v>858</v>
+      </c>
+      <c r="E8" s="35" t="s">
+        <v>870</v>
+      </c>
+      <c r="F8" s="35" t="s">
+        <v>869</v>
+      </c>
+      <c r="G8" s="35" t="s">
+        <v>882</v>
+      </c>
+      <c r="H8" s="35" t="s">
+        <v>883</v>
+      </c>
+      <c r="I8" s="35" t="s">
+        <v>876</v>
+      </c>
+      <c r="J8" s="31" t="s">
         <v>859</v>
-      </c>
-      <c r="D8" s="31" t="s">
-        <v>868</v>
-      </c>
-      <c r="E8" s="31" t="s">
-        <v>869</v>
-      </c>
-      <c r="F8" s="31" t="s">
-        <v>696</v>
-      </c>
-      <c r="G8" s="31" t="s">
-        <v>870</v>
-      </c>
-      <c r="H8" s="31" t="s">
-        <v>871</v>
-      </c>
-      <c r="I8" s="31" t="s">
-        <v>860</v>
-      </c>
-      <c r="J8" s="22" t="s">
-        <v>866</v>
       </c>
     </row>
     <row r="9" spans="1:10" s="22" customFormat="1" ht="11.25">
       <c r="A9" s="31" t="s">
-        <v>872</v>
-      </c>
-      <c r="B9" s="31" t="s">
-        <v>872</v>
-      </c>
-      <c r="C9" s="31" t="s">
-        <v>873</v>
-      </c>
-      <c r="D9" s="31" t="s">
-        <v>868</v>
-      </c>
-      <c r="E9" s="31" t="s">
-        <v>874</v>
-      </c>
-      <c r="F9" s="31" t="s">
-        <v>875</v>
-      </c>
-      <c r="G9" s="31" t="s">
-        <v>876</v>
-      </c>
-      <c r="H9" s="31" t="s">
-        <v>877</v>
-      </c>
-      <c r="I9" s="31" t="s">
-        <v>860</v>
-      </c>
-      <c r="J9" s="22" t="s">
+        <v>38</v>
+      </c>
+      <c r="B9" s="35">
+        <v>112483</v>
+      </c>
+      <c r="C9" s="35">
+        <v>112483</v>
+      </c>
+      <c r="D9" s="35" t="s">
+        <v>858</v>
+      </c>
+      <c r="E9" s="35" t="s">
         <v>866</v>
+      </c>
+      <c r="F9" s="35" t="s">
+        <v>865</v>
+      </c>
+      <c r="G9" s="35" t="s">
+        <v>17</v>
+      </c>
+      <c r="H9" s="35" t="s">
+        <v>884</v>
+      </c>
+      <c r="I9" s="35" t="s">
+        <v>867</v>
+      </c>
+      <c r="J9" s="31" t="s">
+        <v>859</v>
       </c>
     </row>
     <row r="10" spans="1:10" s="22" customFormat="1" ht="11.25">
       <c r="A10" s="31" t="s">
+        <v>38</v>
+      </c>
+      <c r="B10" s="35">
+        <v>112483</v>
+      </c>
+      <c r="C10" s="35">
+        <v>112483</v>
+      </c>
+      <c r="D10" s="35" t="s">
+        <v>858</v>
+      </c>
+      <c r="E10" s="35" t="s">
+        <v>871</v>
+      </c>
+      <c r="F10" s="35" t="s">
+        <v>861</v>
+      </c>
+      <c r="G10" s="35" t="s">
+        <v>885</v>
+      </c>
+      <c r="H10" s="35" t="s">
+        <v>877</v>
+      </c>
+      <c r="I10" s="35" t="s">
         <v>878</v>
       </c>
-      <c r="B10" s="31" t="s">
-        <v>878</v>
-      </c>
-      <c r="C10" s="31" t="s">
+      <c r="J10" s="31" t="s">
         <v>859</v>
-      </c>
-      <c r="D10" s="31" t="s">
-        <v>879</v>
-      </c>
-      <c r="E10" s="31" t="s">
-        <v>880</v>
-      </c>
-      <c r="F10" s="31" t="s">
-        <v>132</v>
-      </c>
-      <c r="G10" s="31" t="s">
-        <v>881</v>
-      </c>
-      <c r="H10" s="31" t="s">
-        <v>882</v>
-      </c>
-      <c r="I10" s="31" t="s">
-        <v>860</v>
-      </c>
-      <c r="J10" s="22" t="s">
-        <v>866</v>
       </c>
     </row>
     <row r="11" spans="1:10" s="22" customFormat="1" ht="11.25">
       <c r="A11" s="31" t="s">
-        <v>883</v>
-      </c>
-      <c r="B11" s="31" t="s">
-        <v>883</v>
-      </c>
-      <c r="C11" s="31" t="s">
+        <v>38</v>
+      </c>
+      <c r="B11" s="35">
+        <v>112483</v>
+      </c>
+      <c r="C11" s="35">
+        <v>112483</v>
+      </c>
+      <c r="D11" s="35" t="s">
+        <v>858</v>
+      </c>
+      <c r="E11" s="35" t="s">
+        <v>868</v>
+      </c>
+      <c r="F11" s="35" t="s">
+        <v>857</v>
+      </c>
+      <c r="G11" s="35" t="s">
+        <v>179</v>
+      </c>
+      <c r="H11" s="35" t="s">
+        <v>700</v>
+      </c>
+      <c r="I11" s="35" t="s">
+        <v>879</v>
+      </c>
+      <c r="J11" s="31" t="s">
         <v>859</v>
-      </c>
-      <c r="D11" s="31" t="s">
-        <v>857</v>
-      </c>
-      <c r="E11" s="31" t="s">
-        <v>884</v>
-      </c>
-      <c r="F11" s="31" t="s">
-        <v>885</v>
-      </c>
-      <c r="G11" s="31" t="s">
-        <v>886</v>
-      </c>
-      <c r="H11" s="31" t="s">
-        <v>887</v>
-      </c>
-      <c r="I11" s="31" t="s">
-        <v>860</v>
-      </c>
-      <c r="J11" s="22" t="s">
-        <v>866</v>
       </c>
     </row>
     <row r="12" spans="1:10" s="22" customFormat="1" ht="11.25">
       <c r="A12" s="31" t="s">
-        <v>888</v>
-      </c>
-      <c r="B12" s="31" t="s">
-        <v>888</v>
-      </c>
-      <c r="C12" s="31" t="s">
+        <v>38</v>
+      </c>
+      <c r="B12" s="35">
+        <v>112483</v>
+      </c>
+      <c r="C12" s="35">
+        <v>112483</v>
+      </c>
+      <c r="D12" s="35" t="s">
+        <v>862</v>
+      </c>
+      <c r="E12" s="35" t="s">
+        <v>863</v>
+      </c>
+      <c r="F12" s="35" t="s">
+        <v>861</v>
+      </c>
+      <c r="G12" s="35" t="s">
+        <v>885</v>
+      </c>
+      <c r="H12" s="35" t="s">
+        <v>886</v>
+      </c>
+      <c r="I12" s="35" t="s">
+        <v>878</v>
+      </c>
+      <c r="J12" s="31" t="s">
         <v>859</v>
-      </c>
-      <c r="D12" s="31" t="s">
-        <v>857</v>
-      </c>
-      <c r="E12" s="31" t="s">
-        <v>858</v>
-      </c>
-      <c r="F12" s="31" t="s">
-        <v>889</v>
-      </c>
-      <c r="G12" s="31" t="s">
-        <v>890</v>
-      </c>
-      <c r="H12" s="31" t="s">
-        <v>891</v>
-      </c>
-      <c r="I12" s="31" t="s">
-        <v>860</v>
-      </c>
-      <c r="J12" s="22" t="s">
-        <v>866</v>
       </c>
     </row>
     <row r="13" spans="1:10" s="22" customFormat="1" ht="11.25">
@@ -5474,6 +5472,7 @@
       <c r="G13" s="31"/>
       <c r="H13" s="31"/>
       <c r="I13" s="31"/>
+      <c r="J13" s="31"/>
     </row>
     <row r="14" spans="1:10" s="22" customFormat="1" ht="11.25">
       <c r="A14" s="31"/>
@@ -5485,267 +5484,483 @@
       <c r="G14" s="31"/>
       <c r="H14" s="31"/>
       <c r="I14" s="31"/>
+      <c r="J14" s="31"/>
     </row>
     <row r="15" spans="1:10" s="22" customFormat="1" ht="11.25">
-      <c r="A15" s="31"/>
-      <c r="B15" s="31"/>
-      <c r="C15" s="31"/>
-      <c r="D15" s="31"/>
-      <c r="E15" s="31"/>
-      <c r="F15" s="31"/>
-      <c r="G15" s="31"/>
-      <c r="H15" s="31"/>
-      <c r="I15" s="31"/>
+      <c r="A15" s="21"/>
+      <c r="B15" s="21"/>
+      <c r="C15" s="21"/>
+      <c r="D15" s="21"/>
+      <c r="E15" s="21"/>
+      <c r="F15" s="21"/>
+      <c r="G15" s="21"/>
+      <c r="H15" s="21"/>
+      <c r="I15" s="21"/>
+      <c r="J15" s="21"/>
     </row>
     <row r="16" spans="1:10" s="22" customFormat="1" ht="11.25">
-      <c r="A16" s="21"/>
       <c r="B16" s="21"/>
       <c r="C16" s="21"/>
       <c r="D16" s="21"/>
       <c r="E16" s="21"/>
       <c r="F16" s="21"/>
       <c r="G16" s="21"/>
-      <c r="H16" s="21"/>
       <c r="I16" s="21"/>
     </row>
-    <row r="17" spans="1:9" s="22" customFormat="1" ht="11.25">
-      <c r="A17" s="21"/>
-      <c r="B17" s="21"/>
+    <row r="17" spans="1:10" s="9" customFormat="1" ht="11.25">
       <c r="C17" s="21"/>
-      <c r="D17" s="21"/>
       <c r="E17" s="21"/>
       <c r="F17" s="21"/>
-      <c r="H17" s="21"/>
-    </row>
-    <row r="18" spans="1:9" s="9" customFormat="1" ht="11.25">
-      <c r="B18" s="21"/>
-      <c r="D18" s="21"/>
-      <c r="E18" s="21"/>
-      <c r="F18" s="21"/>
-    </row>
-    <row r="19" spans="1:9" s="9" customFormat="1" ht="11.25" customHeight="1">
-      <c r="A19" s="36"/>
-      <c r="B19" s="36"/>
-      <c r="C19" s="36"/>
-      <c r="D19" s="36"/>
-      <c r="E19" s="36" t="s">
-        <v>892</v>
-      </c>
-      <c r="F19" s="36" t="s">
-        <v>893</v>
-      </c>
-      <c r="G19" s="36"/>
-      <c r="H19" s="36" t="s">
-        <v>894</v>
-      </c>
-      <c r="I19" s="36"/>
-    </row>
-    <row r="20" spans="1:9" s="9" customFormat="1" ht="11.25">
-      <c r="A20" s="36"/>
-      <c r="B20" s="36"/>
-      <c r="C20" s="36"/>
-      <c r="D20" s="36"/>
-      <c r="E20" s="36"/>
-      <c r="F20" s="36"/>
-      <c r="G20" s="36"/>
-      <c r="H20" s="36"/>
-      <c r="I20" s="36"/>
-    </row>
-    <row r="21" spans="1:9" s="9" customFormat="1" ht="11.25">
-      <c r="A21" s="36"/>
-      <c r="B21" s="36"/>
-      <c r="C21" s="36"/>
-      <c r="D21" s="36"/>
-      <c r="E21" s="36"/>
-      <c r="F21" s="36"/>
-      <c r="G21" s="36"/>
-      <c r="H21" s="36"/>
-      <c r="I21" s="36"/>
-    </row>
-    <row r="22" spans="1:9" s="9" customFormat="1" ht="11.25">
-      <c r="A22" s="36"/>
-      <c r="B22" s="36"/>
-      <c r="C22" s="36"/>
-      <c r="D22" s="36"/>
-      <c r="E22" s="36"/>
-      <c r="F22" s="36"/>
-      <c r="G22" s="36"/>
-      <c r="H22" s="36"/>
-      <c r="I22" s="36"/>
-    </row>
-    <row r="23" spans="1:9" s="9" customFormat="1" ht="11.25">
-      <c r="A23" s="36"/>
-      <c r="B23" s="36"/>
-      <c r="C23" s="36"/>
-      <c r="D23" s="36"/>
-      <c r="E23" s="36"/>
-      <c r="F23" s="36"/>
-      <c r="G23" s="36"/>
-      <c r="H23" s="36"/>
-      <c r="I23" s="36"/>
-    </row>
-    <row r="24" spans="1:9" s="9" customFormat="1" ht="11.25">
-      <c r="A24" s="36"/>
-      <c r="B24" s="36"/>
-      <c r="C24" s="36"/>
-      <c r="D24" s="36"/>
-      <c r="E24" s="36"/>
-      <c r="F24" s="36"/>
-      <c r="G24" s="36"/>
-      <c r="H24" s="36"/>
-      <c r="I24" s="36"/>
-    </row>
-    <row r="25" spans="1:9" s="9" customFormat="1" ht="11.25">
-      <c r="A25" s="36"/>
-      <c r="B25" s="36"/>
-      <c r="C25" s="36"/>
-      <c r="D25" s="36"/>
-      <c r="E25" s="36"/>
-      <c r="F25" s="36"/>
-      <c r="G25" s="36"/>
-      <c r="H25" s="36"/>
-      <c r="I25" s="36"/>
-    </row>
-    <row r="26" spans="1:9" s="9" customFormat="1" ht="11.25">
-      <c r="A26" s="36"/>
-      <c r="B26" s="36"/>
-      <c r="C26" s="36"/>
-      <c r="D26" s="36"/>
-      <c r="E26" s="36"/>
-      <c r="F26" s="36"/>
-      <c r="G26" s="36"/>
-      <c r="H26" s="36"/>
-      <c r="I26" s="36"/>
-    </row>
-    <row r="27" spans="1:9" s="9" customFormat="1" ht="11.25">
-      <c r="A27" s="36"/>
-      <c r="B27" s="36"/>
-      <c r="C27" s="36"/>
-      <c r="D27" s="36"/>
-      <c r="E27" s="36"/>
-      <c r="F27" s="36"/>
-      <c r="G27" s="36"/>
-      <c r="H27" s="36"/>
-      <c r="I27" s="36"/>
-    </row>
-    <row r="28" spans="1:9" s="9" customFormat="1" ht="11.25">
-      <c r="A28" s="36"/>
-      <c r="B28" s="36"/>
-      <c r="C28" s="36"/>
-      <c r="D28" s="36"/>
-      <c r="E28" s="36"/>
-      <c r="F28" s="36"/>
-      <c r="G28" s="36"/>
-      <c r="H28" s="36"/>
-      <c r="I28" s="36"/>
-    </row>
-    <row r="29" spans="1:9" s="9" customFormat="1" ht="11.25" customHeight="1"/>
-    <row r="30" spans="1:9" s="9" customFormat="1" ht="11.25" customHeight="1"/>
-    <row r="31" spans="1:9" s="9" customFormat="1" ht="11.25">
-      <c r="A31" s="37" t="s">
+      <c r="G17" s="21"/>
+    </row>
+    <row r="18" spans="1:10" s="9" customFormat="1" ht="11.25" customHeight="1">
+      <c r="A18" s="44"/>
+      <c r="B18" s="44" t="s">
+        <v>888</v>
+      </c>
+      <c r="C18" s="44" t="s">
+        <v>888</v>
+      </c>
+      <c r="D18" s="44" t="s">
+        <v>864</v>
+      </c>
+      <c r="E18" s="44" t="s">
+        <v>889</v>
+      </c>
+      <c r="F18" s="44" t="s">
+        <v>873</v>
+      </c>
+      <c r="G18" s="44" t="s">
+        <v>890</v>
+      </c>
+      <c r="H18" s="44" t="s">
+        <v>891</v>
+      </c>
+      <c r="I18" s="44" t="s">
+        <v>887</v>
+      </c>
+      <c r="J18" s="44"/>
+    </row>
+    <row r="19" spans="1:10" s="9" customFormat="1" ht="11.25">
+      <c r="A19" s="44"/>
+      <c r="B19" s="44"/>
+      <c r="C19" s="44"/>
+      <c r="D19" s="44"/>
+      <c r="E19" s="44"/>
+      <c r="F19" s="44"/>
+      <c r="G19" s="44"/>
+      <c r="H19" s="44"/>
+      <c r="I19" s="44"/>
+      <c r="J19" s="44"/>
+    </row>
+    <row r="20" spans="1:10" s="9" customFormat="1" ht="11.25">
+      <c r="A20" s="44"/>
+      <c r="B20" s="44"/>
+      <c r="C20" s="44"/>
+      <c r="D20" s="44"/>
+      <c r="E20" s="44"/>
+      <c r="F20" s="44"/>
+      <c r="G20" s="44"/>
+      <c r="H20" s="44"/>
+      <c r="I20" s="44"/>
+      <c r="J20" s="44"/>
+    </row>
+    <row r="21" spans="1:10" s="9" customFormat="1" ht="11.25">
+      <c r="A21" s="44"/>
+      <c r="B21" s="44"/>
+      <c r="C21" s="44"/>
+      <c r="D21" s="44"/>
+      <c r="E21" s="44"/>
+      <c r="F21" s="44"/>
+      <c r="G21" s="44"/>
+      <c r="H21" s="44"/>
+      <c r="I21" s="44"/>
+      <c r="J21" s="44"/>
+    </row>
+    <row r="22" spans="1:10" s="9" customFormat="1" ht="11.25">
+      <c r="A22" s="44"/>
+      <c r="B22" s="44"/>
+      <c r="C22" s="44"/>
+      <c r="D22" s="44"/>
+      <c r="E22" s="44"/>
+      <c r="F22" s="44"/>
+      <c r="G22" s="44"/>
+      <c r="H22" s="44"/>
+      <c r="I22" s="44"/>
+      <c r="J22" s="44"/>
+    </row>
+    <row r="23" spans="1:10" s="9" customFormat="1" ht="11.25">
+      <c r="A23" s="44"/>
+      <c r="B23" s="44"/>
+      <c r="C23" s="44"/>
+      <c r="D23" s="44"/>
+      <c r="E23" s="44"/>
+      <c r="F23" s="44"/>
+      <c r="G23" s="44"/>
+      <c r="H23" s="44"/>
+      <c r="I23" s="44"/>
+      <c r="J23" s="44"/>
+    </row>
+    <row r="24" spans="1:10" s="9" customFormat="1" ht="11.25">
+      <c r="A24" s="44"/>
+      <c r="B24" s="44"/>
+      <c r="C24" s="44"/>
+      <c r="D24" s="44"/>
+      <c r="E24" s="44"/>
+      <c r="F24" s="44"/>
+      <c r="G24" s="44"/>
+      <c r="H24" s="44"/>
+      <c r="I24" s="44"/>
+      <c r="J24" s="44"/>
+    </row>
+    <row r="25" spans="1:10" s="9" customFormat="1" ht="11.25">
+      <c r="A25" s="44"/>
+      <c r="B25" s="44"/>
+      <c r="C25" s="44"/>
+      <c r="D25" s="44"/>
+      <c r="E25" s="44"/>
+      <c r="F25" s="44"/>
+      <c r="G25" s="44"/>
+      <c r="H25" s="44"/>
+      <c r="I25" s="44"/>
+      <c r="J25" s="44"/>
+    </row>
+    <row r="26" spans="1:10" s="9" customFormat="1" ht="11.25">
+      <c r="A26" s="44"/>
+      <c r="B26" s="44"/>
+      <c r="C26" s="44"/>
+      <c r="D26" s="44"/>
+      <c r="E26" s="44"/>
+      <c r="F26" s="44"/>
+      <c r="G26" s="44"/>
+      <c r="H26" s="44"/>
+      <c r="I26" s="44"/>
+      <c r="J26" s="44"/>
+    </row>
+    <row r="27" spans="1:10" s="9" customFormat="1" ht="11.25">
+      <c r="A27" s="44"/>
+      <c r="B27" s="44"/>
+      <c r="C27" s="44"/>
+      <c r="D27" s="44"/>
+      <c r="E27" s="44"/>
+      <c r="F27" s="44"/>
+      <c r="G27" s="44"/>
+      <c r="H27" s="44"/>
+      <c r="I27" s="44"/>
+      <c r="J27" s="44"/>
+    </row>
+    <row r="28" spans="1:10" s="9" customFormat="1" ht="11.25" customHeight="1"/>
+    <row r="29" spans="1:10" s="9" customFormat="1" ht="11.25" customHeight="1">
+      <c r="F29" s="44" t="s">
+        <v>874</v>
+      </c>
+    </row>
+    <row r="30" spans="1:10" s="9" customFormat="1" ht="11.25">
+      <c r="A30" s="45" t="s">
         <v>49</v>
       </c>
-      <c r="B31" s="37"/>
-    </row>
-    <row r="32" spans="1:9" s="9" customFormat="1" ht="11.25">
-      <c r="A32" s="37"/>
-      <c r="B32" s="37"/>
-    </row>
-    <row r="33" spans="1:2" s="9" customFormat="1" ht="15.75" customHeight="1">
-      <c r="A33" s="20" t="s">
+      <c r="B30" s="45"/>
+      <c r="F30" s="44"/>
+    </row>
+    <row r="31" spans="1:10" s="9" customFormat="1" ht="11.25">
+      <c r="A31" s="45"/>
+      <c r="B31" s="45"/>
+      <c r="F31" s="44"/>
+    </row>
+    <row r="32" spans="1:10" s="9" customFormat="1" ht="15.75" customHeight="1">
+      <c r="A32" s="20" t="s">
         <v>47</v>
       </c>
-      <c r="B33" s="20" t="s">
+      <c r="B32" s="20" t="s">
         <v>48</v>
       </c>
-    </row>
-    <row r="34" spans="1:2" s="9" customFormat="1" ht="11.25">
+      <c r="F32" s="44"/>
+    </row>
+    <row r="33" spans="1:10" s="9" customFormat="1" ht="11.25">
+      <c r="A33" s="17" t="s">
+        <v>38</v>
+      </c>
+      <c r="B33" s="18" t="s">
+        <v>41</v>
+      </c>
+      <c r="F33" s="44"/>
+    </row>
+    <row r="34" spans="1:10" s="7" customFormat="1" ht="12">
       <c r="A34" s="17" t="s">
+        <v>8</v>
+      </c>
+      <c r="B34" s="18" t="s">
+        <v>42</v>
+      </c>
+      <c r="E34" s="9"/>
+      <c r="F34" s="44"/>
+    </row>
+    <row r="35" spans="1:10" s="7" customFormat="1" ht="12">
+      <c r="A35" s="17" t="s">
+        <v>39</v>
+      </c>
+      <c r="B35" s="18" t="s">
+        <v>201</v>
+      </c>
+      <c r="E35" s="9"/>
+      <c r="F35" s="44"/>
+    </row>
+    <row r="36" spans="1:10" s="7" customFormat="1" ht="12">
+      <c r="A36" s="17" t="s">
+        <v>10</v>
+      </c>
+      <c r="B36" s="19" t="s">
+        <v>43</v>
+      </c>
+      <c r="E36" s="9"/>
+      <c r="F36" s="44"/>
+    </row>
+    <row r="37" spans="1:10" s="7" customFormat="1" ht="12">
+      <c r="A37" s="17" t="s">
+        <v>11</v>
+      </c>
+      <c r="B37" s="19" t="s">
+        <v>44</v>
+      </c>
+      <c r="E37" s="9"/>
+      <c r="F37" s="44"/>
+    </row>
+    <row r="38" spans="1:10" s="7" customFormat="1" ht="12">
+      <c r="A38" s="17" t="s">
+        <v>40</v>
+      </c>
+      <c r="B38" s="19" t="s">
+        <v>45</v>
+      </c>
+      <c r="E38" s="9"/>
+      <c r="F38" s="44"/>
+    </row>
+    <row r="39" spans="1:10" s="7" customFormat="1" ht="12">
+      <c r="A39" s="17" t="s">
+        <v>12</v>
+      </c>
+      <c r="B39" s="19" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="40" spans="1:10" s="7" customFormat="1" ht="12">
+      <c r="A40" s="17" t="s">
+        <v>13</v>
+      </c>
+      <c r="B40" s="19" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="41" spans="1:10" s="7" customFormat="1" ht="12"/>
+    <row r="42" spans="1:10" s="7" customFormat="1" ht="12"/>
+    <row r="43" spans="1:10" s="7" customFormat="1" ht="12"/>
+    <row r="44" spans="1:10" s="7" customFormat="1" ht="12"/>
+    <row r="45" spans="1:10" s="7" customFormat="1" ht="12"/>
+    <row r="46" spans="1:10" s="7" customFormat="1" ht="12">
+      <c r="A46" s="7" t="s">
         <v>38</v>
       </c>
-      <c r="B34" s="18" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="35" spans="1:2" s="7" customFormat="1" ht="12">
-      <c r="A35" s="17" t="s">
-        <v>8</v>
-      </c>
-      <c r="B35" s="18" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="36" spans="1:2" s="7" customFormat="1" ht="12">
-      <c r="A36" s="17" t="s">
-        <v>39</v>
-      </c>
-      <c r="B36" s="18" t="s">
-        <v>201</v>
-      </c>
-    </row>
-    <row r="37" spans="1:2" s="7" customFormat="1" ht="12">
-      <c r="A37" s="17" t="s">
-        <v>10</v>
-      </c>
-      <c r="B37" s="19" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="38" spans="1:2" s="7" customFormat="1" ht="12">
-      <c r="A38" s="17" t="s">
-        <v>11</v>
-      </c>
-      <c r="B38" s="19" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="39" spans="1:2" s="7" customFormat="1" ht="12">
-      <c r="A39" s="17" t="s">
-        <v>40</v>
-      </c>
-      <c r="B39" s="19" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="40" spans="1:2" s="7" customFormat="1" ht="12">
-      <c r="A40" s="17" t="s">
-        <v>12</v>
-      </c>
-      <c r="B40" s="19" t="s">
-        <v>198</v>
-      </c>
-    </row>
-    <row r="41" spans="1:2" s="7" customFormat="1" ht="12">
-      <c r="A41" s="17" t="s">
-        <v>13</v>
-      </c>
-      <c r="B41" s="19" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="42" spans="1:2" s="7" customFormat="1" ht="12"/>
-    <row r="43" spans="1:2" s="7" customFormat="1" ht="12"/>
-    <row r="44" spans="1:2" s="7" customFormat="1" ht="12"/>
-    <row r="45" spans="1:2" s="7" customFormat="1" ht="12"/>
-    <row r="46" spans="1:2" s="7" customFormat="1" ht="12"/>
-    <row r="47" spans="1:2" s="7" customFormat="1" ht="12"/>
-    <row r="48" spans="1:2" s="7" customFormat="1" ht="12"/>
-    <row r="49" s="7" customFormat="1" ht="12"/>
-    <row r="50" s="7" customFormat="1" ht="12"/>
-    <row r="51" s="7" customFormat="1" ht="12"/>
-    <row r="52" s="7" customFormat="1" ht="12"/>
-    <row r="53" s="7" customFormat="1" ht="12"/>
-    <row r="54" s="7" customFormat="1" ht="12"/>
-    <row r="55" s="7" customFormat="1" ht="12"/>
-    <row r="56" s="7" customFormat="1" ht="12"/>
-    <row r="57" s="7" customFormat="1" ht="12"/>
-    <row r="58" s="7" customFormat="1" ht="12"/>
-    <row r="59" s="7" customFormat="1" ht="12"/>
-    <row r="60" s="7" customFormat="1" ht="12"/>
-    <row r="61" s="7" customFormat="1" ht="12"/>
-    <row r="62" s="7" customFormat="1" ht="12"/>
-    <row r="63" s="7" customFormat="1" ht="12"/>
-    <row r="64" s="7" customFormat="1" ht="12"/>
+      <c r="B46" s="7">
+        <v>112483</v>
+      </c>
+      <c r="C46" s="7">
+        <v>112483</v>
+      </c>
+      <c r="D46" s="7" t="s">
+        <v>858</v>
+      </c>
+      <c r="E46" s="7" t="s">
+        <v>869</v>
+      </c>
+      <c r="F46" s="7" t="s">
+        <v>872</v>
+      </c>
+      <c r="G46" s="7">
+        <v>63</v>
+      </c>
+      <c r="H46" s="56">
+        <v>28844308</v>
+      </c>
+      <c r="I46" s="7" t="s">
+        <v>875</v>
+      </c>
+      <c r="J46" s="7" t="s">
+        <v>859</v>
+      </c>
+    </row>
+    <row r="47" spans="1:10" s="7" customFormat="1" ht="12">
+      <c r="A47" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="B47" s="7">
+        <v>112483</v>
+      </c>
+      <c r="C47" s="7">
+        <v>112483</v>
+      </c>
+      <c r="D47" s="7" t="s">
+        <v>858</v>
+      </c>
+      <c r="E47" s="7" t="s">
+        <v>869</v>
+      </c>
+      <c r="F47" s="7" t="s">
+        <v>870</v>
+      </c>
+      <c r="G47" s="7">
+        <v>50</v>
+      </c>
+      <c r="H47" s="7">
+        <v>2325</v>
+      </c>
+      <c r="I47" s="7" t="s">
+        <v>876</v>
+      </c>
+      <c r="J47" s="7" t="s">
+        <v>859</v>
+      </c>
+    </row>
+    <row r="48" spans="1:10" s="7" customFormat="1" ht="12">
+      <c r="A48" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="B48" s="7">
+        <v>112483</v>
+      </c>
+      <c r="C48" s="7">
+        <v>112483</v>
+      </c>
+      <c r="D48" s="7" t="s">
+        <v>858</v>
+      </c>
+      <c r="E48" s="7" t="s">
+        <v>865</v>
+      </c>
+      <c r="F48" s="7" t="s">
+        <v>866</v>
+      </c>
+      <c r="G48" s="7">
+        <v>1</v>
+      </c>
+      <c r="H48" s="56">
+        <v>457846</v>
+      </c>
+      <c r="I48" s="7" t="s">
+        <v>867</v>
+      </c>
+      <c r="J48" s="7" t="s">
+        <v>859</v>
+      </c>
+    </row>
+    <row r="49" spans="1:10" s="7" customFormat="1" ht="12">
+      <c r="A49" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="B49" s="7">
+        <v>112483</v>
+      </c>
+      <c r="C49" s="7">
+        <v>112483</v>
+      </c>
+      <c r="D49" s="7" t="s">
+        <v>858</v>
+      </c>
+      <c r="E49" s="7" t="s">
+        <v>861</v>
+      </c>
+      <c r="F49" s="7" t="s">
+        <v>871</v>
+      </c>
+      <c r="G49" s="7">
+        <v>515</v>
+      </c>
+      <c r="H49" s="7" t="s">
+        <v>877</v>
+      </c>
+      <c r="I49" s="7" t="s">
+        <v>878</v>
+      </c>
+      <c r="J49" s="7" t="s">
+        <v>859</v>
+      </c>
+    </row>
+    <row r="50" spans="1:10" s="7" customFormat="1" ht="12">
+      <c r="A50" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="B50" s="7">
+        <v>112483</v>
+      </c>
+      <c r="C50" s="7">
+        <v>112483</v>
+      </c>
+      <c r="D50" s="7" t="s">
+        <v>858</v>
+      </c>
+      <c r="E50" s="7" t="s">
+        <v>857</v>
+      </c>
+      <c r="F50" s="7" t="s">
+        <v>868</v>
+      </c>
+      <c r="G50" s="7">
+        <v>3</v>
+      </c>
+      <c r="H50" s="7">
+        <v>186</v>
+      </c>
+      <c r="I50" s="7" t="s">
+        <v>879</v>
+      </c>
+      <c r="J50" s="7" t="s">
+        <v>859</v>
+      </c>
+    </row>
+    <row r="51" spans="1:10" s="7" customFormat="1" ht="12">
+      <c r="A51" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="B51" s="7">
+        <v>112483</v>
+      </c>
+      <c r="C51" s="7">
+        <v>112483</v>
+      </c>
+      <c r="D51" s="7" t="s">
+        <v>862</v>
+      </c>
+      <c r="E51" s="7" t="s">
+        <v>861</v>
+      </c>
+      <c r="F51" s="7" t="s">
+        <v>863</v>
+      </c>
+      <c r="G51" s="7">
+        <v>515</v>
+      </c>
+      <c r="H51" s="56">
+        <v>239475</v>
+      </c>
+      <c r="I51" s="7" t="s">
+        <v>878</v>
+      </c>
+      <c r="J51" s="7" t="s">
+        <v>859</v>
+      </c>
+    </row>
+    <row r="52" spans="1:10" s="7" customFormat="1" ht="12"/>
+    <row r="53" spans="1:10" s="7" customFormat="1" ht="12"/>
+    <row r="54" spans="1:10" s="7" customFormat="1" ht="12"/>
+    <row r="55" spans="1:10" s="7" customFormat="1" ht="12"/>
+    <row r="56" spans="1:10" s="7" customFormat="1" ht="12"/>
+    <row r="57" spans="1:10" s="7" customFormat="1" ht="12"/>
+    <row r="58" spans="1:10" s="7" customFormat="1" ht="12"/>
+    <row r="59" spans="1:10" s="7" customFormat="1" ht="12"/>
+    <row r="60" spans="1:10" s="7" customFormat="1" ht="12"/>
+    <row r="61" spans="1:10" s="7" customFormat="1" ht="12"/>
+    <row r="62" spans="1:10" s="7" customFormat="1" ht="12"/>
+    <row r="63" spans="1:10" s="7" customFormat="1" ht="12"/>
+    <row r="64" spans="1:10" s="7" customFormat="1" ht="12"/>
     <row r="65" s="7" customFormat="1" ht="12"/>
     <row r="66" s="7" customFormat="1" ht="12"/>
     <row r="67" s="7" customFormat="1" ht="12"/>
@@ -5869,7 +6084,9 @@
     <row r="185" spans="3:3" s="7" customFormat="1" ht="12"/>
     <row r="186" spans="3:3" s="7" customFormat="1" ht="12"/>
     <row r="187" spans="3:3" s="7" customFormat="1" ht="12"/>
-    <row r="188" spans="3:3" s="7" customFormat="1" ht="12"/>
+    <row r="188" spans="3:3" s="7" customFormat="1">
+      <c r="C188"/>
+    </row>
     <row r="189" spans="3:3" s="7" customFormat="1">
       <c r="C189"/>
     </row>
@@ -5879,21 +6096,20 @@
     <row r="191" spans="3:3" s="7" customFormat="1">
       <c r="C191"/>
     </row>
-    <row r="192" spans="3:3" s="7" customFormat="1">
-      <c r="C192"/>
-    </row>
   </sheetData>
-  <mergeCells count="10">
-    <mergeCell ref="A31:B32"/>
-    <mergeCell ref="F19:F28"/>
-    <mergeCell ref="G19:G28"/>
-    <mergeCell ref="H19:H28"/>
-    <mergeCell ref="A19:A28"/>
-    <mergeCell ref="B19:B28"/>
-    <mergeCell ref="C19:C28"/>
-    <mergeCell ref="D19:D28"/>
-    <mergeCell ref="E19:E28"/>
-    <mergeCell ref="I19:I28"/>
+  <mergeCells count="12">
+    <mergeCell ref="J18:J27"/>
+    <mergeCell ref="A18:A27"/>
+    <mergeCell ref="F29:F38"/>
+    <mergeCell ref="A30:B31"/>
+    <mergeCell ref="G18:G27"/>
+    <mergeCell ref="H18:H27"/>
+    <mergeCell ref="I18:I27"/>
+    <mergeCell ref="B18:B27"/>
+    <mergeCell ref="C18:C27"/>
+    <mergeCell ref="D18:D27"/>
+    <mergeCell ref="F18:F27"/>
+    <mergeCell ref="E18:E27"/>
   </mergeCells>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -6181,10 +6397,10 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:27" ht="21">
-      <c r="A2" s="44" t="s">
+      <c r="A2" s="49" t="s">
         <v>14</v>
       </c>
-      <c r="B2" s="44"/>
+      <c r="B2" s="49"/>
       <c r="C2" s="1" t="s">
         <v>465</v>
       </c>
@@ -6194,10 +6410,10 @@
       <c r="AA2" s="3"/>
     </row>
     <row r="3" spans="1:27" ht="21">
-      <c r="A3" s="44" t="s">
+      <c r="A3" s="49" t="s">
         <v>466</v>
       </c>
-      <c r="B3" s="44"/>
+      <c r="B3" s="49"/>
       <c r="C3" s="1" t="s">
         <v>467</v>
       </c>
@@ -6211,7 +6427,7 @@
       <c r="B4" s="2"/>
       <c r="C4" s="21"/>
       <c r="D4" s="21"/>
-      <c r="E4" s="45"/>
+      <c r="E4" s="39"/>
       <c r="H4" s="21"/>
       <c r="K4" s="2"/>
       <c r="M4" s="2"/>
@@ -6221,28 +6437,28 @@
       <c r="AA4" s="3"/>
     </row>
     <row r="6" spans="1:27">
-      <c r="A6" s="46" t="s">
+      <c r="A6" s="40" t="s">
         <v>148</v>
       </c>
-      <c r="B6" s="46" t="s">
+      <c r="B6" s="40" t="s">
         <v>468</v>
       </c>
-      <c r="C6" s="46" t="s">
+      <c r="C6" s="40" t="s">
         <v>253</v>
       </c>
-      <c r="D6" s="47" t="s">
+      <c r="D6" s="41" t="s">
         <v>469</v>
       </c>
-      <c r="E6" s="47" t="s">
+      <c r="E6" s="41" t="s">
         <v>470</v>
       </c>
-      <c r="F6" s="47" t="s">
+      <c r="F6" s="41" t="s">
         <v>471</v>
       </c>
-      <c r="G6" s="46" t="s">
+      <c r="G6" s="40" t="s">
         <v>1</v>
       </c>
-      <c r="H6" s="46" t="s">
+      <c r="H6" s="40" t="s">
         <v>472</v>
       </c>
     </row>
@@ -6417,122 +6633,122 @@
       <c r="H14" s="2"/>
     </row>
     <row r="15" spans="1:27" ht="11.25" customHeight="1">
-      <c r="A15" s="48" t="s">
+      <c r="A15" s="50" t="s">
         <v>846</v>
       </c>
-      <c r="B15" s="49"/>
-      <c r="C15" s="49"/>
-      <c r="D15" s="48" t="s">
+      <c r="B15" s="51"/>
+      <c r="C15" s="51"/>
+      <c r="D15" s="50" t="s">
         <v>845</v>
       </c>
-      <c r="E15" s="48"/>
-      <c r="F15" s="48" t="s">
+      <c r="E15" s="50"/>
+      <c r="F15" s="50" t="s">
         <v>847</v>
       </c>
       <c r="G15" s="2"/>
       <c r="H15" s="2"/>
     </row>
     <row r="16" spans="1:27" ht="11.25" customHeight="1">
-      <c r="A16" s="49"/>
-      <c r="B16" s="49"/>
-      <c r="C16" s="49"/>
-      <c r="D16" s="48"/>
-      <c r="E16" s="48"/>
-      <c r="F16" s="48"/>
+      <c r="A16" s="51"/>
+      <c r="B16" s="51"/>
+      <c r="C16" s="51"/>
+      <c r="D16" s="50"/>
+      <c r="E16" s="50"/>
+      <c r="F16" s="50"/>
       <c r="G16" s="2"/>
       <c r="H16" s="2"/>
     </row>
     <row r="17" spans="1:8" ht="11.25" customHeight="1">
-      <c r="A17" s="49"/>
-      <c r="B17" s="49"/>
-      <c r="C17" s="49"/>
-      <c r="D17" s="48"/>
-      <c r="E17" s="48"/>
-      <c r="F17" s="48"/>
+      <c r="A17" s="51"/>
+      <c r="B17" s="51"/>
+      <c r="C17" s="51"/>
+      <c r="D17" s="50"/>
+      <c r="E17" s="50"/>
+      <c r="F17" s="50"/>
     </row>
     <row r="18" spans="1:8" ht="11.25" customHeight="1">
-      <c r="A18" s="43" t="s">
+      <c r="A18" s="46" t="s">
         <v>487</v>
       </c>
-      <c r="B18" s="43" t="s">
+      <c r="B18" s="46" t="s">
         <v>488</v>
       </c>
-      <c r="C18" s="50" t="s">
+      <c r="C18" s="52" t="s">
         <v>489</v>
       </c>
-      <c r="D18" s="36" t="s">
+      <c r="D18" s="44" t="s">
         <v>490</v>
       </c>
-      <c r="E18" s="51" t="s">
+      <c r="E18" s="53" t="s">
         <v>491</v>
       </c>
-      <c r="F18" s="43" t="s">
+      <c r="F18" s="46" t="s">
         <v>492</v>
       </c>
-      <c r="G18" s="52" t="s">
+      <c r="G18" s="47" t="s">
         <v>493</v>
       </c>
-      <c r="H18" s="43"/>
+      <c r="H18" s="46"/>
     </row>
     <row r="19" spans="1:8">
-      <c r="A19" s="43"/>
-      <c r="B19" s="43"/>
-      <c r="C19" s="50"/>
-      <c r="D19" s="36"/>
-      <c r="E19" s="51"/>
-      <c r="F19" s="43"/>
-      <c r="G19" s="52"/>
-      <c r="H19" s="43"/>
+      <c r="A19" s="46"/>
+      <c r="B19" s="46"/>
+      <c r="C19" s="52"/>
+      <c r="D19" s="44"/>
+      <c r="E19" s="53"/>
+      <c r="F19" s="46"/>
+      <c r="G19" s="47"/>
+      <c r="H19" s="46"/>
     </row>
     <row r="20" spans="1:8">
-      <c r="A20" s="43"/>
-      <c r="B20" s="43"/>
-      <c r="C20" s="50"/>
-      <c r="D20" s="36"/>
-      <c r="E20" s="51"/>
-      <c r="F20" s="43"/>
-      <c r="G20" s="52"/>
-      <c r="H20" s="43"/>
+      <c r="A20" s="46"/>
+      <c r="B20" s="46"/>
+      <c r="C20" s="52"/>
+      <c r="D20" s="44"/>
+      <c r="E20" s="53"/>
+      <c r="F20" s="46"/>
+      <c r="G20" s="47"/>
+      <c r="H20" s="46"/>
     </row>
     <row r="21" spans="1:8">
-      <c r="D21" s="36"/>
+      <c r="D21" s="44"/>
     </row>
     <row r="22" spans="1:8">
-      <c r="A22" s="53" t="s">
+      <c r="A22" s="48" t="s">
         <v>494</v>
       </c>
-      <c r="D22" s="36"/>
+      <c r="D22" s="44"/>
     </row>
     <row r="23" spans="1:8">
-      <c r="A23" s="53"/>
-      <c r="D23" s="36"/>
+      <c r="A23" s="48"/>
+      <c r="D23" s="44"/>
     </row>
     <row r="24" spans="1:8">
-      <c r="D24" s="36"/>
+      <c r="D24" s="44"/>
     </row>
     <row r="25" spans="1:8">
-      <c r="D25" s="36"/>
+      <c r="D25" s="44"/>
     </row>
     <row r="26" spans="1:8">
-      <c r="D26" s="36"/>
+      <c r="D26" s="44"/>
     </row>
     <row r="27" spans="1:8">
-      <c r="D27" s="36"/>
+      <c r="D27" s="44"/>
     </row>
     <row r="28" spans="1:8">
-      <c r="D28" s="36"/>
+      <c r="D28" s="44"/>
     </row>
     <row r="29" spans="1:8">
-      <c r="D29" s="36"/>
+      <c r="D29" s="44"/>
     </row>
     <row r="30" spans="1:8">
-      <c r="D30" s="36"/>
+      <c r="D30" s="44"/>
     </row>
     <row r="31" spans="1:8">
-      <c r="D31" s="36"/>
+      <c r="D31" s="44"/>
     </row>
     <row r="32" spans="1:8">
-      <c r="D32" s="36"/>
+      <c r="D32" s="44"/>
     </row>
   </sheetData>
   <mergeCells count="14">
@@ -6759,70 +6975,70 @@
     </row>
     <row r="14" spans="1:22" s="9" customFormat="1" ht="11.25"/>
     <row r="15" spans="1:22" s="9" customFormat="1" ht="11.25" customHeight="1">
-      <c r="B15" s="36" t="s">
+      <c r="B15" s="44" t="s">
         <v>67</v>
       </c>
-      <c r="C15" s="36" t="s">
+      <c r="C15" s="44" t="s">
         <v>62</v>
       </c>
-      <c r="D15" s="36" t="s">
+      <c r="D15" s="44" t="s">
         <v>68</v>
       </c>
-      <c r="E15" s="36"/>
+      <c r="E15" s="44"/>
     </row>
     <row r="16" spans="1:22" s="9" customFormat="1" ht="11.25">
-      <c r="B16" s="36"/>
-      <c r="C16" s="36"/>
-      <c r="D16" s="36"/>
-      <c r="E16" s="36"/>
+      <c r="B16" s="44"/>
+      <c r="C16" s="44"/>
+      <c r="D16" s="44"/>
+      <c r="E16" s="44"/>
     </row>
     <row r="17" spans="1:5" s="9" customFormat="1" ht="11.25">
-      <c r="B17" s="36"/>
-      <c r="C17" s="36"/>
-      <c r="D17" s="36"/>
-      <c r="E17" s="36"/>
+      <c r="B17" s="44"/>
+      <c r="C17" s="44"/>
+      <c r="D17" s="44"/>
+      <c r="E17" s="44"/>
     </row>
     <row r="18" spans="1:5" s="9" customFormat="1" ht="11.25">
-      <c r="B18" s="36"/>
-      <c r="C18" s="36"/>
-      <c r="D18" s="36"/>
-      <c r="E18" s="36"/>
+      <c r="B18" s="44"/>
+      <c r="C18" s="44"/>
+      <c r="D18" s="44"/>
+      <c r="E18" s="44"/>
     </row>
     <row r="19" spans="1:5" s="9" customFormat="1" ht="11.25">
-      <c r="B19" s="36"/>
-      <c r="C19" s="36"/>
-      <c r="D19" s="36"/>
-      <c r="E19" s="36"/>
+      <c r="B19" s="44"/>
+      <c r="C19" s="44"/>
+      <c r="D19" s="44"/>
+      <c r="E19" s="44"/>
     </row>
     <row r="20" spans="1:5" s="9" customFormat="1" ht="11.25">
-      <c r="B20" s="36"/>
-      <c r="C20" s="36"/>
-      <c r="D20" s="36"/>
-      <c r="E20" s="36"/>
+      <c r="B20" s="44"/>
+      <c r="C20" s="44"/>
+      <c r="D20" s="44"/>
+      <c r="E20" s="44"/>
     </row>
     <row r="21" spans="1:5" s="9" customFormat="1" ht="11.25">
-      <c r="B21" s="36"/>
-      <c r="C21" s="36"/>
-      <c r="D21" s="36"/>
-      <c r="E21" s="36"/>
+      <c r="B21" s="44"/>
+      <c r="C21" s="44"/>
+      <c r="D21" s="44"/>
+      <c r="E21" s="44"/>
     </row>
     <row r="22" spans="1:5" s="9" customFormat="1" ht="11.25">
-      <c r="B22" s="36"/>
-      <c r="C22" s="36"/>
-      <c r="D22" s="36"/>
-      <c r="E22" s="36"/>
+      <c r="B22" s="44"/>
+      <c r="C22" s="44"/>
+      <c r="D22" s="44"/>
+      <c r="E22" s="44"/>
     </row>
     <row r="23" spans="1:5" s="9" customFormat="1" ht="11.25">
-      <c r="B23" s="36"/>
-      <c r="C23" s="36"/>
-      <c r="D23" s="36"/>
-      <c r="E23" s="36"/>
+      <c r="B23" s="44"/>
+      <c r="C23" s="44"/>
+      <c r="D23" s="44"/>
+      <c r="E23" s="44"/>
     </row>
     <row r="24" spans="1:5" s="9" customFormat="1" ht="11.25">
-      <c r="B24" s="36"/>
-      <c r="C24" s="36"/>
-      <c r="D24" s="36"/>
-      <c r="E24" s="36"/>
+      <c r="B24" s="44"/>
+      <c r="C24" s="44"/>
+      <c r="D24" s="44"/>
+      <c r="E24" s="44"/>
     </row>
     <row r="25" spans="1:5" s="9" customFormat="1" ht="11.25" customHeight="1">
       <c r="B25" s="14"/>
@@ -6833,28 +7049,28 @@
     <row r="26" spans="1:5" s="9" customFormat="1" ht="11.25">
       <c r="B26" s="14"/>
       <c r="C26" s="14"/>
-      <c r="D26" s="36" t="s">
+      <c r="D26" s="44" t="s">
         <v>69</v>
       </c>
-      <c r="E26" s="36" t="s">
+      <c r="E26" s="44" t="s">
         <v>70</v>
       </c>
     </row>
     <row r="27" spans="1:5" s="9" customFormat="1" ht="11.25">
-      <c r="A27" s="37" t="s">
+      <c r="A27" s="45" t="s">
         <v>49</v>
       </c>
-      <c r="B27" s="37"/>
+      <c r="B27" s="45"/>
       <c r="C27" s="14"/>
-      <c r="D27" s="36"/>
-      <c r="E27" s="36"/>
+      <c r="D27" s="44"/>
+      <c r="E27" s="44"/>
     </row>
     <row r="28" spans="1:5" s="9" customFormat="1" ht="11.25">
-      <c r="A28" s="37"/>
-      <c r="B28" s="37"/>
+      <c r="A28" s="45"/>
+      <c r="B28" s="45"/>
       <c r="C28" s="14"/>
-      <c r="D28" s="36"/>
-      <c r="E28" s="36"/>
+      <c r="D28" s="44"/>
+      <c r="E28" s="44"/>
     </row>
     <row r="29" spans="1:5" s="9" customFormat="1" ht="15.75" customHeight="1">
       <c r="A29" s="20" t="s">
@@ -6864,8 +7080,8 @@
         <v>48</v>
       </c>
       <c r="C29" s="14"/>
-      <c r="D29" s="36"/>
-      <c r="E29" s="36"/>
+      <c r="D29" s="44"/>
+      <c r="E29" s="44"/>
     </row>
     <row r="30" spans="1:5" s="9" customFormat="1" ht="11.25">
       <c r="A30" s="17" t="s">
@@ -7196,1962 +7412,1962 @@
       </c>
     </row>
     <row r="6" spans="1:21" s="7" customFormat="1" ht="12">
-      <c r="A6" s="54" t="s">
+      <c r="A6" s="42" t="s">
         <v>661</v>
       </c>
-      <c r="B6" s="54" t="s">
+      <c r="B6" s="42" t="s">
         <v>495</v>
       </c>
-      <c r="C6" s="54" t="s">
+      <c r="C6" s="42" t="s">
         <v>496</v>
       </c>
-      <c r="D6" s="54" t="s">
+      <c r="D6" s="42" t="s">
         <v>660</v>
       </c>
     </row>
     <row r="7" spans="1:21" s="7" customFormat="1" ht="12">
-      <c r="A7" s="54" t="s">
+      <c r="A7" s="42" t="s">
         <v>145</v>
       </c>
-      <c r="B7" s="54" t="s">
+      <c r="B7" s="42" t="s">
         <v>497</v>
       </c>
-      <c r="C7" s="54" t="s">
+      <c r="C7" s="42" t="s">
         <v>498</v>
       </c>
-      <c r="D7" s="54" t="s">
+      <c r="D7" s="42" t="s">
         <v>446</v>
       </c>
     </row>
     <row r="8" spans="1:21" s="7" customFormat="1" ht="12">
-      <c r="A8" s="54" t="s">
+      <c r="A8" s="42" t="s">
         <v>662</v>
       </c>
-      <c r="B8" s="54" t="s">
+      <c r="B8" s="42" t="s">
         <v>499</v>
       </c>
-      <c r="C8" s="54" t="s">
+      <c r="C8" s="42" t="s">
         <v>500</v>
       </c>
-      <c r="D8" s="54" t="s">
+      <c r="D8" s="42" t="s">
         <v>660</v>
       </c>
     </row>
     <row r="9" spans="1:21" s="7" customFormat="1" ht="12">
-      <c r="A9" s="54" t="s">
+      <c r="A9" s="42" t="s">
         <v>664</v>
       </c>
-      <c r="B9" s="54" t="s">
+      <c r="B9" s="42" t="s">
         <v>501</v>
       </c>
-      <c r="C9" s="54" t="s">
+      <c r="C9" s="42" t="s">
         <v>502</v>
       </c>
-      <c r="D9" s="54" t="s">
+      <c r="D9" s="42" t="s">
         <v>663</v>
       </c>
     </row>
     <row r="10" spans="1:21" s="7" customFormat="1" ht="12">
-      <c r="A10" s="54" t="s">
+      <c r="A10" s="42" t="s">
         <v>666</v>
       </c>
-      <c r="B10" s="54" t="s">
+      <c r="B10" s="42" t="s">
         <v>501</v>
       </c>
-      <c r="C10" s="54" t="s">
+      <c r="C10" s="42" t="s">
         <v>502</v>
       </c>
-      <c r="D10" s="54" t="s">
+      <c r="D10" s="42" t="s">
         <v>665</v>
       </c>
     </row>
     <row r="11" spans="1:21" s="7" customFormat="1" ht="12">
-      <c r="A11" s="54" t="s">
+      <c r="A11" s="42" t="s">
         <v>668</v>
       </c>
-      <c r="B11" s="54" t="s">
+      <c r="B11" s="42" t="s">
         <v>501</v>
       </c>
-      <c r="C11" s="54" t="s">
+      <c r="C11" s="42" t="s">
         <v>502</v>
       </c>
-      <c r="D11" s="54" t="s">
+      <c r="D11" s="42" t="s">
         <v>667</v>
       </c>
     </row>
     <row r="12" spans="1:21" s="7" customFormat="1" ht="12">
-      <c r="A12" s="54" t="s">
+      <c r="A12" s="42" t="s">
         <v>670</v>
       </c>
-      <c r="B12" s="54" t="s">
+      <c r="B12" s="42" t="s">
         <v>501</v>
       </c>
-      <c r="C12" s="54" t="s">
+      <c r="C12" s="42" t="s">
         <v>502</v>
       </c>
-      <c r="D12" s="54" t="s">
+      <c r="D12" s="42" t="s">
         <v>669</v>
       </c>
     </row>
     <row r="13" spans="1:21" s="7" customFormat="1" ht="12">
-      <c r="A13" s="54" t="s">
+      <c r="A13" s="42" t="s">
         <v>672</v>
       </c>
-      <c r="B13" s="54" t="s">
+      <c r="B13" s="42" t="s">
         <v>501</v>
       </c>
-      <c r="C13" s="54" t="s">
+      <c r="C13" s="42" t="s">
         <v>502</v>
       </c>
-      <c r="D13" s="54" t="s">
+      <c r="D13" s="42" t="s">
         <v>671</v>
       </c>
     </row>
     <row r="14" spans="1:21" s="7" customFormat="1" ht="12">
-      <c r="A14" s="54" t="s">
+      <c r="A14" s="42" t="s">
         <v>674</v>
       </c>
-      <c r="B14" s="54" t="s">
+      <c r="B14" s="42" t="s">
         <v>501</v>
       </c>
-      <c r="C14" s="54" t="s">
+      <c r="C14" s="42" t="s">
         <v>502</v>
       </c>
-      <c r="D14" s="54" t="s">
+      <c r="D14" s="42" t="s">
         <v>673</v>
       </c>
     </row>
     <row r="15" spans="1:21" s="7" customFormat="1" ht="12">
-      <c r="A15" s="54" t="s">
+      <c r="A15" s="42" t="s">
         <v>676</v>
       </c>
-      <c r="B15" s="54" t="s">
+      <c r="B15" s="42" t="s">
         <v>501</v>
       </c>
-      <c r="C15" s="54" t="s">
+      <c r="C15" s="42" t="s">
         <v>502</v>
       </c>
-      <c r="D15" s="54" t="s">
+      <c r="D15" s="42" t="s">
         <v>675</v>
       </c>
     </row>
     <row r="16" spans="1:21" s="7" customFormat="1" ht="12">
-      <c r="A16" s="54" t="s">
+      <c r="A16" s="42" t="s">
         <v>678</v>
       </c>
-      <c r="B16" s="54" t="s">
+      <c r="B16" s="42" t="s">
         <v>501</v>
       </c>
-      <c r="C16" s="54" t="s">
+      <c r="C16" s="42" t="s">
         <v>502</v>
       </c>
-      <c r="D16" s="54" t="s">
+      <c r="D16" s="42" t="s">
         <v>677</v>
       </c>
     </row>
     <row r="17" spans="1:4" s="7" customFormat="1" ht="12">
-      <c r="A17" s="54" t="s">
+      <c r="A17" s="42" t="s">
         <v>680</v>
       </c>
-      <c r="B17" s="54" t="s">
+      <c r="B17" s="42" t="s">
         <v>501</v>
       </c>
-      <c r="C17" s="54" t="s">
+      <c r="C17" s="42" t="s">
         <v>502</v>
       </c>
-      <c r="D17" s="54" t="s">
+      <c r="D17" s="42" t="s">
         <v>679</v>
       </c>
     </row>
     <row r="18" spans="1:4" s="7" customFormat="1" ht="12">
-      <c r="A18" s="54" t="s">
+      <c r="A18" s="42" t="s">
         <v>682</v>
       </c>
-      <c r="B18" s="54" t="s">
+      <c r="B18" s="42" t="s">
         <v>503</v>
       </c>
-      <c r="C18" s="54" t="s">
+      <c r="C18" s="42" t="s">
         <v>502</v>
       </c>
-      <c r="D18" s="54" t="s">
+      <c r="D18" s="42" t="s">
         <v>681</v>
       </c>
     </row>
     <row r="19" spans="1:4" s="7" customFormat="1" ht="12">
-      <c r="A19" s="54" t="s">
+      <c r="A19" s="42" t="s">
         <v>684</v>
       </c>
-      <c r="B19" s="54" t="s">
+      <c r="B19" s="42" t="s">
         <v>501</v>
       </c>
-      <c r="C19" s="54" t="s">
+      <c r="C19" s="42" t="s">
         <v>502</v>
       </c>
-      <c r="D19" s="54" t="s">
+      <c r="D19" s="42" t="s">
         <v>683</v>
       </c>
     </row>
     <row r="20" spans="1:4" s="7" customFormat="1" ht="12">
-      <c r="A20" s="54" t="s">
+      <c r="A20" s="42" t="s">
         <v>686</v>
       </c>
-      <c r="B20" s="54" t="s">
+      <c r="B20" s="42" t="s">
         <v>501</v>
       </c>
-      <c r="C20" s="54" t="s">
+      <c r="C20" s="42" t="s">
         <v>502</v>
       </c>
-      <c r="D20" s="54" t="s">
+      <c r="D20" s="42" t="s">
         <v>685</v>
       </c>
     </row>
     <row r="21" spans="1:4" s="7" customFormat="1" ht="12">
-      <c r="A21" s="54" t="s">
+      <c r="A21" s="42" t="s">
         <v>688</v>
       </c>
-      <c r="B21" s="54" t="s">
+      <c r="B21" s="42" t="s">
         <v>501</v>
       </c>
-      <c r="C21" s="54" t="s">
+      <c r="C21" s="42" t="s">
         <v>502</v>
       </c>
-      <c r="D21" s="54" t="s">
+      <c r="D21" s="42" t="s">
         <v>687</v>
       </c>
     </row>
     <row r="22" spans="1:4" s="7" customFormat="1" ht="12">
-      <c r="A22" s="54" t="s">
+      <c r="A22" s="42" t="s">
         <v>690</v>
       </c>
-      <c r="B22" s="54" t="s">
+      <c r="B22" s="42" t="s">
         <v>501</v>
       </c>
-      <c r="C22" s="54" t="s">
+      <c r="C22" s="42" t="s">
         <v>502</v>
       </c>
-      <c r="D22" s="54" t="s">
+      <c r="D22" s="42" t="s">
         <v>689</v>
       </c>
     </row>
     <row r="23" spans="1:4" s="7" customFormat="1" ht="12">
-      <c r="A23" s="54" t="s">
+      <c r="A23" s="42" t="s">
         <v>692</v>
       </c>
-      <c r="B23" s="54" t="s">
+      <c r="B23" s="42" t="s">
         <v>501</v>
       </c>
-      <c r="C23" s="54" t="s">
+      <c r="C23" s="42" t="s">
         <v>502</v>
       </c>
-      <c r="D23" s="54" t="s">
+      <c r="D23" s="42" t="s">
         <v>691</v>
       </c>
     </row>
     <row r="24" spans="1:4" s="7" customFormat="1" ht="12">
-      <c r="A24" s="54" t="s">
+      <c r="A24" s="42" t="s">
         <v>694</v>
       </c>
-      <c r="B24" s="54" t="s">
+      <c r="B24" s="42" t="s">
         <v>504</v>
       </c>
-      <c r="C24" s="54" t="s">
+      <c r="C24" s="42" t="s">
         <v>502</v>
       </c>
-      <c r="D24" s="54" t="s">
+      <c r="D24" s="42" t="s">
         <v>693</v>
       </c>
     </row>
     <row r="25" spans="1:4" s="7" customFormat="1" ht="12">
-      <c r="A25" s="54" t="s">
+      <c r="A25" s="42" t="s">
         <v>696</v>
       </c>
-      <c r="B25" s="54" t="s">
+      <c r="B25" s="42" t="s">
         <v>501</v>
       </c>
-      <c r="C25" s="54" t="s">
+      <c r="C25" s="42" t="s">
         <v>502</v>
       </c>
-      <c r="D25" s="54" t="s">
+      <c r="D25" s="42" t="s">
         <v>695</v>
       </c>
     </row>
     <row r="26" spans="1:4" s="7" customFormat="1" ht="12">
-      <c r="A26" s="54" t="s">
+      <c r="A26" s="42" t="s">
         <v>698</v>
       </c>
-      <c r="B26" s="54" t="s">
+      <c r="B26" s="42" t="s">
         <v>501</v>
       </c>
-      <c r="C26" s="54" t="s">
+      <c r="C26" s="42" t="s">
         <v>502</v>
       </c>
-      <c r="D26" s="54" t="s">
+      <c r="D26" s="42" t="s">
         <v>697</v>
       </c>
     </row>
     <row r="27" spans="1:4" s="7" customFormat="1" ht="12">
-      <c r="A27" s="54" t="s">
+      <c r="A27" s="42" t="s">
         <v>700</v>
       </c>
-      <c r="B27" s="54" t="s">
+      <c r="B27" s="42" t="s">
         <v>501</v>
       </c>
-      <c r="C27" s="54" t="s">
+      <c r="C27" s="42" t="s">
         <v>502</v>
       </c>
-      <c r="D27" s="54" t="s">
+      <c r="D27" s="42" t="s">
         <v>699</v>
       </c>
     </row>
     <row r="28" spans="1:4" s="7" customFormat="1" ht="12">
-      <c r="A28" s="54" t="s">
+      <c r="A28" s="42" t="s">
         <v>702</v>
       </c>
-      <c r="B28" s="54" t="s">
+      <c r="B28" s="42" t="s">
         <v>501</v>
       </c>
-      <c r="C28" s="54" t="s">
+      <c r="C28" s="42" t="s">
         <v>502</v>
       </c>
-      <c r="D28" s="54" t="s">
+      <c r="D28" s="42" t="s">
         <v>701</v>
       </c>
     </row>
     <row r="29" spans="1:4" s="7" customFormat="1" ht="12">
-      <c r="A29" s="54" t="s">
+      <c r="A29" s="42" t="s">
         <v>704</v>
       </c>
-      <c r="B29" s="54" t="s">
+      <c r="B29" s="42" t="s">
         <v>501</v>
       </c>
-      <c r="C29" s="54" t="s">
+      <c r="C29" s="42" t="s">
         <v>502</v>
       </c>
-      <c r="D29" s="54" t="s">
+      <c r="D29" s="42" t="s">
         <v>703</v>
       </c>
     </row>
     <row r="30" spans="1:4" s="7" customFormat="1" ht="12">
-      <c r="A30" s="54" t="s">
+      <c r="A30" s="42" t="s">
         <v>706</v>
       </c>
-      <c r="B30" s="54" t="s">
+      <c r="B30" s="42" t="s">
         <v>501</v>
       </c>
-      <c r="C30" s="54" t="s">
+      <c r="C30" s="42" t="s">
         <v>502</v>
       </c>
-      <c r="D30" s="54" t="s">
+      <c r="D30" s="42" t="s">
         <v>705</v>
       </c>
     </row>
     <row r="31" spans="1:4" s="7" customFormat="1" ht="12">
-      <c r="A31" s="54" t="s">
+      <c r="A31" s="42" t="s">
         <v>708</v>
       </c>
-      <c r="B31" s="54" t="s">
+      <c r="B31" s="42" t="s">
         <v>501</v>
       </c>
-      <c r="C31" s="54" t="s">
+      <c r="C31" s="42" t="s">
         <v>502</v>
       </c>
-      <c r="D31" s="54" t="s">
+      <c r="D31" s="42" t="s">
         <v>707</v>
       </c>
     </row>
     <row r="32" spans="1:4" s="7" customFormat="1" ht="12">
-      <c r="A32" s="54" t="s">
+      <c r="A32" s="42" t="s">
         <v>710</v>
       </c>
-      <c r="B32" s="54" t="s">
+      <c r="B32" s="42" t="s">
         <v>501</v>
       </c>
-      <c r="C32" s="54" t="s">
+      <c r="C32" s="42" t="s">
         <v>502</v>
       </c>
-      <c r="D32" s="54" t="s">
+      <c r="D32" s="42" t="s">
         <v>709</v>
       </c>
     </row>
     <row r="33" spans="1:4" s="7" customFormat="1" ht="12">
-      <c r="A33" s="54" t="s">
+      <c r="A33" s="42" t="s">
         <v>712</v>
       </c>
-      <c r="B33" s="54" t="s">
+      <c r="B33" s="42" t="s">
         <v>501</v>
       </c>
-      <c r="C33" s="54" t="s">
+      <c r="C33" s="42" t="s">
         <v>502</v>
       </c>
-      <c r="D33" s="54" t="s">
+      <c r="D33" s="42" t="s">
         <v>711</v>
       </c>
     </row>
     <row r="34" spans="1:4" s="7" customFormat="1" ht="12">
-      <c r="A34" s="54" t="s">
+      <c r="A34" s="42" t="s">
         <v>714</v>
       </c>
-      <c r="B34" s="54" t="s">
+      <c r="B34" s="42" t="s">
         <v>501</v>
       </c>
-      <c r="C34" s="54" t="s">
+      <c r="C34" s="42" t="s">
         <v>502</v>
       </c>
-      <c r="D34" s="54" t="s">
+      <c r="D34" s="42" t="s">
         <v>713</v>
       </c>
     </row>
     <row r="35" spans="1:4" s="7" customFormat="1" ht="12">
-      <c r="A35" s="54" t="s">
+      <c r="A35" s="42" t="s">
         <v>716</v>
       </c>
-      <c r="B35" s="54" t="s">
+      <c r="B35" s="42" t="s">
         <v>501</v>
       </c>
-      <c r="C35" s="54" t="s">
+      <c r="C35" s="42" t="s">
         <v>502</v>
       </c>
-      <c r="D35" s="54" t="s">
+      <c r="D35" s="42" t="s">
         <v>715</v>
       </c>
     </row>
     <row r="36" spans="1:4" s="7" customFormat="1" ht="12">
-      <c r="A36" s="54" t="s">
+      <c r="A36" s="42" t="s">
         <v>718</v>
       </c>
-      <c r="B36" s="54" t="s">
+      <c r="B36" s="42" t="s">
         <v>501</v>
       </c>
-      <c r="C36" s="54" t="s">
+      <c r="C36" s="42" t="s">
         <v>502</v>
       </c>
-      <c r="D36" s="54" t="s">
+      <c r="D36" s="42" t="s">
         <v>717</v>
       </c>
     </row>
     <row r="37" spans="1:4" s="7" customFormat="1" ht="12">
-      <c r="A37" s="54" t="s">
+      <c r="A37" s="42" t="s">
         <v>720</v>
       </c>
-      <c r="B37" s="54" t="s">
+      <c r="B37" s="42" t="s">
         <v>501</v>
       </c>
-      <c r="C37" s="54" t="s">
+      <c r="C37" s="42" t="s">
         <v>502</v>
       </c>
-      <c r="D37" s="54" t="s">
+      <c r="D37" s="42" t="s">
         <v>719</v>
       </c>
     </row>
     <row r="38" spans="1:4" s="7" customFormat="1" ht="12">
-      <c r="A38" s="54" t="s">
+      <c r="A38" s="42" t="s">
         <v>722</v>
       </c>
-      <c r="B38" s="54" t="s">
+      <c r="B38" s="42" t="s">
         <v>501</v>
       </c>
-      <c r="C38" s="54" t="s">
+      <c r="C38" s="42" t="s">
         <v>502</v>
       </c>
-      <c r="D38" s="54" t="s">
+      <c r="D38" s="42" t="s">
         <v>721</v>
       </c>
     </row>
     <row r="39" spans="1:4" s="7" customFormat="1" ht="12">
-      <c r="A39" s="54" t="s">
+      <c r="A39" s="42" t="s">
         <v>724</v>
       </c>
-      <c r="B39" s="54" t="s">
+      <c r="B39" s="42" t="s">
         <v>501</v>
       </c>
-      <c r="C39" s="54" t="s">
+      <c r="C39" s="42" t="s">
         <v>502</v>
       </c>
-      <c r="D39" s="54" t="s">
+      <c r="D39" s="42" t="s">
         <v>723</v>
       </c>
     </row>
     <row r="40" spans="1:4" s="7" customFormat="1" ht="12">
-      <c r="A40" s="54" t="s">
+      <c r="A40" s="42" t="s">
         <v>726</v>
       </c>
-      <c r="B40" s="54" t="s">
+      <c r="B40" s="42" t="s">
         <v>501</v>
       </c>
-      <c r="C40" s="54" t="s">
+      <c r="C40" s="42" t="s">
         <v>502</v>
       </c>
-      <c r="D40" s="54" t="s">
+      <c r="D40" s="42" t="s">
         <v>725</v>
       </c>
     </row>
     <row r="41" spans="1:4" s="7" customFormat="1" ht="12">
-      <c r="A41" s="54" t="s">
+      <c r="A41" s="42" t="s">
         <v>728</v>
       </c>
-      <c r="B41" s="54" t="s">
+      <c r="B41" s="42" t="s">
         <v>501</v>
       </c>
-      <c r="C41" s="54" t="s">
+      <c r="C41" s="42" t="s">
         <v>502</v>
       </c>
-      <c r="D41" s="54" t="s">
+      <c r="D41" s="42" t="s">
         <v>727</v>
       </c>
     </row>
     <row r="42" spans="1:4" s="7" customFormat="1" ht="12">
-      <c r="A42" s="54" t="s">
+      <c r="A42" s="42" t="s">
         <v>475</v>
       </c>
-      <c r="B42" s="54" t="s">
+      <c r="B42" s="42" t="s">
         <v>501</v>
       </c>
-      <c r="C42" s="54" t="s">
+      <c r="C42" s="42" t="s">
         <v>502</v>
       </c>
-      <c r="D42" s="54" t="s">
+      <c r="D42" s="42" t="s">
         <v>729</v>
       </c>
     </row>
     <row r="43" spans="1:4" s="7" customFormat="1" ht="12">
-      <c r="A43" s="54" t="s">
+      <c r="A43" s="42" t="s">
         <v>731</v>
       </c>
-      <c r="B43" s="54" t="s">
+      <c r="B43" s="42" t="s">
         <v>501</v>
       </c>
-      <c r="C43" s="54" t="s">
+      <c r="C43" s="42" t="s">
         <v>502</v>
       </c>
-      <c r="D43" s="54" t="s">
+      <c r="D43" s="42" t="s">
         <v>730</v>
       </c>
     </row>
     <row r="44" spans="1:4" s="7" customFormat="1" ht="12">
-      <c r="A44" s="54" t="s">
+      <c r="A44" s="42" t="s">
         <v>733</v>
       </c>
-      <c r="B44" s="54" t="s">
+      <c r="B44" s="42" t="s">
         <v>501</v>
       </c>
-      <c r="C44" s="54" t="s">
+      <c r="C44" s="42" t="s">
         <v>502</v>
       </c>
-      <c r="D44" s="54" t="s">
+      <c r="D44" s="42" t="s">
         <v>732</v>
       </c>
     </row>
     <row r="45" spans="1:4" s="7" customFormat="1" ht="12">
-      <c r="A45" s="54" t="s">
+      <c r="A45" s="42" t="s">
         <v>735</v>
       </c>
-      <c r="B45" s="54" t="s">
+      <c r="B45" s="42" t="s">
         <v>501</v>
       </c>
-      <c r="C45" s="54" t="s">
+      <c r="C45" s="42" t="s">
         <v>502</v>
       </c>
-      <c r="D45" s="54" t="s">
+      <c r="D45" s="42" t="s">
         <v>734</v>
       </c>
     </row>
     <row r="46" spans="1:4" s="7" customFormat="1" ht="12">
-      <c r="A46" s="54" t="s">
+      <c r="A46" s="42" t="s">
         <v>737</v>
       </c>
-      <c r="B46" s="54" t="s">
+      <c r="B46" s="42" t="s">
         <v>501</v>
       </c>
-      <c r="C46" s="54" t="s">
+      <c r="C46" s="42" t="s">
         <v>502</v>
       </c>
-      <c r="D46" s="54" t="s">
+      <c r="D46" s="42" t="s">
         <v>736</v>
       </c>
     </row>
     <row r="47" spans="1:4" s="7" customFormat="1" ht="12">
-      <c r="A47" s="54" t="s">
+      <c r="A47" s="42" t="s">
         <v>739</v>
       </c>
-      <c r="B47" s="54" t="s">
+      <c r="B47" s="42" t="s">
         <v>504</v>
       </c>
-      <c r="C47" s="54" t="s">
+      <c r="C47" s="42" t="s">
         <v>502</v>
       </c>
-      <c r="D47" s="54" t="s">
+      <c r="D47" s="42" t="s">
         <v>738</v>
       </c>
     </row>
     <row r="48" spans="1:4" s="7" customFormat="1" ht="12">
-      <c r="A48" s="54" t="s">
+      <c r="A48" s="42" t="s">
         <v>741</v>
       </c>
-      <c r="B48" s="54" t="s">
+      <c r="B48" s="42" t="s">
         <v>501</v>
       </c>
-      <c r="C48" s="54" t="s">
+      <c r="C48" s="42" t="s">
         <v>502</v>
       </c>
-      <c r="D48" s="54" t="s">
+      <c r="D48" s="42" t="s">
         <v>740</v>
       </c>
     </row>
     <row r="49" spans="1:4" s="7" customFormat="1" ht="12">
-      <c r="A49" s="54" t="s">
+      <c r="A49" s="42" t="s">
         <v>743</v>
       </c>
-      <c r="B49" s="54" t="s">
+      <c r="B49" s="42" t="s">
         <v>501</v>
       </c>
-      <c r="C49" s="54" t="s">
+      <c r="C49" s="42" t="s">
         <v>502</v>
       </c>
-      <c r="D49" s="54" t="s">
+      <c r="D49" s="42" t="s">
         <v>742</v>
       </c>
     </row>
     <row r="50" spans="1:4" s="7" customFormat="1" ht="12">
-      <c r="A50" s="54" t="s">
+      <c r="A50" s="42" t="s">
         <v>745</v>
       </c>
-      <c r="B50" s="54" t="s">
+      <c r="B50" s="42" t="s">
         <v>501</v>
       </c>
-      <c r="C50" s="54" t="s">
+      <c r="C50" s="42" t="s">
         <v>502</v>
       </c>
-      <c r="D50" s="54" t="s">
+      <c r="D50" s="42" t="s">
         <v>744</v>
       </c>
     </row>
     <row r="51" spans="1:4" s="7" customFormat="1" ht="12" customHeight="1">
-      <c r="A51" s="54" t="s">
+      <c r="A51" s="42" t="s">
         <v>747</v>
       </c>
-      <c r="B51" s="54" t="s">
+      <c r="B51" s="42" t="s">
         <v>501</v>
       </c>
-      <c r="C51" s="54" t="s">
+      <c r="C51" s="42" t="s">
         <v>502</v>
       </c>
-      <c r="D51" s="54" t="s">
+      <c r="D51" s="42" t="s">
         <v>746</v>
       </c>
     </row>
     <row r="52" spans="1:4" s="7" customFormat="1" ht="12" customHeight="1">
-      <c r="A52" s="54" t="s">
+      <c r="A52" s="42" t="s">
         <v>749</v>
       </c>
-      <c r="B52" s="54" t="s">
+      <c r="B52" s="42" t="s">
         <v>501</v>
       </c>
-      <c r="C52" s="54" t="s">
+      <c r="C52" s="42" t="s">
         <v>502</v>
       </c>
-      <c r="D52" s="54" t="s">
+      <c r="D52" s="42" t="s">
         <v>748</v>
       </c>
     </row>
     <row r="53" spans="1:4" s="7" customFormat="1" ht="12" customHeight="1">
-      <c r="A53" s="54" t="s">
+      <c r="A53" s="42" t="s">
         <v>751</v>
       </c>
-      <c r="B53" s="54" t="s">
+      <c r="B53" s="42" t="s">
         <v>501</v>
       </c>
-      <c r="C53" s="54" t="s">
+      <c r="C53" s="42" t="s">
         <v>502</v>
       </c>
-      <c r="D53" s="54" t="s">
+      <c r="D53" s="42" t="s">
         <v>750</v>
       </c>
     </row>
     <row r="54" spans="1:4" s="7" customFormat="1" ht="12" customHeight="1">
-      <c r="A54" s="54" t="s">
+      <c r="A54" s="42" t="s">
         <v>753</v>
       </c>
-      <c r="B54" s="54" t="s">
+      <c r="B54" s="42" t="s">
         <v>501</v>
       </c>
-      <c r="C54" s="54" t="s">
+      <c r="C54" s="42" t="s">
         <v>502</v>
       </c>
-      <c r="D54" s="54" t="s">
+      <c r="D54" s="42" t="s">
         <v>752</v>
       </c>
     </row>
     <row r="55" spans="1:4" s="7" customFormat="1" ht="12" customHeight="1">
-      <c r="A55" s="54" t="s">
+      <c r="A55" s="42" t="s">
         <v>755</v>
       </c>
-      <c r="B55" s="54" t="s">
+      <c r="B55" s="42" t="s">
         <v>501</v>
       </c>
-      <c r="C55" s="54" t="s">
+      <c r="C55" s="42" t="s">
         <v>502</v>
       </c>
-      <c r="D55" s="54" t="s">
+      <c r="D55" s="42" t="s">
         <v>754</v>
       </c>
     </row>
     <row r="56" spans="1:4" s="7" customFormat="1" ht="12" customHeight="1">
-      <c r="A56" s="54" t="s">
+      <c r="A56" s="42" t="s">
         <v>757</v>
       </c>
-      <c r="B56" s="54" t="s">
+      <c r="B56" s="42" t="s">
         <v>501</v>
       </c>
-      <c r="C56" s="54" t="s">
+      <c r="C56" s="42" t="s">
         <v>502</v>
       </c>
-      <c r="D56" s="54" t="s">
+      <c r="D56" s="42" t="s">
         <v>756</v>
       </c>
     </row>
     <row r="57" spans="1:4" s="7" customFormat="1" ht="12" customHeight="1">
-      <c r="A57" s="54" t="s">
+      <c r="A57" s="42" t="s">
         <v>759</v>
       </c>
-      <c r="B57" s="54" t="s">
+      <c r="B57" s="42" t="s">
         <v>501</v>
       </c>
-      <c r="C57" s="54" t="s">
+      <c r="C57" s="42" t="s">
         <v>502</v>
       </c>
-      <c r="D57" s="54" t="s">
+      <c r="D57" s="42" t="s">
         <v>758</v>
       </c>
     </row>
     <row r="58" spans="1:4" s="7" customFormat="1" ht="12" customHeight="1">
-      <c r="A58" s="54" t="s">
+      <c r="A58" s="42" t="s">
         <v>761</v>
       </c>
-      <c r="B58" s="54" t="s">
+      <c r="B58" s="42" t="s">
         <v>501</v>
       </c>
-      <c r="C58" s="54" t="s">
+      <c r="C58" s="42" t="s">
         <v>502</v>
       </c>
-      <c r="D58" s="54" t="s">
+      <c r="D58" s="42" t="s">
         <v>760</v>
       </c>
     </row>
     <row r="59" spans="1:4" s="7" customFormat="1" ht="12" customHeight="1">
-      <c r="A59" s="54" t="s">
+      <c r="A59" s="42" t="s">
         <v>763</v>
       </c>
-      <c r="B59" s="54" t="s">
+      <c r="B59" s="42" t="s">
         <v>501</v>
       </c>
-      <c r="C59" s="54" t="s">
+      <c r="C59" s="42" t="s">
         <v>502</v>
       </c>
-      <c r="D59" s="54" t="s">
+      <c r="D59" s="42" t="s">
         <v>762</v>
       </c>
     </row>
     <row r="60" spans="1:4" s="7" customFormat="1" ht="12" customHeight="1">
-      <c r="A60" s="54" t="s">
+      <c r="A60" s="42" t="s">
         <v>765</v>
       </c>
-      <c r="B60" s="54" t="s">
+      <c r="B60" s="42" t="s">
         <v>501</v>
       </c>
-      <c r="C60" s="54" t="s">
+      <c r="C60" s="42" t="s">
         <v>502</v>
       </c>
-      <c r="D60" s="54" t="s">
+      <c r="D60" s="42" t="s">
         <v>764</v>
       </c>
     </row>
     <row r="61" spans="1:4" s="7" customFormat="1" ht="12" customHeight="1">
-      <c r="A61" s="54" t="s">
+      <c r="A61" s="42" t="s">
         <v>767</v>
       </c>
-      <c r="B61" s="54" t="s">
+      <c r="B61" s="42" t="s">
         <v>501</v>
       </c>
-      <c r="C61" s="54" t="s">
+      <c r="C61" s="42" t="s">
         <v>502</v>
       </c>
-      <c r="D61" s="54" t="s">
+      <c r="D61" s="42" t="s">
         <v>766</v>
       </c>
     </row>
     <row r="62" spans="1:4" s="7" customFormat="1" ht="12" customHeight="1">
-      <c r="A62" s="54" t="s">
+      <c r="A62" s="42" t="s">
         <v>769</v>
       </c>
-      <c r="B62" s="54" t="s">
+      <c r="B62" s="42" t="s">
         <v>501</v>
       </c>
-      <c r="C62" s="54" t="s">
+      <c r="C62" s="42" t="s">
         <v>502</v>
       </c>
-      <c r="D62" s="54" t="s">
+      <c r="D62" s="42" t="s">
         <v>768</v>
       </c>
     </row>
     <row r="63" spans="1:4" s="7" customFormat="1" ht="12" customHeight="1">
-      <c r="A63" s="54" t="s">
+      <c r="A63" s="42" t="s">
         <v>771</v>
       </c>
-      <c r="B63" s="54" t="s">
+      <c r="B63" s="42" t="s">
         <v>501</v>
       </c>
-      <c r="C63" s="54" t="s">
+      <c r="C63" s="42" t="s">
         <v>502</v>
       </c>
-      <c r="D63" s="54" t="s">
+      <c r="D63" s="42" t="s">
         <v>770</v>
       </c>
     </row>
     <row r="64" spans="1:4" s="7" customFormat="1" ht="12" customHeight="1">
-      <c r="A64" s="54" t="s">
+      <c r="A64" s="42" t="s">
         <v>773</v>
       </c>
-      <c r="B64" s="54" t="s">
+      <c r="B64" s="42" t="s">
         <v>501</v>
       </c>
-      <c r="C64" s="54" t="s">
+      <c r="C64" s="42" t="s">
         <v>502</v>
       </c>
-      <c r="D64" s="54" t="s">
+      <c r="D64" s="42" t="s">
         <v>772</v>
       </c>
     </row>
     <row r="65" spans="1:4" s="7" customFormat="1" ht="12" customHeight="1">
-      <c r="A65" s="54" t="s">
+      <c r="A65" s="42" t="s">
         <v>775</v>
       </c>
-      <c r="B65" s="54" t="s">
+      <c r="B65" s="42" t="s">
         <v>501</v>
       </c>
-      <c r="C65" s="54" t="s">
+      <c r="C65" s="42" t="s">
         <v>502</v>
       </c>
-      <c r="D65" s="54" t="s">
+      <c r="D65" s="42" t="s">
         <v>774</v>
       </c>
     </row>
     <row r="66" spans="1:4" s="7" customFormat="1" ht="12" customHeight="1">
-      <c r="A66" s="54" t="s">
+      <c r="A66" s="42" t="s">
         <v>777</v>
       </c>
-      <c r="B66" s="54" t="s">
+      <c r="B66" s="42" t="s">
         <v>501</v>
       </c>
-      <c r="C66" s="54" t="s">
+      <c r="C66" s="42" t="s">
         <v>502</v>
       </c>
-      <c r="D66" s="54" t="s">
+      <c r="D66" s="42" t="s">
         <v>776</v>
       </c>
     </row>
     <row r="67" spans="1:4" s="7" customFormat="1" ht="12" customHeight="1">
-      <c r="A67" s="54" t="s">
+      <c r="A67" s="42" t="s">
         <v>779</v>
       </c>
-      <c r="B67" s="54" t="s">
+      <c r="B67" s="42" t="s">
         <v>501</v>
       </c>
-      <c r="C67" s="54" t="s">
+      <c r="C67" s="42" t="s">
         <v>502</v>
       </c>
-      <c r="D67" s="54" t="s">
+      <c r="D67" s="42" t="s">
         <v>778</v>
       </c>
     </row>
     <row r="68" spans="1:4" s="7" customFormat="1" ht="12" customHeight="1">
-      <c r="A68" s="54" t="s">
+      <c r="A68" s="42" t="s">
         <v>781</v>
       </c>
-      <c r="B68" s="54" t="s">
+      <c r="B68" s="42" t="s">
         <v>501</v>
       </c>
-      <c r="C68" s="54" t="s">
+      <c r="C68" s="42" t="s">
         <v>502</v>
       </c>
-      <c r="D68" s="54" t="s">
+      <c r="D68" s="42" t="s">
         <v>780</v>
       </c>
     </row>
     <row r="69" spans="1:4" s="7" customFormat="1" ht="12" customHeight="1">
-      <c r="A69" s="54" t="s">
+      <c r="A69" s="42" t="s">
         <v>783</v>
       </c>
-      <c r="B69" s="54" t="s">
+      <c r="B69" s="42" t="s">
         <v>501</v>
       </c>
-      <c r="C69" s="54" t="s">
+      <c r="C69" s="42" t="s">
         <v>502</v>
       </c>
-      <c r="D69" s="54" t="s">
+      <c r="D69" s="42" t="s">
         <v>782</v>
       </c>
     </row>
     <row r="70" spans="1:4" s="7" customFormat="1" ht="12" customHeight="1">
-      <c r="A70" s="54" t="s">
+      <c r="A70" s="42" t="s">
         <v>785</v>
       </c>
-      <c r="B70" s="54" t="s">
+      <c r="B70" s="42" t="s">
         <v>501</v>
       </c>
-      <c r="C70" s="54" t="s">
+      <c r="C70" s="42" t="s">
         <v>502</v>
       </c>
-      <c r="D70" s="54" t="s">
+      <c r="D70" s="42" t="s">
         <v>784</v>
       </c>
     </row>
     <row r="71" spans="1:4" s="7" customFormat="1" ht="12" customHeight="1">
-      <c r="A71" s="54" t="s">
+      <c r="A71" s="42" t="s">
         <v>787</v>
       </c>
-      <c r="B71" s="54" t="s">
+      <c r="B71" s="42" t="s">
         <v>501</v>
       </c>
-      <c r="C71" s="54" t="s">
+      <c r="C71" s="42" t="s">
         <v>502</v>
       </c>
-      <c r="D71" s="54" t="s">
+      <c r="D71" s="42" t="s">
         <v>786</v>
       </c>
     </row>
     <row r="72" spans="1:4" s="7" customFormat="1" ht="12" customHeight="1">
-      <c r="A72" s="54" t="s">
+      <c r="A72" s="42" t="s">
         <v>789</v>
       </c>
-      <c r="B72" s="54" t="s">
+      <c r="B72" s="42" t="s">
         <v>501</v>
       </c>
-      <c r="C72" s="54" t="s">
+      <c r="C72" s="42" t="s">
         <v>502</v>
       </c>
-      <c r="D72" s="54" t="s">
+      <c r="D72" s="42" t="s">
         <v>788</v>
       </c>
     </row>
     <row r="73" spans="1:4" s="7" customFormat="1" ht="12" customHeight="1">
-      <c r="A73" s="54" t="s">
+      <c r="A73" s="42" t="s">
         <v>791</v>
       </c>
-      <c r="B73" s="54" t="s">
+      <c r="B73" s="42" t="s">
         <v>501</v>
       </c>
-      <c r="C73" s="54" t="s">
+      <c r="C73" s="42" t="s">
         <v>502</v>
       </c>
-      <c r="D73" s="54" t="s">
+      <c r="D73" s="42" t="s">
         <v>790</v>
       </c>
     </row>
     <row r="74" spans="1:4" s="7" customFormat="1" ht="12" customHeight="1">
-      <c r="A74" s="54" t="s">
+      <c r="A74" s="42" t="s">
         <v>793</v>
       </c>
-      <c r="B74" s="54" t="s">
+      <c r="B74" s="42" t="s">
         <v>501</v>
       </c>
-      <c r="C74" s="54" t="s">
+      <c r="C74" s="42" t="s">
         <v>502</v>
       </c>
-      <c r="D74" s="54" t="s">
+      <c r="D74" s="42" t="s">
         <v>792</v>
       </c>
     </row>
     <row r="75" spans="1:4" ht="12" customHeight="1">
-      <c r="A75" s="54" t="s">
+      <c r="A75" s="42" t="s">
         <v>795</v>
       </c>
-      <c r="B75" s="54" t="s">
+      <c r="B75" s="42" t="s">
         <v>501</v>
       </c>
-      <c r="C75" s="54" t="s">
+      <c r="C75" s="42" t="s">
         <v>502</v>
       </c>
-      <c r="D75" s="54" t="s">
+      <c r="D75" s="42" t="s">
         <v>794</v>
       </c>
     </row>
     <row r="76" spans="1:4" ht="12" customHeight="1">
-      <c r="A76" s="54" t="s">
+      <c r="A76" s="42" t="s">
         <v>797</v>
       </c>
-      <c r="B76" s="54" t="s">
+      <c r="B76" s="42" t="s">
         <v>501</v>
       </c>
-      <c r="C76" s="54" t="s">
+      <c r="C76" s="42" t="s">
         <v>502</v>
       </c>
-      <c r="D76" s="54" t="s">
+      <c r="D76" s="42" t="s">
         <v>796</v>
       </c>
     </row>
     <row r="77" spans="1:4" ht="12" customHeight="1">
-      <c r="A77" s="54" t="s">
+      <c r="A77" s="42" t="s">
         <v>799</v>
       </c>
-      <c r="B77" s="54" t="s">
+      <c r="B77" s="42" t="s">
         <v>501</v>
       </c>
-      <c r="C77" s="54" t="s">
+      <c r="C77" s="42" t="s">
         <v>502</v>
       </c>
-      <c r="D77" s="54" t="s">
+      <c r="D77" s="42" t="s">
         <v>798</v>
       </c>
     </row>
     <row r="78" spans="1:4" ht="12" customHeight="1">
-      <c r="A78" s="54" t="s">
+      <c r="A78" s="42" t="s">
         <v>801</v>
       </c>
-      <c r="B78" s="54" t="s">
+      <c r="B78" s="42" t="s">
         <v>501</v>
       </c>
-      <c r="C78" s="54" t="s">
+      <c r="C78" s="42" t="s">
         <v>502</v>
       </c>
-      <c r="D78" s="54" t="s">
+      <c r="D78" s="42" t="s">
         <v>800</v>
       </c>
     </row>
     <row r="79" spans="1:4" ht="12" customHeight="1">
-      <c r="A79" s="54" t="s">
+      <c r="A79" s="42" t="s">
         <v>803</v>
       </c>
-      <c r="B79" s="54" t="s">
+      <c r="B79" s="42" t="s">
         <v>505</v>
       </c>
-      <c r="C79" s="54" t="s">
+      <c r="C79" s="42" t="s">
         <v>502</v>
       </c>
-      <c r="D79" s="54" t="s">
+      <c r="D79" s="42" t="s">
         <v>802</v>
       </c>
     </row>
     <row r="80" spans="1:4" ht="12" customHeight="1">
-      <c r="A80" s="54" t="s">
+      <c r="A80" s="42" t="s">
         <v>804</v>
       </c>
-      <c r="B80" s="54" t="s">
+      <c r="B80" s="42" t="s">
         <v>506</v>
       </c>
-      <c r="C80" s="54" t="s">
+      <c r="C80" s="42" t="s">
         <v>506</v>
       </c>
-      <c r="D80" s="54" t="s">
+      <c r="D80" s="42" t="s">
         <v>802</v>
       </c>
     </row>
     <row r="81" spans="1:4" ht="12" customHeight="1">
-      <c r="A81" s="54" t="s">
+      <c r="A81" s="42" t="s">
         <v>806</v>
       </c>
-      <c r="B81" s="54" t="s">
+      <c r="B81" s="42" t="s">
         <v>507</v>
       </c>
-      <c r="C81" s="54" t="s">
+      <c r="C81" s="42" t="s">
         <v>508</v>
       </c>
-      <c r="D81" s="54" t="s">
+      <c r="D81" s="42" t="s">
         <v>805</v>
       </c>
     </row>
     <row r="82" spans="1:4" ht="12" customHeight="1">
-      <c r="A82" s="54" t="s">
+      <c r="A82" s="42" t="s">
         <v>511</v>
       </c>
-      <c r="B82" s="54" t="s">
+      <c r="B82" s="42" t="s">
         <v>509</v>
       </c>
-      <c r="C82" s="54" t="s">
+      <c r="C82" s="42" t="s">
         <v>510</v>
       </c>
-      <c r="D82" s="54" t="s">
+      <c r="D82" s="42" t="s">
         <v>807</v>
       </c>
     </row>
     <row r="83" spans="1:4" ht="12" customHeight="1">
-      <c r="A83" s="54" t="s">
+      <c r="A83" s="42" t="s">
         <v>514</v>
       </c>
-      <c r="B83" s="54" t="s">
+      <c r="B83" s="42" t="s">
         <v>512</v>
       </c>
-      <c r="C83" s="54" t="s">
+      <c r="C83" s="42" t="s">
         <v>513</v>
       </c>
-      <c r="D83" s="54" t="s">
+      <c r="D83" s="42" t="s">
         <v>808</v>
       </c>
     </row>
     <row r="84" spans="1:4" ht="12" customHeight="1">
-      <c r="A84" s="54" t="s">
+      <c r="A84" s="42" t="s">
         <v>517</v>
       </c>
-      <c r="B84" s="54" t="s">
+      <c r="B84" s="42" t="s">
         <v>515</v>
       </c>
-      <c r="C84" s="54" t="s">
+      <c r="C84" s="42" t="s">
         <v>516</v>
       </c>
-      <c r="D84" s="54" t="s">
+      <c r="D84" s="42" t="s">
         <v>423</v>
       </c>
     </row>
     <row r="85" spans="1:4" ht="12" customHeight="1">
-      <c r="A85" s="54" t="s">
+      <c r="A85" s="42" t="s">
         <v>449</v>
       </c>
-      <c r="B85" s="54" t="s">
+      <c r="B85" s="42" t="s">
         <v>447</v>
       </c>
-      <c r="C85" s="54" t="s">
+      <c r="C85" s="42" t="s">
         <v>448</v>
       </c>
-      <c r="D85" s="54" t="s">
+      <c r="D85" s="42" t="s">
         <v>446</v>
       </c>
     </row>
     <row r="86" spans="1:4" ht="12" customHeight="1">
-      <c r="A86" s="54" t="s">
+      <c r="A86" s="42" t="s">
         <v>452</v>
       </c>
-      <c r="B86" s="54" t="s">
+      <c r="B86" s="42" t="s">
         <v>450</v>
       </c>
-      <c r="C86" s="54" t="s">
+      <c r="C86" s="42" t="s">
         <v>451</v>
       </c>
-      <c r="D86" s="54" t="s">
+      <c r="D86" s="42" t="s">
         <v>296</v>
       </c>
     </row>
     <row r="87" spans="1:4" ht="12" customHeight="1">
-      <c r="A87" s="54" t="s">
+      <c r="A87" s="42" t="s">
         <v>520</v>
       </c>
-      <c r="B87" s="54" t="s">
+      <c r="B87" s="42" t="s">
         <v>518</v>
       </c>
-      <c r="C87" s="54" t="s">
+      <c r="C87" s="42" t="s">
         <v>519</v>
       </c>
-      <c r="D87" s="54" t="s">
+      <c r="D87" s="42" t="s">
         <v>809</v>
       </c>
     </row>
     <row r="88" spans="1:4" ht="12" customHeight="1">
-      <c r="A88" s="54" t="s">
+      <c r="A88" s="42" t="s">
         <v>456</v>
       </c>
-      <c r="B88" s="54" t="s">
+      <c r="B88" s="42" t="s">
         <v>454</v>
       </c>
-      <c r="C88" s="54" t="s">
+      <c r="C88" s="42" t="s">
         <v>455</v>
       </c>
-      <c r="D88" s="54" t="s">
+      <c r="D88" s="42" t="s">
         <v>453</v>
       </c>
     </row>
     <row r="89" spans="1:4" ht="12" customHeight="1">
-      <c r="A89" s="54" t="s">
+      <c r="A89" s="42" t="s">
         <v>523</v>
       </c>
-      <c r="B89" s="54" t="s">
+      <c r="B89" s="42" t="s">
         <v>521</v>
       </c>
-      <c r="C89" s="54" t="s">
+      <c r="C89" s="42" t="s">
         <v>522</v>
       </c>
-      <c r="D89" s="54" t="s">
+      <c r="D89" s="42" t="s">
         <v>295</v>
       </c>
     </row>
     <row r="90" spans="1:4" ht="12" customHeight="1">
-      <c r="A90" s="54" t="s">
+      <c r="A90" s="42" t="s">
         <v>526</v>
       </c>
-      <c r="B90" s="54" t="s">
+      <c r="B90" s="42" t="s">
         <v>524</v>
       </c>
-      <c r="C90" s="54" t="s">
+      <c r="C90" s="42" t="s">
         <v>525</v>
       </c>
-      <c r="D90" s="54" t="s">
+      <c r="D90" s="42" t="s">
         <v>810</v>
       </c>
     </row>
     <row r="91" spans="1:4" ht="12" customHeight="1">
-      <c r="A91" s="54" t="s">
+      <c r="A91" s="42" t="s">
         <v>529</v>
       </c>
-      <c r="B91" s="54" t="s">
+      <c r="B91" s="42" t="s">
         <v>527</v>
       </c>
-      <c r="C91" s="54" t="s">
+      <c r="C91" s="42" t="s">
         <v>528</v>
       </c>
-      <c r="D91" s="54" t="s">
+      <c r="D91" s="42" t="s">
         <v>811</v>
       </c>
     </row>
     <row r="92" spans="1:4" ht="12" customHeight="1">
-      <c r="A92" s="54" t="s">
+      <c r="A92" s="42" t="s">
         <v>532</v>
       </c>
-      <c r="B92" s="54" t="s">
+      <c r="B92" s="42" t="s">
         <v>530</v>
       </c>
-      <c r="C92" s="54" t="s">
+      <c r="C92" s="42" t="s">
         <v>531</v>
       </c>
-      <c r="D92" s="54" t="s">
+      <c r="D92" s="42" t="s">
         <v>812</v>
       </c>
     </row>
     <row r="93" spans="1:4" ht="12" customHeight="1">
-      <c r="A93" s="54" t="s">
+      <c r="A93" s="42" t="s">
         <v>534</v>
       </c>
-      <c r="B93" s="54" t="s">
+      <c r="B93" s="42" t="s">
         <v>533</v>
       </c>
-      <c r="C93" s="54" t="s">
+      <c r="C93" s="42" t="s">
         <v>451</v>
       </c>
-      <c r="D93" s="54" t="s">
+      <c r="D93" s="42" t="s">
         <v>813</v>
       </c>
     </row>
     <row r="94" spans="1:4" ht="12" customHeight="1">
-      <c r="A94" s="54" t="s">
+      <c r="A94" s="42" t="s">
         <v>445</v>
       </c>
-      <c r="B94" s="54" t="s">
+      <c r="B94" s="42" t="s">
         <v>444</v>
       </c>
-      <c r="C94" s="54" t="s">
+      <c r="C94" s="42" t="s">
         <v>444</v>
       </c>
-      <c r="D94" s="54" t="s">
+      <c r="D94" s="42" t="s">
         <v>297</v>
       </c>
     </row>
     <row r="95" spans="1:4" ht="12" customHeight="1">
-      <c r="A95" s="54" t="s">
+      <c r="A95" s="42" t="s">
         <v>536</v>
       </c>
-      <c r="B95" s="54" t="s">
+      <c r="B95" s="42" t="s">
         <v>535</v>
       </c>
-      <c r="C95" s="54" t="s">
+      <c r="C95" s="42" t="s">
         <v>535</v>
       </c>
-      <c r="D95" s="54" t="s">
+      <c r="D95" s="42" t="s">
         <v>429</v>
       </c>
     </row>
     <row r="96" spans="1:4" ht="12" customHeight="1">
-      <c r="A96" s="54" t="s">
+      <c r="A96" s="42" t="s">
         <v>539</v>
       </c>
-      <c r="B96" s="54" t="s">
+      <c r="B96" s="42" t="s">
         <v>537</v>
       </c>
-      <c r="C96" s="54" t="s">
+      <c r="C96" s="42" t="s">
         <v>538</v>
       </c>
-      <c r="D96" s="54" t="s">
+      <c r="D96" s="42" t="s">
         <v>814</v>
       </c>
     </row>
     <row r="97" spans="1:4" ht="12" customHeight="1">
-      <c r="A97" s="54" t="s">
+      <c r="A97" s="42" t="s">
         <v>542</v>
       </c>
-      <c r="B97" s="54" t="s">
+      <c r="B97" s="42" t="s">
         <v>540</v>
       </c>
-      <c r="C97" s="54" t="s">
+      <c r="C97" s="42" t="s">
         <v>541</v>
       </c>
-      <c r="D97" s="54" t="s">
+      <c r="D97" s="42" t="s">
         <v>815</v>
       </c>
     </row>
     <row r="98" spans="1:4" ht="12" customHeight="1">
-      <c r="A98" s="54" t="s">
+      <c r="A98" s="42" t="s">
         <v>545</v>
       </c>
-      <c r="B98" s="54" t="s">
+      <c r="B98" s="42" t="s">
         <v>543</v>
       </c>
-      <c r="C98" s="54" t="s">
+      <c r="C98" s="42" t="s">
         <v>544</v>
       </c>
-      <c r="D98" s="54" t="s">
+      <c r="D98" s="42" t="s">
         <v>816</v>
       </c>
     </row>
     <row r="99" spans="1:4" ht="12" customHeight="1">
-      <c r="A99" s="54" t="s">
+      <c r="A99" s="42" t="s">
         <v>546</v>
       </c>
-      <c r="B99" s="54" t="s">
+      <c r="B99" s="42" t="s">
         <v>543</v>
       </c>
-      <c r="C99" s="54" t="s">
+      <c r="C99" s="42" t="s">
         <v>544</v>
       </c>
-      <c r="D99" s="54" t="s">
+      <c r="D99" s="42" t="s">
         <v>816</v>
       </c>
     </row>
     <row r="100" spans="1:4" ht="12" customHeight="1">
-      <c r="A100" s="54" t="s">
+      <c r="A100" s="42" t="s">
         <v>549</v>
       </c>
-      <c r="B100" s="54" t="s">
+      <c r="B100" s="42" t="s">
         <v>547</v>
       </c>
-      <c r="C100" s="54" t="s">
+      <c r="C100" s="42" t="s">
         <v>548</v>
       </c>
-      <c r="D100" s="54" t="s">
+      <c r="D100" s="42" t="s">
         <v>817</v>
       </c>
     </row>
     <row r="101" spans="1:4" ht="12" customHeight="1">
-      <c r="A101" s="54" t="s">
+      <c r="A101" s="42" t="s">
         <v>551</v>
       </c>
-      <c r="B101" s="54" t="s">
+      <c r="B101" s="42" t="s">
         <v>550</v>
       </c>
-      <c r="C101" s="54" t="s">
+      <c r="C101" s="42" t="s">
         <v>502</v>
       </c>
-      <c r="D101" s="54" t="s">
+      <c r="D101" s="42" t="s">
         <v>818</v>
       </c>
     </row>
     <row r="102" spans="1:4" ht="12" customHeight="1">
-      <c r="A102" s="54" t="s">
+      <c r="A102" s="42" t="s">
         <v>553</v>
       </c>
-      <c r="B102" s="54" t="s">
+      <c r="B102" s="42" t="s">
         <v>552</v>
       </c>
-      <c r="C102" s="54" t="s">
+      <c r="C102" s="42" t="s">
         <v>552</v>
       </c>
-      <c r="D102" s="54" t="s">
+      <c r="D102" s="42" t="s">
         <v>819</v>
       </c>
     </row>
     <row r="103" spans="1:4" ht="12" customHeight="1">
-      <c r="A103" s="54" t="s">
+      <c r="A103" s="42" t="s">
         <v>555</v>
       </c>
-      <c r="B103" s="54" t="s">
+      <c r="B103" s="42" t="s">
         <v>554</v>
       </c>
-      <c r="C103" s="54" t="s">
+      <c r="C103" s="42" t="s">
         <v>554</v>
       </c>
-      <c r="D103" s="54" t="s">
+      <c r="D103" s="42" t="s">
         <v>820</v>
       </c>
     </row>
     <row r="104" spans="1:4" ht="12" customHeight="1">
-      <c r="A104" s="54" t="s">
+      <c r="A104" s="42" t="s">
         <v>558</v>
       </c>
-      <c r="B104" s="54" t="s">
+      <c r="B104" s="42" t="s">
         <v>556</v>
       </c>
-      <c r="C104" s="54" t="s">
+      <c r="C104" s="42" t="s">
         <v>557</v>
       </c>
-      <c r="D104" s="54" t="s">
+      <c r="D104" s="42" t="s">
         <v>821</v>
       </c>
     </row>
     <row r="105" spans="1:4" ht="12" customHeight="1">
-      <c r="A105" s="54" t="s">
+      <c r="A105" s="42" t="s">
         <v>560</v>
       </c>
-      <c r="B105" s="54" t="s">
+      <c r="B105" s="42" t="s">
         <v>559</v>
       </c>
-      <c r="C105" s="54" t="s">
+      <c r="C105" s="42" t="s">
         <v>559</v>
       </c>
-      <c r="D105" s="54" t="s">
+      <c r="D105" s="42" t="s">
         <v>820</v>
       </c>
     </row>
     <row r="106" spans="1:4" ht="12" customHeight="1">
-      <c r="A106" s="54" t="s">
+      <c r="A106" s="42" t="s">
         <v>562</v>
       </c>
-      <c r="B106" s="54" t="s">
+      <c r="B106" s="42" t="s">
         <v>561</v>
       </c>
-      <c r="C106" s="54" t="s">
+      <c r="C106" s="42" t="s">
         <v>561</v>
       </c>
-      <c r="D106" s="54" t="s">
+      <c r="D106" s="42" t="s">
         <v>820</v>
       </c>
     </row>
     <row r="107" spans="1:4" ht="12" customHeight="1">
-      <c r="A107" s="54" t="s">
+      <c r="A107" s="42" t="s">
         <v>564</v>
       </c>
-      <c r="B107" s="54" t="s">
+      <c r="B107" s="42" t="s">
         <v>563</v>
       </c>
-      <c r="C107" s="54" t="s">
+      <c r="C107" s="42" t="s">
         <v>563</v>
       </c>
-      <c r="D107" s="54" t="s">
+      <c r="D107" s="42" t="s">
         <v>822</v>
       </c>
     </row>
     <row r="108" spans="1:4" ht="12" customHeight="1">
-      <c r="A108" s="54" t="s">
+      <c r="A108" s="42" t="s">
         <v>566</v>
       </c>
-      <c r="B108" s="54" t="s">
+      <c r="B108" s="42" t="s">
         <v>565</v>
       </c>
-      <c r="C108" s="54" t="s">
+      <c r="C108" s="42" t="s">
         <v>565</v>
       </c>
-      <c r="D108" s="54" t="s">
+      <c r="D108" s="42" t="s">
         <v>823</v>
       </c>
     </row>
     <row r="109" spans="1:4" ht="12" customHeight="1">
-      <c r="A109" s="54" t="s">
+      <c r="A109" s="42" t="s">
         <v>569</v>
       </c>
-      <c r="B109" s="54" t="s">
+      <c r="B109" s="42" t="s">
         <v>567</v>
       </c>
-      <c r="C109" s="54" t="s">
+      <c r="C109" s="42" t="s">
         <v>568</v>
       </c>
-      <c r="D109" s="54" t="s">
+      <c r="D109" s="42" t="s">
         <v>820</v>
       </c>
     </row>
     <row r="110" spans="1:4" ht="12" customHeight="1">
-      <c r="A110" s="54" t="s">
+      <c r="A110" s="42" t="s">
         <v>571</v>
       </c>
-      <c r="B110" s="54" t="s">
+      <c r="B110" s="42" t="s">
         <v>570</v>
       </c>
-      <c r="C110" s="54" t="s">
+      <c r="C110" s="42" t="s">
         <v>570</v>
       </c>
-      <c r="D110" s="54" t="s">
+      <c r="D110" s="42" t="s">
         <v>822</v>
       </c>
     </row>
     <row r="111" spans="1:4" ht="12" customHeight="1">
-      <c r="A111" s="54" t="s">
+      <c r="A111" s="42" t="s">
         <v>573</v>
       </c>
-      <c r="B111" s="54" t="s">
+      <c r="B111" s="42" t="s">
         <v>572</v>
       </c>
-      <c r="C111" s="54" t="s">
+      <c r="C111" s="42" t="s">
         <v>572</v>
       </c>
-      <c r="D111" s="54" t="s">
+      <c r="D111" s="42" t="s">
         <v>824</v>
       </c>
     </row>
     <row r="112" spans="1:4" ht="12" customHeight="1">
-      <c r="A112" s="54" t="s">
+      <c r="A112" s="42" t="s">
         <v>575</v>
       </c>
-      <c r="B112" s="54" t="s">
+      <c r="B112" s="42" t="s">
         <v>574</v>
       </c>
-      <c r="C112" s="54" t="s">
+      <c r="C112" s="42" t="s">
         <v>574</v>
       </c>
-      <c r="D112" s="54" t="s">
+      <c r="D112" s="42" t="s">
         <v>821</v>
       </c>
     </row>
     <row r="113" spans="1:4" ht="12" customHeight="1">
-      <c r="A113" s="54" t="s">
+      <c r="A113" s="42" t="s">
         <v>578</v>
       </c>
-      <c r="B113" s="54" t="s">
+      <c r="B113" s="42" t="s">
         <v>576</v>
       </c>
-      <c r="C113" s="54" t="s">
+      <c r="C113" s="42" t="s">
         <v>577</v>
       </c>
-      <c r="D113" s="54" t="s">
+      <c r="D113" s="42" t="s">
         <v>821</v>
       </c>
     </row>
     <row r="114" spans="1:4" ht="12" customHeight="1">
-      <c r="A114" s="54" t="s">
+      <c r="A114" s="42" t="s">
         <v>581</v>
       </c>
-      <c r="B114" s="54" t="s">
+      <c r="B114" s="42" t="s">
         <v>579</v>
       </c>
-      <c r="C114" s="54" t="s">
+      <c r="C114" s="42" t="s">
         <v>580</v>
       </c>
-      <c r="D114" s="54" t="s">
+      <c r="D114" s="42" t="s">
         <v>821</v>
       </c>
     </row>
     <row r="115" spans="1:4" ht="12" customHeight="1">
-      <c r="A115" s="54" t="s">
+      <c r="A115" s="42" t="s">
         <v>584</v>
       </c>
-      <c r="B115" s="54" t="s">
+      <c r="B115" s="42" t="s">
         <v>582</v>
       </c>
-      <c r="C115" s="54" t="s">
+      <c r="C115" s="42" t="s">
         <v>583</v>
       </c>
-      <c r="D115" s="54" t="s">
+      <c r="D115" s="42" t="s">
         <v>821</v>
       </c>
     </row>
     <row r="116" spans="1:4" ht="12" customHeight="1">
-      <c r="A116" s="54" t="s">
+      <c r="A116" s="42" t="s">
         <v>587</v>
       </c>
-      <c r="B116" s="54" t="s">
+      <c r="B116" s="42" t="s">
         <v>585</v>
       </c>
-      <c r="C116" s="54" t="s">
+      <c r="C116" s="42" t="s">
         <v>586</v>
       </c>
-      <c r="D116" s="54" t="s">
+      <c r="D116" s="42" t="s">
         <v>821</v>
       </c>
     </row>
     <row r="117" spans="1:4" ht="12" customHeight="1">
-      <c r="A117" s="54" t="s">
+      <c r="A117" s="42" t="s">
         <v>589</v>
       </c>
-      <c r="B117" s="54" t="s">
+      <c r="B117" s="42" t="s">
         <v>588</v>
       </c>
-      <c r="C117" s="54" t="s">
+      <c r="C117" s="42" t="s">
         <v>588</v>
       </c>
-      <c r="D117" s="54" t="s">
+      <c r="D117" s="42" t="s">
         <v>818</v>
       </c>
     </row>
     <row r="118" spans="1:4" ht="12" customHeight="1">
-      <c r="A118" s="54" t="s">
+      <c r="A118" s="42" t="s">
         <v>592</v>
       </c>
-      <c r="B118" s="54" t="s">
+      <c r="B118" s="42" t="s">
         <v>590</v>
       </c>
-      <c r="C118" s="54" t="s">
+      <c r="C118" s="42" t="s">
         <v>591</v>
       </c>
-      <c r="D118" s="54" t="s">
+      <c r="D118" s="42" t="s">
         <v>818</v>
       </c>
     </row>
     <row r="119" spans="1:4" ht="12" customHeight="1">
-      <c r="A119" s="54" t="s">
+      <c r="A119" s="42" t="s">
         <v>594</v>
       </c>
-      <c r="B119" s="54" t="s">
+      <c r="B119" s="42" t="s">
         <v>593</v>
       </c>
-      <c r="C119" s="54" t="s">
+      <c r="C119" s="42" t="s">
         <v>593</v>
       </c>
-      <c r="D119" s="54" t="s">
+      <c r="D119" s="42" t="s">
         <v>818</v>
       </c>
     </row>
     <row r="120" spans="1:4" ht="12" customHeight="1">
-      <c r="A120" s="54" t="s">
+      <c r="A120" s="42" t="s">
         <v>595</v>
       </c>
-      <c r="B120" s="54" t="s">
+      <c r="B120" s="42" t="s">
         <v>559</v>
       </c>
-      <c r="C120" s="54" t="s">
+      <c r="C120" s="42" t="s">
         <v>559</v>
       </c>
-      <c r="D120" s="54" t="s">
+      <c r="D120" s="42" t="s">
         <v>818</v>
       </c>
     </row>
     <row r="121" spans="1:4" ht="12" customHeight="1">
-      <c r="A121" s="54" t="s">
+      <c r="A121" s="42" t="s">
         <v>598</v>
       </c>
-      <c r="B121" s="54" t="s">
+      <c r="B121" s="42" t="s">
         <v>596</v>
       </c>
-      <c r="C121" s="54" t="s">
+      <c r="C121" s="42" t="s">
         <v>597</v>
       </c>
-      <c r="D121" s="54" t="s">
+      <c r="D121" s="42" t="s">
         <v>825</v>
       </c>
     </row>
     <row r="122" spans="1:4" ht="12" customHeight="1">
-      <c r="A122" s="54" t="s">
+      <c r="A122" s="42" t="s">
         <v>600</v>
       </c>
-      <c r="B122" s="54" t="s">
+      <c r="B122" s="42" t="s">
         <v>599</v>
       </c>
-      <c r="C122" s="54" t="s">
+      <c r="C122" s="42" t="s">
         <v>599</v>
       </c>
-      <c r="D122" s="54" t="s">
+      <c r="D122" s="42" t="s">
         <v>826</v>
       </c>
     </row>
     <row r="123" spans="1:4" ht="12" customHeight="1">
-      <c r="A123" s="54" t="s">
+      <c r="A123" s="42" t="s">
         <v>603</v>
       </c>
-      <c r="B123" s="54" t="s">
+      <c r="B123" s="42" t="s">
         <v>601</v>
       </c>
-      <c r="C123" s="54" t="s">
+      <c r="C123" s="42" t="s">
         <v>602</v>
       </c>
-      <c r="D123" s="54" t="s">
+      <c r="D123" s="42" t="s">
         <v>821</v>
       </c>
     </row>
     <row r="124" spans="1:4" ht="12" customHeight="1">
-      <c r="A124" s="54" t="s">
+      <c r="A124" s="42" t="s">
         <v>606</v>
       </c>
-      <c r="B124" s="54" t="s">
+      <c r="B124" s="42" t="s">
         <v>604</v>
       </c>
-      <c r="C124" s="54" t="s">
+      <c r="C124" s="42" t="s">
         <v>605</v>
       </c>
-      <c r="D124" s="54" t="s">
+      <c r="D124" s="42" t="s">
         <v>827</v>
       </c>
     </row>
     <row r="125" spans="1:4" ht="12" customHeight="1">
-      <c r="A125" s="54" t="s">
+      <c r="A125" s="42" t="s">
         <v>609</v>
       </c>
-      <c r="B125" s="54" t="s">
+      <c r="B125" s="42" t="s">
         <v>607</v>
       </c>
-      <c r="C125" s="54" t="s">
+      <c r="C125" s="42" t="s">
         <v>608</v>
       </c>
-      <c r="D125" s="54" t="s">
+      <c r="D125" s="42" t="s">
         <v>828</v>
       </c>
     </row>
     <row r="126" spans="1:4" ht="12" customHeight="1">
-      <c r="A126" s="54" t="s">
+      <c r="A126" s="42" t="s">
         <v>612</v>
       </c>
-      <c r="B126" s="54" t="s">
+      <c r="B126" s="42" t="s">
         <v>610</v>
       </c>
-      <c r="C126" s="54" t="s">
+      <c r="C126" s="42" t="s">
         <v>611</v>
       </c>
-      <c r="D126" s="54" t="s">
+      <c r="D126" s="42" t="s">
         <v>829</v>
       </c>
     </row>
     <row r="127" spans="1:4" ht="12" customHeight="1">
-      <c r="A127" s="54" t="s">
+      <c r="A127" s="42" t="s">
         <v>615</v>
       </c>
-      <c r="B127" s="54" t="s">
+      <c r="B127" s="42" t="s">
         <v>613</v>
       </c>
-      <c r="C127" s="54" t="s">
+      <c r="C127" s="42" t="s">
         <v>614</v>
       </c>
-      <c r="D127" s="54" t="s">
+      <c r="D127" s="42" t="s">
         <v>830</v>
       </c>
     </row>
     <row r="128" spans="1:4" ht="12" customHeight="1">
-      <c r="A128" s="54" t="s">
+      <c r="A128" s="42" t="s">
         <v>618</v>
       </c>
-      <c r="B128" s="54" t="s">
+      <c r="B128" s="42" t="s">
         <v>616</v>
       </c>
-      <c r="C128" s="54" t="s">
+      <c r="C128" s="42" t="s">
         <v>617</v>
       </c>
-      <c r="D128" s="54" t="s">
+      <c r="D128" s="42" t="s">
         <v>831</v>
       </c>
     </row>
     <row r="129" spans="1:4" ht="12" customHeight="1">
-      <c r="A129" s="54" t="s">
+      <c r="A129" s="42" t="s">
         <v>620</v>
       </c>
-      <c r="B129" s="54" t="s">
+      <c r="B129" s="42" t="s">
         <v>619</v>
       </c>
-      <c r="C129" s="54" t="s">
+      <c r="C129" s="42" t="s">
         <v>619</v>
       </c>
-      <c r="D129" s="54" t="s">
+      <c r="D129" s="42" t="s">
         <v>818</v>
       </c>
     </row>
     <row r="130" spans="1:4" ht="12" customHeight="1">
-      <c r="A130" s="54" t="s">
+      <c r="A130" s="42" t="s">
         <v>622</v>
       </c>
-      <c r="B130" s="54" t="s">
+      <c r="B130" s="42" t="s">
         <v>621</v>
       </c>
-      <c r="C130" s="54" t="s">
+      <c r="C130" s="42" t="s">
         <v>621</v>
       </c>
-      <c r="D130" s="54" t="s">
+      <c r="D130" s="42" t="s">
         <v>818</v>
       </c>
     </row>
     <row r="131" spans="1:4" ht="12" customHeight="1">
-      <c r="A131" s="54" t="s">
+      <c r="A131" s="42" t="s">
         <v>625</v>
       </c>
-      <c r="B131" s="54" t="s">
+      <c r="B131" s="42" t="s">
         <v>623</v>
       </c>
-      <c r="C131" s="54" t="s">
+      <c r="C131" s="42" t="s">
         <v>624</v>
       </c>
-      <c r="D131" s="54" t="s">
+      <c r="D131" s="42" t="s">
         <v>818</v>
       </c>
     </row>
     <row r="132" spans="1:4" ht="12" customHeight="1">
-      <c r="A132" s="54" t="s">
+      <c r="A132" s="42" t="s">
         <v>628</v>
       </c>
-      <c r="B132" s="54" t="s">
+      <c r="B132" s="42" t="s">
         <v>626</v>
       </c>
-      <c r="C132" s="54" t="s">
+      <c r="C132" s="42" t="s">
         <v>627</v>
       </c>
-      <c r="D132" s="54" t="s">
+      <c r="D132" s="42" t="s">
         <v>818</v>
       </c>
     </row>
     <row r="133" spans="1:4" ht="12" customHeight="1">
-      <c r="A133" s="54" t="s">
+      <c r="A133" s="42" t="s">
         <v>629</v>
       </c>
-      <c r="B133" s="54" t="s">
+      <c r="B133" s="42" t="s">
         <v>503</v>
       </c>
-      <c r="C133" s="54" t="s">
+      <c r="C133" s="42" t="s">
         <v>502</v>
       </c>
-      <c r="D133" s="54" t="s">
+      <c r="D133" s="42" t="s">
         <v>832</v>
       </c>
     </row>
     <row r="134" spans="1:4" ht="12" customHeight="1">
-      <c r="A134" s="54" t="s">
+      <c r="A134" s="42" t="s">
         <v>631</v>
       </c>
-      <c r="B134" s="54" t="s">
+      <c r="B134" s="42" t="s">
         <v>630</v>
       </c>
-      <c r="C134" s="54" t="s">
+      <c r="C134" s="42" t="s">
         <v>630</v>
       </c>
-      <c r="D134" s="54" t="s">
+      <c r="D134" s="42" t="s">
         <v>833</v>
       </c>
     </row>
     <row r="135" spans="1:4" ht="12" customHeight="1">
-      <c r="A135" s="54" t="s">
+      <c r="A135" s="42" t="s">
         <v>634</v>
       </c>
-      <c r="B135" s="54" t="s">
+      <c r="B135" s="42" t="s">
         <v>632</v>
       </c>
-      <c r="C135" s="54" t="s">
+      <c r="C135" s="42" t="s">
         <v>633</v>
       </c>
-      <c r="D135" s="54" t="s">
+      <c r="D135" s="42" t="s">
         <v>821</v>
       </c>
     </row>
     <row r="136" spans="1:4" ht="12" customHeight="1">
-      <c r="A136" s="54" t="s">
+      <c r="A136" s="42" t="s">
         <v>636</v>
       </c>
-      <c r="B136" s="54" t="s">
+      <c r="B136" s="42" t="s">
         <v>635</v>
       </c>
-      <c r="C136" s="54" t="s">
+      <c r="C136" s="42" t="s">
         <v>635</v>
       </c>
-      <c r="D136" s="54" t="s">
+      <c r="D136" s="42" t="s">
         <v>834</v>
       </c>
     </row>
     <row r="137" spans="1:4" ht="12" customHeight="1">
-      <c r="A137" s="54" t="s">
+      <c r="A137" s="42" t="s">
         <v>639</v>
       </c>
-      <c r="B137" s="54" t="s">
+      <c r="B137" s="42" t="s">
         <v>637</v>
       </c>
-      <c r="C137" s="54" t="s">
+      <c r="C137" s="42" t="s">
         <v>638</v>
       </c>
-      <c r="D137" s="54" t="s">
+      <c r="D137" s="42" t="s">
         <v>835</v>
       </c>
     </row>
     <row r="138" spans="1:4" ht="12" customHeight="1">
-      <c r="A138" s="54" t="s">
+      <c r="A138" s="42" t="s">
         <v>641</v>
       </c>
-      <c r="B138" s="54" t="s">
+      <c r="B138" s="42" t="s">
         <v>640</v>
       </c>
-      <c r="C138" s="54" t="s">
+      <c r="C138" s="42" t="s">
         <v>640</v>
       </c>
-      <c r="D138" s="54" t="s">
+      <c r="D138" s="42" t="s">
         <v>836</v>
       </c>
     </row>
     <row r="139" spans="1:4" ht="12" customHeight="1">
-      <c r="A139" s="54" t="s">
+      <c r="A139" s="42" t="s">
         <v>644</v>
       </c>
-      <c r="B139" s="54" t="s">
+      <c r="B139" s="42" t="s">
         <v>642</v>
       </c>
-      <c r="C139" s="54" t="s">
+      <c r="C139" s="42" t="s">
         <v>643</v>
       </c>
-      <c r="D139" s="54" t="s">
+      <c r="D139" s="42" t="s">
         <v>837</v>
       </c>
     </row>
     <row r="140" spans="1:4" ht="12" customHeight="1">
-      <c r="A140" s="54" t="s">
+      <c r="A140" s="42" t="s">
         <v>647</v>
       </c>
-      <c r="B140" s="54" t="s">
+      <c r="B140" s="42" t="s">
         <v>645</v>
       </c>
-      <c r="C140" s="54" t="s">
+      <c r="C140" s="42" t="s">
         <v>646</v>
       </c>
-      <c r="D140" s="54" t="s">
+      <c r="D140" s="42" t="s">
         <v>838</v>
       </c>
     </row>
     <row r="141" spans="1:4" ht="12" customHeight="1">
-      <c r="A141" s="54" t="s">
+      <c r="A141" s="42" t="s">
         <v>650</v>
       </c>
-      <c r="B141" s="54" t="s">
+      <c r="B141" s="42" t="s">
         <v>648</v>
       </c>
-      <c r="C141" s="54" t="s">
+      <c r="C141" s="42" t="s">
         <v>649</v>
       </c>
-      <c r="D141" s="54" t="s">
+      <c r="D141" s="42" t="s">
         <v>839</v>
       </c>
     </row>
     <row r="142" spans="1:4" ht="12" customHeight="1">
-      <c r="A142" s="54" t="s">
+      <c r="A142" s="42" t="s">
         <v>653</v>
       </c>
-      <c r="B142" s="54" t="s">
+      <c r="B142" s="42" t="s">
         <v>651</v>
       </c>
-      <c r="C142" s="54" t="s">
+      <c r="C142" s="42" t="s">
         <v>652</v>
       </c>
-      <c r="D142" s="54" t="s">
+      <c r="D142" s="42" t="s">
         <v>840</v>
       </c>
     </row>
     <row r="143" spans="1:4" ht="12" customHeight="1">
-      <c r="A143" s="54" t="s">
+      <c r="A143" s="42" t="s">
         <v>655</v>
       </c>
-      <c r="B143" s="54" t="s">
+      <c r="B143" s="42" t="s">
         <v>637</v>
       </c>
-      <c r="C143" s="54" t="s">
+      <c r="C143" s="42" t="s">
         <v>654</v>
       </c>
-      <c r="D143" s="54" t="s">
+      <c r="D143" s="42" t="s">
         <v>835</v>
       </c>
     </row>
     <row r="144" spans="1:4" ht="12" customHeight="1">
-      <c r="A144" s="54" t="s">
+      <c r="A144" s="42" t="s">
         <v>658</v>
       </c>
-      <c r="B144" s="54" t="s">
+      <c r="B144" s="42" t="s">
         <v>656</v>
       </c>
-      <c r="C144" s="54" t="s">
+      <c r="C144" s="42" t="s">
         <v>657</v>
       </c>
-      <c r="D144" s="54" t="s">
+      <c r="D144" s="42" t="s">
         <v>841</v>
       </c>
     </row>
     <row r="145" spans="1:4" ht="12" customHeight="1">
-      <c r="A145" s="54" t="s">
+      <c r="A145" s="42" t="s">
         <v>659</v>
       </c>
-      <c r="B145" s="54" t="s">
+      <c r="B145" s="42" t="s">
         <v>9</v>
       </c>
-      <c r="C145" s="54" t="s">
+      <c r="C145" s="42" t="s">
         <v>9</v>
       </c>
-      <c r="D145" s="54" t="s">
+      <c r="D145" s="42" t="s">
         <v>842</v>
       </c>
     </row>
@@ -9163,72 +9379,72 @@
     </row>
     <row r="147" spans="1:4" s="9" customFormat="1" ht="11.25"/>
     <row r="148" spans="1:4" s="9" customFormat="1" ht="11.25" customHeight="1">
-      <c r="A148" s="36" t="s">
+      <c r="A148" s="44" t="s">
         <v>461</v>
       </c>
-      <c r="B148" s="36" t="s">
+      <c r="B148" s="44" t="s">
         <v>462</v>
       </c>
-      <c r="C148" s="36" t="s">
+      <c r="C148" s="44" t="s">
         <v>463</v>
       </c>
-      <c r="D148" s="36" t="s">
+      <c r="D148" s="44" t="s">
         <v>464</v>
       </c>
     </row>
     <row r="149" spans="1:4" s="9" customFormat="1" ht="11.25">
-      <c r="A149" s="36"/>
-      <c r="B149" s="36"/>
-      <c r="C149" s="36"/>
-      <c r="D149" s="36"/>
+      <c r="A149" s="44"/>
+      <c r="B149" s="44"/>
+      <c r="C149" s="44"/>
+      <c r="D149" s="44"/>
     </row>
     <row r="150" spans="1:4" s="9" customFormat="1" ht="11.25">
-      <c r="A150" s="36"/>
-      <c r="B150" s="36"/>
-      <c r="C150" s="36"/>
-      <c r="D150" s="36"/>
+      <c r="A150" s="44"/>
+      <c r="B150" s="44"/>
+      <c r="C150" s="44"/>
+      <c r="D150" s="44"/>
     </row>
     <row r="151" spans="1:4" s="9" customFormat="1" ht="11.25">
-      <c r="A151" s="36"/>
-      <c r="B151" s="36"/>
-      <c r="C151" s="36"/>
-      <c r="D151" s="36"/>
+      <c r="A151" s="44"/>
+      <c r="B151" s="44"/>
+      <c r="C151" s="44"/>
+      <c r="D151" s="44"/>
     </row>
     <row r="152" spans="1:4" s="9" customFormat="1" ht="11.25">
-      <c r="A152" s="36"/>
-      <c r="B152" s="36"/>
-      <c r="C152" s="36"/>
-      <c r="D152" s="36"/>
+      <c r="A152" s="44"/>
+      <c r="B152" s="44"/>
+      <c r="C152" s="44"/>
+      <c r="D152" s="44"/>
     </row>
     <row r="153" spans="1:4" s="9" customFormat="1" ht="11.25">
-      <c r="A153" s="36"/>
-      <c r="B153" s="36"/>
-      <c r="C153" s="36"/>
-      <c r="D153" s="36"/>
+      <c r="A153" s="44"/>
+      <c r="B153" s="44"/>
+      <c r="C153" s="44"/>
+      <c r="D153" s="44"/>
     </row>
     <row r="154" spans="1:4" s="9" customFormat="1" ht="11.25">
-      <c r="A154" s="36"/>
-      <c r="B154" s="36"/>
-      <c r="C154" s="36"/>
-      <c r="D154" s="36"/>
+      <c r="A154" s="44"/>
+      <c r="B154" s="44"/>
+      <c r="C154" s="44"/>
+      <c r="D154" s="44"/>
     </row>
     <row r="155" spans="1:4" s="9" customFormat="1" ht="11.25">
-      <c r="A155" s="36"/>
-      <c r="B155" s="36"/>
-      <c r="C155" s="36"/>
-      <c r="D155" s="36"/>
+      <c r="A155" s="44"/>
+      <c r="B155" s="44"/>
+      <c r="C155" s="44"/>
+      <c r="D155" s="44"/>
     </row>
     <row r="156" spans="1:4" s="9" customFormat="1" ht="11.25">
-      <c r="A156" s="36"/>
-      <c r="B156" s="36"/>
-      <c r="C156" s="36"/>
-      <c r="D156" s="36"/>
+      <c r="A156" s="44"/>
+      <c r="B156" s="44"/>
+      <c r="C156" s="44"/>
+      <c r="D156" s="44"/>
     </row>
     <row r="157" spans="1:4" s="9" customFormat="1" ht="11.25">
-      <c r="A157" s="36"/>
-      <c r="B157" s="36"/>
-      <c r="C157" s="36"/>
-      <c r="D157" s="36"/>
+      <c r="A157" s="44"/>
+      <c r="B157" s="44"/>
+      <c r="C157" s="44"/>
+      <c r="D157" s="44"/>
     </row>
     <row r="158" spans="1:4" s="9" customFormat="1" ht="11.25" customHeight="1">
       <c r="B158" s="14"/>
@@ -9358,7 +9574,7 @@
         <v>77</v>
       </c>
       <c r="C8" s="7"/>
-      <c r="D8" s="38" t="s">
+      <c r="D8" s="54" t="s">
         <v>147</v>
       </c>
       <c r="E8" s="7"/>
@@ -9372,7 +9588,7 @@
         <v>79</v>
       </c>
       <c r="C9" s="7"/>
-      <c r="D9" s="38"/>
+      <c r="D9" s="54"/>
       <c r="E9" s="7"/>
       <c r="G9" s="26"/>
     </row>
@@ -9384,7 +9600,7 @@
         <v>80</v>
       </c>
       <c r="C10" s="7"/>
-      <c r="D10" s="38"/>
+      <c r="D10" s="54"/>
       <c r="E10" s="7"/>
       <c r="G10" s="26"/>
     </row>
@@ -9396,7 +9612,7 @@
         <v>82</v>
       </c>
       <c r="C11" s="7"/>
-      <c r="D11" s="38"/>
+      <c r="D11" s="54"/>
       <c r="E11" s="7"/>
       <c r="G11" s="26"/>
     </row>
@@ -9408,7 +9624,7 @@
         <v>84</v>
       </c>
       <c r="C12" s="7"/>
-      <c r="D12" s="38"/>
+      <c r="D12" s="54"/>
       <c r="E12" s="7"/>
       <c r="G12" s="26"/>
     </row>
@@ -9420,7 +9636,7 @@
         <v>86</v>
       </c>
       <c r="C13" s="7"/>
-      <c r="D13" s="38"/>
+      <c r="D13" s="54"/>
       <c r="E13" s="7"/>
       <c r="G13" s="26"/>
     </row>
@@ -9431,7 +9647,7 @@
       <c r="B14" s="21" t="s">
         <v>87</v>
       </c>
-      <c r="D14" s="38"/>
+      <c r="D14" s="54"/>
       <c r="G14" s="26"/>
     </row>
     <row r="15" spans="1:22" s="7" customFormat="1" ht="12">
@@ -9441,7 +9657,7 @@
       <c r="B15" s="21" t="s">
         <v>88</v>
       </c>
-      <c r="D15" s="38"/>
+      <c r="D15" s="54"/>
       <c r="G15" s="26"/>
     </row>
     <row r="16" spans="1:22" s="7" customFormat="1" ht="12">
@@ -9451,7 +9667,7 @@
       <c r="B16" s="21" t="s">
         <v>89</v>
       </c>
-      <c r="D16" s="38"/>
+      <c r="D16" s="54"/>
       <c r="G16" s="26"/>
     </row>
     <row r="17" spans="1:7" s="7" customFormat="1" ht="12">
@@ -9461,7 +9677,7 @@
       <c r="B17" s="21" t="s">
         <v>90</v>
       </c>
-      <c r="D17" s="38"/>
+      <c r="D17" s="54"/>
       <c r="G17" s="26"/>
     </row>
     <row r="18" spans="1:7" s="7" customFormat="1" ht="12">
@@ -9471,7 +9687,7 @@
       <c r="B18" s="21" t="s">
         <v>91</v>
       </c>
-      <c r="D18" s="38"/>
+      <c r="D18" s="54"/>
       <c r="G18" s="26"/>
     </row>
     <row r="19" spans="1:7" s="7" customFormat="1" ht="12">
@@ -9481,7 +9697,7 @@
       <c r="B19" s="21" t="s">
         <v>92</v>
       </c>
-      <c r="D19" s="38"/>
+      <c r="D19" s="54"/>
       <c r="G19" s="26"/>
     </row>
     <row r="20" spans="1:7" s="7" customFormat="1" ht="12">
@@ -9491,7 +9707,7 @@
       <c r="B20" s="21" t="s">
         <v>93</v>
       </c>
-      <c r="D20" s="38"/>
+      <c r="D20" s="54"/>
       <c r="G20" s="26"/>
     </row>
     <row r="21" spans="1:7" s="7" customFormat="1" ht="12">
@@ -9501,7 +9717,7 @@
       <c r="B21" s="21" t="s">
         <v>94</v>
       </c>
-      <c r="D21" s="38"/>
+      <c r="D21" s="54"/>
       <c r="G21" s="26"/>
     </row>
     <row r="22" spans="1:7" s="7" customFormat="1" ht="12">
@@ -9511,7 +9727,7 @@
       <c r="B22" s="21" t="s">
         <v>95</v>
       </c>
-      <c r="D22" s="38"/>
+      <c r="D22" s="54"/>
       <c r="G22" s="26"/>
     </row>
     <row r="23" spans="1:7" s="7" customFormat="1" ht="12">
@@ -9521,7 +9737,7 @@
       <c r="B23" s="21" t="s">
         <v>96</v>
       </c>
-      <c r="D23" s="38"/>
+      <c r="D23" s="54"/>
       <c r="G23" s="26"/>
     </row>
     <row r="24" spans="1:7" s="7" customFormat="1" ht="12">
@@ -10264,94 +10480,94 @@
     </row>
     <row r="21" spans="1:7" s="9" customFormat="1" ht="11.25"/>
     <row r="22" spans="1:7" s="9" customFormat="1" ht="11.25" customHeight="1">
-      <c r="B22" s="36" t="s">
+      <c r="B22" s="44" t="s">
         <v>67</v>
       </c>
-      <c r="C22" s="36" t="s">
+      <c r="C22" s="44" t="s">
         <v>195</v>
       </c>
-      <c r="D22" s="36" t="s">
+      <c r="D22" s="44" t="s">
         <v>194</v>
       </c>
-      <c r="E22" s="36" t="s">
+      <c r="E22" s="44" t="s">
         <v>197</v>
       </c>
-      <c r="F22" s="36" t="s">
+      <c r="F22" s="44" t="s">
         <v>155</v>
       </c>
-      <c r="G22" s="36"/>
+      <c r="G22" s="44"/>
     </row>
     <row r="23" spans="1:7" s="9" customFormat="1" ht="11.25">
-      <c r="B23" s="36"/>
-      <c r="C23" s="36"/>
-      <c r="D23" s="36"/>
-      <c r="E23" s="36"/>
-      <c r="F23" s="36"/>
-      <c r="G23" s="36"/>
+      <c r="B23" s="44"/>
+      <c r="C23" s="44"/>
+      <c r="D23" s="44"/>
+      <c r="E23" s="44"/>
+      <c r="F23" s="44"/>
+      <c r="G23" s="44"/>
     </row>
     <row r="24" spans="1:7" s="9" customFormat="1" ht="11.25">
-      <c r="B24" s="36"/>
-      <c r="C24" s="36"/>
-      <c r="D24" s="36"/>
-      <c r="E24" s="36"/>
-      <c r="F24" s="36"/>
-      <c r="G24" s="36"/>
+      <c r="B24" s="44"/>
+      <c r="C24" s="44"/>
+      <c r="D24" s="44"/>
+      <c r="E24" s="44"/>
+      <c r="F24" s="44"/>
+      <c r="G24" s="44"/>
     </row>
     <row r="25" spans="1:7" s="9" customFormat="1" ht="11.25">
-      <c r="B25" s="36"/>
-      <c r="C25" s="36"/>
-      <c r="D25" s="36"/>
-      <c r="E25" s="36"/>
-      <c r="F25" s="36"/>
-      <c r="G25" s="36"/>
+      <c r="B25" s="44"/>
+      <c r="C25" s="44"/>
+      <c r="D25" s="44"/>
+      <c r="E25" s="44"/>
+      <c r="F25" s="44"/>
+      <c r="G25" s="44"/>
     </row>
     <row r="26" spans="1:7" s="9" customFormat="1" ht="11.25">
-      <c r="B26" s="36"/>
-      <c r="C26" s="36"/>
-      <c r="D26" s="36"/>
-      <c r="E26" s="36"/>
-      <c r="F26" s="36"/>
-      <c r="G26" s="36"/>
+      <c r="B26" s="44"/>
+      <c r="C26" s="44"/>
+      <c r="D26" s="44"/>
+      <c r="E26" s="44"/>
+      <c r="F26" s="44"/>
+      <c r="G26" s="44"/>
     </row>
     <row r="27" spans="1:7" s="9" customFormat="1" ht="11.25">
-      <c r="B27" s="36"/>
-      <c r="C27" s="36"/>
-      <c r="D27" s="36"/>
-      <c r="E27" s="36"/>
-      <c r="F27" s="36"/>
-      <c r="G27" s="36"/>
+      <c r="B27" s="44"/>
+      <c r="C27" s="44"/>
+      <c r="D27" s="44"/>
+      <c r="E27" s="44"/>
+      <c r="F27" s="44"/>
+      <c r="G27" s="44"/>
     </row>
     <row r="28" spans="1:7" s="9" customFormat="1" ht="11.25">
-      <c r="B28" s="36"/>
-      <c r="C28" s="36"/>
-      <c r="D28" s="36"/>
-      <c r="E28" s="36"/>
-      <c r="F28" s="36"/>
-      <c r="G28" s="36"/>
+      <c r="B28" s="44"/>
+      <c r="C28" s="44"/>
+      <c r="D28" s="44"/>
+      <c r="E28" s="44"/>
+      <c r="F28" s="44"/>
+      <c r="G28" s="44"/>
     </row>
     <row r="29" spans="1:7" s="9" customFormat="1" ht="11.25">
-      <c r="B29" s="36"/>
-      <c r="C29" s="36"/>
-      <c r="D29" s="36"/>
-      <c r="E29" s="36"/>
-      <c r="F29" s="36"/>
-      <c r="G29" s="36"/>
+      <c r="B29" s="44"/>
+      <c r="C29" s="44"/>
+      <c r="D29" s="44"/>
+      <c r="E29" s="44"/>
+      <c r="F29" s="44"/>
+      <c r="G29" s="44"/>
     </row>
     <row r="30" spans="1:7" s="9" customFormat="1" ht="11.25">
-      <c r="B30" s="36"/>
-      <c r="C30" s="36"/>
-      <c r="D30" s="36"/>
-      <c r="E30" s="36"/>
-      <c r="F30" s="36"/>
-      <c r="G30" s="36"/>
+      <c r="B30" s="44"/>
+      <c r="C30" s="44"/>
+      <c r="D30" s="44"/>
+      <c r="E30" s="44"/>
+      <c r="F30" s="44"/>
+      <c r="G30" s="44"/>
     </row>
     <row r="31" spans="1:7" s="9" customFormat="1" ht="11.25">
-      <c r="B31" s="36"/>
-      <c r="C31" s="36"/>
-      <c r="D31" s="36"/>
-      <c r="E31" s="36"/>
-      <c r="F31" s="36"/>
-      <c r="G31" s="36"/>
+      <c r="B31" s="44"/>
+      <c r="C31" s="44"/>
+      <c r="D31" s="44"/>
+      <c r="E31" s="44"/>
+      <c r="F31" s="44"/>
+      <c r="G31" s="44"/>
     </row>
     <row r="32" spans="1:7" s="9" customFormat="1" ht="11.25" customHeight="1">
       <c r="B32" s="14"/>
@@ -10362,25 +10578,25 @@
     <row r="33" spans="1:5" s="9" customFormat="1" ht="11.25">
       <c r="B33" s="14"/>
       <c r="C33" s="14"/>
-      <c r="D33" s="36" t="s">
+      <c r="D33" s="44" t="s">
         <v>196</v>
       </c>
       <c r="E33" s="14"/>
     </row>
     <row r="34" spans="1:5" s="9" customFormat="1" ht="12">
-      <c r="A34" s="37" t="s">
+      <c r="A34" s="45" t="s">
         <v>49</v>
       </c>
-      <c r="B34" s="37"/>
+      <c r="B34" s="45"/>
       <c r="C34" s="15"/>
-      <c r="D34" s="36"/>
+      <c r="D34" s="44"/>
       <c r="E34" s="15"/>
     </row>
     <row r="35" spans="1:5" s="9" customFormat="1" ht="12">
-      <c r="A35" s="37"/>
-      <c r="B35" s="37"/>
+      <c r="A35" s="45"/>
+      <c r="B35" s="45"/>
       <c r="C35" s="15"/>
-      <c r="D35" s="36"/>
+      <c r="D35" s="44"/>
       <c r="E35" s="15"/>
     </row>
     <row r="36" spans="1:5" s="9" customFormat="1" ht="15.75" customHeight="1">
@@ -10391,7 +10607,7 @@
         <v>48</v>
       </c>
       <c r="C36" s="15"/>
-      <c r="D36" s="36"/>
+      <c r="D36" s="44"/>
       <c r="E36" s="15"/>
     </row>
     <row r="37" spans="1:5" s="9" customFormat="1" ht="12">
@@ -10402,7 +10618,7 @@
         <v>41</v>
       </c>
       <c r="C37" s="15"/>
-      <c r="D37" s="36"/>
+      <c r="D37" s="44"/>
       <c r="E37" s="15"/>
     </row>
     <row r="38" spans="1:5" s="7" customFormat="1" ht="12">
@@ -10413,7 +10629,7 @@
         <v>42</v>
       </c>
       <c r="C38" s="15"/>
-      <c r="D38" s="36"/>
+      <c r="D38" s="44"/>
       <c r="E38" s="15"/>
     </row>
     <row r="39" spans="1:5" s="7" customFormat="1" ht="12">
@@ -10423,7 +10639,7 @@
       <c r="B39" s="18" t="s">
         <v>201</v>
       </c>
-      <c r="D39" s="36"/>
+      <c r="D39" s="44"/>
     </row>
     <row r="40" spans="1:5" s="7" customFormat="1" ht="12">
       <c r="A40" s="17" t="s">
@@ -10432,7 +10648,7 @@
       <c r="B40" s="19" t="s">
         <v>43</v>
       </c>
-      <c r="D40" s="36"/>
+      <c r="D40" s="44"/>
     </row>
     <row r="41" spans="1:5" s="7" customFormat="1" ht="12">
       <c r="A41" s="17" t="s">
@@ -10441,7 +10657,7 @@
       <c r="B41" s="19" t="s">
         <v>44</v>
       </c>
-      <c r="D41" s="36"/>
+      <c r="D41" s="44"/>
     </row>
     <row r="42" spans="1:5" s="7" customFormat="1" ht="12">
       <c r="A42" s="17" t="s">
@@ -10450,7 +10666,7 @@
       <c r="B42" s="19" t="s">
         <v>45</v>
       </c>
-      <c r="D42" s="36"/>
+      <c r="D42" s="44"/>
     </row>
     <row r="43" spans="1:5" s="7" customFormat="1" ht="12">
       <c r="A43" s="17" t="s">
@@ -11029,168 +11245,168 @@
       <c r="A15" s="21"/>
     </row>
     <row r="16" spans="1:21" s="9" customFormat="1" ht="11.25" customHeight="1">
-      <c r="B16" s="36" t="s">
+      <c r="B16" s="44" t="s">
         <v>849</v>
       </c>
-      <c r="C16" s="36" t="s">
+      <c r="C16" s="44" t="s">
         <v>67</v>
       </c>
-      <c r="D16" s="36" t="s">
+      <c r="D16" s="44" t="s">
         <v>202</v>
       </c>
-      <c r="E16" s="36" t="s">
+      <c r="E16" s="44" t="s">
         <v>203</v>
       </c>
-      <c r="F16" s="36" t="s">
+      <c r="F16" s="44" t="s">
         <v>205</v>
       </c>
-      <c r="G16" s="36" t="s">
+      <c r="G16" s="44" t="s">
         <v>204</v>
       </c>
-      <c r="H16" s="36" t="s">
+      <c r="H16" s="44" t="s">
         <v>247</v>
       </c>
-      <c r="I16" s="36" t="s">
+      <c r="I16" s="44" t="s">
         <v>246</v>
       </c>
-      <c r="J16" s="36" t="s">
+      <c r="J16" s="44" t="s">
         <v>291</v>
       </c>
-      <c r="K16" s="36" t="s">
+      <c r="K16" s="44" t="s">
         <v>250</v>
       </c>
-      <c r="L16" s="36" t="s">
+      <c r="L16" s="44" t="s">
         <v>290</v>
       </c>
-      <c r="M16" s="36" t="s">
+      <c r="M16" s="44" t="s">
         <v>248</v>
       </c>
     </row>
     <row r="17" spans="1:13" s="9" customFormat="1" ht="11.25">
-      <c r="B17" s="36"/>
-      <c r="C17" s="36"/>
-      <c r="D17" s="36"/>
-      <c r="E17" s="36"/>
-      <c r="F17" s="36"/>
-      <c r="G17" s="36"/>
-      <c r="H17" s="36"/>
-      <c r="I17" s="36"/>
-      <c r="J17" s="36"/>
-      <c r="K17" s="36"/>
-      <c r="L17" s="36"/>
-      <c r="M17" s="36"/>
+      <c r="B17" s="44"/>
+      <c r="C17" s="44"/>
+      <c r="D17" s="44"/>
+      <c r="E17" s="44"/>
+      <c r="F17" s="44"/>
+      <c r="G17" s="44"/>
+      <c r="H17" s="44"/>
+      <c r="I17" s="44"/>
+      <c r="J17" s="44"/>
+      <c r="K17" s="44"/>
+      <c r="L17" s="44"/>
+      <c r="M17" s="44"/>
     </row>
     <row r="18" spans="1:13" s="9" customFormat="1" ht="11.25">
-      <c r="B18" s="36"/>
-      <c r="C18" s="36"/>
-      <c r="D18" s="36"/>
-      <c r="E18" s="36"/>
-      <c r="F18" s="36"/>
-      <c r="G18" s="36"/>
-      <c r="H18" s="36"/>
-      <c r="I18" s="36"/>
-      <c r="J18" s="36"/>
-      <c r="K18" s="36"/>
-      <c r="L18" s="36"/>
-      <c r="M18" s="36"/>
+      <c r="B18" s="44"/>
+      <c r="C18" s="44"/>
+      <c r="D18" s="44"/>
+      <c r="E18" s="44"/>
+      <c r="F18" s="44"/>
+      <c r="G18" s="44"/>
+      <c r="H18" s="44"/>
+      <c r="I18" s="44"/>
+      <c r="J18" s="44"/>
+      <c r="K18" s="44"/>
+      <c r="L18" s="44"/>
+      <c r="M18" s="44"/>
     </row>
     <row r="19" spans="1:13" s="9" customFormat="1" ht="11.25">
-      <c r="B19" s="36"/>
-      <c r="C19" s="36"/>
-      <c r="D19" s="36"/>
-      <c r="E19" s="36"/>
-      <c r="F19" s="36"/>
-      <c r="G19" s="36"/>
-      <c r="H19" s="36"/>
-      <c r="I19" s="36"/>
-      <c r="J19" s="36"/>
-      <c r="K19" s="36"/>
-      <c r="L19" s="36"/>
-      <c r="M19" s="36"/>
+      <c r="B19" s="44"/>
+      <c r="C19" s="44"/>
+      <c r="D19" s="44"/>
+      <c r="E19" s="44"/>
+      <c r="F19" s="44"/>
+      <c r="G19" s="44"/>
+      <c r="H19" s="44"/>
+      <c r="I19" s="44"/>
+      <c r="J19" s="44"/>
+      <c r="K19" s="44"/>
+      <c r="L19" s="44"/>
+      <c r="M19" s="44"/>
     </row>
     <row r="20" spans="1:13" s="9" customFormat="1" ht="11.25">
-      <c r="B20" s="36"/>
-      <c r="C20" s="36"/>
-      <c r="D20" s="36"/>
-      <c r="E20" s="36"/>
-      <c r="F20" s="36"/>
-      <c r="G20" s="36"/>
-      <c r="H20" s="36"/>
-      <c r="I20" s="36"/>
-      <c r="J20" s="36"/>
-      <c r="K20" s="36"/>
-      <c r="L20" s="36"/>
-      <c r="M20" s="36"/>
+      <c r="B20" s="44"/>
+      <c r="C20" s="44"/>
+      <c r="D20" s="44"/>
+      <c r="E20" s="44"/>
+      <c r="F20" s="44"/>
+      <c r="G20" s="44"/>
+      <c r="H20" s="44"/>
+      <c r="I20" s="44"/>
+      <c r="J20" s="44"/>
+      <c r="K20" s="44"/>
+      <c r="L20" s="44"/>
+      <c r="M20" s="44"/>
     </row>
     <row r="21" spans="1:13" s="9" customFormat="1" ht="11.25">
-      <c r="B21" s="36"/>
-      <c r="C21" s="36"/>
-      <c r="D21" s="36"/>
-      <c r="E21" s="36"/>
-      <c r="F21" s="36"/>
-      <c r="G21" s="36"/>
-      <c r="H21" s="36"/>
-      <c r="I21" s="36"/>
-      <c r="J21" s="36"/>
-      <c r="K21" s="36"/>
-      <c r="L21" s="36"/>
-      <c r="M21" s="36"/>
+      <c r="B21" s="44"/>
+      <c r="C21" s="44"/>
+      <c r="D21" s="44"/>
+      <c r="E21" s="44"/>
+      <c r="F21" s="44"/>
+      <c r="G21" s="44"/>
+      <c r="H21" s="44"/>
+      <c r="I21" s="44"/>
+      <c r="J21" s="44"/>
+      <c r="K21" s="44"/>
+      <c r="L21" s="44"/>
+      <c r="M21" s="44"/>
     </row>
     <row r="22" spans="1:13" s="9" customFormat="1" ht="11.25">
-      <c r="B22" s="36"/>
-      <c r="C22" s="36"/>
-      <c r="D22" s="36"/>
-      <c r="E22" s="36"/>
-      <c r="F22" s="36"/>
-      <c r="G22" s="36"/>
-      <c r="H22" s="36"/>
-      <c r="I22" s="36"/>
-      <c r="J22" s="36"/>
-      <c r="K22" s="36"/>
-      <c r="L22" s="36"/>
-      <c r="M22" s="36"/>
+      <c r="B22" s="44"/>
+      <c r="C22" s="44"/>
+      <c r="D22" s="44"/>
+      <c r="E22" s="44"/>
+      <c r="F22" s="44"/>
+      <c r="G22" s="44"/>
+      <c r="H22" s="44"/>
+      <c r="I22" s="44"/>
+      <c r="J22" s="44"/>
+      <c r="K22" s="44"/>
+      <c r="L22" s="44"/>
+      <c r="M22" s="44"/>
     </row>
     <row r="23" spans="1:13" s="9" customFormat="1" ht="11.25">
-      <c r="B23" s="36"/>
-      <c r="C23" s="36"/>
-      <c r="D23" s="36"/>
-      <c r="E23" s="36"/>
-      <c r="F23" s="36"/>
-      <c r="G23" s="36"/>
-      <c r="H23" s="36"/>
-      <c r="I23" s="36"/>
-      <c r="J23" s="36"/>
-      <c r="K23" s="36"/>
-      <c r="L23" s="36"/>
-      <c r="M23" s="36"/>
+      <c r="B23" s="44"/>
+      <c r="C23" s="44"/>
+      <c r="D23" s="44"/>
+      <c r="E23" s="44"/>
+      <c r="F23" s="44"/>
+      <c r="G23" s="44"/>
+      <c r="H23" s="44"/>
+      <c r="I23" s="44"/>
+      <c r="J23" s="44"/>
+      <c r="K23" s="44"/>
+      <c r="L23" s="44"/>
+      <c r="M23" s="44"/>
     </row>
     <row r="24" spans="1:13" s="9" customFormat="1" ht="11.25">
-      <c r="B24" s="36"/>
-      <c r="C24" s="36"/>
-      <c r="D24" s="36"/>
-      <c r="E24" s="36"/>
-      <c r="F24" s="36"/>
-      <c r="G24" s="36"/>
-      <c r="H24" s="36"/>
-      <c r="I24" s="36"/>
-      <c r="J24" s="36"/>
-      <c r="K24" s="36"/>
-      <c r="L24" s="36"/>
-      <c r="M24" s="36"/>
+      <c r="B24" s="44"/>
+      <c r="C24" s="44"/>
+      <c r="D24" s="44"/>
+      <c r="E24" s="44"/>
+      <c r="F24" s="44"/>
+      <c r="G24" s="44"/>
+      <c r="H24" s="44"/>
+      <c r="I24" s="44"/>
+      <c r="J24" s="44"/>
+      <c r="K24" s="44"/>
+      <c r="L24" s="44"/>
+      <c r="M24" s="44"/>
     </row>
     <row r="25" spans="1:13" s="9" customFormat="1" ht="11.25">
-      <c r="B25" s="36"/>
-      <c r="C25" s="36"/>
-      <c r="D25" s="36"/>
-      <c r="E25" s="36"/>
-      <c r="F25" s="36"/>
-      <c r="G25" s="36"/>
-      <c r="H25" s="36"/>
-      <c r="I25" s="36"/>
-      <c r="J25" s="36"/>
-      <c r="K25" s="36"/>
-      <c r="L25" s="36"/>
-      <c r="M25" s="36"/>
+      <c r="B25" s="44"/>
+      <c r="C25" s="44"/>
+      <c r="D25" s="44"/>
+      <c r="E25" s="44"/>
+      <c r="F25" s="44"/>
+      <c r="G25" s="44"/>
+      <c r="H25" s="44"/>
+      <c r="I25" s="44"/>
+      <c r="J25" s="44"/>
+      <c r="K25" s="44"/>
+      <c r="L25" s="44"/>
+      <c r="M25" s="44"/>
     </row>
     <row r="26" spans="1:13" s="9" customFormat="1" ht="11.25" customHeight="1">
       <c r="D26" s="14"/>
@@ -11206,33 +11422,33 @@
         <v>206</v>
       </c>
       <c r="G27" s="14"/>
-      <c r="K27" s="36" t="s">
+      <c r="K27" s="44" t="s">
         <v>251</v>
       </c>
     </row>
     <row r="28" spans="1:13" s="9" customFormat="1" ht="12">
-      <c r="A28" s="37" t="s">
+      <c r="A28" s="45" t="s">
         <v>49</v>
       </c>
-      <c r="B28" s="37"/>
+      <c r="B28" s="45"/>
       <c r="D28" s="15"/>
       <c r="E28" s="15"/>
       <c r="F28" s="28" t="s">
         <v>207</v>
       </c>
       <c r="G28" s="15"/>
-      <c r="K28" s="36"/>
+      <c r="K28" s="44"/>
     </row>
     <row r="29" spans="1:13" s="9" customFormat="1" ht="12">
-      <c r="A29" s="37"/>
-      <c r="B29" s="37"/>
+      <c r="A29" s="45"/>
+      <c r="B29" s="45"/>
       <c r="D29" s="15"/>
       <c r="E29" s="15"/>
       <c r="F29" s="28" t="s">
         <v>208</v>
       </c>
       <c r="G29" s="15"/>
-      <c r="K29" s="36"/>
+      <c r="K29" s="44"/>
     </row>
     <row r="30" spans="1:13" s="9" customFormat="1" ht="15.75" customHeight="1">
       <c r="A30" s="20" t="s">
@@ -11247,7 +11463,7 @@
         <v>209</v>
       </c>
       <c r="G30" s="15"/>
-      <c r="K30" s="36"/>
+      <c r="K30" s="44"/>
     </row>
     <row r="31" spans="1:13" s="9" customFormat="1" ht="12">
       <c r="A31" s="17" t="s">
@@ -11262,7 +11478,7 @@
         <v>210</v>
       </c>
       <c r="G31" s="15"/>
-      <c r="K31" s="36"/>
+      <c r="K31" s="44"/>
     </row>
     <row r="32" spans="1:13" s="7" customFormat="1" ht="12">
       <c r="A32" s="17" t="s">
@@ -11277,7 +11493,7 @@
         <v>211</v>
       </c>
       <c r="G32" s="15"/>
-      <c r="K32" s="36"/>
+      <c r="K32" s="44"/>
     </row>
     <row r="33" spans="1:11" s="7" customFormat="1" ht="12">
       <c r="A33" s="17" t="s">
@@ -11289,7 +11505,7 @@
       <c r="F33" s="28" t="s">
         <v>212</v>
       </c>
-      <c r="K33" s="36"/>
+      <c r="K33" s="44"/>
     </row>
     <row r="34" spans="1:11" s="7" customFormat="1" ht="12">
       <c r="A34" s="17" t="s">
@@ -11301,7 +11517,7 @@
       <c r="F34" s="28" t="s">
         <v>213</v>
       </c>
-      <c r="K34" s="36"/>
+      <c r="K34" s="44"/>
     </row>
     <row r="35" spans="1:11" s="7" customFormat="1" ht="12">
       <c r="A35" s="17" t="s">
@@ -11313,7 +11529,7 @@
       <c r="F35" s="28" t="s">
         <v>214</v>
       </c>
-      <c r="K35" s="36"/>
+      <c r="K35" s="44"/>
     </row>
     <row r="36" spans="1:11" s="7" customFormat="1" ht="12">
       <c r="A36" s="17" t="s">
@@ -11325,7 +11541,7 @@
       <c r="F36" s="28" t="s">
         <v>215</v>
       </c>
-      <c r="K36" s="36"/>
+      <c r="K36" s="44"/>
     </row>
     <row r="37" spans="1:11" s="7" customFormat="1" ht="12">
       <c r="A37" s="17" t="s">
@@ -11637,13 +11853,13 @@
     <mergeCell ref="L16:L25"/>
     <mergeCell ref="G16:G25"/>
     <mergeCell ref="C16:C25"/>
+    <mergeCell ref="A28:B29"/>
     <mergeCell ref="K27:K36"/>
     <mergeCell ref="H16:H25"/>
     <mergeCell ref="F16:F25"/>
     <mergeCell ref="I16:I25"/>
     <mergeCell ref="K16:K25"/>
     <mergeCell ref="J16:J25"/>
-    <mergeCell ref="A28:B29"/>
   </mergeCells>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -11657,8 +11873,8 @@
   </sheetPr>
   <dimension ref="A2:AC46"/>
   <sheetViews>
-    <sheetView topLeftCell="I1" workbookViewId="0">
-      <selection activeCell="P19" sqref="P19:P39"/>
+    <sheetView topLeftCell="S1" workbookViewId="0">
+      <selection activeCell="R6" sqref="R6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -11756,7 +11972,7 @@
       <c r="D6" s="10" t="s">
         <v>149</v>
       </c>
-      <c r="E6" s="40" t="s">
+      <c r="E6" s="37" t="s">
         <v>334</v>
       </c>
       <c r="F6" s="10" t="s">
@@ -11944,7 +12160,7 @@
       <c r="H8" s="35" t="s">
         <v>283</v>
       </c>
-      <c r="I8" s="39">
+      <c r="I8" s="36">
         <v>42018.361111111109</v>
       </c>
       <c r="J8" s="35" t="s">
@@ -12118,7 +12334,7 @@
       <c r="H10" s="35" t="s">
         <v>306</v>
       </c>
-      <c r="I10" s="39">
+      <c r="I10" s="36">
         <v>42039.999305555553</v>
       </c>
       <c r="J10" s="35" t="s">
@@ -12294,7 +12510,7 @@
       <c r="H12" s="35" t="s">
         <v>318</v>
       </c>
-      <c r="I12" s="39">
+      <c r="I12" s="36">
         <v>41756.333333333336</v>
       </c>
       <c r="J12" s="35" t="s">
@@ -12513,358 +12729,358 @@
       <c r="E18" s="21"/>
     </row>
     <row r="19" spans="1:29" s="9" customFormat="1" ht="11.25" customHeight="1">
-      <c r="B19" s="36" t="s">
+      <c r="B19" s="44" t="s">
         <v>848</v>
       </c>
-      <c r="C19" s="36" t="s">
+      <c r="C19" s="44" t="s">
         <v>849</v>
       </c>
-      <c r="D19" s="36" t="s">
+      <c r="D19" s="44" t="s">
         <v>67</v>
       </c>
-      <c r="E19" s="36" t="s">
+      <c r="E19" s="44" t="s">
         <v>336</v>
       </c>
-      <c r="F19" s="36" t="s">
+      <c r="F19" s="44" t="s">
         <v>294</v>
       </c>
-      <c r="G19" s="36" t="s">
+      <c r="G19" s="44" t="s">
         <v>249</v>
       </c>
-      <c r="H19" s="36" t="s">
+      <c r="H19" s="44" t="s">
         <v>249</v>
       </c>
-      <c r="I19" s="36" t="s">
+      <c r="I19" s="44" t="s">
         <v>315</v>
       </c>
-      <c r="J19" s="36" t="s">
+      <c r="J19" s="44" t="s">
         <v>316</v>
       </c>
-      <c r="K19" s="36" t="s">
+      <c r="K19" s="44" t="s">
         <v>300</v>
       </c>
-      <c r="L19" s="36" t="s">
+      <c r="L19" s="44" t="s">
         <v>301</v>
       </c>
-      <c r="M19" s="36" t="s">
+      <c r="M19" s="44" t="s">
         <v>302</v>
       </c>
-      <c r="N19" s="41" t="s">
+      <c r="N19" s="55" t="s">
         <v>303</v>
       </c>
-      <c r="O19" s="41" t="s">
+      <c r="O19" s="55" t="s">
         <v>303</v>
       </c>
-      <c r="P19" s="36" t="s">
+      <c r="P19" s="44" t="s">
         <v>843</v>
       </c>
-      <c r="Q19" s="41" t="s">
+      <c r="Q19" s="55" t="s">
         <v>304</v>
       </c>
-      <c r="R19" s="41" t="s">
+      <c r="R19" s="55" t="s">
         <v>304</v>
       </c>
-      <c r="S19" s="36" t="s">
+      <c r="S19" s="44" t="s">
         <v>323</v>
       </c>
-      <c r="T19" s="36" t="s">
+      <c r="T19" s="44" t="s">
         <v>20</v>
       </c>
-      <c r="U19" s="36" t="s">
+      <c r="U19" s="44" t="s">
         <v>333</v>
       </c>
-      <c r="V19" s="36" t="s">
+      <c r="V19" s="44" t="s">
         <v>340</v>
       </c>
-      <c r="W19" s="36"/>
-      <c r="X19" s="36" t="s">
+      <c r="W19" s="44"/>
+      <c r="X19" s="44" t="s">
         <v>289</v>
       </c>
-      <c r="Y19" s="36" t="s">
+      <c r="Y19" s="44" t="s">
         <v>289</v>
       </c>
-      <c r="Z19" s="36" t="s">
+      <c r="Z19" s="44" t="s">
         <v>289</v>
       </c>
-      <c r="AA19" s="36" t="s">
+      <c r="AA19" s="44" t="s">
         <v>289</v>
       </c>
-      <c r="AB19" s="36" t="s">
+      <c r="AB19" s="44" t="s">
         <v>289</v>
       </c>
-      <c r="AC19" s="36" t="s">
+      <c r="AC19" s="44" t="s">
         <v>289</v>
       </c>
     </row>
     <row r="20" spans="1:29" s="9" customFormat="1" ht="11.25">
-      <c r="B20" s="36"/>
-      <c r="C20" s="36"/>
-      <c r="D20" s="36"/>
-      <c r="E20" s="36"/>
-      <c r="F20" s="36"/>
-      <c r="G20" s="36"/>
-      <c r="H20" s="36"/>
-      <c r="I20" s="36"/>
-      <c r="J20" s="36"/>
-      <c r="K20" s="36"/>
-      <c r="L20" s="36"/>
-      <c r="M20" s="36"/>
-      <c r="N20" s="41"/>
-      <c r="O20" s="41"/>
-      <c r="P20" s="36"/>
-      <c r="Q20" s="41"/>
-      <c r="R20" s="41"/>
-      <c r="S20" s="36"/>
-      <c r="T20" s="36"/>
-      <c r="U20" s="36"/>
-      <c r="V20" s="36"/>
-      <c r="W20" s="36"/>
-      <c r="X20" s="36"/>
-      <c r="Y20" s="36"/>
-      <c r="Z20" s="36"/>
-      <c r="AA20" s="36"/>
-      <c r="AB20" s="36"/>
-      <c r="AC20" s="36"/>
+      <c r="B20" s="44"/>
+      <c r="C20" s="44"/>
+      <c r="D20" s="44"/>
+      <c r="E20" s="44"/>
+      <c r="F20" s="44"/>
+      <c r="G20" s="44"/>
+      <c r="H20" s="44"/>
+      <c r="I20" s="44"/>
+      <c r="J20" s="44"/>
+      <c r="K20" s="44"/>
+      <c r="L20" s="44"/>
+      <c r="M20" s="44"/>
+      <c r="N20" s="55"/>
+      <c r="O20" s="55"/>
+      <c r="P20" s="44"/>
+      <c r="Q20" s="55"/>
+      <c r="R20" s="55"/>
+      <c r="S20" s="44"/>
+      <c r="T20" s="44"/>
+      <c r="U20" s="44"/>
+      <c r="V20" s="44"/>
+      <c r="W20" s="44"/>
+      <c r="X20" s="44"/>
+      <c r="Y20" s="44"/>
+      <c r="Z20" s="44"/>
+      <c r="AA20" s="44"/>
+      <c r="AB20" s="44"/>
+      <c r="AC20" s="44"/>
     </row>
     <row r="21" spans="1:29" s="9" customFormat="1" ht="11.25">
-      <c r="B21" s="36"/>
-      <c r="C21" s="36"/>
-      <c r="D21" s="36"/>
-      <c r="E21" s="36"/>
-      <c r="F21" s="36"/>
-      <c r="G21" s="36"/>
-      <c r="H21" s="36"/>
-      <c r="I21" s="36"/>
-      <c r="J21" s="36"/>
-      <c r="K21" s="36"/>
-      <c r="L21" s="36"/>
-      <c r="M21" s="36"/>
-      <c r="N21" s="41"/>
-      <c r="O21" s="41"/>
-      <c r="P21" s="36"/>
-      <c r="Q21" s="41"/>
-      <c r="R21" s="41"/>
-      <c r="S21" s="36"/>
-      <c r="T21" s="36"/>
-      <c r="U21" s="36"/>
-      <c r="V21" s="36"/>
-      <c r="W21" s="36"/>
-      <c r="X21" s="36"/>
-      <c r="Y21" s="36"/>
-      <c r="Z21" s="36"/>
-      <c r="AA21" s="36"/>
-      <c r="AB21" s="36"/>
-      <c r="AC21" s="36"/>
+      <c r="B21" s="44"/>
+      <c r="C21" s="44"/>
+      <c r="D21" s="44"/>
+      <c r="E21" s="44"/>
+      <c r="F21" s="44"/>
+      <c r="G21" s="44"/>
+      <c r="H21" s="44"/>
+      <c r="I21" s="44"/>
+      <c r="J21" s="44"/>
+      <c r="K21" s="44"/>
+      <c r="L21" s="44"/>
+      <c r="M21" s="44"/>
+      <c r="N21" s="55"/>
+      <c r="O21" s="55"/>
+      <c r="P21" s="44"/>
+      <c r="Q21" s="55"/>
+      <c r="R21" s="55"/>
+      <c r="S21" s="44"/>
+      <c r="T21" s="44"/>
+      <c r="U21" s="44"/>
+      <c r="V21" s="44"/>
+      <c r="W21" s="44"/>
+      <c r="X21" s="44"/>
+      <c r="Y21" s="44"/>
+      <c r="Z21" s="44"/>
+      <c r="AA21" s="44"/>
+      <c r="AB21" s="44"/>
+      <c r="AC21" s="44"/>
     </row>
     <row r="22" spans="1:29" s="9" customFormat="1" ht="11.25">
-      <c r="B22" s="36"/>
-      <c r="C22" s="36"/>
-      <c r="D22" s="36"/>
-      <c r="E22" s="36"/>
-      <c r="F22" s="36"/>
-      <c r="G22" s="36"/>
-      <c r="H22" s="36"/>
-      <c r="I22" s="36"/>
-      <c r="J22" s="36"/>
-      <c r="K22" s="36"/>
-      <c r="L22" s="36"/>
-      <c r="M22" s="36"/>
-      <c r="N22" s="41"/>
-      <c r="O22" s="41"/>
-      <c r="P22" s="36"/>
-      <c r="Q22" s="41"/>
-      <c r="R22" s="41"/>
-      <c r="S22" s="36"/>
-      <c r="T22" s="36"/>
-      <c r="U22" s="36"/>
-      <c r="V22" s="36"/>
-      <c r="W22" s="36"/>
-      <c r="X22" s="36"/>
-      <c r="Y22" s="36"/>
-      <c r="Z22" s="36"/>
-      <c r="AA22" s="36"/>
-      <c r="AB22" s="36"/>
-      <c r="AC22" s="36"/>
+      <c r="B22" s="44"/>
+      <c r="C22" s="44"/>
+      <c r="D22" s="44"/>
+      <c r="E22" s="44"/>
+      <c r="F22" s="44"/>
+      <c r="G22" s="44"/>
+      <c r="H22" s="44"/>
+      <c r="I22" s="44"/>
+      <c r="J22" s="44"/>
+      <c r="K22" s="44"/>
+      <c r="L22" s="44"/>
+      <c r="M22" s="44"/>
+      <c r="N22" s="55"/>
+      <c r="O22" s="55"/>
+      <c r="P22" s="44"/>
+      <c r="Q22" s="55"/>
+      <c r="R22" s="55"/>
+      <c r="S22" s="44"/>
+      <c r="T22" s="44"/>
+      <c r="U22" s="44"/>
+      <c r="V22" s="44"/>
+      <c r="W22" s="44"/>
+      <c r="X22" s="44"/>
+      <c r="Y22" s="44"/>
+      <c r="Z22" s="44"/>
+      <c r="AA22" s="44"/>
+      <c r="AB22" s="44"/>
+      <c r="AC22" s="44"/>
     </row>
     <row r="23" spans="1:29" s="9" customFormat="1" ht="11.25">
-      <c r="B23" s="36"/>
-      <c r="C23" s="36"/>
-      <c r="D23" s="36"/>
-      <c r="E23" s="36"/>
-      <c r="F23" s="36"/>
-      <c r="G23" s="36"/>
-      <c r="H23" s="36"/>
-      <c r="I23" s="36"/>
-      <c r="J23" s="36"/>
-      <c r="K23" s="36"/>
-      <c r="L23" s="36"/>
-      <c r="M23" s="36"/>
-      <c r="N23" s="41"/>
-      <c r="O23" s="41"/>
-      <c r="P23" s="36"/>
-      <c r="Q23" s="41"/>
-      <c r="R23" s="41"/>
-      <c r="S23" s="36"/>
-      <c r="T23" s="36"/>
-      <c r="U23" s="36"/>
-      <c r="V23" s="36"/>
-      <c r="W23" s="36"/>
-      <c r="X23" s="36"/>
-      <c r="Y23" s="36"/>
-      <c r="Z23" s="36"/>
-      <c r="AA23" s="36"/>
-      <c r="AB23" s="36"/>
-      <c r="AC23" s="36"/>
+      <c r="B23" s="44"/>
+      <c r="C23" s="44"/>
+      <c r="D23" s="44"/>
+      <c r="E23" s="44"/>
+      <c r="F23" s="44"/>
+      <c r="G23" s="44"/>
+      <c r="H23" s="44"/>
+      <c r="I23" s="44"/>
+      <c r="J23" s="44"/>
+      <c r="K23" s="44"/>
+      <c r="L23" s="44"/>
+      <c r="M23" s="44"/>
+      <c r="N23" s="55"/>
+      <c r="O23" s="55"/>
+      <c r="P23" s="44"/>
+      <c r="Q23" s="55"/>
+      <c r="R23" s="55"/>
+      <c r="S23" s="44"/>
+      <c r="T23" s="44"/>
+      <c r="U23" s="44"/>
+      <c r="V23" s="44"/>
+      <c r="W23" s="44"/>
+      <c r="X23" s="44"/>
+      <c r="Y23" s="44"/>
+      <c r="Z23" s="44"/>
+      <c r="AA23" s="44"/>
+      <c r="AB23" s="44"/>
+      <c r="AC23" s="44"/>
     </row>
     <row r="24" spans="1:29" s="9" customFormat="1" ht="11.25">
-      <c r="B24" s="36"/>
-      <c r="C24" s="36"/>
-      <c r="D24" s="36"/>
-      <c r="E24" s="36"/>
-      <c r="F24" s="36"/>
-      <c r="G24" s="36"/>
-      <c r="H24" s="36"/>
-      <c r="I24" s="36"/>
-      <c r="J24" s="36"/>
-      <c r="K24" s="36"/>
-      <c r="L24" s="36"/>
-      <c r="M24" s="36"/>
-      <c r="N24" s="41"/>
-      <c r="O24" s="41"/>
-      <c r="P24" s="36"/>
-      <c r="Q24" s="41"/>
-      <c r="R24" s="41"/>
-      <c r="S24" s="36"/>
-      <c r="T24" s="36"/>
-      <c r="U24" s="36"/>
-      <c r="V24" s="36"/>
-      <c r="W24" s="36"/>
-      <c r="X24" s="36"/>
-      <c r="Y24" s="36"/>
-      <c r="Z24" s="36"/>
-      <c r="AA24" s="36"/>
-      <c r="AB24" s="36"/>
-      <c r="AC24" s="36"/>
+      <c r="B24" s="44"/>
+      <c r="C24" s="44"/>
+      <c r="D24" s="44"/>
+      <c r="E24" s="44"/>
+      <c r="F24" s="44"/>
+      <c r="G24" s="44"/>
+      <c r="H24" s="44"/>
+      <c r="I24" s="44"/>
+      <c r="J24" s="44"/>
+      <c r="K24" s="44"/>
+      <c r="L24" s="44"/>
+      <c r="M24" s="44"/>
+      <c r="N24" s="55"/>
+      <c r="O24" s="55"/>
+      <c r="P24" s="44"/>
+      <c r="Q24" s="55"/>
+      <c r="R24" s="55"/>
+      <c r="S24" s="44"/>
+      <c r="T24" s="44"/>
+      <c r="U24" s="44"/>
+      <c r="V24" s="44"/>
+      <c r="W24" s="44"/>
+      <c r="X24" s="44"/>
+      <c r="Y24" s="44"/>
+      <c r="Z24" s="44"/>
+      <c r="AA24" s="44"/>
+      <c r="AB24" s="44"/>
+      <c r="AC24" s="44"/>
     </row>
     <row r="25" spans="1:29" s="9" customFormat="1" ht="11.25">
-      <c r="B25" s="36"/>
-      <c r="C25" s="36"/>
-      <c r="D25" s="36"/>
-      <c r="E25" s="36"/>
-      <c r="F25" s="36"/>
-      <c r="G25" s="36"/>
-      <c r="H25" s="36"/>
-      <c r="I25" s="36"/>
-      <c r="J25" s="36"/>
-      <c r="K25" s="36"/>
-      <c r="L25" s="36"/>
-      <c r="M25" s="36"/>
-      <c r="N25" s="41"/>
-      <c r="O25" s="41"/>
-      <c r="P25" s="36"/>
-      <c r="Q25" s="41"/>
-      <c r="R25" s="41"/>
-      <c r="S25" s="36"/>
-      <c r="T25" s="36"/>
-      <c r="U25" s="36"/>
-      <c r="V25" s="36"/>
-      <c r="W25" s="36"/>
-      <c r="X25" s="36"/>
-      <c r="Y25" s="36"/>
-      <c r="Z25" s="36"/>
-      <c r="AA25" s="36"/>
-      <c r="AB25" s="36"/>
-      <c r="AC25" s="36"/>
+      <c r="B25" s="44"/>
+      <c r="C25" s="44"/>
+      <c r="D25" s="44"/>
+      <c r="E25" s="44"/>
+      <c r="F25" s="44"/>
+      <c r="G25" s="44"/>
+      <c r="H25" s="44"/>
+      <c r="I25" s="44"/>
+      <c r="J25" s="44"/>
+      <c r="K25" s="44"/>
+      <c r="L25" s="44"/>
+      <c r="M25" s="44"/>
+      <c r="N25" s="55"/>
+      <c r="O25" s="55"/>
+      <c r="P25" s="44"/>
+      <c r="Q25" s="55"/>
+      <c r="R25" s="55"/>
+      <c r="S25" s="44"/>
+      <c r="T25" s="44"/>
+      <c r="U25" s="44"/>
+      <c r="V25" s="44"/>
+      <c r="W25" s="44"/>
+      <c r="X25" s="44"/>
+      <c r="Y25" s="44"/>
+      <c r="Z25" s="44"/>
+      <c r="AA25" s="44"/>
+      <c r="AB25" s="44"/>
+      <c r="AC25" s="44"/>
     </row>
     <row r="26" spans="1:29" s="9" customFormat="1" ht="11.25">
-      <c r="B26" s="36"/>
-      <c r="C26" s="36"/>
-      <c r="D26" s="36"/>
-      <c r="E26" s="36"/>
-      <c r="F26" s="36"/>
-      <c r="G26" s="36"/>
-      <c r="H26" s="36"/>
-      <c r="I26" s="36"/>
-      <c r="J26" s="36"/>
-      <c r="K26" s="36"/>
-      <c r="L26" s="36"/>
-      <c r="M26" s="36"/>
-      <c r="N26" s="41"/>
-      <c r="O26" s="41"/>
-      <c r="P26" s="36"/>
-      <c r="Q26" s="41"/>
-      <c r="R26" s="41"/>
-      <c r="S26" s="36"/>
-      <c r="T26" s="36"/>
-      <c r="U26" s="36"/>
-      <c r="V26" s="36"/>
-      <c r="W26" s="36"/>
-      <c r="X26" s="36"/>
-      <c r="Y26" s="36"/>
-      <c r="Z26" s="36"/>
-      <c r="AA26" s="36"/>
-      <c r="AB26" s="36"/>
-      <c r="AC26" s="36"/>
+      <c r="B26" s="44"/>
+      <c r="C26" s="44"/>
+      <c r="D26" s="44"/>
+      <c r="E26" s="44"/>
+      <c r="F26" s="44"/>
+      <c r="G26" s="44"/>
+      <c r="H26" s="44"/>
+      <c r="I26" s="44"/>
+      <c r="J26" s="44"/>
+      <c r="K26" s="44"/>
+      <c r="L26" s="44"/>
+      <c r="M26" s="44"/>
+      <c r="N26" s="55"/>
+      <c r="O26" s="55"/>
+      <c r="P26" s="44"/>
+      <c r="Q26" s="55"/>
+      <c r="R26" s="55"/>
+      <c r="S26" s="44"/>
+      <c r="T26" s="44"/>
+      <c r="U26" s="44"/>
+      <c r="V26" s="44"/>
+      <c r="W26" s="44"/>
+      <c r="X26" s="44"/>
+      <c r="Y26" s="44"/>
+      <c r="Z26" s="44"/>
+      <c r="AA26" s="44"/>
+      <c r="AB26" s="44"/>
+      <c r="AC26" s="44"/>
     </row>
     <row r="27" spans="1:29" s="9" customFormat="1" ht="11.25">
-      <c r="B27" s="36"/>
-      <c r="C27" s="36"/>
-      <c r="D27" s="36"/>
-      <c r="E27" s="36"/>
-      <c r="F27" s="36"/>
-      <c r="G27" s="36"/>
-      <c r="H27" s="36"/>
-      <c r="I27" s="36"/>
-      <c r="J27" s="36"/>
-      <c r="K27" s="36"/>
-      <c r="L27" s="36"/>
-      <c r="M27" s="36"/>
-      <c r="N27" s="41"/>
-      <c r="O27" s="41"/>
-      <c r="P27" s="36"/>
-      <c r="Q27" s="41"/>
-      <c r="R27" s="41"/>
-      <c r="S27" s="36"/>
-      <c r="T27" s="36"/>
-      <c r="U27" s="36"/>
-      <c r="V27" s="36"/>
-      <c r="W27" s="36"/>
-      <c r="X27" s="36"/>
-      <c r="Y27" s="36"/>
-      <c r="Z27" s="36"/>
-      <c r="AA27" s="36"/>
-      <c r="AB27" s="36"/>
-      <c r="AC27" s="36"/>
+      <c r="B27" s="44"/>
+      <c r="C27" s="44"/>
+      <c r="D27" s="44"/>
+      <c r="E27" s="44"/>
+      <c r="F27" s="44"/>
+      <c r="G27" s="44"/>
+      <c r="H27" s="44"/>
+      <c r="I27" s="44"/>
+      <c r="J27" s="44"/>
+      <c r="K27" s="44"/>
+      <c r="L27" s="44"/>
+      <c r="M27" s="44"/>
+      <c r="N27" s="55"/>
+      <c r="O27" s="55"/>
+      <c r="P27" s="44"/>
+      <c r="Q27" s="55"/>
+      <c r="R27" s="55"/>
+      <c r="S27" s="44"/>
+      <c r="T27" s="44"/>
+      <c r="U27" s="44"/>
+      <c r="V27" s="44"/>
+      <c r="W27" s="44"/>
+      <c r="X27" s="44"/>
+      <c r="Y27" s="44"/>
+      <c r="Z27" s="44"/>
+      <c r="AA27" s="44"/>
+      <c r="AB27" s="44"/>
+      <c r="AC27" s="44"/>
     </row>
     <row r="28" spans="1:29" s="9" customFormat="1" ht="11.25">
-      <c r="B28" s="36"/>
-      <c r="C28" s="36"/>
-      <c r="D28" s="36"/>
-      <c r="E28" s="36"/>
-      <c r="F28" s="36"/>
-      <c r="G28" s="36"/>
-      <c r="H28" s="36"/>
-      <c r="I28" s="36"/>
-      <c r="J28" s="36"/>
-      <c r="K28" s="36"/>
-      <c r="L28" s="36"/>
-      <c r="M28" s="36"/>
-      <c r="N28" s="41"/>
-      <c r="O28" s="41"/>
-      <c r="P28" s="36"/>
-      <c r="Q28" s="41"/>
-      <c r="R28" s="41"/>
-      <c r="S28" s="36"/>
-      <c r="T28" s="36"/>
-      <c r="U28" s="36"/>
-      <c r="V28" s="36"/>
-      <c r="W28" s="36"/>
-      <c r="X28" s="36"/>
-      <c r="Y28" s="36"/>
-      <c r="Z28" s="36"/>
-      <c r="AA28" s="36"/>
-      <c r="AB28" s="36"/>
-      <c r="AC28" s="36"/>
+      <c r="B28" s="44"/>
+      <c r="C28" s="44"/>
+      <c r="D28" s="44"/>
+      <c r="E28" s="44"/>
+      <c r="F28" s="44"/>
+      <c r="G28" s="44"/>
+      <c r="H28" s="44"/>
+      <c r="I28" s="44"/>
+      <c r="J28" s="44"/>
+      <c r="K28" s="44"/>
+      <c r="L28" s="44"/>
+      <c r="M28" s="44"/>
+      <c r="N28" s="55"/>
+      <c r="O28" s="55"/>
+      <c r="P28" s="44"/>
+      <c r="Q28" s="55"/>
+      <c r="R28" s="55"/>
+      <c r="S28" s="44"/>
+      <c r="T28" s="44"/>
+      <c r="U28" s="44"/>
+      <c r="V28" s="44"/>
+      <c r="W28" s="44"/>
+      <c r="X28" s="44"/>
+      <c r="Y28" s="44"/>
+      <c r="Z28" s="44"/>
+      <c r="AA28" s="44"/>
+      <c r="AB28" s="44"/>
+      <c r="AC28" s="44"/>
     </row>
     <row r="29" spans="1:29" s="9" customFormat="1" ht="11.25" customHeight="1">
       <c r="J29" s="14"/>
@@ -12873,33 +13089,33 @@
     </row>
     <row r="30" spans="1:29" s="9" customFormat="1" ht="11.25">
       <c r="J30" s="14"/>
-      <c r="P30" s="36" t="s">
+      <c r="P30" s="44" t="s">
         <v>844</v>
       </c>
       <c r="T30" s="14"/>
-      <c r="U30" s="36" t="s">
+      <c r="U30" s="44" t="s">
         <v>338</v>
       </c>
     </row>
     <row r="31" spans="1:29" s="9" customFormat="1" ht="12">
-      <c r="A31" s="37" t="s">
+      <c r="A31" s="45" t="s">
         <v>49</v>
       </c>
-      <c r="B31" s="37"/>
-      <c r="D31" s="55"/>
+      <c r="B31" s="45"/>
+      <c r="D31" s="43"/>
       <c r="J31" s="15"/>
-      <c r="P31" s="36"/>
+      <c r="P31" s="44"/>
       <c r="T31" s="15"/>
-      <c r="U31" s="36"/>
+      <c r="U31" s="44"/>
     </row>
     <row r="32" spans="1:29" s="9" customFormat="1" ht="12">
-      <c r="A32" s="37"/>
-      <c r="B32" s="37"/>
-      <c r="D32" s="55"/>
+      <c r="A32" s="45"/>
+      <c r="B32" s="45"/>
+      <c r="D32" s="43"/>
       <c r="J32" s="15"/>
-      <c r="P32" s="36"/>
+      <c r="P32" s="44"/>
       <c r="T32" s="15"/>
-      <c r="U32" s="36"/>
+      <c r="U32" s="44"/>
     </row>
     <row r="33" spans="1:21" s="9" customFormat="1" ht="15.75" customHeight="1">
       <c r="A33" s="20" t="s">
@@ -12908,11 +13124,11 @@
       <c r="B33" s="20" t="s">
         <v>48</v>
       </c>
-      <c r="D33" s="55"/>
+      <c r="D33" s="43"/>
       <c r="J33" s="15"/>
-      <c r="P33" s="36"/>
+      <c r="P33" s="44"/>
       <c r="T33" s="15"/>
-      <c r="U33" s="36"/>
+      <c r="U33" s="44"/>
     </row>
     <row r="34" spans="1:21" s="9" customFormat="1" ht="12">
       <c r="A34" s="17" t="s">
@@ -12921,11 +13137,11 @@
       <c r="B34" s="18" t="s">
         <v>41</v>
       </c>
-      <c r="D34" s="55"/>
+      <c r="D34" s="43"/>
       <c r="J34" s="15"/>
-      <c r="P34" s="36"/>
+      <c r="P34" s="44"/>
       <c r="T34" s="15"/>
-      <c r="U34" s="36"/>
+      <c r="U34" s="44"/>
     </row>
     <row r="35" spans="1:21" s="7" customFormat="1" ht="12">
       <c r="A35" s="17" t="s">
@@ -12934,11 +13150,11 @@
       <c r="B35" s="18" t="s">
         <v>42</v>
       </c>
-      <c r="D35" s="55"/>
+      <c r="D35" s="43"/>
       <c r="J35" s="15"/>
-      <c r="P35" s="36"/>
+      <c r="P35" s="44"/>
       <c r="T35" s="15"/>
-      <c r="U35" s="36"/>
+      <c r="U35" s="44"/>
     </row>
     <row r="36" spans="1:21" s="7" customFormat="1" ht="12">
       <c r="A36" s="17" t="s">
@@ -12947,9 +13163,9 @@
       <c r="B36" s="18" t="s">
         <v>201</v>
       </c>
-      <c r="D36" s="55"/>
-      <c r="P36" s="36"/>
-      <c r="U36" s="36"/>
+      <c r="D36" s="43"/>
+      <c r="P36" s="44"/>
+      <c r="U36" s="44"/>
     </row>
     <row r="37" spans="1:21" s="7" customFormat="1" ht="12">
       <c r="A37" s="17" t="s">
@@ -12958,9 +13174,9 @@
       <c r="B37" s="19" t="s">
         <v>43</v>
       </c>
-      <c r="D37" s="55"/>
-      <c r="P37" s="36"/>
-      <c r="U37" s="36"/>
+      <c r="D37" s="43"/>
+      <c r="P37" s="44"/>
+      <c r="U37" s="44"/>
     </row>
     <row r="38" spans="1:21" s="7" customFormat="1" ht="12">
       <c r="A38" s="17" t="s">
@@ -12969,8 +13185,8 @@
       <c r="B38" s="19" t="s">
         <v>44</v>
       </c>
-      <c r="D38" s="55"/>
-      <c r="P38" s="36"/>
+      <c r="D38" s="43"/>
+      <c r="P38" s="44"/>
     </row>
     <row r="39" spans="1:21" s="7" customFormat="1" ht="12">
       <c r="A39" s="17" t="s">
@@ -12979,8 +13195,8 @@
       <c r="B39" s="19" t="s">
         <v>45</v>
       </c>
-      <c r="D39" s="55"/>
-      <c r="P39" s="36"/>
+      <c r="D39" s="43"/>
+      <c r="P39" s="44"/>
     </row>
     <row r="40" spans="1:21" s="7" customFormat="1" ht="12">
       <c r="A40" s="17" t="s">
@@ -12989,7 +13205,7 @@
       <c r="B40" s="19" t="s">
         <v>198</v>
       </c>
-      <c r="D40" s="55"/>
+      <c r="D40" s="43"/>
     </row>
     <row r="41" spans="1:21" s="7" customFormat="1" ht="12">
       <c r="A41" s="17" t="s">
@@ -12998,32 +13214,31 @@
       <c r="B41" s="19" t="s">
         <v>46</v>
       </c>
-      <c r="D41" s="55"/>
+      <c r="D41" s="43"/>
     </row>
     <row r="42" spans="1:21" s="7" customFormat="1" ht="12">
-      <c r="D42" s="55"/>
+      <c r="D42" s="43"/>
     </row>
     <row r="43" spans="1:21" s="7" customFormat="1" ht="12">
-      <c r="C43" s="55"/>
+      <c r="C43" s="43"/>
     </row>
     <row r="44" spans="1:21" s="7" customFormat="1">
-      <c r="C44" s="55"/>
+      <c r="C44" s="43"/>
       <c r="D44"/>
       <c r="I44"/>
       <c r="S44"/>
     </row>
     <row r="45" spans="1:21" s="7" customFormat="1">
-      <c r="C45" s="55"/>
+      <c r="C45" s="43"/>
       <c r="D45"/>
       <c r="I45"/>
       <c r="S45"/>
     </row>
     <row r="46" spans="1:21">
-      <c r="C46" s="55"/>
+      <c r="C46" s="43"/>
     </row>
   </sheetData>
   <mergeCells count="31">
-    <mergeCell ref="E19:E28"/>
     <mergeCell ref="U30:U37"/>
     <mergeCell ref="P30:P39"/>
     <mergeCell ref="D19:D28"/>
@@ -13036,6 +13251,9 @@
     <mergeCell ref="P19:P28"/>
     <mergeCell ref="B19:B28"/>
     <mergeCell ref="V19:V28"/>
+    <mergeCell ref="W19:W28"/>
+    <mergeCell ref="K19:K28"/>
+    <mergeCell ref="E19:E28"/>
     <mergeCell ref="AB19:AB28"/>
     <mergeCell ref="AC19:AC28"/>
     <mergeCell ref="R19:R28"/>
@@ -13052,8 +13270,6 @@
     <mergeCell ref="H19:H28"/>
     <mergeCell ref="U19:U28"/>
     <mergeCell ref="Y19:Y28"/>
-    <mergeCell ref="W19:W28"/>
-    <mergeCell ref="K19:K28"/>
   </mergeCells>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -13068,7 +13284,7 @@
   <dimension ref="A2:G192"/>
   <sheetViews>
     <sheetView topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="G19" sqref="G19:G28"/>
+      <selection activeCell="C19" sqref="C19:C28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -13326,118 +13542,118 @@
       <c r="C18" s="21"/>
     </row>
     <row r="19" spans="1:7" s="9" customFormat="1" ht="11.25" customHeight="1">
-      <c r="A19" s="36"/>
-      <c r="B19" s="36" t="s">
+      <c r="A19" s="44"/>
+      <c r="B19" s="44" t="s">
         <v>849</v>
       </c>
-      <c r="C19" s="36" t="s">
+      <c r="C19" s="44" t="s">
         <v>67</v>
       </c>
-      <c r="D19" s="36" t="s">
+      <c r="D19" s="44" t="s">
         <v>352</v>
       </c>
-      <c r="E19" s="36" t="s">
+      <c r="E19" s="44" t="s">
         <v>353</v>
       </c>
-      <c r="F19" s="36" t="s">
+      <c r="F19" s="44" t="s">
         <v>371</v>
       </c>
-      <c r="G19" s="36" t="s">
+      <c r="G19" s="44" t="s">
         <v>346</v>
       </c>
     </row>
     <row r="20" spans="1:7" s="9" customFormat="1" ht="11.25">
-      <c r="A20" s="36"/>
-      <c r="B20" s="36"/>
-      <c r="C20" s="36"/>
-      <c r="D20" s="36"/>
-      <c r="E20" s="36"/>
-      <c r="F20" s="36"/>
-      <c r="G20" s="36"/>
+      <c r="A20" s="44"/>
+      <c r="B20" s="44"/>
+      <c r="C20" s="44"/>
+      <c r="D20" s="44"/>
+      <c r="E20" s="44"/>
+      <c r="F20" s="44"/>
+      <c r="G20" s="44"/>
     </row>
     <row r="21" spans="1:7" s="9" customFormat="1" ht="11.25">
-      <c r="A21" s="36"/>
-      <c r="B21" s="36"/>
-      <c r="C21" s="36"/>
-      <c r="D21" s="36"/>
-      <c r="E21" s="36"/>
-      <c r="F21" s="36"/>
-      <c r="G21" s="36"/>
+      <c r="A21" s="44"/>
+      <c r="B21" s="44"/>
+      <c r="C21" s="44"/>
+      <c r="D21" s="44"/>
+      <c r="E21" s="44"/>
+      <c r="F21" s="44"/>
+      <c r="G21" s="44"/>
     </row>
     <row r="22" spans="1:7" s="9" customFormat="1" ht="11.25">
-      <c r="A22" s="36"/>
-      <c r="B22" s="36"/>
-      <c r="C22" s="36"/>
-      <c r="D22" s="36"/>
-      <c r="E22" s="36"/>
-      <c r="F22" s="36"/>
-      <c r="G22" s="36"/>
+      <c r="A22" s="44"/>
+      <c r="B22" s="44"/>
+      <c r="C22" s="44"/>
+      <c r="D22" s="44"/>
+      <c r="E22" s="44"/>
+      <c r="F22" s="44"/>
+      <c r="G22" s="44"/>
     </row>
     <row r="23" spans="1:7" s="9" customFormat="1" ht="11.25">
-      <c r="A23" s="36"/>
-      <c r="B23" s="36"/>
-      <c r="C23" s="36"/>
-      <c r="D23" s="36"/>
-      <c r="E23" s="36"/>
-      <c r="F23" s="36"/>
-      <c r="G23" s="36"/>
+      <c r="A23" s="44"/>
+      <c r="B23" s="44"/>
+      <c r="C23" s="44"/>
+      <c r="D23" s="44"/>
+      <c r="E23" s="44"/>
+      <c r="F23" s="44"/>
+      <c r="G23" s="44"/>
     </row>
     <row r="24" spans="1:7" s="9" customFormat="1" ht="11.25">
-      <c r="A24" s="36"/>
-      <c r="B24" s="36"/>
-      <c r="C24" s="36"/>
-      <c r="D24" s="36"/>
-      <c r="E24" s="36"/>
-      <c r="F24" s="36"/>
-      <c r="G24" s="36"/>
+      <c r="A24" s="44"/>
+      <c r="B24" s="44"/>
+      <c r="C24" s="44"/>
+      <c r="D24" s="44"/>
+      <c r="E24" s="44"/>
+      <c r="F24" s="44"/>
+      <c r="G24" s="44"/>
     </row>
     <row r="25" spans="1:7" s="9" customFormat="1" ht="11.25">
-      <c r="A25" s="36"/>
-      <c r="B25" s="36"/>
-      <c r="C25" s="36"/>
-      <c r="D25" s="36"/>
-      <c r="E25" s="36"/>
-      <c r="F25" s="36"/>
-      <c r="G25" s="36"/>
+      <c r="A25" s="44"/>
+      <c r="B25" s="44"/>
+      <c r="C25" s="44"/>
+      <c r="D25" s="44"/>
+      <c r="E25" s="44"/>
+      <c r="F25" s="44"/>
+      <c r="G25" s="44"/>
     </row>
     <row r="26" spans="1:7" s="9" customFormat="1" ht="11.25">
-      <c r="A26" s="36"/>
-      <c r="B26" s="36"/>
-      <c r="C26" s="36"/>
-      <c r="D26" s="36"/>
-      <c r="E26" s="36"/>
-      <c r="F26" s="36"/>
-      <c r="G26" s="36"/>
+      <c r="A26" s="44"/>
+      <c r="B26" s="44"/>
+      <c r="C26" s="44"/>
+      <c r="D26" s="44"/>
+      <c r="E26" s="44"/>
+      <c r="F26" s="44"/>
+      <c r="G26" s="44"/>
     </row>
     <row r="27" spans="1:7" s="9" customFormat="1" ht="11.25">
-      <c r="A27" s="36"/>
-      <c r="B27" s="36"/>
-      <c r="C27" s="36"/>
-      <c r="D27" s="36"/>
-      <c r="E27" s="36"/>
-      <c r="F27" s="36"/>
-      <c r="G27" s="36"/>
+      <c r="A27" s="44"/>
+      <c r="B27" s="44"/>
+      <c r="C27" s="44"/>
+      <c r="D27" s="44"/>
+      <c r="E27" s="44"/>
+      <c r="F27" s="44"/>
+      <c r="G27" s="44"/>
     </row>
     <row r="28" spans="1:7" s="9" customFormat="1" ht="11.25">
-      <c r="A28" s="36"/>
-      <c r="B28" s="36"/>
-      <c r="C28" s="36"/>
-      <c r="D28" s="36"/>
-      <c r="E28" s="36"/>
-      <c r="F28" s="36"/>
-      <c r="G28" s="36"/>
+      <c r="A28" s="44"/>
+      <c r="B28" s="44"/>
+      <c r="C28" s="44"/>
+      <c r="D28" s="44"/>
+      <c r="E28" s="44"/>
+      <c r="F28" s="44"/>
+      <c r="G28" s="44"/>
     </row>
     <row r="29" spans="1:7" s="9" customFormat="1" ht="11.25" customHeight="1"/>
     <row r="30" spans="1:7" s="9" customFormat="1" ht="11.25" customHeight="1"/>
     <row r="31" spans="1:7" s="9" customFormat="1" ht="11.25">
-      <c r="A31" s="37" t="s">
+      <c r="A31" s="45" t="s">
         <v>49</v>
       </c>
-      <c r="B31" s="37"/>
+      <c r="B31" s="45"/>
     </row>
     <row r="32" spans="1:7" s="9" customFormat="1" ht="11.25">
-      <c r="A32" s="37"/>
-      <c r="B32" s="37"/>
+      <c r="A32" s="45"/>
+      <c r="B32" s="45"/>
     </row>
     <row r="33" spans="1:2" s="9" customFormat="1" ht="15.75" customHeight="1">
       <c r="A33" s="20" t="s">
@@ -13672,14 +13888,14 @@
     </row>
   </sheetData>
   <mergeCells count="8">
+    <mergeCell ref="G19:G28"/>
+    <mergeCell ref="F19:F28"/>
     <mergeCell ref="A31:B32"/>
     <mergeCell ref="A19:A28"/>
     <mergeCell ref="E19:E28"/>
     <mergeCell ref="C19:C28"/>
     <mergeCell ref="B19:B28"/>
     <mergeCell ref="D19:D28"/>
-    <mergeCell ref="G19:G28"/>
-    <mergeCell ref="F19:F28"/>
   </mergeCells>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/Documentação/Planilhas/Conferencia_WMS.xlsx
+++ b/Documentação/Planilhas/Conferencia_WMS.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="30" windowWidth="20115" windowHeight="8010" firstSheet="8" activeTab="9"/>
+    <workbookView xWindow="240" yWindow="30" windowWidth="20115" windowHeight="8010" firstSheet="7" activeTab="7"/>
   </bookViews>
   <sheets>
     <sheet name="stg_dom_wms_onda" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1813" uniqueCount="893">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1814" uniqueCount="894">
   <si>
     <t>CD_ONDA</t>
   </si>
@@ -2746,6 +2746,9 @@
   </si>
   <si>
     <t>CD_ARMAZEM_LN</t>
+  </si>
+  <si>
+    <t>É lido o campo "WMWHSE1.CAGEIDDETAIL.adddate" e o mesmo não é apresentado em tela</t>
   </si>
 </sst>
 </file>
@@ -3088,6 +3091,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="3" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -3124,7 +3128,6 @@
     <xf numFmtId="0" fontId="2" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="3" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -3635,108 +3638,108 @@
     </row>
     <row r="10" spans="1:36" s="9" customFormat="1" ht="11.25"/>
     <row r="11" spans="1:36" s="9" customFormat="1" ht="11.25">
-      <c r="B11" s="44" t="s">
+      <c r="B11" s="45" t="s">
         <v>20</v>
       </c>
-      <c r="C11" s="44" t="s">
+      <c r="C11" s="45" t="s">
         <v>21</v>
       </c>
-      <c r="D11" s="44" t="s">
+      <c r="D11" s="45" t="s">
         <v>22</v>
       </c>
-      <c r="E11" s="44" t="s">
+      <c r="E11" s="45" t="s">
         <v>24</v>
       </c>
-      <c r="F11" s="44" t="s">
+      <c r="F11" s="45" t="s">
         <v>25</v>
       </c>
-      <c r="G11" s="44" t="s">
+      <c r="G11" s="45" t="s">
         <v>26</v>
       </c>
-      <c r="H11" s="44" t="s">
+      <c r="H11" s="45" t="s">
         <v>28</v>
       </c>
     </row>
     <row r="12" spans="1:36" s="9" customFormat="1" ht="11.25">
-      <c r="B12" s="44"/>
-      <c r="C12" s="44"/>
-      <c r="D12" s="44"/>
-      <c r="E12" s="44"/>
-      <c r="F12" s="44"/>
-      <c r="G12" s="44"/>
-      <c r="H12" s="44"/>
+      <c r="B12" s="45"/>
+      <c r="C12" s="45"/>
+      <c r="D12" s="45"/>
+      <c r="E12" s="45"/>
+      <c r="F12" s="45"/>
+      <c r="G12" s="45"/>
+      <c r="H12" s="45"/>
     </row>
     <row r="13" spans="1:36" s="9" customFormat="1" ht="11.25">
-      <c r="B13" s="44"/>
-      <c r="C13" s="44"/>
-      <c r="D13" s="44"/>
-      <c r="E13" s="44"/>
-      <c r="F13" s="44"/>
-      <c r="G13" s="44"/>
-      <c r="H13" s="44"/>
+      <c r="B13" s="45"/>
+      <c r="C13" s="45"/>
+      <c r="D13" s="45"/>
+      <c r="E13" s="45"/>
+      <c r="F13" s="45"/>
+      <c r="G13" s="45"/>
+      <c r="H13" s="45"/>
     </row>
     <row r="14" spans="1:36" s="9" customFormat="1" ht="11.25">
-      <c r="B14" s="44"/>
-      <c r="C14" s="44"/>
-      <c r="D14" s="44"/>
-      <c r="E14" s="44"/>
-      <c r="F14" s="44"/>
-      <c r="G14" s="44"/>
-      <c r="H14" s="44"/>
+      <c r="B14" s="45"/>
+      <c r="C14" s="45"/>
+      <c r="D14" s="45"/>
+      <c r="E14" s="45"/>
+      <c r="F14" s="45"/>
+      <c r="G14" s="45"/>
+      <c r="H14" s="45"/>
     </row>
     <row r="15" spans="1:36" s="9" customFormat="1" ht="11.25">
-      <c r="B15" s="44"/>
-      <c r="C15" s="44"/>
-      <c r="D15" s="44"/>
-      <c r="E15" s="44"/>
-      <c r="F15" s="44"/>
-      <c r="G15" s="44"/>
-      <c r="H15" s="44"/>
+      <c r="B15" s="45"/>
+      <c r="C15" s="45"/>
+      <c r="D15" s="45"/>
+      <c r="E15" s="45"/>
+      <c r="F15" s="45"/>
+      <c r="G15" s="45"/>
+      <c r="H15" s="45"/>
     </row>
     <row r="16" spans="1:36" s="9" customFormat="1" ht="11.25">
-      <c r="B16" s="44"/>
-      <c r="C16" s="44"/>
-      <c r="D16" s="44"/>
-      <c r="E16" s="44"/>
-      <c r="F16" s="44"/>
-      <c r="G16" s="44"/>
-      <c r="H16" s="44"/>
+      <c r="B16" s="45"/>
+      <c r="C16" s="45"/>
+      <c r="D16" s="45"/>
+      <c r="E16" s="45"/>
+      <c r="F16" s="45"/>
+      <c r="G16" s="45"/>
+      <c r="H16" s="45"/>
     </row>
     <row r="17" spans="1:8" s="9" customFormat="1" ht="11.25">
-      <c r="B17" s="44"/>
-      <c r="C17" s="44"/>
-      <c r="D17" s="44"/>
-      <c r="E17" s="44"/>
-      <c r="F17" s="44"/>
-      <c r="G17" s="44"/>
-      <c r="H17" s="44"/>
+      <c r="B17" s="45"/>
+      <c r="C17" s="45"/>
+      <c r="D17" s="45"/>
+      <c r="E17" s="45"/>
+      <c r="F17" s="45"/>
+      <c r="G17" s="45"/>
+      <c r="H17" s="45"/>
     </row>
     <row r="18" spans="1:8" s="9" customFormat="1" ht="11.25">
-      <c r="B18" s="44"/>
-      <c r="C18" s="44"/>
-      <c r="D18" s="44"/>
-      <c r="E18" s="44"/>
-      <c r="F18" s="44"/>
-      <c r="G18" s="44"/>
-      <c r="H18" s="44"/>
+      <c r="B18" s="45"/>
+      <c r="C18" s="45"/>
+      <c r="D18" s="45"/>
+      <c r="E18" s="45"/>
+      <c r="F18" s="45"/>
+      <c r="G18" s="45"/>
+      <c r="H18" s="45"/>
     </row>
     <row r="19" spans="1:8" s="9" customFormat="1" ht="11.25">
-      <c r="B19" s="44"/>
-      <c r="C19" s="44"/>
-      <c r="D19" s="44"/>
-      <c r="E19" s="44"/>
-      <c r="F19" s="44"/>
-      <c r="G19" s="44"/>
-      <c r="H19" s="44"/>
+      <c r="B19" s="45"/>
+      <c r="C19" s="45"/>
+      <c r="D19" s="45"/>
+      <c r="E19" s="45"/>
+      <c r="F19" s="45"/>
+      <c r="G19" s="45"/>
+      <c r="H19" s="45"/>
     </row>
     <row r="20" spans="1:8" s="9" customFormat="1" ht="11.25">
-      <c r="B20" s="44"/>
-      <c r="C20" s="44"/>
-      <c r="D20" s="44"/>
-      <c r="E20" s="44"/>
-      <c r="F20" s="44"/>
-      <c r="G20" s="44"/>
-      <c r="H20" s="44"/>
+      <c r="B20" s="45"/>
+      <c r="C20" s="45"/>
+      <c r="D20" s="45"/>
+      <c r="E20" s="45"/>
+      <c r="F20" s="45"/>
+      <c r="G20" s="45"/>
+      <c r="H20" s="45"/>
     </row>
     <row r="21" spans="1:8" s="9" customFormat="1" ht="11.25" customHeight="1">
       <c r="B21" s="14"/>
@@ -3744,7 +3747,7 @@
       <c r="D21" s="14"/>
       <c r="E21" s="14"/>
       <c r="F21" s="14"/>
-      <c r="G21" s="44" t="s">
+      <c r="G21" s="45" t="s">
         <v>27</v>
       </c>
     </row>
@@ -3754,27 +3757,27 @@
       <c r="D22" s="14"/>
       <c r="E22" s="14"/>
       <c r="F22" s="14"/>
-      <c r="G22" s="44"/>
+      <c r="G22" s="45"/>
     </row>
     <row r="23" spans="1:8" s="9" customFormat="1" ht="11.25">
-      <c r="A23" s="45" t="s">
+      <c r="A23" s="46" t="s">
         <v>49</v>
       </c>
-      <c r="B23" s="45"/>
+      <c r="B23" s="46"/>
       <c r="C23" s="14"/>
       <c r="D23" s="14"/>
       <c r="E23" s="14"/>
       <c r="F23" s="14"/>
-      <c r="G23" s="44"/>
+      <c r="G23" s="45"/>
     </row>
     <row r="24" spans="1:8" s="9" customFormat="1" ht="11.25">
-      <c r="A24" s="45"/>
-      <c r="B24" s="45"/>
+      <c r="A24" s="46"/>
+      <c r="B24" s="46"/>
       <c r="C24" s="14"/>
       <c r="D24" s="14"/>
       <c r="E24" s="14"/>
       <c r="F24" s="14"/>
-      <c r="G24" s="44"/>
+      <c r="G24" s="45"/>
     </row>
     <row r="25" spans="1:8" s="9" customFormat="1" ht="15.75" customHeight="1">
       <c r="A25" s="20" t="s">
@@ -3787,7 +3790,7 @@
       <c r="D25" s="14"/>
       <c r="E25" s="14"/>
       <c r="F25" s="14"/>
-      <c r="G25" s="44"/>
+      <c r="G25" s="45"/>
     </row>
     <row r="26" spans="1:8" s="9" customFormat="1" ht="11.25">
       <c r="A26" s="17" t="s">
@@ -3800,7 +3803,7 @@
       <c r="D26" s="14"/>
       <c r="E26" s="14"/>
       <c r="F26" s="14"/>
-      <c r="G26" s="44"/>
+      <c r="G26" s="45"/>
     </row>
     <row r="27" spans="1:8" s="7" customFormat="1" ht="12">
       <c r="A27" s="17" t="s">
@@ -3813,7 +3816,7 @@
       <c r="D27" s="15"/>
       <c r="E27" s="15"/>
       <c r="F27" s="15"/>
-      <c r="G27" s="44"/>
+      <c r="G27" s="45"/>
     </row>
     <row r="28" spans="1:8" s="7" customFormat="1" ht="12">
       <c r="A28" s="17" t="s">
@@ -3826,7 +3829,7 @@
       <c r="D28" s="15"/>
       <c r="E28" s="15"/>
       <c r="F28" s="15"/>
-      <c r="G28" s="44"/>
+      <c r="G28" s="45"/>
     </row>
     <row r="29" spans="1:8" s="7" customFormat="1" ht="12">
       <c r="A29" s="17" t="s">
@@ -3839,7 +3842,7 @@
       <c r="D29" s="15"/>
       <c r="E29" s="15"/>
       <c r="F29" s="15"/>
-      <c r="G29" s="44"/>
+      <c r="G29" s="45"/>
     </row>
     <row r="30" spans="1:8" s="7" customFormat="1" ht="12">
       <c r="A30" s="17" t="s">
@@ -3852,7 +3855,7 @@
       <c r="D30" s="15"/>
       <c r="E30" s="15"/>
       <c r="F30" s="15"/>
-      <c r="G30" s="44"/>
+      <c r="G30" s="45"/>
     </row>
     <row r="31" spans="1:8" s="7" customFormat="1" ht="12">
       <c r="A31" s="17" t="s">
@@ -3865,7 +3868,7 @@
       <c r="D31" s="15"/>
       <c r="E31" s="15"/>
       <c r="F31" s="15"/>
-      <c r="G31" s="44"/>
+      <c r="G31" s="45"/>
     </row>
     <row r="32" spans="1:8" s="7" customFormat="1" ht="12">
       <c r="A32" s="17" t="s">
@@ -3874,7 +3877,7 @@
       <c r="B32" s="19" t="s">
         <v>198</v>
       </c>
-      <c r="G32" s="44"/>
+      <c r="G32" s="45"/>
     </row>
     <row r="33" spans="1:2" s="7" customFormat="1" ht="12">
       <c r="A33" s="17" t="s">
@@ -4059,7 +4062,9 @@
   </sheetPr>
   <dimension ref="A2:P192"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView topLeftCell="I1" workbookViewId="0">
+      <selection activeCell="K3" sqref="K3"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
@@ -4068,7 +4073,9 @@
     <col min="3" max="3" width="23.7109375" customWidth="1"/>
     <col min="4" max="4" width="28.42578125" customWidth="1"/>
     <col min="5" max="5" width="27.85546875" customWidth="1"/>
-    <col min="6" max="16" width="23.5703125" customWidth="1"/>
+    <col min="6" max="13" width="23.5703125" customWidth="1"/>
+    <col min="14" max="14" width="26.5703125" customWidth="1"/>
+    <col min="15" max="16" width="23.5703125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="1:16" s="3" customFormat="1" ht="21">
@@ -4696,228 +4703,230 @@
       <c r="P18" s="21"/>
     </row>
     <row r="19" spans="1:16" s="9" customFormat="1" ht="11.25" customHeight="1">
-      <c r="A19" s="44"/>
-      <c r="B19" s="44" t="s">
+      <c r="A19" s="45"/>
+      <c r="B19" s="45" t="s">
         <v>849</v>
       </c>
-      <c r="C19" s="44" t="s">
+      <c r="C19" s="45" t="s">
         <v>67</v>
       </c>
-      <c r="D19" s="44" t="s">
+      <c r="D19" s="45" t="s">
         <v>370</v>
       </c>
-      <c r="E19" s="44" t="s">
+      <c r="E19" s="45" t="s">
         <v>414</v>
       </c>
-      <c r="F19" s="44" t="s">
+      <c r="F19" s="45" t="s">
         <v>412</v>
       </c>
-      <c r="G19" s="44" t="s">
+      <c r="G19" s="45" t="s">
         <v>413</v>
       </c>
-      <c r="H19" s="44" t="s">
+      <c r="H19" s="45" t="s">
         <v>441</v>
       </c>
-      <c r="I19" s="44" t="s">
+      <c r="I19" s="45" t="s">
         <v>442</v>
       </c>
-      <c r="J19" s="44" t="s">
+      <c r="J19" s="45" t="s">
         <v>443</v>
       </c>
-      <c r="K19" s="44" t="s">
+      <c r="K19" s="45" t="s">
         <v>371</v>
       </c>
-      <c r="L19" s="46" t="s">
+      <c r="L19" s="47" t="s">
         <v>440</v>
       </c>
-      <c r="M19" s="44" t="s">
+      <c r="M19" s="45" t="s">
         <v>439</v>
       </c>
-      <c r="N19" s="44"/>
-      <c r="O19" s="44"/>
-      <c r="P19" s="44" t="s">
+      <c r="N19" s="45" t="s">
+        <v>893</v>
+      </c>
+      <c r="O19" s="45"/>
+      <c r="P19" s="45" t="s">
         <v>843</v>
       </c>
     </row>
     <row r="20" spans="1:16" s="9" customFormat="1" ht="11.25">
-      <c r="A20" s="44"/>
-      <c r="B20" s="44"/>
-      <c r="C20" s="44"/>
-      <c r="D20" s="44"/>
-      <c r="E20" s="44"/>
-      <c r="F20" s="44"/>
-      <c r="G20" s="44"/>
-      <c r="H20" s="44"/>
-      <c r="I20" s="44"/>
-      <c r="J20" s="44"/>
-      <c r="K20" s="44"/>
-      <c r="L20" s="46"/>
-      <c r="M20" s="44"/>
-      <c r="N20" s="44"/>
-      <c r="O20" s="44"/>
-      <c r="P20" s="44"/>
+      <c r="A20" s="45"/>
+      <c r="B20" s="45"/>
+      <c r="C20" s="45"/>
+      <c r="D20" s="45"/>
+      <c r="E20" s="45"/>
+      <c r="F20" s="45"/>
+      <c r="G20" s="45"/>
+      <c r="H20" s="45"/>
+      <c r="I20" s="45"/>
+      <c r="J20" s="45"/>
+      <c r="K20" s="45"/>
+      <c r="L20" s="47"/>
+      <c r="M20" s="45"/>
+      <c r="N20" s="45"/>
+      <c r="O20" s="45"/>
+      <c r="P20" s="45"/>
     </row>
     <row r="21" spans="1:16" s="9" customFormat="1" ht="11.25">
-      <c r="A21" s="44"/>
-      <c r="B21" s="44"/>
-      <c r="C21" s="44"/>
-      <c r="D21" s="44"/>
-      <c r="E21" s="44"/>
-      <c r="F21" s="44"/>
-      <c r="G21" s="44"/>
-      <c r="H21" s="44"/>
-      <c r="I21" s="44"/>
-      <c r="J21" s="44"/>
-      <c r="K21" s="44"/>
-      <c r="L21" s="46"/>
-      <c r="M21" s="44"/>
-      <c r="N21" s="44"/>
-      <c r="O21" s="44"/>
-      <c r="P21" s="44"/>
+      <c r="A21" s="45"/>
+      <c r="B21" s="45"/>
+      <c r="C21" s="45"/>
+      <c r="D21" s="45"/>
+      <c r="E21" s="45"/>
+      <c r="F21" s="45"/>
+      <c r="G21" s="45"/>
+      <c r="H21" s="45"/>
+      <c r="I21" s="45"/>
+      <c r="J21" s="45"/>
+      <c r="K21" s="45"/>
+      <c r="L21" s="47"/>
+      <c r="M21" s="45"/>
+      <c r="N21" s="45"/>
+      <c r="O21" s="45"/>
+      <c r="P21" s="45"/>
     </row>
     <row r="22" spans="1:16" s="9" customFormat="1" ht="11.25">
-      <c r="A22" s="44"/>
-      <c r="B22" s="44"/>
-      <c r="C22" s="44"/>
-      <c r="D22" s="44"/>
-      <c r="E22" s="44"/>
-      <c r="F22" s="44"/>
-      <c r="G22" s="44"/>
-      <c r="H22" s="44"/>
-      <c r="I22" s="44"/>
-      <c r="J22" s="44"/>
-      <c r="K22" s="44"/>
-      <c r="L22" s="46"/>
-      <c r="M22" s="44"/>
-      <c r="N22" s="44"/>
-      <c r="O22" s="44"/>
-      <c r="P22" s="44"/>
+      <c r="A22" s="45"/>
+      <c r="B22" s="45"/>
+      <c r="C22" s="45"/>
+      <c r="D22" s="45"/>
+      <c r="E22" s="45"/>
+      <c r="F22" s="45"/>
+      <c r="G22" s="45"/>
+      <c r="H22" s="45"/>
+      <c r="I22" s="45"/>
+      <c r="J22" s="45"/>
+      <c r="K22" s="45"/>
+      <c r="L22" s="47"/>
+      <c r="M22" s="45"/>
+      <c r="N22" s="45"/>
+      <c r="O22" s="45"/>
+      <c r="P22" s="45"/>
     </row>
     <row r="23" spans="1:16" s="9" customFormat="1" ht="11.25">
-      <c r="A23" s="44"/>
-      <c r="B23" s="44"/>
-      <c r="C23" s="44"/>
-      <c r="D23" s="44"/>
-      <c r="E23" s="44"/>
-      <c r="F23" s="44"/>
-      <c r="G23" s="44"/>
-      <c r="H23" s="44"/>
-      <c r="I23" s="44"/>
-      <c r="J23" s="44"/>
-      <c r="K23" s="44"/>
-      <c r="L23" s="46"/>
-      <c r="M23" s="44"/>
-      <c r="N23" s="44"/>
-      <c r="O23" s="44"/>
-      <c r="P23" s="44"/>
+      <c r="A23" s="45"/>
+      <c r="B23" s="45"/>
+      <c r="C23" s="45"/>
+      <c r="D23" s="45"/>
+      <c r="E23" s="45"/>
+      <c r="F23" s="45"/>
+      <c r="G23" s="45"/>
+      <c r="H23" s="45"/>
+      <c r="I23" s="45"/>
+      <c r="J23" s="45"/>
+      <c r="K23" s="45"/>
+      <c r="L23" s="47"/>
+      <c r="M23" s="45"/>
+      <c r="N23" s="45"/>
+      <c r="O23" s="45"/>
+      <c r="P23" s="45"/>
     </row>
     <row r="24" spans="1:16" s="9" customFormat="1" ht="11.25">
-      <c r="A24" s="44"/>
-      <c r="B24" s="44"/>
-      <c r="C24" s="44"/>
-      <c r="D24" s="44"/>
-      <c r="E24" s="44"/>
-      <c r="F24" s="44"/>
-      <c r="G24" s="44"/>
-      <c r="H24" s="44"/>
-      <c r="I24" s="44"/>
-      <c r="J24" s="44"/>
-      <c r="K24" s="44"/>
-      <c r="L24" s="46"/>
-      <c r="M24" s="44"/>
-      <c r="N24" s="44"/>
-      <c r="O24" s="44"/>
-      <c r="P24" s="44"/>
+      <c r="A24" s="45"/>
+      <c r="B24" s="45"/>
+      <c r="C24" s="45"/>
+      <c r="D24" s="45"/>
+      <c r="E24" s="45"/>
+      <c r="F24" s="45"/>
+      <c r="G24" s="45"/>
+      <c r="H24" s="45"/>
+      <c r="I24" s="45"/>
+      <c r="J24" s="45"/>
+      <c r="K24" s="45"/>
+      <c r="L24" s="47"/>
+      <c r="M24" s="45"/>
+      <c r="N24" s="45"/>
+      <c r="O24" s="45"/>
+      <c r="P24" s="45"/>
     </row>
     <row r="25" spans="1:16" s="9" customFormat="1" ht="11.25">
-      <c r="A25" s="44"/>
-      <c r="B25" s="44"/>
-      <c r="C25" s="44"/>
-      <c r="D25" s="44"/>
-      <c r="E25" s="44"/>
-      <c r="F25" s="44"/>
-      <c r="G25" s="44"/>
-      <c r="H25" s="44"/>
-      <c r="I25" s="44"/>
-      <c r="J25" s="44"/>
-      <c r="K25" s="44"/>
-      <c r="L25" s="46"/>
-      <c r="M25" s="44"/>
-      <c r="N25" s="44"/>
-      <c r="O25" s="44"/>
-      <c r="P25" s="44"/>
+      <c r="A25" s="45"/>
+      <c r="B25" s="45"/>
+      <c r="C25" s="45"/>
+      <c r="D25" s="45"/>
+      <c r="E25" s="45"/>
+      <c r="F25" s="45"/>
+      <c r="G25" s="45"/>
+      <c r="H25" s="45"/>
+      <c r="I25" s="45"/>
+      <c r="J25" s="45"/>
+      <c r="K25" s="45"/>
+      <c r="L25" s="47"/>
+      <c r="M25" s="45"/>
+      <c r="N25" s="45"/>
+      <c r="O25" s="45"/>
+      <c r="P25" s="45"/>
     </row>
     <row r="26" spans="1:16" s="9" customFormat="1" ht="11.25">
-      <c r="A26" s="44"/>
-      <c r="B26" s="44"/>
-      <c r="C26" s="44"/>
-      <c r="D26" s="44"/>
-      <c r="E26" s="44"/>
-      <c r="F26" s="44"/>
-      <c r="G26" s="44"/>
-      <c r="H26" s="44"/>
-      <c r="I26" s="44"/>
-      <c r="J26" s="44"/>
-      <c r="K26" s="44"/>
-      <c r="L26" s="46"/>
-      <c r="M26" s="44"/>
-      <c r="N26" s="44"/>
-      <c r="O26" s="44"/>
-      <c r="P26" s="44"/>
+      <c r="A26" s="45"/>
+      <c r="B26" s="45"/>
+      <c r="C26" s="45"/>
+      <c r="D26" s="45"/>
+      <c r="E26" s="45"/>
+      <c r="F26" s="45"/>
+      <c r="G26" s="45"/>
+      <c r="H26" s="45"/>
+      <c r="I26" s="45"/>
+      <c r="J26" s="45"/>
+      <c r="K26" s="45"/>
+      <c r="L26" s="47"/>
+      <c r="M26" s="45"/>
+      <c r="N26" s="45"/>
+      <c r="O26" s="45"/>
+      <c r="P26" s="45"/>
     </row>
     <row r="27" spans="1:16" s="9" customFormat="1" ht="11.25">
-      <c r="A27" s="44"/>
-      <c r="B27" s="44"/>
-      <c r="C27" s="44"/>
-      <c r="D27" s="44"/>
-      <c r="E27" s="44"/>
-      <c r="F27" s="44"/>
-      <c r="G27" s="44"/>
-      <c r="H27" s="44"/>
-      <c r="I27" s="44"/>
-      <c r="J27" s="44"/>
-      <c r="K27" s="44"/>
-      <c r="L27" s="46"/>
-      <c r="M27" s="44"/>
-      <c r="N27" s="44"/>
-      <c r="O27" s="44"/>
-      <c r="P27" s="44"/>
+      <c r="A27" s="45"/>
+      <c r="B27" s="45"/>
+      <c r="C27" s="45"/>
+      <c r="D27" s="45"/>
+      <c r="E27" s="45"/>
+      <c r="F27" s="45"/>
+      <c r="G27" s="45"/>
+      <c r="H27" s="45"/>
+      <c r="I27" s="45"/>
+      <c r="J27" s="45"/>
+      <c r="K27" s="45"/>
+      <c r="L27" s="47"/>
+      <c r="M27" s="45"/>
+      <c r="N27" s="45"/>
+      <c r="O27" s="45"/>
+      <c r="P27" s="45"/>
     </row>
     <row r="28" spans="1:16" s="9" customFormat="1" ht="11.25">
-      <c r="A28" s="44"/>
-      <c r="B28" s="44"/>
-      <c r="C28" s="44"/>
-      <c r="D28" s="44"/>
-      <c r="E28" s="44"/>
-      <c r="F28" s="44"/>
-      <c r="G28" s="44"/>
-      <c r="H28" s="44"/>
-      <c r="I28" s="44"/>
-      <c r="J28" s="44"/>
-      <c r="K28" s="44"/>
-      <c r="L28" s="46"/>
-      <c r="M28" s="44"/>
-      <c r="N28" s="44"/>
-      <c r="O28" s="44"/>
-      <c r="P28" s="44"/>
+      <c r="A28" s="45"/>
+      <c r="B28" s="45"/>
+      <c r="C28" s="45"/>
+      <c r="D28" s="45"/>
+      <c r="E28" s="45"/>
+      <c r="F28" s="45"/>
+      <c r="G28" s="45"/>
+      <c r="H28" s="45"/>
+      <c r="I28" s="45"/>
+      <c r="J28" s="45"/>
+      <c r="K28" s="45"/>
+      <c r="L28" s="47"/>
+      <c r="M28" s="45"/>
+      <c r="N28" s="45"/>
+      <c r="O28" s="45"/>
+      <c r="P28" s="45"/>
     </row>
     <row r="29" spans="1:16" s="9" customFormat="1" ht="11.25" customHeight="1"/>
     <row r="30" spans="1:16" s="9" customFormat="1" ht="11.25" customHeight="1">
-      <c r="P30" s="44" t="s">
+      <c r="P30" s="45" t="s">
         <v>844</v>
       </c>
     </row>
     <row r="31" spans="1:16" s="9" customFormat="1" ht="11.25">
-      <c r="A31" s="45" t="s">
+      <c r="A31" s="46" t="s">
         <v>49</v>
       </c>
-      <c r="B31" s="45"/>
-      <c r="P31" s="44"/>
+      <c r="B31" s="46"/>
+      <c r="P31" s="45"/>
     </row>
     <row r="32" spans="1:16" s="9" customFormat="1" ht="11.25">
-      <c r="A32" s="45"/>
-      <c r="B32" s="45"/>
-      <c r="P32" s="44"/>
+      <c r="A32" s="46"/>
+      <c r="B32" s="46"/>
+      <c r="P32" s="45"/>
     </row>
     <row r="33" spans="1:16" s="9" customFormat="1" ht="15.75" customHeight="1">
       <c r="A33" s="20" t="s">
@@ -4926,7 +4935,7 @@
       <c r="B33" s="20" t="s">
         <v>48</v>
       </c>
-      <c r="P33" s="44"/>
+      <c r="P33" s="45"/>
     </row>
     <row r="34" spans="1:16" s="9" customFormat="1" ht="11.25">
       <c r="A34" s="17" t="s">
@@ -4935,7 +4944,7 @@
       <c r="B34" s="18" t="s">
         <v>41</v>
       </c>
-      <c r="P34" s="44"/>
+      <c r="P34" s="45"/>
     </row>
     <row r="35" spans="1:16" s="7" customFormat="1" ht="12">
       <c r="A35" s="17" t="s">
@@ -4944,7 +4953,7 @@
       <c r="B35" s="18" t="s">
         <v>42</v>
       </c>
-      <c r="P35" s="44"/>
+      <c r="P35" s="45"/>
     </row>
     <row r="36" spans="1:16" s="7" customFormat="1" ht="12">
       <c r="A36" s="17" t="s">
@@ -4953,7 +4962,7 @@
       <c r="B36" s="18" t="s">
         <v>201</v>
       </c>
-      <c r="P36" s="44"/>
+      <c r="P36" s="45"/>
     </row>
     <row r="37" spans="1:16" s="7" customFormat="1" ht="12">
       <c r="A37" s="17" t="s">
@@ -4962,7 +4971,7 @@
       <c r="B37" s="19" t="s">
         <v>43</v>
       </c>
-      <c r="P37" s="44"/>
+      <c r="P37" s="45"/>
     </row>
     <row r="38" spans="1:16" s="7" customFormat="1" ht="12">
       <c r="A38" s="17" t="s">
@@ -4971,7 +4980,7 @@
       <c r="B38" s="19" t="s">
         <v>44</v>
       </c>
-      <c r="P38" s="44"/>
+      <c r="P38" s="45"/>
     </row>
     <row r="39" spans="1:16" s="7" customFormat="1" ht="12">
       <c r="A39" s="17" t="s">
@@ -4980,7 +4989,7 @@
       <c r="B39" s="19" t="s">
         <v>45</v>
       </c>
-      <c r="P39" s="44"/>
+      <c r="P39" s="45"/>
     </row>
     <row r="40" spans="1:16" s="7" customFormat="1" ht="12">
       <c r="A40" s="17" t="s">
@@ -5159,6 +5168,10 @@
     </row>
   </sheetData>
   <mergeCells count="18">
+    <mergeCell ref="J19:J28"/>
+    <mergeCell ref="N19:N28"/>
+    <mergeCell ref="E19:E28"/>
+    <mergeCell ref="M19:M28"/>
     <mergeCell ref="A19:A28"/>
     <mergeCell ref="L19:L28"/>
     <mergeCell ref="P30:P39"/>
@@ -5173,10 +5186,6 @@
     <mergeCell ref="H19:H28"/>
     <mergeCell ref="F19:F28"/>
     <mergeCell ref="I19:I28"/>
-    <mergeCell ref="J19:J28"/>
-    <mergeCell ref="N19:N28"/>
-    <mergeCell ref="E19:E28"/>
-    <mergeCell ref="M19:M28"/>
   </mergeCells>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -5514,158 +5523,158 @@
       <c r="G17" s="21"/>
     </row>
     <row r="18" spans="1:10" s="9" customFormat="1" ht="11.25" customHeight="1">
-      <c r="A18" s="44"/>
-      <c r="B18" s="44" t="s">
+      <c r="A18" s="45"/>
+      <c r="B18" s="45" t="s">
         <v>888</v>
       </c>
-      <c r="C18" s="44" t="s">
+      <c r="C18" s="45" t="s">
         <v>888</v>
       </c>
-      <c r="D18" s="44" t="s">
+      <c r="D18" s="45" t="s">
         <v>864</v>
       </c>
-      <c r="E18" s="44" t="s">
+      <c r="E18" s="45" t="s">
         <v>889</v>
       </c>
-      <c r="F18" s="44" t="s">
+      <c r="F18" s="45" t="s">
         <v>873</v>
       </c>
-      <c r="G18" s="44" t="s">
+      <c r="G18" s="45" t="s">
         <v>890</v>
       </c>
-      <c r="H18" s="44" t="s">
+      <c r="H18" s="45" t="s">
         <v>891</v>
       </c>
-      <c r="I18" s="44" t="s">
+      <c r="I18" s="45" t="s">
         <v>887</v>
       </c>
-      <c r="J18" s="44"/>
+      <c r="J18" s="45"/>
     </row>
     <row r="19" spans="1:10" s="9" customFormat="1" ht="11.25">
-      <c r="A19" s="44"/>
-      <c r="B19" s="44"/>
-      <c r="C19" s="44"/>
-      <c r="D19" s="44"/>
-      <c r="E19" s="44"/>
-      <c r="F19" s="44"/>
-      <c r="G19" s="44"/>
-      <c r="H19" s="44"/>
-      <c r="I19" s="44"/>
-      <c r="J19" s="44"/>
+      <c r="A19" s="45"/>
+      <c r="B19" s="45"/>
+      <c r="C19" s="45"/>
+      <c r="D19" s="45"/>
+      <c r="E19" s="45"/>
+      <c r="F19" s="45"/>
+      <c r="G19" s="45"/>
+      <c r="H19" s="45"/>
+      <c r="I19" s="45"/>
+      <c r="J19" s="45"/>
     </row>
     <row r="20" spans="1:10" s="9" customFormat="1" ht="11.25">
-      <c r="A20" s="44"/>
-      <c r="B20" s="44"/>
-      <c r="C20" s="44"/>
-      <c r="D20" s="44"/>
-      <c r="E20" s="44"/>
-      <c r="F20" s="44"/>
-      <c r="G20" s="44"/>
-      <c r="H20" s="44"/>
-      <c r="I20" s="44"/>
-      <c r="J20" s="44"/>
+      <c r="A20" s="45"/>
+      <c r="B20" s="45"/>
+      <c r="C20" s="45"/>
+      <c r="D20" s="45"/>
+      <c r="E20" s="45"/>
+      <c r="F20" s="45"/>
+      <c r="G20" s="45"/>
+      <c r="H20" s="45"/>
+      <c r="I20" s="45"/>
+      <c r="J20" s="45"/>
     </row>
     <row r="21" spans="1:10" s="9" customFormat="1" ht="11.25">
-      <c r="A21" s="44"/>
-      <c r="B21" s="44"/>
-      <c r="C21" s="44"/>
-      <c r="D21" s="44"/>
-      <c r="E21" s="44"/>
-      <c r="F21" s="44"/>
-      <c r="G21" s="44"/>
-      <c r="H21" s="44"/>
-      <c r="I21" s="44"/>
-      <c r="J21" s="44"/>
+      <c r="A21" s="45"/>
+      <c r="B21" s="45"/>
+      <c r="C21" s="45"/>
+      <c r="D21" s="45"/>
+      <c r="E21" s="45"/>
+      <c r="F21" s="45"/>
+      <c r="G21" s="45"/>
+      <c r="H21" s="45"/>
+      <c r="I21" s="45"/>
+      <c r="J21" s="45"/>
     </row>
     <row r="22" spans="1:10" s="9" customFormat="1" ht="11.25">
-      <c r="A22" s="44"/>
-      <c r="B22" s="44"/>
-      <c r="C22" s="44"/>
-      <c r="D22" s="44"/>
-      <c r="E22" s="44"/>
-      <c r="F22" s="44"/>
-      <c r="G22" s="44"/>
-      <c r="H22" s="44"/>
-      <c r="I22" s="44"/>
-      <c r="J22" s="44"/>
+      <c r="A22" s="45"/>
+      <c r="B22" s="45"/>
+      <c r="C22" s="45"/>
+      <c r="D22" s="45"/>
+      <c r="E22" s="45"/>
+      <c r="F22" s="45"/>
+      <c r="G22" s="45"/>
+      <c r="H22" s="45"/>
+      <c r="I22" s="45"/>
+      <c r="J22" s="45"/>
     </row>
     <row r="23" spans="1:10" s="9" customFormat="1" ht="11.25">
-      <c r="A23" s="44"/>
-      <c r="B23" s="44"/>
-      <c r="C23" s="44"/>
-      <c r="D23" s="44"/>
-      <c r="E23" s="44"/>
-      <c r="F23" s="44"/>
-      <c r="G23" s="44"/>
-      <c r="H23" s="44"/>
-      <c r="I23" s="44"/>
-      <c r="J23" s="44"/>
+      <c r="A23" s="45"/>
+      <c r="B23" s="45"/>
+      <c r="C23" s="45"/>
+      <c r="D23" s="45"/>
+      <c r="E23" s="45"/>
+      <c r="F23" s="45"/>
+      <c r="G23" s="45"/>
+      <c r="H23" s="45"/>
+      <c r="I23" s="45"/>
+      <c r="J23" s="45"/>
     </row>
     <row r="24" spans="1:10" s="9" customFormat="1" ht="11.25">
-      <c r="A24" s="44"/>
-      <c r="B24" s="44"/>
-      <c r="C24" s="44"/>
-      <c r="D24" s="44"/>
-      <c r="E24" s="44"/>
-      <c r="F24" s="44"/>
-      <c r="G24" s="44"/>
-      <c r="H24" s="44"/>
-      <c r="I24" s="44"/>
-      <c r="J24" s="44"/>
+      <c r="A24" s="45"/>
+      <c r="B24" s="45"/>
+      <c r="C24" s="45"/>
+      <c r="D24" s="45"/>
+      <c r="E24" s="45"/>
+      <c r="F24" s="45"/>
+      <c r="G24" s="45"/>
+      <c r="H24" s="45"/>
+      <c r="I24" s="45"/>
+      <c r="J24" s="45"/>
     </row>
     <row r="25" spans="1:10" s="9" customFormat="1" ht="11.25">
-      <c r="A25" s="44"/>
-      <c r="B25" s="44"/>
-      <c r="C25" s="44"/>
-      <c r="D25" s="44"/>
-      <c r="E25" s="44"/>
-      <c r="F25" s="44"/>
-      <c r="G25" s="44"/>
-      <c r="H25" s="44"/>
-      <c r="I25" s="44"/>
-      <c r="J25" s="44"/>
+      <c r="A25" s="45"/>
+      <c r="B25" s="45"/>
+      <c r="C25" s="45"/>
+      <c r="D25" s="45"/>
+      <c r="E25" s="45"/>
+      <c r="F25" s="45"/>
+      <c r="G25" s="45"/>
+      <c r="H25" s="45"/>
+      <c r="I25" s="45"/>
+      <c r="J25" s="45"/>
     </row>
     <row r="26" spans="1:10" s="9" customFormat="1" ht="11.25">
-      <c r="A26" s="44"/>
-      <c r="B26" s="44"/>
-      <c r="C26" s="44"/>
-      <c r="D26" s="44"/>
-      <c r="E26" s="44"/>
-      <c r="F26" s="44"/>
-      <c r="G26" s="44"/>
-      <c r="H26" s="44"/>
-      <c r="I26" s="44"/>
-      <c r="J26" s="44"/>
+      <c r="A26" s="45"/>
+      <c r="B26" s="45"/>
+      <c r="C26" s="45"/>
+      <c r="D26" s="45"/>
+      <c r="E26" s="45"/>
+      <c r="F26" s="45"/>
+      <c r="G26" s="45"/>
+      <c r="H26" s="45"/>
+      <c r="I26" s="45"/>
+      <c r="J26" s="45"/>
     </row>
     <row r="27" spans="1:10" s="9" customFormat="1" ht="11.25">
-      <c r="A27" s="44"/>
-      <c r="B27" s="44"/>
-      <c r="C27" s="44"/>
-      <c r="D27" s="44"/>
-      <c r="E27" s="44"/>
-      <c r="F27" s="44"/>
-      <c r="G27" s="44"/>
-      <c r="H27" s="44"/>
-      <c r="I27" s="44"/>
-      <c r="J27" s="44"/>
+      <c r="A27" s="45"/>
+      <c r="B27" s="45"/>
+      <c r="C27" s="45"/>
+      <c r="D27" s="45"/>
+      <c r="E27" s="45"/>
+      <c r="F27" s="45"/>
+      <c r="G27" s="45"/>
+      <c r="H27" s="45"/>
+      <c r="I27" s="45"/>
+      <c r="J27" s="45"/>
     </row>
     <row r="28" spans="1:10" s="9" customFormat="1" ht="11.25" customHeight="1"/>
     <row r="29" spans="1:10" s="9" customFormat="1" ht="11.25" customHeight="1">
-      <c r="F29" s="44" t="s">
+      <c r="F29" s="45" t="s">
         <v>874</v>
       </c>
     </row>
     <row r="30" spans="1:10" s="9" customFormat="1" ht="11.25">
-      <c r="A30" s="45" t="s">
+      <c r="A30" s="46" t="s">
         <v>49</v>
       </c>
-      <c r="B30" s="45"/>
-      <c r="F30" s="44"/>
+      <c r="B30" s="46"/>
+      <c r="F30" s="45"/>
     </row>
     <row r="31" spans="1:10" s="9" customFormat="1" ht="11.25">
-      <c r="A31" s="45"/>
-      <c r="B31" s="45"/>
-      <c r="F31" s="44"/>
+      <c r="A31" s="46"/>
+      <c r="B31" s="46"/>
+      <c r="F31" s="45"/>
     </row>
     <row r="32" spans="1:10" s="9" customFormat="1" ht="15.75" customHeight="1">
       <c r="A32" s="20" t="s">
@@ -5674,7 +5683,7 @@
       <c r="B32" s="20" t="s">
         <v>48</v>
       </c>
-      <c r="F32" s="44"/>
+      <c r="F32" s="45"/>
     </row>
     <row r="33" spans="1:10" s="9" customFormat="1" ht="11.25">
       <c r="A33" s="17" t="s">
@@ -5683,7 +5692,7 @@
       <c r="B33" s="18" t="s">
         <v>41</v>
       </c>
-      <c r="F33" s="44"/>
+      <c r="F33" s="45"/>
     </row>
     <row r="34" spans="1:10" s="7" customFormat="1" ht="12">
       <c r="A34" s="17" t="s">
@@ -5693,7 +5702,7 @@
         <v>42</v>
       </c>
       <c r="E34" s="9"/>
-      <c r="F34" s="44"/>
+      <c r="F34" s="45"/>
     </row>
     <row r="35" spans="1:10" s="7" customFormat="1" ht="12">
       <c r="A35" s="17" t="s">
@@ -5703,7 +5712,7 @@
         <v>201</v>
       </c>
       <c r="E35" s="9"/>
-      <c r="F35" s="44"/>
+      <c r="F35" s="45"/>
     </row>
     <row r="36" spans="1:10" s="7" customFormat="1" ht="12">
       <c r="A36" s="17" t="s">
@@ -5713,7 +5722,7 @@
         <v>43</v>
       </c>
       <c r="E36" s="9"/>
-      <c r="F36" s="44"/>
+      <c r="F36" s="45"/>
     </row>
     <row r="37" spans="1:10" s="7" customFormat="1" ht="12">
       <c r="A37" s="17" t="s">
@@ -5723,7 +5732,7 @@
         <v>44</v>
       </c>
       <c r="E37" s="9"/>
-      <c r="F37" s="44"/>
+      <c r="F37" s="45"/>
     </row>
     <row r="38" spans="1:10" s="7" customFormat="1" ht="12">
       <c r="A38" s="17" t="s">
@@ -5733,7 +5742,7 @@
         <v>45</v>
       </c>
       <c r="E38" s="9"/>
-      <c r="F38" s="44"/>
+      <c r="F38" s="45"/>
     </row>
     <row r="39" spans="1:10" s="7" customFormat="1" ht="12">
       <c r="A39" s="17" t="s">
@@ -5778,7 +5787,7 @@
       <c r="G46" s="7">
         <v>63</v>
       </c>
-      <c r="H46" s="56">
+      <c r="H46" s="44">
         <v>28844308</v>
       </c>
       <c r="I46" s="7" t="s">
@@ -5842,7 +5851,7 @@
       <c r="G48" s="7">
         <v>1</v>
       </c>
-      <c r="H48" s="56">
+      <c r="H48" s="44">
         <v>457846</v>
       </c>
       <c r="I48" s="7" t="s">
@@ -5938,7 +5947,7 @@
       <c r="G51" s="7">
         <v>515</v>
       </c>
-      <c r="H51" s="56">
+      <c r="H51" s="44">
         <v>239475</v>
       </c>
       <c r="I51" s="7" t="s">
@@ -6397,10 +6406,10 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:27" ht="21">
-      <c r="A2" s="49" t="s">
+      <c r="A2" s="50" t="s">
         <v>14</v>
       </c>
-      <c r="B2" s="49"/>
+      <c r="B2" s="50"/>
       <c r="C2" s="1" t="s">
         <v>465</v>
       </c>
@@ -6410,10 +6419,10 @@
       <c r="AA2" s="3"/>
     </row>
     <row r="3" spans="1:27" ht="21">
-      <c r="A3" s="49" t="s">
+      <c r="A3" s="50" t="s">
         <v>466</v>
       </c>
-      <c r="B3" s="49"/>
+      <c r="B3" s="50"/>
       <c r="C3" s="1" t="s">
         <v>467</v>
       </c>
@@ -6633,122 +6642,122 @@
       <c r="H14" s="2"/>
     </row>
     <row r="15" spans="1:27" ht="11.25" customHeight="1">
-      <c r="A15" s="50" t="s">
+      <c r="A15" s="51" t="s">
         <v>846</v>
       </c>
-      <c r="B15" s="51"/>
-      <c r="C15" s="51"/>
-      <c r="D15" s="50" t="s">
+      <c r="B15" s="52"/>
+      <c r="C15" s="52"/>
+      <c r="D15" s="51" t="s">
         <v>845</v>
       </c>
-      <c r="E15" s="50"/>
-      <c r="F15" s="50" t="s">
+      <c r="E15" s="51"/>
+      <c r="F15" s="51" t="s">
         <v>847</v>
       </c>
       <c r="G15" s="2"/>
       <c r="H15" s="2"/>
     </row>
     <row r="16" spans="1:27" ht="11.25" customHeight="1">
-      <c r="A16" s="51"/>
-      <c r="B16" s="51"/>
-      <c r="C16" s="51"/>
-      <c r="D16" s="50"/>
-      <c r="E16" s="50"/>
-      <c r="F16" s="50"/>
+      <c r="A16" s="52"/>
+      <c r="B16" s="52"/>
+      <c r="C16" s="52"/>
+      <c r="D16" s="51"/>
+      <c r="E16" s="51"/>
+      <c r="F16" s="51"/>
       <c r="G16" s="2"/>
       <c r="H16" s="2"/>
     </row>
     <row r="17" spans="1:8" ht="11.25" customHeight="1">
-      <c r="A17" s="51"/>
-      <c r="B17" s="51"/>
-      <c r="C17" s="51"/>
-      <c r="D17" s="50"/>
-      <c r="E17" s="50"/>
-      <c r="F17" s="50"/>
+      <c r="A17" s="52"/>
+      <c r="B17" s="52"/>
+      <c r="C17" s="52"/>
+      <c r="D17" s="51"/>
+      <c r="E17" s="51"/>
+      <c r="F17" s="51"/>
     </row>
     <row r="18" spans="1:8" ht="11.25" customHeight="1">
-      <c r="A18" s="46" t="s">
+      <c r="A18" s="47" t="s">
         <v>487</v>
       </c>
-      <c r="B18" s="46" t="s">
+      <c r="B18" s="47" t="s">
         <v>488</v>
       </c>
-      <c r="C18" s="52" t="s">
+      <c r="C18" s="53" t="s">
         <v>489</v>
       </c>
-      <c r="D18" s="44" t="s">
+      <c r="D18" s="45" t="s">
         <v>490</v>
       </c>
-      <c r="E18" s="53" t="s">
+      <c r="E18" s="54" t="s">
         <v>491</v>
       </c>
-      <c r="F18" s="46" t="s">
+      <c r="F18" s="47" t="s">
         <v>492</v>
       </c>
-      <c r="G18" s="47" t="s">
+      <c r="G18" s="48" t="s">
         <v>493</v>
       </c>
-      <c r="H18" s="46"/>
+      <c r="H18" s="47"/>
     </row>
     <row r="19" spans="1:8">
-      <c r="A19" s="46"/>
-      <c r="B19" s="46"/>
-      <c r="C19" s="52"/>
-      <c r="D19" s="44"/>
-      <c r="E19" s="53"/>
-      <c r="F19" s="46"/>
-      <c r="G19" s="47"/>
-      <c r="H19" s="46"/>
+      <c r="A19" s="47"/>
+      <c r="B19" s="47"/>
+      <c r="C19" s="53"/>
+      <c r="D19" s="45"/>
+      <c r="E19" s="54"/>
+      <c r="F19" s="47"/>
+      <c r="G19" s="48"/>
+      <c r="H19" s="47"/>
     </row>
     <row r="20" spans="1:8">
-      <c r="A20" s="46"/>
-      <c r="B20" s="46"/>
-      <c r="C20" s="52"/>
-      <c r="D20" s="44"/>
-      <c r="E20" s="53"/>
-      <c r="F20" s="46"/>
-      <c r="G20" s="47"/>
-      <c r="H20" s="46"/>
+      <c r="A20" s="47"/>
+      <c r="B20" s="47"/>
+      <c r="C20" s="53"/>
+      <c r="D20" s="45"/>
+      <c r="E20" s="54"/>
+      <c r="F20" s="47"/>
+      <c r="G20" s="48"/>
+      <c r="H20" s="47"/>
     </row>
     <row r="21" spans="1:8">
-      <c r="D21" s="44"/>
+      <c r="D21" s="45"/>
     </row>
     <row r="22" spans="1:8">
-      <c r="A22" s="48" t="s">
+      <c r="A22" s="49" t="s">
         <v>494</v>
       </c>
-      <c r="D22" s="44"/>
+      <c r="D22" s="45"/>
     </row>
     <row r="23" spans="1:8">
-      <c r="A23" s="48"/>
-      <c r="D23" s="44"/>
+      <c r="A23" s="49"/>
+      <c r="D23" s="45"/>
     </row>
     <row r="24" spans="1:8">
-      <c r="D24" s="44"/>
+      <c r="D24" s="45"/>
     </row>
     <row r="25" spans="1:8">
-      <c r="D25" s="44"/>
+      <c r="D25" s="45"/>
     </row>
     <row r="26" spans="1:8">
-      <c r="D26" s="44"/>
+      <c r="D26" s="45"/>
     </row>
     <row r="27" spans="1:8">
-      <c r="D27" s="44"/>
+      <c r="D27" s="45"/>
     </row>
     <row r="28" spans="1:8">
-      <c r="D28" s="44"/>
+      <c r="D28" s="45"/>
     </row>
     <row r="29" spans="1:8">
-      <c r="D29" s="44"/>
+      <c r="D29" s="45"/>
     </row>
     <row r="30" spans="1:8">
-      <c r="D30" s="44"/>
+      <c r="D30" s="45"/>
     </row>
     <row r="31" spans="1:8">
-      <c r="D31" s="44"/>
+      <c r="D31" s="45"/>
     </row>
     <row r="32" spans="1:8">
-      <c r="D32" s="44"/>
+      <c r="D32" s="45"/>
     </row>
   </sheetData>
   <mergeCells count="14">
@@ -6975,70 +6984,70 @@
     </row>
     <row r="14" spans="1:22" s="9" customFormat="1" ht="11.25"/>
     <row r="15" spans="1:22" s="9" customFormat="1" ht="11.25" customHeight="1">
-      <c r="B15" s="44" t="s">
+      <c r="B15" s="45" t="s">
         <v>67</v>
       </c>
-      <c r="C15" s="44" t="s">
+      <c r="C15" s="45" t="s">
         <v>62</v>
       </c>
-      <c r="D15" s="44" t="s">
+      <c r="D15" s="45" t="s">
         <v>68</v>
       </c>
-      <c r="E15" s="44"/>
+      <c r="E15" s="45"/>
     </row>
     <row r="16" spans="1:22" s="9" customFormat="1" ht="11.25">
-      <c r="B16" s="44"/>
-      <c r="C16" s="44"/>
-      <c r="D16" s="44"/>
-      <c r="E16" s="44"/>
+      <c r="B16" s="45"/>
+      <c r="C16" s="45"/>
+      <c r="D16" s="45"/>
+      <c r="E16" s="45"/>
     </row>
     <row r="17" spans="1:5" s="9" customFormat="1" ht="11.25">
-      <c r="B17" s="44"/>
-      <c r="C17" s="44"/>
-      <c r="D17" s="44"/>
-      <c r="E17" s="44"/>
+      <c r="B17" s="45"/>
+      <c r="C17" s="45"/>
+      <c r="D17" s="45"/>
+      <c r="E17" s="45"/>
     </row>
     <row r="18" spans="1:5" s="9" customFormat="1" ht="11.25">
-      <c r="B18" s="44"/>
-      <c r="C18" s="44"/>
-      <c r="D18" s="44"/>
-      <c r="E18" s="44"/>
+      <c r="B18" s="45"/>
+      <c r="C18" s="45"/>
+      <c r="D18" s="45"/>
+      <c r="E18" s="45"/>
     </row>
     <row r="19" spans="1:5" s="9" customFormat="1" ht="11.25">
-      <c r="B19" s="44"/>
-      <c r="C19" s="44"/>
-      <c r="D19" s="44"/>
-      <c r="E19" s="44"/>
+      <c r="B19" s="45"/>
+      <c r="C19" s="45"/>
+      <c r="D19" s="45"/>
+      <c r="E19" s="45"/>
     </row>
     <row r="20" spans="1:5" s="9" customFormat="1" ht="11.25">
-      <c r="B20" s="44"/>
-      <c r="C20" s="44"/>
-      <c r="D20" s="44"/>
-      <c r="E20" s="44"/>
+      <c r="B20" s="45"/>
+      <c r="C20" s="45"/>
+      <c r="D20" s="45"/>
+      <c r="E20" s="45"/>
     </row>
     <row r="21" spans="1:5" s="9" customFormat="1" ht="11.25">
-      <c r="B21" s="44"/>
-      <c r="C21" s="44"/>
-      <c r="D21" s="44"/>
-      <c r="E21" s="44"/>
+      <c r="B21" s="45"/>
+      <c r="C21" s="45"/>
+      <c r="D21" s="45"/>
+      <c r="E21" s="45"/>
     </row>
     <row r="22" spans="1:5" s="9" customFormat="1" ht="11.25">
-      <c r="B22" s="44"/>
-      <c r="C22" s="44"/>
-      <c r="D22" s="44"/>
-      <c r="E22" s="44"/>
+      <c r="B22" s="45"/>
+      <c r="C22" s="45"/>
+      <c r="D22" s="45"/>
+      <c r="E22" s="45"/>
     </row>
     <row r="23" spans="1:5" s="9" customFormat="1" ht="11.25">
-      <c r="B23" s="44"/>
-      <c r="C23" s="44"/>
-      <c r="D23" s="44"/>
-      <c r="E23" s="44"/>
+      <c r="B23" s="45"/>
+      <c r="C23" s="45"/>
+      <c r="D23" s="45"/>
+      <c r="E23" s="45"/>
     </row>
     <row r="24" spans="1:5" s="9" customFormat="1" ht="11.25">
-      <c r="B24" s="44"/>
-      <c r="C24" s="44"/>
-      <c r="D24" s="44"/>
-      <c r="E24" s="44"/>
+      <c r="B24" s="45"/>
+      <c r="C24" s="45"/>
+      <c r="D24" s="45"/>
+      <c r="E24" s="45"/>
     </row>
     <row r="25" spans="1:5" s="9" customFormat="1" ht="11.25" customHeight="1">
       <c r="B25" s="14"/>
@@ -7049,28 +7058,28 @@
     <row r="26" spans="1:5" s="9" customFormat="1" ht="11.25">
       <c r="B26" s="14"/>
       <c r="C26" s="14"/>
-      <c r="D26" s="44" t="s">
+      <c r="D26" s="45" t="s">
         <v>69</v>
       </c>
-      <c r="E26" s="44" t="s">
+      <c r="E26" s="45" t="s">
         <v>70</v>
       </c>
     </row>
     <row r="27" spans="1:5" s="9" customFormat="1" ht="11.25">
-      <c r="A27" s="45" t="s">
+      <c r="A27" s="46" t="s">
         <v>49</v>
       </c>
-      <c r="B27" s="45"/>
+      <c r="B27" s="46"/>
       <c r="C27" s="14"/>
-      <c r="D27" s="44"/>
-      <c r="E27" s="44"/>
+      <c r="D27" s="45"/>
+      <c r="E27" s="45"/>
     </row>
     <row r="28" spans="1:5" s="9" customFormat="1" ht="11.25">
-      <c r="A28" s="45"/>
-      <c r="B28" s="45"/>
+      <c r="A28" s="46"/>
+      <c r="B28" s="46"/>
       <c r="C28" s="14"/>
-      <c r="D28" s="44"/>
-      <c r="E28" s="44"/>
+      <c r="D28" s="45"/>
+      <c r="E28" s="45"/>
     </row>
     <row r="29" spans="1:5" s="9" customFormat="1" ht="15.75" customHeight="1">
       <c r="A29" s="20" t="s">
@@ -7080,8 +7089,8 @@
         <v>48</v>
       </c>
       <c r="C29" s="14"/>
-      <c r="D29" s="44"/>
-      <c r="E29" s="44"/>
+      <c r="D29" s="45"/>
+      <c r="E29" s="45"/>
     </row>
     <row r="30" spans="1:5" s="9" customFormat="1" ht="11.25">
       <c r="A30" s="17" t="s">
@@ -9379,72 +9388,72 @@
     </row>
     <row r="147" spans="1:4" s="9" customFormat="1" ht="11.25"/>
     <row r="148" spans="1:4" s="9" customFormat="1" ht="11.25" customHeight="1">
-      <c r="A148" s="44" t="s">
+      <c r="A148" s="45" t="s">
         <v>461</v>
       </c>
-      <c r="B148" s="44" t="s">
+      <c r="B148" s="45" t="s">
         <v>462</v>
       </c>
-      <c r="C148" s="44" t="s">
+      <c r="C148" s="45" t="s">
         <v>463</v>
       </c>
-      <c r="D148" s="44" t="s">
+      <c r="D148" s="45" t="s">
         <v>464</v>
       </c>
     </row>
     <row r="149" spans="1:4" s="9" customFormat="1" ht="11.25">
-      <c r="A149" s="44"/>
-      <c r="B149" s="44"/>
-      <c r="C149" s="44"/>
-      <c r="D149" s="44"/>
+      <c r="A149" s="45"/>
+      <c r="B149" s="45"/>
+      <c r="C149" s="45"/>
+      <c r="D149" s="45"/>
     </row>
     <row r="150" spans="1:4" s="9" customFormat="1" ht="11.25">
-      <c r="A150" s="44"/>
-      <c r="B150" s="44"/>
-      <c r="C150" s="44"/>
-      <c r="D150" s="44"/>
+      <c r="A150" s="45"/>
+      <c r="B150" s="45"/>
+      <c r="C150" s="45"/>
+      <c r="D150" s="45"/>
     </row>
     <row r="151" spans="1:4" s="9" customFormat="1" ht="11.25">
-      <c r="A151" s="44"/>
-      <c r="B151" s="44"/>
-      <c r="C151" s="44"/>
-      <c r="D151" s="44"/>
+      <c r="A151" s="45"/>
+      <c r="B151" s="45"/>
+      <c r="C151" s="45"/>
+      <c r="D151" s="45"/>
     </row>
     <row r="152" spans="1:4" s="9" customFormat="1" ht="11.25">
-      <c r="A152" s="44"/>
-      <c r="B152" s="44"/>
-      <c r="C152" s="44"/>
-      <c r="D152" s="44"/>
+      <c r="A152" s="45"/>
+      <c r="B152" s="45"/>
+      <c r="C152" s="45"/>
+      <c r="D152" s="45"/>
     </row>
     <row r="153" spans="1:4" s="9" customFormat="1" ht="11.25">
-      <c r="A153" s="44"/>
-      <c r="B153" s="44"/>
-      <c r="C153" s="44"/>
-      <c r="D153" s="44"/>
+      <c r="A153" s="45"/>
+      <c r="B153" s="45"/>
+      <c r="C153" s="45"/>
+      <c r="D153" s="45"/>
     </row>
     <row r="154" spans="1:4" s="9" customFormat="1" ht="11.25">
-      <c r="A154" s="44"/>
-      <c r="B154" s="44"/>
-      <c r="C154" s="44"/>
-      <c r="D154" s="44"/>
+      <c r="A154" s="45"/>
+      <c r="B154" s="45"/>
+      <c r="C154" s="45"/>
+      <c r="D154" s="45"/>
     </row>
     <row r="155" spans="1:4" s="9" customFormat="1" ht="11.25">
-      <c r="A155" s="44"/>
-      <c r="B155" s="44"/>
-      <c r="C155" s="44"/>
-      <c r="D155" s="44"/>
+      <c r="A155" s="45"/>
+      <c r="B155" s="45"/>
+      <c r="C155" s="45"/>
+      <c r="D155" s="45"/>
     </row>
     <row r="156" spans="1:4" s="9" customFormat="1" ht="11.25">
-      <c r="A156" s="44"/>
-      <c r="B156" s="44"/>
-      <c r="C156" s="44"/>
-      <c r="D156" s="44"/>
+      <c r="A156" s="45"/>
+      <c r="B156" s="45"/>
+      <c r="C156" s="45"/>
+      <c r="D156" s="45"/>
     </row>
     <row r="157" spans="1:4" s="9" customFormat="1" ht="11.25">
-      <c r="A157" s="44"/>
-      <c r="B157" s="44"/>
-      <c r="C157" s="44"/>
-      <c r="D157" s="44"/>
+      <c r="A157" s="45"/>
+      <c r="B157" s="45"/>
+      <c r="C157" s="45"/>
+      <c r="D157" s="45"/>
     </row>
     <row r="158" spans="1:4" s="9" customFormat="1" ht="11.25" customHeight="1">
       <c r="B158" s="14"/>
@@ -9574,7 +9583,7 @@
         <v>77</v>
       </c>
       <c r="C8" s="7"/>
-      <c r="D8" s="54" t="s">
+      <c r="D8" s="55" t="s">
         <v>147</v>
       </c>
       <c r="E8" s="7"/>
@@ -9588,7 +9597,7 @@
         <v>79</v>
       </c>
       <c r="C9" s="7"/>
-      <c r="D9" s="54"/>
+      <c r="D9" s="55"/>
       <c r="E9" s="7"/>
       <c r="G9" s="26"/>
     </row>
@@ -9600,7 +9609,7 @@
         <v>80</v>
       </c>
       <c r="C10" s="7"/>
-      <c r="D10" s="54"/>
+      <c r="D10" s="55"/>
       <c r="E10" s="7"/>
       <c r="G10" s="26"/>
     </row>
@@ -9612,7 +9621,7 @@
         <v>82</v>
       </c>
       <c r="C11" s="7"/>
-      <c r="D11" s="54"/>
+      <c r="D11" s="55"/>
       <c r="E11" s="7"/>
       <c r="G11" s="26"/>
     </row>
@@ -9624,7 +9633,7 @@
         <v>84</v>
       </c>
       <c r="C12" s="7"/>
-      <c r="D12" s="54"/>
+      <c r="D12" s="55"/>
       <c r="E12" s="7"/>
       <c r="G12" s="26"/>
     </row>
@@ -9636,7 +9645,7 @@
         <v>86</v>
       </c>
       <c r="C13" s="7"/>
-      <c r="D13" s="54"/>
+      <c r="D13" s="55"/>
       <c r="E13" s="7"/>
       <c r="G13" s="26"/>
     </row>
@@ -9647,7 +9656,7 @@
       <c r="B14" s="21" t="s">
         <v>87</v>
       </c>
-      <c r="D14" s="54"/>
+      <c r="D14" s="55"/>
       <c r="G14" s="26"/>
     </row>
     <row r="15" spans="1:22" s="7" customFormat="1" ht="12">
@@ -9657,7 +9666,7 @@
       <c r="B15" s="21" t="s">
         <v>88</v>
       </c>
-      <c r="D15" s="54"/>
+      <c r="D15" s="55"/>
       <c r="G15" s="26"/>
     </row>
     <row r="16" spans="1:22" s="7" customFormat="1" ht="12">
@@ -9667,7 +9676,7 @@
       <c r="B16" s="21" t="s">
         <v>89</v>
       </c>
-      <c r="D16" s="54"/>
+      <c r="D16" s="55"/>
       <c r="G16" s="26"/>
     </row>
     <row r="17" spans="1:7" s="7" customFormat="1" ht="12">
@@ -9677,7 +9686,7 @@
       <c r="B17" s="21" t="s">
         <v>90</v>
       </c>
-      <c r="D17" s="54"/>
+      <c r="D17" s="55"/>
       <c r="G17" s="26"/>
     </row>
     <row r="18" spans="1:7" s="7" customFormat="1" ht="12">
@@ -9687,7 +9696,7 @@
       <c r="B18" s="21" t="s">
         <v>91</v>
       </c>
-      <c r="D18" s="54"/>
+      <c r="D18" s="55"/>
       <c r="G18" s="26"/>
     </row>
     <row r="19" spans="1:7" s="7" customFormat="1" ht="12">
@@ -9697,7 +9706,7 @@
       <c r="B19" s="21" t="s">
         <v>92</v>
       </c>
-      <c r="D19" s="54"/>
+      <c r="D19" s="55"/>
       <c r="G19" s="26"/>
     </row>
     <row r="20" spans="1:7" s="7" customFormat="1" ht="12">
@@ -9707,7 +9716,7 @@
       <c r="B20" s="21" t="s">
         <v>93</v>
       </c>
-      <c r="D20" s="54"/>
+      <c r="D20" s="55"/>
       <c r="G20" s="26"/>
     </row>
     <row r="21" spans="1:7" s="7" customFormat="1" ht="12">
@@ -9717,7 +9726,7 @@
       <c r="B21" s="21" t="s">
         <v>94</v>
       </c>
-      <c r="D21" s="54"/>
+      <c r="D21" s="55"/>
       <c r="G21" s="26"/>
     </row>
     <row r="22" spans="1:7" s="7" customFormat="1" ht="12">
@@ -9727,7 +9736,7 @@
       <c r="B22" s="21" t="s">
         <v>95</v>
       </c>
-      <c r="D22" s="54"/>
+      <c r="D22" s="55"/>
       <c r="G22" s="26"/>
     </row>
     <row r="23" spans="1:7" s="7" customFormat="1" ht="12">
@@ -9737,7 +9746,7 @@
       <c r="B23" s="21" t="s">
         <v>96</v>
       </c>
-      <c r="D23" s="54"/>
+      <c r="D23" s="55"/>
       <c r="G23" s="26"/>
     </row>
     <row r="24" spans="1:7" s="7" customFormat="1" ht="12">
@@ -10480,94 +10489,94 @@
     </row>
     <row r="21" spans="1:7" s="9" customFormat="1" ht="11.25"/>
     <row r="22" spans="1:7" s="9" customFormat="1" ht="11.25" customHeight="1">
-      <c r="B22" s="44" t="s">
+      <c r="B22" s="45" t="s">
         <v>67</v>
       </c>
-      <c r="C22" s="44" t="s">
+      <c r="C22" s="45" t="s">
         <v>195</v>
       </c>
-      <c r="D22" s="44" t="s">
+      <c r="D22" s="45" t="s">
         <v>194</v>
       </c>
-      <c r="E22" s="44" t="s">
+      <c r="E22" s="45" t="s">
         <v>197</v>
       </c>
-      <c r="F22" s="44" t="s">
+      <c r="F22" s="45" t="s">
         <v>155</v>
       </c>
-      <c r="G22" s="44"/>
+      <c r="G22" s="45"/>
     </row>
     <row r="23" spans="1:7" s="9" customFormat="1" ht="11.25">
-      <c r="B23" s="44"/>
-      <c r="C23" s="44"/>
-      <c r="D23" s="44"/>
-      <c r="E23" s="44"/>
-      <c r="F23" s="44"/>
-      <c r="G23" s="44"/>
+      <c r="B23" s="45"/>
+      <c r="C23" s="45"/>
+      <c r="D23" s="45"/>
+      <c r="E23" s="45"/>
+      <c r="F23" s="45"/>
+      <c r="G23" s="45"/>
     </row>
     <row r="24" spans="1:7" s="9" customFormat="1" ht="11.25">
-      <c r="B24" s="44"/>
-      <c r="C24" s="44"/>
-      <c r="D24" s="44"/>
-      <c r="E24" s="44"/>
-      <c r="F24" s="44"/>
-      <c r="G24" s="44"/>
+      <c r="B24" s="45"/>
+      <c r="C24" s="45"/>
+      <c r="D24" s="45"/>
+      <c r="E24" s="45"/>
+      <c r="F24" s="45"/>
+      <c r="G24" s="45"/>
     </row>
     <row r="25" spans="1:7" s="9" customFormat="1" ht="11.25">
-      <c r="B25" s="44"/>
-      <c r="C25" s="44"/>
-      <c r="D25" s="44"/>
-      <c r="E25" s="44"/>
-      <c r="F25" s="44"/>
-      <c r="G25" s="44"/>
+      <c r="B25" s="45"/>
+      <c r="C25" s="45"/>
+      <c r="D25" s="45"/>
+      <c r="E25" s="45"/>
+      <c r="F25" s="45"/>
+      <c r="G25" s="45"/>
     </row>
     <row r="26" spans="1:7" s="9" customFormat="1" ht="11.25">
-      <c r="B26" s="44"/>
-      <c r="C26" s="44"/>
-      <c r="D26" s="44"/>
-      <c r="E26" s="44"/>
-      <c r="F26" s="44"/>
-      <c r="G26" s="44"/>
+      <c r="B26" s="45"/>
+      <c r="C26" s="45"/>
+      <c r="D26" s="45"/>
+      <c r="E26" s="45"/>
+      <c r="F26" s="45"/>
+      <c r="G26" s="45"/>
     </row>
     <row r="27" spans="1:7" s="9" customFormat="1" ht="11.25">
-      <c r="B27" s="44"/>
-      <c r="C27" s="44"/>
-      <c r="D27" s="44"/>
-      <c r="E27" s="44"/>
-      <c r="F27" s="44"/>
-      <c r="G27" s="44"/>
+      <c r="B27" s="45"/>
+      <c r="C27" s="45"/>
+      <c r="D27" s="45"/>
+      <c r="E27" s="45"/>
+      <c r="F27" s="45"/>
+      <c r="G27" s="45"/>
     </row>
     <row r="28" spans="1:7" s="9" customFormat="1" ht="11.25">
-      <c r="B28" s="44"/>
-      <c r="C28" s="44"/>
-      <c r="D28" s="44"/>
-      <c r="E28" s="44"/>
-      <c r="F28" s="44"/>
-      <c r="G28" s="44"/>
+      <c r="B28" s="45"/>
+      <c r="C28" s="45"/>
+      <c r="D28" s="45"/>
+      <c r="E28" s="45"/>
+      <c r="F28" s="45"/>
+      <c r="G28" s="45"/>
     </row>
     <row r="29" spans="1:7" s="9" customFormat="1" ht="11.25">
-      <c r="B29" s="44"/>
-      <c r="C29" s="44"/>
-      <c r="D29" s="44"/>
-      <c r="E29" s="44"/>
-      <c r="F29" s="44"/>
-      <c r="G29" s="44"/>
+      <c r="B29" s="45"/>
+      <c r="C29" s="45"/>
+      <c r="D29" s="45"/>
+      <c r="E29" s="45"/>
+      <c r="F29" s="45"/>
+      <c r="G29" s="45"/>
     </row>
     <row r="30" spans="1:7" s="9" customFormat="1" ht="11.25">
-      <c r="B30" s="44"/>
-      <c r="C30" s="44"/>
-      <c r="D30" s="44"/>
-      <c r="E30" s="44"/>
-      <c r="F30" s="44"/>
-      <c r="G30" s="44"/>
+      <c r="B30" s="45"/>
+      <c r="C30" s="45"/>
+      <c r="D30" s="45"/>
+      <c r="E30" s="45"/>
+      <c r="F30" s="45"/>
+      <c r="G30" s="45"/>
     </row>
     <row r="31" spans="1:7" s="9" customFormat="1" ht="11.25">
-      <c r="B31" s="44"/>
-      <c r="C31" s="44"/>
-      <c r="D31" s="44"/>
-      <c r="E31" s="44"/>
-      <c r="F31" s="44"/>
-      <c r="G31" s="44"/>
+      <c r="B31" s="45"/>
+      <c r="C31" s="45"/>
+      <c r="D31" s="45"/>
+      <c r="E31" s="45"/>
+      <c r="F31" s="45"/>
+      <c r="G31" s="45"/>
     </row>
     <row r="32" spans="1:7" s="9" customFormat="1" ht="11.25" customHeight="1">
       <c r="B32" s="14"/>
@@ -10578,25 +10587,25 @@
     <row r="33" spans="1:5" s="9" customFormat="1" ht="11.25">
       <c r="B33" s="14"/>
       <c r="C33" s="14"/>
-      <c r="D33" s="44" t="s">
+      <c r="D33" s="45" t="s">
         <v>196</v>
       </c>
       <c r="E33" s="14"/>
     </row>
     <row r="34" spans="1:5" s="9" customFormat="1" ht="12">
-      <c r="A34" s="45" t="s">
+      <c r="A34" s="46" t="s">
         <v>49</v>
       </c>
-      <c r="B34" s="45"/>
+      <c r="B34" s="46"/>
       <c r="C34" s="15"/>
-      <c r="D34" s="44"/>
+      <c r="D34" s="45"/>
       <c r="E34" s="15"/>
     </row>
     <row r="35" spans="1:5" s="9" customFormat="1" ht="12">
-      <c r="A35" s="45"/>
-      <c r="B35" s="45"/>
+      <c r="A35" s="46"/>
+      <c r="B35" s="46"/>
       <c r="C35" s="15"/>
-      <c r="D35" s="44"/>
+      <c r="D35" s="45"/>
       <c r="E35" s="15"/>
     </row>
     <row r="36" spans="1:5" s="9" customFormat="1" ht="15.75" customHeight="1">
@@ -10607,7 +10616,7 @@
         <v>48</v>
       </c>
       <c r="C36" s="15"/>
-      <c r="D36" s="44"/>
+      <c r="D36" s="45"/>
       <c r="E36" s="15"/>
     </row>
     <row r="37" spans="1:5" s="9" customFormat="1" ht="12">
@@ -10618,7 +10627,7 @@
         <v>41</v>
       </c>
       <c r="C37" s="15"/>
-      <c r="D37" s="44"/>
+      <c r="D37" s="45"/>
       <c r="E37" s="15"/>
     </row>
     <row r="38" spans="1:5" s="7" customFormat="1" ht="12">
@@ -10629,7 +10638,7 @@
         <v>42</v>
       </c>
       <c r="C38" s="15"/>
-      <c r="D38" s="44"/>
+      <c r="D38" s="45"/>
       <c r="E38" s="15"/>
     </row>
     <row r="39" spans="1:5" s="7" customFormat="1" ht="12">
@@ -10639,7 +10648,7 @@
       <c r="B39" s="18" t="s">
         <v>201</v>
       </c>
-      <c r="D39" s="44"/>
+      <c r="D39" s="45"/>
     </row>
     <row r="40" spans="1:5" s="7" customFormat="1" ht="12">
       <c r="A40" s="17" t="s">
@@ -10648,7 +10657,7 @@
       <c r="B40" s="19" t="s">
         <v>43</v>
       </c>
-      <c r="D40" s="44"/>
+      <c r="D40" s="45"/>
     </row>
     <row r="41" spans="1:5" s="7" customFormat="1" ht="12">
       <c r="A41" s="17" t="s">
@@ -10657,7 +10666,7 @@
       <c r="B41" s="19" t="s">
         <v>44</v>
       </c>
-      <c r="D41" s="44"/>
+      <c r="D41" s="45"/>
     </row>
     <row r="42" spans="1:5" s="7" customFormat="1" ht="12">
       <c r="A42" s="17" t="s">
@@ -10666,7 +10675,7 @@
       <c r="B42" s="19" t="s">
         <v>45</v>
       </c>
-      <c r="D42" s="44"/>
+      <c r="D42" s="45"/>
     </row>
     <row r="43" spans="1:5" s="7" customFormat="1" ht="12">
       <c r="A43" s="17" t="s">
@@ -11245,168 +11254,168 @@
       <c r="A15" s="21"/>
     </row>
     <row r="16" spans="1:21" s="9" customFormat="1" ht="11.25" customHeight="1">
-      <c r="B16" s="44" t="s">
+      <c r="B16" s="45" t="s">
         <v>849</v>
       </c>
-      <c r="C16" s="44" t="s">
+      <c r="C16" s="45" t="s">
         <v>67</v>
       </c>
-      <c r="D16" s="44" t="s">
+      <c r="D16" s="45" t="s">
         <v>202</v>
       </c>
-      <c r="E16" s="44" t="s">
+      <c r="E16" s="45" t="s">
         <v>203</v>
       </c>
-      <c r="F16" s="44" t="s">
+      <c r="F16" s="45" t="s">
         <v>205</v>
       </c>
-      <c r="G16" s="44" t="s">
+      <c r="G16" s="45" t="s">
         <v>204</v>
       </c>
-      <c r="H16" s="44" t="s">
+      <c r="H16" s="45" t="s">
         <v>247</v>
       </c>
-      <c r="I16" s="44" t="s">
+      <c r="I16" s="45" t="s">
         <v>246</v>
       </c>
-      <c r="J16" s="44" t="s">
+      <c r="J16" s="45" t="s">
         <v>291</v>
       </c>
-      <c r="K16" s="44" t="s">
+      <c r="K16" s="45" t="s">
         <v>250</v>
       </c>
-      <c r="L16" s="44" t="s">
+      <c r="L16" s="45" t="s">
         <v>290</v>
       </c>
-      <c r="M16" s="44" t="s">
+      <c r="M16" s="45" t="s">
         <v>248</v>
       </c>
     </row>
     <row r="17" spans="1:13" s="9" customFormat="1" ht="11.25">
-      <c r="B17" s="44"/>
-      <c r="C17" s="44"/>
-      <c r="D17" s="44"/>
-      <c r="E17" s="44"/>
-      <c r="F17" s="44"/>
-      <c r="G17" s="44"/>
-      <c r="H17" s="44"/>
-      <c r="I17" s="44"/>
-      <c r="J17" s="44"/>
-      <c r="K17" s="44"/>
-      <c r="L17" s="44"/>
-      <c r="M17" s="44"/>
+      <c r="B17" s="45"/>
+      <c r="C17" s="45"/>
+      <c r="D17" s="45"/>
+      <c r="E17" s="45"/>
+      <c r="F17" s="45"/>
+      <c r="G17" s="45"/>
+      <c r="H17" s="45"/>
+      <c r="I17" s="45"/>
+      <c r="J17" s="45"/>
+      <c r="K17" s="45"/>
+      <c r="L17" s="45"/>
+      <c r="M17" s="45"/>
     </row>
     <row r="18" spans="1:13" s="9" customFormat="1" ht="11.25">
-      <c r="B18" s="44"/>
-      <c r="C18" s="44"/>
-      <c r="D18" s="44"/>
-      <c r="E18" s="44"/>
-      <c r="F18" s="44"/>
-      <c r="G18" s="44"/>
-      <c r="H18" s="44"/>
-      <c r="I18" s="44"/>
-      <c r="J18" s="44"/>
-      <c r="K18" s="44"/>
-      <c r="L18" s="44"/>
-      <c r="M18" s="44"/>
+      <c r="B18" s="45"/>
+      <c r="C18" s="45"/>
+      <c r="D18" s="45"/>
+      <c r="E18" s="45"/>
+      <c r="F18" s="45"/>
+      <c r="G18" s="45"/>
+      <c r="H18" s="45"/>
+      <c r="I18" s="45"/>
+      <c r="J18" s="45"/>
+      <c r="K18" s="45"/>
+      <c r="L18" s="45"/>
+      <c r="M18" s="45"/>
     </row>
     <row r="19" spans="1:13" s="9" customFormat="1" ht="11.25">
-      <c r="B19" s="44"/>
-      <c r="C19" s="44"/>
-      <c r="D19" s="44"/>
-      <c r="E19" s="44"/>
-      <c r="F19" s="44"/>
-      <c r="G19" s="44"/>
-      <c r="H19" s="44"/>
-      <c r="I19" s="44"/>
-      <c r="J19" s="44"/>
-      <c r="K19" s="44"/>
-      <c r="L19" s="44"/>
-      <c r="M19" s="44"/>
+      <c r="B19" s="45"/>
+      <c r="C19" s="45"/>
+      <c r="D19" s="45"/>
+      <c r="E19" s="45"/>
+      <c r="F19" s="45"/>
+      <c r="G19" s="45"/>
+      <c r="H19" s="45"/>
+      <c r="I19" s="45"/>
+      <c r="J19" s="45"/>
+      <c r="K19" s="45"/>
+      <c r="L19" s="45"/>
+      <c r="M19" s="45"/>
     </row>
     <row r="20" spans="1:13" s="9" customFormat="1" ht="11.25">
-      <c r="B20" s="44"/>
-      <c r="C20" s="44"/>
-      <c r="D20" s="44"/>
-      <c r="E20" s="44"/>
-      <c r="F20" s="44"/>
-      <c r="G20" s="44"/>
-      <c r="H20" s="44"/>
-      <c r="I20" s="44"/>
-      <c r="J20" s="44"/>
-      <c r="K20" s="44"/>
-      <c r="L20" s="44"/>
-      <c r="M20" s="44"/>
+      <c r="B20" s="45"/>
+      <c r="C20" s="45"/>
+      <c r="D20" s="45"/>
+      <c r="E20" s="45"/>
+      <c r="F20" s="45"/>
+      <c r="G20" s="45"/>
+      <c r="H20" s="45"/>
+      <c r="I20" s="45"/>
+      <c r="J20" s="45"/>
+      <c r="K20" s="45"/>
+      <c r="L20" s="45"/>
+      <c r="M20" s="45"/>
     </row>
     <row r="21" spans="1:13" s="9" customFormat="1" ht="11.25">
-      <c r="B21" s="44"/>
-      <c r="C21" s="44"/>
-      <c r="D21" s="44"/>
-      <c r="E21" s="44"/>
-      <c r="F21" s="44"/>
-      <c r="G21" s="44"/>
-      <c r="H21" s="44"/>
-      <c r="I21" s="44"/>
-      <c r="J21" s="44"/>
-      <c r="K21" s="44"/>
-      <c r="L21" s="44"/>
-      <c r="M21" s="44"/>
+      <c r="B21" s="45"/>
+      <c r="C21" s="45"/>
+      <c r="D21" s="45"/>
+      <c r="E21" s="45"/>
+      <c r="F21" s="45"/>
+      <c r="G21" s="45"/>
+      <c r="H21" s="45"/>
+      <c r="I21" s="45"/>
+      <c r="J21" s="45"/>
+      <c r="K21" s="45"/>
+      <c r="L21" s="45"/>
+      <c r="M21" s="45"/>
     </row>
     <row r="22" spans="1:13" s="9" customFormat="1" ht="11.25">
-      <c r="B22" s="44"/>
-      <c r="C22" s="44"/>
-      <c r="D22" s="44"/>
-      <c r="E22" s="44"/>
-      <c r="F22" s="44"/>
-      <c r="G22" s="44"/>
-      <c r="H22" s="44"/>
-      <c r="I22" s="44"/>
-      <c r="J22" s="44"/>
-      <c r="K22" s="44"/>
-      <c r="L22" s="44"/>
-      <c r="M22" s="44"/>
+      <c r="B22" s="45"/>
+      <c r="C22" s="45"/>
+      <c r="D22" s="45"/>
+      <c r="E22" s="45"/>
+      <c r="F22" s="45"/>
+      <c r="G22" s="45"/>
+      <c r="H22" s="45"/>
+      <c r="I22" s="45"/>
+      <c r="J22" s="45"/>
+      <c r="K22" s="45"/>
+      <c r="L22" s="45"/>
+      <c r="M22" s="45"/>
     </row>
     <row r="23" spans="1:13" s="9" customFormat="1" ht="11.25">
-      <c r="B23" s="44"/>
-      <c r="C23" s="44"/>
-      <c r="D23" s="44"/>
-      <c r="E23" s="44"/>
-      <c r="F23" s="44"/>
-      <c r="G23" s="44"/>
-      <c r="H23" s="44"/>
-      <c r="I23" s="44"/>
-      <c r="J23" s="44"/>
-      <c r="K23" s="44"/>
-      <c r="L23" s="44"/>
-      <c r="M23" s="44"/>
+      <c r="B23" s="45"/>
+      <c r="C23" s="45"/>
+      <c r="D23" s="45"/>
+      <c r="E23" s="45"/>
+      <c r="F23" s="45"/>
+      <c r="G23" s="45"/>
+      <c r="H23" s="45"/>
+      <c r="I23" s="45"/>
+      <c r="J23" s="45"/>
+      <c r="K23" s="45"/>
+      <c r="L23" s="45"/>
+      <c r="M23" s="45"/>
     </row>
     <row r="24" spans="1:13" s="9" customFormat="1" ht="11.25">
-      <c r="B24" s="44"/>
-      <c r="C24" s="44"/>
-      <c r="D24" s="44"/>
-      <c r="E24" s="44"/>
-      <c r="F24" s="44"/>
-      <c r="G24" s="44"/>
-      <c r="H24" s="44"/>
-      <c r="I24" s="44"/>
-      <c r="J24" s="44"/>
-      <c r="K24" s="44"/>
-      <c r="L24" s="44"/>
-      <c r="M24" s="44"/>
+      <c r="B24" s="45"/>
+      <c r="C24" s="45"/>
+      <c r="D24" s="45"/>
+      <c r="E24" s="45"/>
+      <c r="F24" s="45"/>
+      <c r="G24" s="45"/>
+      <c r="H24" s="45"/>
+      <c r="I24" s="45"/>
+      <c r="J24" s="45"/>
+      <c r="K24" s="45"/>
+      <c r="L24" s="45"/>
+      <c r="M24" s="45"/>
     </row>
     <row r="25" spans="1:13" s="9" customFormat="1" ht="11.25">
-      <c r="B25" s="44"/>
-      <c r="C25" s="44"/>
-      <c r="D25" s="44"/>
-      <c r="E25" s="44"/>
-      <c r="F25" s="44"/>
-      <c r="G25" s="44"/>
-      <c r="H25" s="44"/>
-      <c r="I25" s="44"/>
-      <c r="J25" s="44"/>
-      <c r="K25" s="44"/>
-      <c r="L25" s="44"/>
-      <c r="M25" s="44"/>
+      <c r="B25" s="45"/>
+      <c r="C25" s="45"/>
+      <c r="D25" s="45"/>
+      <c r="E25" s="45"/>
+      <c r="F25" s="45"/>
+      <c r="G25" s="45"/>
+      <c r="H25" s="45"/>
+      <c r="I25" s="45"/>
+      <c r="J25" s="45"/>
+      <c r="K25" s="45"/>
+      <c r="L25" s="45"/>
+      <c r="M25" s="45"/>
     </row>
     <row r="26" spans="1:13" s="9" customFormat="1" ht="11.25" customHeight="1">
       <c r="D26" s="14"/>
@@ -11422,33 +11431,33 @@
         <v>206</v>
       </c>
       <c r="G27" s="14"/>
-      <c r="K27" s="44" t="s">
+      <c r="K27" s="45" t="s">
         <v>251</v>
       </c>
     </row>
     <row r="28" spans="1:13" s="9" customFormat="1" ht="12">
-      <c r="A28" s="45" t="s">
+      <c r="A28" s="46" t="s">
         <v>49</v>
       </c>
-      <c r="B28" s="45"/>
+      <c r="B28" s="46"/>
       <c r="D28" s="15"/>
       <c r="E28" s="15"/>
       <c r="F28" s="28" t="s">
         <v>207</v>
       </c>
       <c r="G28" s="15"/>
-      <c r="K28" s="44"/>
+      <c r="K28" s="45"/>
     </row>
     <row r="29" spans="1:13" s="9" customFormat="1" ht="12">
-      <c r="A29" s="45"/>
-      <c r="B29" s="45"/>
+      <c r="A29" s="46"/>
+      <c r="B29" s="46"/>
       <c r="D29" s="15"/>
       <c r="E29" s="15"/>
       <c r="F29" s="28" t="s">
         <v>208</v>
       </c>
       <c r="G29" s="15"/>
-      <c r="K29" s="44"/>
+      <c r="K29" s="45"/>
     </row>
     <row r="30" spans="1:13" s="9" customFormat="1" ht="15.75" customHeight="1">
       <c r="A30" s="20" t="s">
@@ -11463,7 +11472,7 @@
         <v>209</v>
       </c>
       <c r="G30" s="15"/>
-      <c r="K30" s="44"/>
+      <c r="K30" s="45"/>
     </row>
     <row r="31" spans="1:13" s="9" customFormat="1" ht="12">
       <c r="A31" s="17" t="s">
@@ -11478,7 +11487,7 @@
         <v>210</v>
       </c>
       <c r="G31" s="15"/>
-      <c r="K31" s="44"/>
+      <c r="K31" s="45"/>
     </row>
     <row r="32" spans="1:13" s="7" customFormat="1" ht="12">
       <c r="A32" s="17" t="s">
@@ -11493,7 +11502,7 @@
         <v>211</v>
       </c>
       <c r="G32" s="15"/>
-      <c r="K32" s="44"/>
+      <c r="K32" s="45"/>
     </row>
     <row r="33" spans="1:11" s="7" customFormat="1" ht="12">
       <c r="A33" s="17" t="s">
@@ -11505,7 +11514,7 @@
       <c r="F33" s="28" t="s">
         <v>212</v>
       </c>
-      <c r="K33" s="44"/>
+      <c r="K33" s="45"/>
     </row>
     <row r="34" spans="1:11" s="7" customFormat="1" ht="12">
       <c r="A34" s="17" t="s">
@@ -11517,7 +11526,7 @@
       <c r="F34" s="28" t="s">
         <v>213</v>
       </c>
-      <c r="K34" s="44"/>
+      <c r="K34" s="45"/>
     </row>
     <row r="35" spans="1:11" s="7" customFormat="1" ht="12">
       <c r="A35" s="17" t="s">
@@ -11529,7 +11538,7 @@
       <c r="F35" s="28" t="s">
         <v>214</v>
       </c>
-      <c r="K35" s="44"/>
+      <c r="K35" s="45"/>
     </row>
     <row r="36" spans="1:11" s="7" customFormat="1" ht="12">
       <c r="A36" s="17" t="s">
@@ -11541,7 +11550,7 @@
       <c r="F36" s="28" t="s">
         <v>215</v>
       </c>
-      <c r="K36" s="44"/>
+      <c r="K36" s="45"/>
     </row>
     <row r="37" spans="1:11" s="7" customFormat="1" ht="12">
       <c r="A37" s="17" t="s">
@@ -11873,8 +11882,8 @@
   </sheetPr>
   <dimension ref="A2:AC46"/>
   <sheetViews>
-    <sheetView topLeftCell="S1" workbookViewId="0">
-      <selection activeCell="R6" sqref="R6"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="Q19" sqref="Q19:Q28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -11886,10 +11895,11 @@
     <col min="6" max="6" width="23.5703125" customWidth="1"/>
     <col min="7" max="7" width="19.7109375" customWidth="1"/>
     <col min="8" max="8" width="23.7109375" customWidth="1"/>
-    <col min="9" max="12" width="20" customWidth="1"/>
-    <col min="13" max="13" width="19.7109375" customWidth="1"/>
-    <col min="14" max="14" width="25.5703125" customWidth="1"/>
-    <col min="15" max="15" width="24.42578125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="20" customWidth="1"/>
+    <col min="10" max="10" width="24.42578125" bestFit="1" customWidth="1"/>
+    <col min="11" max="13" width="20" customWidth="1"/>
+    <col min="14" max="14" width="19.7109375" customWidth="1"/>
+    <col min="15" max="15" width="25.5703125" customWidth="1"/>
     <col min="16" max="16" width="27.5703125" customWidth="1"/>
     <col min="17" max="17" width="29.42578125" customWidth="1"/>
     <col min="18" max="18" width="23.7109375" customWidth="1"/>
@@ -11918,7 +11928,7 @@
       <c r="G2" s="2"/>
       <c r="H2" s="6"/>
       <c r="J2" s="2"/>
-      <c r="M2" s="2"/>
+      <c r="K2" s="2"/>
       <c r="N2" s="2"/>
       <c r="O2" s="2"/>
       <c r="P2" s="2"/>
@@ -11937,7 +11947,7 @@
       <c r="G3" s="2"/>
       <c r="H3" s="1"/>
       <c r="J3" s="2"/>
-      <c r="M3" s="2"/>
+      <c r="K3" s="2"/>
       <c r="N3" s="2"/>
       <c r="O3" s="2"/>
       <c r="P3" s="2"/>
@@ -11988,22 +11998,22 @@
         <v>265</v>
       </c>
       <c r="J6" s="10" t="s">
+        <v>271</v>
+      </c>
+      <c r="K6" s="10" t="s">
         <v>259</v>
       </c>
-      <c r="K6" s="10" t="s">
+      <c r="L6" s="10" t="s">
         <v>254</v>
       </c>
-      <c r="L6" s="10" t="s">
+      <c r="M6" s="10" t="s">
         <v>270</v>
       </c>
-      <c r="M6" s="10" t="s">
+      <c r="N6" s="10" t="s">
         <v>267</v>
       </c>
-      <c r="N6" s="10" t="s">
+      <c r="O6" s="10" t="s">
         <v>268</v>
-      </c>
-      <c r="O6" s="10" t="s">
-        <v>271</v>
       </c>
       <c r="P6" s="10" t="s">
         <v>263</v>
@@ -12074,20 +12084,20 @@
       <c r="I7" s="33">
         <v>41869.541666666664</v>
       </c>
-      <c r="J7" s="31" t="s">
+      <c r="J7" s="32" t="s">
         <v>275</v>
       </c>
       <c r="K7" s="31" t="s">
+        <v>275</v>
+      </c>
+      <c r="L7" s="31" t="s">
         <v>273</v>
       </c>
-      <c r="L7" s="32" t="s">
+      <c r="M7" s="32" t="s">
         <v>278</v>
       </c>
-      <c r="M7" s="32">
+      <c r="N7" s="32">
         <v>6454010</v>
-      </c>
-      <c r="N7" s="32" t="s">
-        <v>275</v>
       </c>
       <c r="O7" s="32" t="s">
         <v>275</v>
@@ -12163,20 +12173,20 @@
       <c r="I8" s="36">
         <v>42018.361111111109</v>
       </c>
-      <c r="J8" s="35" t="s">
+      <c r="J8" s="34" t="s">
         <v>282</v>
       </c>
       <c r="K8" s="35" t="s">
+        <v>282</v>
+      </c>
+      <c r="L8" s="35" t="s">
         <v>280</v>
       </c>
-      <c r="L8" s="34" t="s">
+      <c r="M8" s="34" t="s">
         <v>278</v>
       </c>
-      <c r="M8" s="34">
+      <c r="N8" s="34">
         <v>91050090</v>
-      </c>
-      <c r="N8" s="34" t="s">
-        <v>282</v>
       </c>
       <c r="O8" s="34" t="s">
         <v>282</v>
@@ -12250,20 +12260,20 @@
       <c r="I9" s="33">
         <v>41877.495833333334</v>
       </c>
-      <c r="J9" s="31" t="s">
+      <c r="J9" s="32" t="s">
         <v>286</v>
       </c>
       <c r="K9" s="31" t="s">
+        <v>286</v>
+      </c>
+      <c r="L9" s="31" t="s">
         <v>284</v>
       </c>
-      <c r="L9" s="32" t="s">
+      <c r="M9" s="32" t="s">
         <v>288</v>
       </c>
-      <c r="M9" s="32">
+      <c r="N9" s="32">
         <v>6180180</v>
-      </c>
-      <c r="N9" s="32" t="s">
-        <v>286</v>
       </c>
       <c r="O9" s="32" t="s">
         <v>286</v>
@@ -12337,20 +12347,20 @@
       <c r="I10" s="36">
         <v>42039.999305555553</v>
       </c>
-      <c r="J10" s="35" t="s">
+      <c r="J10" s="34" t="s">
         <v>308</v>
       </c>
       <c r="K10" s="35" t="s">
+        <v>308</v>
+      </c>
+      <c r="L10" s="35" t="s">
         <v>307</v>
       </c>
-      <c r="L10" s="34" t="s">
+      <c r="M10" s="34" t="s">
         <v>278</v>
       </c>
-      <c r="M10" s="34">
+      <c r="N10" s="34">
         <v>1140080</v>
-      </c>
-      <c r="N10" s="34" t="s">
-        <v>308</v>
       </c>
       <c r="O10" s="34" t="s">
         <v>308</v>
@@ -12424,20 +12434,20 @@
       <c r="I11" s="33">
         <v>42062.605555555558</v>
       </c>
-      <c r="J11" s="31" t="s">
+      <c r="J11" s="32" t="s">
         <v>313</v>
       </c>
       <c r="K11" s="31" t="s">
+        <v>313</v>
+      </c>
+      <c r="L11" s="31" t="s">
         <v>312</v>
       </c>
-      <c r="L11" s="32" t="s">
+      <c r="M11" s="32" t="s">
         <v>288</v>
       </c>
-      <c r="M11" s="32">
+      <c r="N11" s="32">
         <v>4547006</v>
-      </c>
-      <c r="N11" s="32" t="s">
-        <v>313</v>
       </c>
       <c r="O11" s="32" t="s">
         <v>313</v>
@@ -12513,20 +12523,20 @@
       <c r="I12" s="36">
         <v>41756.333333333336</v>
       </c>
-      <c r="J12" s="35" t="s">
+      <c r="J12" s="34" t="s">
         <v>319</v>
       </c>
       <c r="K12" s="35" t="s">
+        <v>319</v>
+      </c>
+      <c r="L12" s="35" t="s">
         <v>320</v>
       </c>
-      <c r="L12" s="34" t="s">
+      <c r="M12" s="34" t="s">
         <v>288</v>
       </c>
-      <c r="M12" s="34">
+      <c r="N12" s="34">
         <v>6180180</v>
-      </c>
-      <c r="N12" s="34" t="s">
-        <v>319</v>
       </c>
       <c r="O12" s="34" t="s">
         <v>319</v>
@@ -12600,20 +12610,20 @@
       <c r="I13" s="33">
         <v>41756.333333333336</v>
       </c>
-      <c r="J13" s="31" t="s">
+      <c r="J13" s="32" t="s">
         <v>319</v>
       </c>
       <c r="K13" s="31" t="s">
+        <v>319</v>
+      </c>
+      <c r="L13" s="31" t="s">
         <v>320</v>
       </c>
-      <c r="L13" s="32" t="s">
+      <c r="M13" s="32" t="s">
         <v>288</v>
       </c>
-      <c r="M13" s="32">
+      <c r="N13" s="32">
         <v>6180180</v>
-      </c>
-      <c r="N13" s="32" t="s">
-        <v>319</v>
       </c>
       <c r="O13" s="32" t="s">
         <v>319</v>
@@ -12668,8 +12678,8 @@
       <c r="E14" s="21"/>
       <c r="G14" s="21"/>
       <c r="H14" s="21"/>
-      <c r="J14" s="21"/>
       <c r="K14" s="21"/>
+      <c r="L14" s="21"/>
       <c r="Q14" s="21"/>
       <c r="S14" s="21"/>
       <c r="V14" s="21"/>
@@ -12684,8 +12694,8 @@
       <c r="E15" s="21"/>
       <c r="G15" s="21"/>
       <c r="H15" s="21"/>
-      <c r="J15" s="21"/>
       <c r="K15" s="21"/>
+      <c r="L15" s="21"/>
       <c r="Q15" s="21"/>
       <c r="S15" s="21"/>
       <c r="V15" s="21"/>
@@ -12700,8 +12710,8 @@
       <c r="E16" s="21"/>
       <c r="G16" s="21"/>
       <c r="H16" s="21"/>
-      <c r="J16" s="21"/>
       <c r="K16" s="21"/>
+      <c r="L16" s="21"/>
       <c r="Q16" s="21"/>
       <c r="S16" s="21"/>
       <c r="V16" s="21"/>
@@ -12716,8 +12726,8 @@
       <c r="E17" s="21"/>
       <c r="G17" s="21"/>
       <c r="H17" s="21"/>
-      <c r="J17" s="21"/>
       <c r="K17" s="21"/>
+      <c r="L17" s="21"/>
       <c r="Q17" s="21"/>
       <c r="S17" s="21"/>
       <c r="W17" s="21"/>
@@ -12729,393 +12739,399 @@
       <c r="E18" s="21"/>
     </row>
     <row r="19" spans="1:29" s="9" customFormat="1" ht="11.25" customHeight="1">
-      <c r="B19" s="44" t="s">
+      <c r="B19" s="45" t="s">
         <v>848</v>
       </c>
-      <c r="C19" s="44" t="s">
+      <c r="C19" s="45" t="s">
         <v>849</v>
       </c>
-      <c r="D19" s="44" t="s">
+      <c r="D19" s="45" t="s">
         <v>67</v>
       </c>
-      <c r="E19" s="44" t="s">
+      <c r="E19" s="45" t="s">
         <v>336</v>
       </c>
-      <c r="F19" s="44" t="s">
+      <c r="F19" s="45" t="s">
         <v>294</v>
       </c>
-      <c r="G19" s="44" t="s">
+      <c r="G19" s="45" t="s">
         <v>249</v>
       </c>
-      <c r="H19" s="44" t="s">
+      <c r="H19" s="45" t="s">
         <v>249</v>
       </c>
-      <c r="I19" s="44" t="s">
+      <c r="I19" s="45" t="s">
         <v>315</v>
       </c>
-      <c r="J19" s="44" t="s">
+      <c r="J19" s="45" t="s">
+        <v>315</v>
+      </c>
+      <c r="K19" s="45" t="s">
         <v>316</v>
       </c>
-      <c r="K19" s="44" t="s">
+      <c r="L19" s="45" t="s">
         <v>300</v>
       </c>
-      <c r="L19" s="44" t="s">
+      <c r="M19" s="45" t="s">
         <v>301</v>
       </c>
-      <c r="M19" s="44" t="s">
+      <c r="N19" s="45" t="s">
         <v>302</v>
       </c>
-      <c r="N19" s="55" t="s">
+      <c r="O19" s="45" t="s">
         <v>303</v>
       </c>
-      <c r="O19" s="55" t="s">
-        <v>303</v>
-      </c>
-      <c r="P19" s="44" t="s">
+      <c r="P19" s="45" t="s">
         <v>843</v>
       </c>
-      <c r="Q19" s="55" t="s">
+      <c r="Q19" s="56" t="s">
         <v>304</v>
       </c>
-      <c r="R19" s="55" t="s">
+      <c r="R19" s="56" t="s">
         <v>304</v>
       </c>
-      <c r="S19" s="44" t="s">
+      <c r="S19" s="45" t="s">
         <v>323</v>
       </c>
-      <c r="T19" s="44" t="s">
+      <c r="T19" s="45" t="s">
         <v>20</v>
       </c>
-      <c r="U19" s="44" t="s">
+      <c r="U19" s="45" t="s">
         <v>333</v>
       </c>
-      <c r="V19" s="44" t="s">
+      <c r="V19" s="45" t="s">
         <v>340</v>
       </c>
-      <c r="W19" s="44"/>
-      <c r="X19" s="44" t="s">
+      <c r="W19" s="45"/>
+      <c r="X19" s="45" t="s">
         <v>289</v>
       </c>
-      <c r="Y19" s="44" t="s">
+      <c r="Y19" s="45" t="s">
         <v>289</v>
       </c>
-      <c r="Z19" s="44" t="s">
+      <c r="Z19" s="45" t="s">
         <v>289</v>
       </c>
-      <c r="AA19" s="44" t="s">
+      <c r="AA19" s="45" t="s">
         <v>289</v>
       </c>
-      <c r="AB19" s="44" t="s">
+      <c r="AB19" s="45" t="s">
         <v>289</v>
       </c>
-      <c r="AC19" s="44" t="s">
+      <c r="AC19" s="45" t="s">
         <v>289</v>
       </c>
     </row>
     <row r="20" spans="1:29" s="9" customFormat="1" ht="11.25">
-      <c r="B20" s="44"/>
-      <c r="C20" s="44"/>
-      <c r="D20" s="44"/>
-      <c r="E20" s="44"/>
-      <c r="F20" s="44"/>
-      <c r="G20" s="44"/>
-      <c r="H20" s="44"/>
-      <c r="I20" s="44"/>
-      <c r="J20" s="44"/>
-      <c r="K20" s="44"/>
-      <c r="L20" s="44"/>
-      <c r="M20" s="44"/>
-      <c r="N20" s="55"/>
-      <c r="O20" s="55"/>
-      <c r="P20" s="44"/>
-      <c r="Q20" s="55"/>
-      <c r="R20" s="55"/>
-      <c r="S20" s="44"/>
-      <c r="T20" s="44"/>
-      <c r="U20" s="44"/>
-      <c r="V20" s="44"/>
-      <c r="W20" s="44"/>
-      <c r="X20" s="44"/>
-      <c r="Y20" s="44"/>
-      <c r="Z20" s="44"/>
-      <c r="AA20" s="44"/>
-      <c r="AB20" s="44"/>
-      <c r="AC20" s="44"/>
+      <c r="B20" s="45"/>
+      <c r="C20" s="45"/>
+      <c r="D20" s="45"/>
+      <c r="E20" s="45"/>
+      <c r="F20" s="45"/>
+      <c r="G20" s="45"/>
+      <c r="H20" s="45"/>
+      <c r="I20" s="45"/>
+      <c r="J20" s="45"/>
+      <c r="K20" s="45"/>
+      <c r="L20" s="45"/>
+      <c r="M20" s="45"/>
+      <c r="N20" s="45"/>
+      <c r="O20" s="45"/>
+      <c r="P20" s="45"/>
+      <c r="Q20" s="56"/>
+      <c r="R20" s="56"/>
+      <c r="S20" s="45"/>
+      <c r="T20" s="45"/>
+      <c r="U20" s="45"/>
+      <c r="V20" s="45"/>
+      <c r="W20" s="45"/>
+      <c r="X20" s="45"/>
+      <c r="Y20" s="45"/>
+      <c r="Z20" s="45"/>
+      <c r="AA20" s="45"/>
+      <c r="AB20" s="45"/>
+      <c r="AC20" s="45"/>
     </row>
     <row r="21" spans="1:29" s="9" customFormat="1" ht="11.25">
-      <c r="B21" s="44"/>
-      <c r="C21" s="44"/>
-      <c r="D21" s="44"/>
-      <c r="E21" s="44"/>
-      <c r="F21" s="44"/>
-      <c r="G21" s="44"/>
-      <c r="H21" s="44"/>
-      <c r="I21" s="44"/>
-      <c r="J21" s="44"/>
-      <c r="K21" s="44"/>
-      <c r="L21" s="44"/>
-      <c r="M21" s="44"/>
-      <c r="N21" s="55"/>
-      <c r="O21" s="55"/>
-      <c r="P21" s="44"/>
-      <c r="Q21" s="55"/>
-      <c r="R21" s="55"/>
-      <c r="S21" s="44"/>
-      <c r="T21" s="44"/>
-      <c r="U21" s="44"/>
-      <c r="V21" s="44"/>
-      <c r="W21" s="44"/>
-      <c r="X21" s="44"/>
-      <c r="Y21" s="44"/>
-      <c r="Z21" s="44"/>
-      <c r="AA21" s="44"/>
-      <c r="AB21" s="44"/>
-      <c r="AC21" s="44"/>
+      <c r="B21" s="45"/>
+      <c r="C21" s="45"/>
+      <c r="D21" s="45"/>
+      <c r="E21" s="45"/>
+      <c r="F21" s="45"/>
+      <c r="G21" s="45"/>
+      <c r="H21" s="45"/>
+      <c r="I21" s="45"/>
+      <c r="J21" s="45"/>
+      <c r="K21" s="45"/>
+      <c r="L21" s="45"/>
+      <c r="M21" s="45"/>
+      <c r="N21" s="45"/>
+      <c r="O21" s="45"/>
+      <c r="P21" s="45"/>
+      <c r="Q21" s="56"/>
+      <c r="R21" s="56"/>
+      <c r="S21" s="45"/>
+      <c r="T21" s="45"/>
+      <c r="U21" s="45"/>
+      <c r="V21" s="45"/>
+      <c r="W21" s="45"/>
+      <c r="X21" s="45"/>
+      <c r="Y21" s="45"/>
+      <c r="Z21" s="45"/>
+      <c r="AA21" s="45"/>
+      <c r="AB21" s="45"/>
+      <c r="AC21" s="45"/>
     </row>
     <row r="22" spans="1:29" s="9" customFormat="1" ht="11.25">
-      <c r="B22" s="44"/>
-      <c r="C22" s="44"/>
-      <c r="D22" s="44"/>
-      <c r="E22" s="44"/>
-      <c r="F22" s="44"/>
-      <c r="G22" s="44"/>
-      <c r="H22" s="44"/>
-      <c r="I22" s="44"/>
-      <c r="J22" s="44"/>
-      <c r="K22" s="44"/>
-      <c r="L22" s="44"/>
-      <c r="M22" s="44"/>
-      <c r="N22" s="55"/>
-      <c r="O22" s="55"/>
-      <c r="P22" s="44"/>
-      <c r="Q22" s="55"/>
-      <c r="R22" s="55"/>
-      <c r="S22" s="44"/>
-      <c r="T22" s="44"/>
-      <c r="U22" s="44"/>
-      <c r="V22" s="44"/>
-      <c r="W22" s="44"/>
-      <c r="X22" s="44"/>
-      <c r="Y22" s="44"/>
-      <c r="Z22" s="44"/>
-      <c r="AA22" s="44"/>
-      <c r="AB22" s="44"/>
-      <c r="AC22" s="44"/>
+      <c r="B22" s="45"/>
+      <c r="C22" s="45"/>
+      <c r="D22" s="45"/>
+      <c r="E22" s="45"/>
+      <c r="F22" s="45"/>
+      <c r="G22" s="45"/>
+      <c r="H22" s="45"/>
+      <c r="I22" s="45"/>
+      <c r="J22" s="45"/>
+      <c r="K22" s="45"/>
+      <c r="L22" s="45"/>
+      <c r="M22" s="45"/>
+      <c r="N22" s="45"/>
+      <c r="O22" s="45"/>
+      <c r="P22" s="45"/>
+      <c r="Q22" s="56"/>
+      <c r="R22" s="56"/>
+      <c r="S22" s="45"/>
+      <c r="T22" s="45"/>
+      <c r="U22" s="45"/>
+      <c r="V22" s="45"/>
+      <c r="W22" s="45"/>
+      <c r="X22" s="45"/>
+      <c r="Y22" s="45"/>
+      <c r="Z22" s="45"/>
+      <c r="AA22" s="45"/>
+      <c r="AB22" s="45"/>
+      <c r="AC22" s="45"/>
     </row>
     <row r="23" spans="1:29" s="9" customFormat="1" ht="11.25">
-      <c r="B23" s="44"/>
-      <c r="C23" s="44"/>
-      <c r="D23" s="44"/>
-      <c r="E23" s="44"/>
-      <c r="F23" s="44"/>
-      <c r="G23" s="44"/>
-      <c r="H23" s="44"/>
-      <c r="I23" s="44"/>
-      <c r="J23" s="44"/>
-      <c r="K23" s="44"/>
-      <c r="L23" s="44"/>
-      <c r="M23" s="44"/>
-      <c r="N23" s="55"/>
-      <c r="O23" s="55"/>
-      <c r="P23" s="44"/>
-      <c r="Q23" s="55"/>
-      <c r="R23" s="55"/>
-      <c r="S23" s="44"/>
-      <c r="T23" s="44"/>
-      <c r="U23" s="44"/>
-      <c r="V23" s="44"/>
-      <c r="W23" s="44"/>
-      <c r="X23" s="44"/>
-      <c r="Y23" s="44"/>
-      <c r="Z23" s="44"/>
-      <c r="AA23" s="44"/>
-      <c r="AB23" s="44"/>
-      <c r="AC23" s="44"/>
+      <c r="B23" s="45"/>
+      <c r="C23" s="45"/>
+      <c r="D23" s="45"/>
+      <c r="E23" s="45"/>
+      <c r="F23" s="45"/>
+      <c r="G23" s="45"/>
+      <c r="H23" s="45"/>
+      <c r="I23" s="45"/>
+      <c r="J23" s="45"/>
+      <c r="K23" s="45"/>
+      <c r="L23" s="45"/>
+      <c r="M23" s="45"/>
+      <c r="N23" s="45"/>
+      <c r="O23" s="45"/>
+      <c r="P23" s="45"/>
+      <c r="Q23" s="56"/>
+      <c r="R23" s="56"/>
+      <c r="S23" s="45"/>
+      <c r="T23" s="45"/>
+      <c r="U23" s="45"/>
+      <c r="V23" s="45"/>
+      <c r="W23" s="45"/>
+      <c r="X23" s="45"/>
+      <c r="Y23" s="45"/>
+      <c r="Z23" s="45"/>
+      <c r="AA23" s="45"/>
+      <c r="AB23" s="45"/>
+      <c r="AC23" s="45"/>
     </row>
     <row r="24" spans="1:29" s="9" customFormat="1" ht="11.25">
-      <c r="B24" s="44"/>
-      <c r="C24" s="44"/>
-      <c r="D24" s="44"/>
-      <c r="E24" s="44"/>
-      <c r="F24" s="44"/>
-      <c r="G24" s="44"/>
-      <c r="H24" s="44"/>
-      <c r="I24" s="44"/>
-      <c r="J24" s="44"/>
-      <c r="K24" s="44"/>
-      <c r="L24" s="44"/>
-      <c r="M24" s="44"/>
-      <c r="N24" s="55"/>
-      <c r="O24" s="55"/>
-      <c r="P24" s="44"/>
-      <c r="Q24" s="55"/>
-      <c r="R24" s="55"/>
-      <c r="S24" s="44"/>
-      <c r="T24" s="44"/>
-      <c r="U24" s="44"/>
-      <c r="V24" s="44"/>
-      <c r="W24" s="44"/>
-      <c r="X24" s="44"/>
-      <c r="Y24" s="44"/>
-      <c r="Z24" s="44"/>
-      <c r="AA24" s="44"/>
-      <c r="AB24" s="44"/>
-      <c r="AC24" s="44"/>
+      <c r="B24" s="45"/>
+      <c r="C24" s="45"/>
+      <c r="D24" s="45"/>
+      <c r="E24" s="45"/>
+      <c r="F24" s="45"/>
+      <c r="G24" s="45"/>
+      <c r="H24" s="45"/>
+      <c r="I24" s="45"/>
+      <c r="J24" s="45"/>
+      <c r="K24" s="45"/>
+      <c r="L24" s="45"/>
+      <c r="M24" s="45"/>
+      <c r="N24" s="45"/>
+      <c r="O24" s="45"/>
+      <c r="P24" s="45"/>
+      <c r="Q24" s="56"/>
+      <c r="R24" s="56"/>
+      <c r="S24" s="45"/>
+      <c r="T24" s="45"/>
+      <c r="U24" s="45"/>
+      <c r="V24" s="45"/>
+      <c r="W24" s="45"/>
+      <c r="X24" s="45"/>
+      <c r="Y24" s="45"/>
+      <c r="Z24" s="45"/>
+      <c r="AA24" s="45"/>
+      <c r="AB24" s="45"/>
+      <c r="AC24" s="45"/>
     </row>
     <row r="25" spans="1:29" s="9" customFormat="1" ht="11.25">
-      <c r="B25" s="44"/>
-      <c r="C25" s="44"/>
-      <c r="D25" s="44"/>
-      <c r="E25" s="44"/>
-      <c r="F25" s="44"/>
-      <c r="G25" s="44"/>
-      <c r="H25" s="44"/>
-      <c r="I25" s="44"/>
-      <c r="J25" s="44"/>
-      <c r="K25" s="44"/>
-      <c r="L25" s="44"/>
-      <c r="M25" s="44"/>
-      <c r="N25" s="55"/>
-      <c r="O25" s="55"/>
-      <c r="P25" s="44"/>
-      <c r="Q25" s="55"/>
-      <c r="R25" s="55"/>
-      <c r="S25" s="44"/>
-      <c r="T25" s="44"/>
-      <c r="U25" s="44"/>
-      <c r="V25" s="44"/>
-      <c r="W25" s="44"/>
-      <c r="X25" s="44"/>
-      <c r="Y25" s="44"/>
-      <c r="Z25" s="44"/>
-      <c r="AA25" s="44"/>
-      <c r="AB25" s="44"/>
-      <c r="AC25" s="44"/>
+      <c r="B25" s="45"/>
+      <c r="C25" s="45"/>
+      <c r="D25" s="45"/>
+      <c r="E25" s="45"/>
+      <c r="F25" s="45"/>
+      <c r="G25" s="45"/>
+      <c r="H25" s="45"/>
+      <c r="I25" s="45"/>
+      <c r="J25" s="45"/>
+      <c r="K25" s="45"/>
+      <c r="L25" s="45"/>
+      <c r="M25" s="45"/>
+      <c r="N25" s="45"/>
+      <c r="O25" s="45"/>
+      <c r="P25" s="45"/>
+      <c r="Q25" s="56"/>
+      <c r="R25" s="56"/>
+      <c r="S25" s="45"/>
+      <c r="T25" s="45"/>
+      <c r="U25" s="45"/>
+      <c r="V25" s="45"/>
+      <c r="W25" s="45"/>
+      <c r="X25" s="45"/>
+      <c r="Y25" s="45"/>
+      <c r="Z25" s="45"/>
+      <c r="AA25" s="45"/>
+      <c r="AB25" s="45"/>
+      <c r="AC25" s="45"/>
     </row>
     <row r="26" spans="1:29" s="9" customFormat="1" ht="11.25">
-      <c r="B26" s="44"/>
-      <c r="C26" s="44"/>
-      <c r="D26" s="44"/>
-      <c r="E26" s="44"/>
-      <c r="F26" s="44"/>
-      <c r="G26" s="44"/>
-      <c r="H26" s="44"/>
-      <c r="I26" s="44"/>
-      <c r="J26" s="44"/>
-      <c r="K26" s="44"/>
-      <c r="L26" s="44"/>
-      <c r="M26" s="44"/>
-      <c r="N26" s="55"/>
-      <c r="O26" s="55"/>
-      <c r="P26" s="44"/>
-      <c r="Q26" s="55"/>
-      <c r="R26" s="55"/>
-      <c r="S26" s="44"/>
-      <c r="T26" s="44"/>
-      <c r="U26" s="44"/>
-      <c r="V26" s="44"/>
-      <c r="W26" s="44"/>
-      <c r="X26" s="44"/>
-      <c r="Y26" s="44"/>
-      <c r="Z26" s="44"/>
-      <c r="AA26" s="44"/>
-      <c r="AB26" s="44"/>
-      <c r="AC26" s="44"/>
+      <c r="B26" s="45"/>
+      <c r="C26" s="45"/>
+      <c r="D26" s="45"/>
+      <c r="E26" s="45"/>
+      <c r="F26" s="45"/>
+      <c r="G26" s="45"/>
+      <c r="H26" s="45"/>
+      <c r="I26" s="45"/>
+      <c r="J26" s="45"/>
+      <c r="K26" s="45"/>
+      <c r="L26" s="45"/>
+      <c r="M26" s="45"/>
+      <c r="N26" s="45"/>
+      <c r="O26" s="45"/>
+      <c r="P26" s="45"/>
+      <c r="Q26" s="56"/>
+      <c r="R26" s="56"/>
+      <c r="S26" s="45"/>
+      <c r="T26" s="45"/>
+      <c r="U26" s="45"/>
+      <c r="V26" s="45"/>
+      <c r="W26" s="45"/>
+      <c r="X26" s="45"/>
+      <c r="Y26" s="45"/>
+      <c r="Z26" s="45"/>
+      <c r="AA26" s="45"/>
+      <c r="AB26" s="45"/>
+      <c r="AC26" s="45"/>
     </row>
     <row r="27" spans="1:29" s="9" customFormat="1" ht="11.25">
-      <c r="B27" s="44"/>
-      <c r="C27" s="44"/>
-      <c r="D27" s="44"/>
-      <c r="E27" s="44"/>
-      <c r="F27" s="44"/>
-      <c r="G27" s="44"/>
-      <c r="H27" s="44"/>
-      <c r="I27" s="44"/>
-      <c r="J27" s="44"/>
-      <c r="K27" s="44"/>
-      <c r="L27" s="44"/>
-      <c r="M27" s="44"/>
-      <c r="N27" s="55"/>
-      <c r="O27" s="55"/>
-      <c r="P27" s="44"/>
-      <c r="Q27" s="55"/>
-      <c r="R27" s="55"/>
-      <c r="S27" s="44"/>
-      <c r="T27" s="44"/>
-      <c r="U27" s="44"/>
-      <c r="V27" s="44"/>
-      <c r="W27" s="44"/>
-      <c r="X27" s="44"/>
-      <c r="Y27" s="44"/>
-      <c r="Z27" s="44"/>
-      <c r="AA27" s="44"/>
-      <c r="AB27" s="44"/>
-      <c r="AC27" s="44"/>
+      <c r="B27" s="45"/>
+      <c r="C27" s="45"/>
+      <c r="D27" s="45"/>
+      <c r="E27" s="45"/>
+      <c r="F27" s="45"/>
+      <c r="G27" s="45"/>
+      <c r="H27" s="45"/>
+      <c r="I27" s="45"/>
+      <c r="J27" s="45"/>
+      <c r="K27" s="45"/>
+      <c r="L27" s="45"/>
+      <c r="M27" s="45"/>
+      <c r="N27" s="45"/>
+      <c r="O27" s="45"/>
+      <c r="P27" s="45"/>
+      <c r="Q27" s="56"/>
+      <c r="R27" s="56"/>
+      <c r="S27" s="45"/>
+      <c r="T27" s="45"/>
+      <c r="U27" s="45"/>
+      <c r="V27" s="45"/>
+      <c r="W27" s="45"/>
+      <c r="X27" s="45"/>
+      <c r="Y27" s="45"/>
+      <c r="Z27" s="45"/>
+      <c r="AA27" s="45"/>
+      <c r="AB27" s="45"/>
+      <c r="AC27" s="45"/>
     </row>
     <row r="28" spans="1:29" s="9" customFormat="1" ht="11.25">
-      <c r="B28" s="44"/>
-      <c r="C28" s="44"/>
-      <c r="D28" s="44"/>
-      <c r="E28" s="44"/>
-      <c r="F28" s="44"/>
-      <c r="G28" s="44"/>
-      <c r="H28" s="44"/>
-      <c r="I28" s="44"/>
-      <c r="J28" s="44"/>
-      <c r="K28" s="44"/>
-      <c r="L28" s="44"/>
-      <c r="M28" s="44"/>
-      <c r="N28" s="55"/>
-      <c r="O28" s="55"/>
-      <c r="P28" s="44"/>
-      <c r="Q28" s="55"/>
-      <c r="R28" s="55"/>
-      <c r="S28" s="44"/>
-      <c r="T28" s="44"/>
-      <c r="U28" s="44"/>
-      <c r="V28" s="44"/>
-      <c r="W28" s="44"/>
-      <c r="X28" s="44"/>
-      <c r="Y28" s="44"/>
-      <c r="Z28" s="44"/>
-      <c r="AA28" s="44"/>
-      <c r="AB28" s="44"/>
-      <c r="AC28" s="44"/>
+      <c r="B28" s="45"/>
+      <c r="C28" s="45"/>
+      <c r="D28" s="45"/>
+      <c r="E28" s="45"/>
+      <c r="F28" s="45"/>
+      <c r="G28" s="45"/>
+      <c r="H28" s="45"/>
+      <c r="I28" s="45"/>
+      <c r="J28" s="45"/>
+      <c r="K28" s="45"/>
+      <c r="L28" s="45"/>
+      <c r="M28" s="45"/>
+      <c r="N28" s="45"/>
+      <c r="O28" s="45"/>
+      <c r="P28" s="45"/>
+      <c r="Q28" s="56"/>
+      <c r="R28" s="56"/>
+      <c r="S28" s="45"/>
+      <c r="T28" s="45"/>
+      <c r="U28" s="45"/>
+      <c r="V28" s="45"/>
+      <c r="W28" s="45"/>
+      <c r="X28" s="45"/>
+      <c r="Y28" s="45"/>
+      <c r="Z28" s="45"/>
+      <c r="AA28" s="45"/>
+      <c r="AB28" s="45"/>
+      <c r="AC28" s="45"/>
     </row>
     <row r="29" spans="1:29" s="9" customFormat="1" ht="11.25" customHeight="1">
-      <c r="J29" s="14"/>
+      <c r="K29" s="14"/>
       <c r="U29" s="14"/>
       <c r="W29" s="14"/>
     </row>
-    <row r="30" spans="1:29" s="9" customFormat="1" ht="11.25">
-      <c r="J30" s="14"/>
-      <c r="P30" s="44" t="s">
+    <row r="30" spans="1:29" s="9" customFormat="1" ht="11.25" customHeight="1">
+      <c r="I30" s="7"/>
+      <c r="J30" s="7"/>
+      <c r="K30" s="7"/>
+      <c r="P30" s="45" t="s">
         <v>844</v>
       </c>
       <c r="T30" s="14"/>
-      <c r="U30" s="44" t="s">
+      <c r="U30" s="45" t="s">
         <v>338</v>
       </c>
     </row>
-    <row r="31" spans="1:29" s="9" customFormat="1" ht="12">
-      <c r="A31" s="45" t="s">
+    <row r="31" spans="1:29" s="9" customFormat="1">
+      <c r="A31" s="46" t="s">
         <v>49</v>
       </c>
-      <c r="B31" s="45"/>
+      <c r="B31" s="46"/>
       <c r="D31" s="43"/>
-      <c r="J31" s="15"/>
-      <c r="P31" s="44"/>
+      <c r="I31"/>
+      <c r="J31" s="7"/>
+      <c r="K31" s="7"/>
+      <c r="P31" s="45"/>
       <c r="T31" s="15"/>
-      <c r="U31" s="44"/>
-    </row>
-    <row r="32" spans="1:29" s="9" customFormat="1" ht="12">
-      <c r="A32" s="45"/>
-      <c r="B32" s="45"/>
+      <c r="U31" s="45"/>
+    </row>
+    <row r="32" spans="1:29" s="9" customFormat="1">
+      <c r="A32" s="46"/>
+      <c r="B32" s="46"/>
       <c r="D32" s="43"/>
-      <c r="J32" s="15"/>
-      <c r="P32" s="44"/>
+      <c r="I32"/>
+      <c r="J32" s="7"/>
+      <c r="K32" s="7"/>
+      <c r="P32" s="45"/>
       <c r="T32" s="15"/>
-      <c r="U32" s="44"/>
+      <c r="U32" s="45"/>
     </row>
     <row r="33" spans="1:21" s="9" customFormat="1" ht="15.75" customHeight="1">
       <c r="A33" s="20" t="s">
@@ -13125,12 +13141,14 @@
         <v>48</v>
       </c>
       <c r="D33" s="43"/>
-      <c r="J33" s="15"/>
-      <c r="P33" s="44"/>
+      <c r="I33"/>
+      <c r="J33"/>
+      <c r="K33"/>
+      <c r="P33" s="45"/>
       <c r="T33" s="15"/>
-      <c r="U33" s="44"/>
-    </row>
-    <row r="34" spans="1:21" s="9" customFormat="1" ht="12">
+      <c r="U33" s="45"/>
+    </row>
+    <row r="34" spans="1:21" s="9" customFormat="1">
       <c r="A34" s="17" t="s">
         <v>38</v>
       </c>
@@ -13138,12 +13156,14 @@
         <v>41</v>
       </c>
       <c r="D34" s="43"/>
-      <c r="J34" s="15"/>
-      <c r="P34" s="44"/>
+      <c r="I34"/>
+      <c r="J34"/>
+      <c r="K34"/>
+      <c r="P34" s="45"/>
       <c r="T34" s="15"/>
-      <c r="U34" s="44"/>
-    </row>
-    <row r="35" spans="1:21" s="7" customFormat="1" ht="12">
+      <c r="U34" s="45"/>
+    </row>
+    <row r="35" spans="1:21" s="7" customFormat="1">
       <c r="A35" s="17" t="s">
         <v>8</v>
       </c>
@@ -13151,12 +13171,14 @@
         <v>42</v>
       </c>
       <c r="D35" s="43"/>
-      <c r="J35" s="15"/>
-      <c r="P35" s="44"/>
+      <c r="I35"/>
+      <c r="J35"/>
+      <c r="K35"/>
+      <c r="P35" s="45"/>
       <c r="T35" s="15"/>
-      <c r="U35" s="44"/>
-    </row>
-    <row r="36" spans="1:21" s="7" customFormat="1" ht="12">
+      <c r="U35" s="45"/>
+    </row>
+    <row r="36" spans="1:21" s="7" customFormat="1">
       <c r="A36" s="17" t="s">
         <v>39</v>
       </c>
@@ -13164,10 +13186,13 @@
         <v>201</v>
       </c>
       <c r="D36" s="43"/>
-      <c r="P36" s="44"/>
-      <c r="U36" s="44"/>
-    </row>
-    <row r="37" spans="1:21" s="7" customFormat="1" ht="12">
+      <c r="I36"/>
+      <c r="J36"/>
+      <c r="K36"/>
+      <c r="P36" s="45"/>
+      <c r="U36" s="45"/>
+    </row>
+    <row r="37" spans="1:21" s="7" customFormat="1">
       <c r="A37" s="17" t="s">
         <v>10</v>
       </c>
@@ -13175,10 +13200,13 @@
         <v>43</v>
       </c>
       <c r="D37" s="43"/>
-      <c r="P37" s="44"/>
-      <c r="U37" s="44"/>
-    </row>
-    <row r="38" spans="1:21" s="7" customFormat="1" ht="12">
+      <c r="I37"/>
+      <c r="J37"/>
+      <c r="K37"/>
+      <c r="P37" s="45"/>
+      <c r="U37" s="45"/>
+    </row>
+    <row r="38" spans="1:21" s="7" customFormat="1">
       <c r="A38" s="17" t="s">
         <v>11</v>
       </c>
@@ -13186,9 +13214,12 @@
         <v>44</v>
       </c>
       <c r="D38" s="43"/>
-      <c r="P38" s="44"/>
-    </row>
-    <row r="39" spans="1:21" s="7" customFormat="1" ht="12">
+      <c r="I38"/>
+      <c r="J38"/>
+      <c r="K38"/>
+      <c r="P38" s="45"/>
+    </row>
+    <row r="39" spans="1:21" s="7" customFormat="1">
       <c r="A39" s="17" t="s">
         <v>40</v>
       </c>
@@ -13196,9 +13227,12 @@
         <v>45</v>
       </c>
       <c r="D39" s="43"/>
-      <c r="P39" s="44"/>
-    </row>
-    <row r="40" spans="1:21" s="7" customFormat="1" ht="12">
+      <c r="I39"/>
+      <c r="J39"/>
+      <c r="K39"/>
+      <c r="P39" s="45"/>
+    </row>
+    <row r="40" spans="1:21" s="7" customFormat="1">
       <c r="A40" s="17" t="s">
         <v>12</v>
       </c>
@@ -13206,8 +13240,11 @@
         <v>198</v>
       </c>
       <c r="D40" s="43"/>
-    </row>
-    <row r="41" spans="1:21" s="7" customFormat="1" ht="12">
+      <c r="I40"/>
+      <c r="J40"/>
+      <c r="K40"/>
+    </row>
+    <row r="41" spans="1:21" s="7" customFormat="1">
       <c r="A41" s="17" t="s">
         <v>13</v>
       </c>
@@ -13215,23 +13252,36 @@
         <v>46</v>
       </c>
       <c r="D41" s="43"/>
-    </row>
-    <row r="42" spans="1:21" s="7" customFormat="1" ht="12">
+      <c r="I41"/>
+      <c r="J41"/>
+      <c r="K41"/>
+    </row>
+    <row r="42" spans="1:21" s="7" customFormat="1">
       <c r="D42" s="43"/>
-    </row>
-    <row r="43" spans="1:21" s="7" customFormat="1" ht="12">
+      <c r="I42"/>
+      <c r="J42"/>
+      <c r="K42"/>
+    </row>
+    <row r="43" spans="1:21" s="7" customFormat="1">
       <c r="C43" s="43"/>
+      <c r="I43"/>
+      <c r="J43"/>
+      <c r="K43"/>
     </row>
     <row r="44" spans="1:21" s="7" customFormat="1">
       <c r="C44" s="43"/>
       <c r="D44"/>
       <c r="I44"/>
+      <c r="J44"/>
+      <c r="K44"/>
       <c r="S44"/>
     </row>
     <row r="45" spans="1:21" s="7" customFormat="1">
       <c r="C45" s="43"/>
       <c r="D45"/>
       <c r="I45"/>
+      <c r="J45"/>
+      <c r="K45"/>
       <c r="S45"/>
     </row>
     <row r="46" spans="1:21">
@@ -13244,15 +13294,15 @@
     <mergeCell ref="D19:D28"/>
     <mergeCell ref="T19:T28"/>
     <mergeCell ref="I19:I28"/>
-    <mergeCell ref="N19:N28"/>
     <mergeCell ref="O19:O28"/>
+    <mergeCell ref="J19:J28"/>
     <mergeCell ref="X19:X28"/>
     <mergeCell ref="S19:S28"/>
     <mergeCell ref="P19:P28"/>
     <mergeCell ref="B19:B28"/>
     <mergeCell ref="V19:V28"/>
     <mergeCell ref="W19:W28"/>
-    <mergeCell ref="K19:K28"/>
+    <mergeCell ref="L19:L28"/>
     <mergeCell ref="E19:E28"/>
     <mergeCell ref="AB19:AB28"/>
     <mergeCell ref="AC19:AC28"/>
@@ -13260,12 +13310,12 @@
     <mergeCell ref="A31:B32"/>
     <mergeCell ref="AA19:AA28"/>
     <mergeCell ref="F19:F28"/>
+    <mergeCell ref="N19:N28"/>
     <mergeCell ref="M19:M28"/>
-    <mergeCell ref="L19:L28"/>
     <mergeCell ref="C19:C28"/>
     <mergeCell ref="Z19:Z28"/>
     <mergeCell ref="Q19:Q28"/>
-    <mergeCell ref="J19:J28"/>
+    <mergeCell ref="K19:K28"/>
     <mergeCell ref="G19:G28"/>
     <mergeCell ref="H19:H28"/>
     <mergeCell ref="U19:U28"/>
@@ -13542,118 +13592,118 @@
       <c r="C18" s="21"/>
     </row>
     <row r="19" spans="1:7" s="9" customFormat="1" ht="11.25" customHeight="1">
-      <c r="A19" s="44"/>
-      <c r="B19" s="44" t="s">
+      <c r="A19" s="45"/>
+      <c r="B19" s="45" t="s">
         <v>849</v>
       </c>
-      <c r="C19" s="44" t="s">
+      <c r="C19" s="45" t="s">
         <v>67</v>
       </c>
-      <c r="D19" s="44" t="s">
+      <c r="D19" s="45" t="s">
         <v>352</v>
       </c>
-      <c r="E19" s="44" t="s">
+      <c r="E19" s="45" t="s">
         <v>353</v>
       </c>
-      <c r="F19" s="44" t="s">
+      <c r="F19" s="45" t="s">
         <v>371</v>
       </c>
-      <c r="G19" s="44" t="s">
+      <c r="G19" s="45" t="s">
         <v>346</v>
       </c>
     </row>
     <row r="20" spans="1:7" s="9" customFormat="1" ht="11.25">
-      <c r="A20" s="44"/>
-      <c r="B20" s="44"/>
-      <c r="C20" s="44"/>
-      <c r="D20" s="44"/>
-      <c r="E20" s="44"/>
-      <c r="F20" s="44"/>
-      <c r="G20" s="44"/>
+      <c r="A20" s="45"/>
+      <c r="B20" s="45"/>
+      <c r="C20" s="45"/>
+      <c r="D20" s="45"/>
+      <c r="E20" s="45"/>
+      <c r="F20" s="45"/>
+      <c r="G20" s="45"/>
     </row>
     <row r="21" spans="1:7" s="9" customFormat="1" ht="11.25">
-      <c r="A21" s="44"/>
-      <c r="B21" s="44"/>
-      <c r="C21" s="44"/>
-      <c r="D21" s="44"/>
-      <c r="E21" s="44"/>
-      <c r="F21" s="44"/>
-      <c r="G21" s="44"/>
+      <c r="A21" s="45"/>
+      <c r="B21" s="45"/>
+      <c r="C21" s="45"/>
+      <c r="D21" s="45"/>
+      <c r="E21" s="45"/>
+      <c r="F21" s="45"/>
+      <c r="G21" s="45"/>
     </row>
     <row r="22" spans="1:7" s="9" customFormat="1" ht="11.25">
-      <c r="A22" s="44"/>
-      <c r="B22" s="44"/>
-      <c r="C22" s="44"/>
-      <c r="D22" s="44"/>
-      <c r="E22" s="44"/>
-      <c r="F22" s="44"/>
-      <c r="G22" s="44"/>
+      <c r="A22" s="45"/>
+      <c r="B22" s="45"/>
+      <c r="C22" s="45"/>
+      <c r="D22" s="45"/>
+      <c r="E22" s="45"/>
+      <c r="F22" s="45"/>
+      <c r="G22" s="45"/>
     </row>
     <row r="23" spans="1:7" s="9" customFormat="1" ht="11.25">
-      <c r="A23" s="44"/>
-      <c r="B23" s="44"/>
-      <c r="C23" s="44"/>
-      <c r="D23" s="44"/>
-      <c r="E23" s="44"/>
-      <c r="F23" s="44"/>
-      <c r="G23" s="44"/>
+      <c r="A23" s="45"/>
+      <c r="B23" s="45"/>
+      <c r="C23" s="45"/>
+      <c r="D23" s="45"/>
+      <c r="E23" s="45"/>
+      <c r="F23" s="45"/>
+      <c r="G23" s="45"/>
     </row>
     <row r="24" spans="1:7" s="9" customFormat="1" ht="11.25">
-      <c r="A24" s="44"/>
-      <c r="B24" s="44"/>
-      <c r="C24" s="44"/>
-      <c r="D24" s="44"/>
-      <c r="E24" s="44"/>
-      <c r="F24" s="44"/>
-      <c r="G24" s="44"/>
+      <c r="A24" s="45"/>
+      <c r="B24" s="45"/>
+      <c r="C24" s="45"/>
+      <c r="D24" s="45"/>
+      <c r="E24" s="45"/>
+      <c r="F24" s="45"/>
+      <c r="G24" s="45"/>
     </row>
     <row r="25" spans="1:7" s="9" customFormat="1" ht="11.25">
-      <c r="A25" s="44"/>
-      <c r="B25" s="44"/>
-      <c r="C25" s="44"/>
-      <c r="D25" s="44"/>
-      <c r="E25" s="44"/>
-      <c r="F25" s="44"/>
-      <c r="G25" s="44"/>
+      <c r="A25" s="45"/>
+      <c r="B25" s="45"/>
+      <c r="C25" s="45"/>
+      <c r="D25" s="45"/>
+      <c r="E25" s="45"/>
+      <c r="F25" s="45"/>
+      <c r="G25" s="45"/>
     </row>
     <row r="26" spans="1:7" s="9" customFormat="1" ht="11.25">
-      <c r="A26" s="44"/>
-      <c r="B26" s="44"/>
-      <c r="C26" s="44"/>
-      <c r="D26" s="44"/>
-      <c r="E26" s="44"/>
-      <c r="F26" s="44"/>
-      <c r="G26" s="44"/>
+      <c r="A26" s="45"/>
+      <c r="B26" s="45"/>
+      <c r="C26" s="45"/>
+      <c r="D26" s="45"/>
+      <c r="E26" s="45"/>
+      <c r="F26" s="45"/>
+      <c r="G26" s="45"/>
     </row>
     <row r="27" spans="1:7" s="9" customFormat="1" ht="11.25">
-      <c r="A27" s="44"/>
-      <c r="B27" s="44"/>
-      <c r="C27" s="44"/>
-      <c r="D27" s="44"/>
-      <c r="E27" s="44"/>
-      <c r="F27" s="44"/>
-      <c r="G27" s="44"/>
+      <c r="A27" s="45"/>
+      <c r="B27" s="45"/>
+      <c r="C27" s="45"/>
+      <c r="D27" s="45"/>
+      <c r="E27" s="45"/>
+      <c r="F27" s="45"/>
+      <c r="G27" s="45"/>
     </row>
     <row r="28" spans="1:7" s="9" customFormat="1" ht="11.25">
-      <c r="A28" s="44"/>
-      <c r="B28" s="44"/>
-      <c r="C28" s="44"/>
-      <c r="D28" s="44"/>
-      <c r="E28" s="44"/>
-      <c r="F28" s="44"/>
-      <c r="G28" s="44"/>
+      <c r="A28" s="45"/>
+      <c r="B28" s="45"/>
+      <c r="C28" s="45"/>
+      <c r="D28" s="45"/>
+      <c r="E28" s="45"/>
+      <c r="F28" s="45"/>
+      <c r="G28" s="45"/>
     </row>
     <row r="29" spans="1:7" s="9" customFormat="1" ht="11.25" customHeight="1"/>
     <row r="30" spans="1:7" s="9" customFormat="1" ht="11.25" customHeight="1"/>
     <row r="31" spans="1:7" s="9" customFormat="1" ht="11.25">
-      <c r="A31" s="45" t="s">
+      <c r="A31" s="46" t="s">
         <v>49</v>
       </c>
-      <c r="B31" s="45"/>
+      <c r="B31" s="46"/>
     </row>
     <row r="32" spans="1:7" s="9" customFormat="1" ht="11.25">
-      <c r="A32" s="45"/>
-      <c r="B32" s="45"/>
+      <c r="A32" s="46"/>
+      <c r="B32" s="46"/>
     </row>
     <row r="33" spans="1:2" s="9" customFormat="1" ht="15.75" customHeight="1">
       <c r="A33" s="20" t="s">

--- a/Documentação/Planilhas/Conferencia_WMS.xlsx
+++ b/Documentação/Planilhas/Conferencia_WMS.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="30" windowWidth="20115" windowHeight="8010" firstSheet="7" activeTab="7"/>
+    <workbookView xWindow="240" yWindow="30" windowWidth="20115" windowHeight="8010" firstSheet="5" activeTab="7"/>
   </bookViews>
   <sheets>
     <sheet name="stg_dom_wms_onda" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1814" uniqueCount="894">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1825" uniqueCount="900">
   <si>
     <t>CD_ONDA</t>
   </si>
@@ -1009,9 +1009,6 @@
   </si>
   <si>
     <t>2015-03-23 15:25:01.000</t>
-  </si>
-  <si>
-    <t>0000000063</t>
   </si>
   <si>
     <t>2015-04-10 18:49:29.000</t>
@@ -2749,6 +2746,27 @@
   </si>
   <si>
     <t>É lido o campo "WMWHSE1.CAGEIDDETAIL.adddate" e o mesmo não é apresentado em tela</t>
+  </si>
+  <si>
+    <t>2014-08-18 13:00:00.000</t>
+  </si>
+  <si>
+    <t>2015-01-14 08:40:00.000</t>
+  </si>
+  <si>
+    <t>2014-08-26 11:54:00.000</t>
+  </si>
+  <si>
+    <t>2015-02-04 23:59:00.000</t>
+  </si>
+  <si>
+    <t>2015-02-27 14:32:00.000</t>
+  </si>
+  <si>
+    <t>2014-04-27 08:00:00.000</t>
+  </si>
+  <si>
+    <t>o código do contrato não existe no WMS somente no LN</t>
   </si>
 </sst>
 </file>
@@ -2978,7 +2996,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="57">
+  <cellXfs count="58">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -3127,6 +3145,9 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -4083,7 +4104,7 @@
         <v>14</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="E2" s="2"/>
       <c r="F2" s="2"/>
@@ -4135,37 +4156,37 @@
         <v>149</v>
       </c>
       <c r="D6" s="38" t="s">
+        <v>359</v>
+      </c>
+      <c r="E6" s="38" t="s">
+        <v>362</v>
+      </c>
+      <c r="F6" s="38" t="s">
+        <v>355</v>
+      </c>
+      <c r="G6" s="38" t="s">
+        <v>358</v>
+      </c>
+      <c r="H6" s="38" t="s">
+        <v>354</v>
+      </c>
+      <c r="I6" s="38" t="s">
+        <v>356</v>
+      </c>
+      <c r="J6" s="38" t="s">
+        <v>357</v>
+      </c>
+      <c r="K6" s="38" t="s">
         <v>360</v>
-      </c>
-      <c r="E6" s="38" t="s">
-        <v>363</v>
-      </c>
-      <c r="F6" s="38" t="s">
-        <v>356</v>
-      </c>
-      <c r="G6" s="38" t="s">
-        <v>359</v>
-      </c>
-      <c r="H6" s="38" t="s">
-        <v>355</v>
-      </c>
-      <c r="I6" s="38" t="s">
-        <v>357</v>
-      </c>
-      <c r="J6" s="38" t="s">
-        <v>358</v>
-      </c>
-      <c r="K6" s="38" t="s">
-        <v>361</v>
       </c>
       <c r="L6" s="38" t="s">
         <v>189</v>
       </c>
       <c r="M6" s="38" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="N6" s="38" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="O6" s="38" t="s">
         <v>7</v>
@@ -4182,16 +4203,16 @@
         <v>151</v>
       </c>
       <c r="C7" s="31" t="s">
+        <v>414</v>
+      </c>
+      <c r="D7" s="31" t="s">
         <v>415</v>
-      </c>
-      <c r="D7" s="31" t="s">
-        <v>416</v>
       </c>
       <c r="E7" s="31" t="s">
         <v>277</v>
       </c>
       <c r="F7" s="31" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="G7" s="31" t="s">
         <v>131</v>
@@ -4203,10 +4224,10 @@
         <v>299</v>
       </c>
       <c r="J7" s="31" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="K7" s="31" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="L7" s="31" t="s">
         <v>277</v>
@@ -4218,7 +4239,7 @@
         <v>277</v>
       </c>
       <c r="O7" s="31" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="P7" s="31" t="s">
         <v>295</v>
@@ -4232,16 +4253,16 @@
         <v>151</v>
       </c>
       <c r="C8" s="31" t="s">
+        <v>419</v>
+      </c>
+      <c r="D8" s="31" t="s">
         <v>420</v>
-      </c>
-      <c r="D8" s="31" t="s">
-        <v>421</v>
       </c>
       <c r="E8" s="31" t="s">
         <v>277</v>
       </c>
       <c r="F8" s="31" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="G8" s="31" t="s">
         <v>131</v>
@@ -4253,10 +4274,10 @@
         <v>299</v>
       </c>
       <c r="J8" s="31" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="K8" s="31" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="L8" s="31" t="s">
         <v>277</v>
@@ -4268,10 +4289,10 @@
         <v>277</v>
       </c>
       <c r="O8" s="31" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="P8" s="31" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
     </row>
     <row r="9" spans="1:16" s="22" customFormat="1" ht="11.25">
@@ -4282,16 +4303,16 @@
         <v>151</v>
       </c>
       <c r="C9" s="31" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="D9" s="31" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="E9" s="31" t="s">
         <v>277</v>
       </c>
       <c r="F9" s="31" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="G9" s="31" t="s">
         <v>131</v>
@@ -4303,10 +4324,10 @@
         <v>298</v>
       </c>
       <c r="J9" s="31" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="K9" s="31" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="L9" s="31" t="s">
         <v>277</v>
@@ -4318,10 +4339,10 @@
         <v>277</v>
       </c>
       <c r="O9" s="31" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="P9" s="31" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
     </row>
     <row r="10" spans="1:16" s="22" customFormat="1" ht="11.25">
@@ -4332,16 +4353,16 @@
         <v>151</v>
       </c>
       <c r="C10" s="31" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="D10" s="31" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="E10" s="31" t="s">
         <v>277</v>
       </c>
       <c r="F10" s="31" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="G10" s="31" t="s">
         <v>131</v>
@@ -4353,10 +4374,10 @@
         <v>299</v>
       </c>
       <c r="J10" s="31" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="K10" s="31" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="L10" s="31" t="s">
         <v>277</v>
@@ -4368,7 +4389,7 @@
         <v>277</v>
       </c>
       <c r="O10" s="31" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="P10" s="31" t="s">
         <v>297</v>
@@ -4382,16 +4403,16 @@
         <v>151</v>
       </c>
       <c r="C11" s="35" t="s">
+        <v>403</v>
+      </c>
+      <c r="D11" s="35" t="s">
         <v>404</v>
       </c>
-      <c r="D11" s="35" t="s">
-        <v>405</v>
-      </c>
       <c r="E11" s="35" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="F11" s="35" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="G11" s="35" t="s">
         <v>61</v>
@@ -4400,25 +4421,25 @@
         <v>310</v>
       </c>
       <c r="I11" s="35" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="J11" s="35" t="s">
         <v>310</v>
       </c>
       <c r="K11" s="31" t="s">
+        <v>407</v>
+      </c>
+      <c r="L11" s="35" t="s">
+        <v>425</v>
+      </c>
+      <c r="M11" s="35" t="s">
+        <v>410</v>
+      </c>
+      <c r="N11" s="31" t="s">
         <v>408</v>
       </c>
-      <c r="L11" s="35" t="s">
-        <v>426</v>
-      </c>
-      <c r="M11" s="35" t="s">
-        <v>411</v>
-      </c>
-      <c r="N11" s="31" t="s">
-        <v>409</v>
-      </c>
       <c r="O11" s="31" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="P11" s="31" t="s">
         <v>295</v>
@@ -4432,16 +4453,16 @@
         <v>151</v>
       </c>
       <c r="C12" s="31" t="s">
+        <v>379</v>
+      </c>
+      <c r="D12" s="31" t="s">
         <v>380</v>
-      </c>
-      <c r="D12" s="31" t="s">
-        <v>381</v>
       </c>
       <c r="E12" s="31" t="s">
         <v>277</v>
       </c>
       <c r="F12" s="31" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="G12" s="31" t="s">
         <v>131</v>
@@ -4453,25 +4474,25 @@
         <v>299</v>
       </c>
       <c r="J12" s="31" t="s">
+        <v>364</v>
+      </c>
+      <c r="K12" s="31" t="s">
+        <v>383</v>
+      </c>
+      <c r="L12" s="31" t="s">
+        <v>435</v>
+      </c>
+      <c r="M12" s="31" t="s">
+        <v>385</v>
+      </c>
+      <c r="N12" s="31" t="s">
+        <v>384</v>
+      </c>
+      <c r="O12" s="31" t="s">
+        <v>381</v>
+      </c>
+      <c r="P12" s="31" t="s">
         <v>365</v>
-      </c>
-      <c r="K12" s="31" t="s">
-        <v>384</v>
-      </c>
-      <c r="L12" s="31" t="s">
-        <v>436</v>
-      </c>
-      <c r="M12" s="31" t="s">
-        <v>386</v>
-      </c>
-      <c r="N12" s="31" t="s">
-        <v>385</v>
-      </c>
-      <c r="O12" s="31" t="s">
-        <v>382</v>
-      </c>
-      <c r="P12" s="31" t="s">
-        <v>366</v>
       </c>
     </row>
     <row r="13" spans="1:16" s="22" customFormat="1" ht="11.25">
@@ -4482,16 +4503,16 @@
         <v>151</v>
       </c>
       <c r="C13" s="31" t="s">
+        <v>392</v>
+      </c>
+      <c r="D13" s="31" t="s">
         <v>393</v>
       </c>
-      <c r="D13" s="31" t="s">
-        <v>394</v>
-      </c>
       <c r="E13" s="31" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="F13" s="31" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="G13" s="31" t="s">
         <v>61</v>
@@ -4500,25 +4521,25 @@
         <v>299</v>
       </c>
       <c r="I13" s="31" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="J13" s="31" t="s">
         <v>299</v>
       </c>
       <c r="K13" s="31" t="s">
+        <v>396</v>
+      </c>
+      <c r="L13" s="31" t="s">
+        <v>436</v>
+      </c>
+      <c r="M13" s="31" t="s">
+        <v>399</v>
+      </c>
+      <c r="N13" s="31" t="s">
         <v>397</v>
       </c>
-      <c r="L13" s="31" t="s">
-        <v>437</v>
-      </c>
-      <c r="M13" s="31" t="s">
-        <v>400</v>
-      </c>
-      <c r="N13" s="31" t="s">
-        <v>398</v>
-      </c>
       <c r="O13" s="31" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="P13" s="31" t="s">
         <v>295</v>
@@ -4532,16 +4553,16 @@
         <v>151</v>
       </c>
       <c r="C14" s="31" t="s">
+        <v>371</v>
+      </c>
+      <c r="D14" s="31" t="s">
         <v>372</v>
       </c>
-      <c r="D14" s="31" t="s">
-        <v>373</v>
-      </c>
       <c r="E14" s="31" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="F14" s="31" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="G14" s="31" t="s">
         <v>61</v>
@@ -4550,25 +4571,25 @@
         <v>299</v>
       </c>
       <c r="I14" s="31" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="J14" s="31" t="s">
         <v>299</v>
       </c>
       <c r="K14" s="31" t="s">
+        <v>375</v>
+      </c>
+      <c r="L14" s="31" t="s">
+        <v>437</v>
+      </c>
+      <c r="M14" s="31" t="s">
+        <v>378</v>
+      </c>
+      <c r="N14" s="31" t="s">
         <v>376</v>
       </c>
-      <c r="L14" s="31" t="s">
-        <v>438</v>
-      </c>
-      <c r="M14" s="31" t="s">
-        <v>379</v>
-      </c>
-      <c r="N14" s="31" t="s">
-        <v>377</v>
-      </c>
       <c r="O14" s="31" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="P14" s="31" t="s">
         <v>297</v>
@@ -4582,16 +4603,16 @@
         <v>151</v>
       </c>
       <c r="C15" s="31" t="s">
+        <v>386</v>
+      </c>
+      <c r="D15" s="31" t="s">
         <v>387</v>
       </c>
-      <c r="D15" s="31" t="s">
-        <v>388</v>
-      </c>
       <c r="E15" s="31" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="F15" s="31" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="G15" s="31" t="s">
         <v>61</v>
@@ -4600,25 +4621,25 @@
         <v>299</v>
       </c>
       <c r="I15" s="31" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="J15" s="31" t="s">
         <v>299</v>
       </c>
       <c r="K15" s="31" t="s">
+        <v>390</v>
+      </c>
+      <c r="L15" s="31" t="s">
+        <v>437</v>
+      </c>
+      <c r="M15" s="31" t="s">
+        <v>378</v>
+      </c>
+      <c r="N15" s="31" t="s">
         <v>391</v>
       </c>
-      <c r="L15" s="31" t="s">
-        <v>438</v>
-      </c>
-      <c r="M15" s="31" t="s">
-        <v>379</v>
-      </c>
-      <c r="N15" s="31" t="s">
-        <v>392</v>
-      </c>
       <c r="O15" s="31" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="P15" s="31" t="s">
         <v>297</v>
@@ -4632,16 +4653,16 @@
         <v>151</v>
       </c>
       <c r="C16" s="21" t="s">
+        <v>366</v>
+      </c>
+      <c r="D16" s="21" t="s">
         <v>367</v>
       </c>
-      <c r="D16" s="21" t="s">
-        <v>368</v>
-      </c>
       <c r="E16" s="21" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="F16" s="21" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="G16" s="21" t="s">
         <v>61</v>
@@ -4650,25 +4671,25 @@
         <v>10000</v>
       </c>
       <c r="I16" s="21" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="J16" s="21" t="s">
         <v>299</v>
       </c>
       <c r="K16" s="21" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="L16" s="21" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="M16" s="21" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="N16" s="21" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="O16" s="21" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="P16" s="21" t="s">
         <v>297</v>
@@ -4705,47 +4726,47 @@
     <row r="19" spans="1:16" s="9" customFormat="1" ht="11.25" customHeight="1">
       <c r="A19" s="45"/>
       <c r="B19" s="45" t="s">
-        <v>849</v>
+        <v>848</v>
       </c>
       <c r="C19" s="45" t="s">
         <v>67</v>
       </c>
       <c r="D19" s="45" t="s">
+        <v>369</v>
+      </c>
+      <c r="E19" s="45" t="s">
+        <v>413</v>
+      </c>
+      <c r="F19" s="45" t="s">
+        <v>411</v>
+      </c>
+      <c r="G19" s="45" t="s">
+        <v>412</v>
+      </c>
+      <c r="H19" s="45" t="s">
+        <v>440</v>
+      </c>
+      <c r="I19" s="45" t="s">
+        <v>441</v>
+      </c>
+      <c r="J19" s="45" t="s">
+        <v>442</v>
+      </c>
+      <c r="K19" s="45" t="s">
         <v>370</v>
       </c>
-      <c r="E19" s="45" t="s">
-        <v>414</v>
-      </c>
-      <c r="F19" s="45" t="s">
-        <v>412</v>
-      </c>
-      <c r="G19" s="45" t="s">
-        <v>413</v>
-      </c>
-      <c r="H19" s="45" t="s">
-        <v>441</v>
-      </c>
-      <c r="I19" s="45" t="s">
-        <v>442</v>
-      </c>
-      <c r="J19" s="45" t="s">
-        <v>443</v>
-      </c>
-      <c r="K19" s="45" t="s">
-        <v>371</v>
-      </c>
       <c r="L19" s="47" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="M19" s="45" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="N19" s="45" t="s">
-        <v>893</v>
+        <v>892</v>
       </c>
       <c r="O19" s="45"/>
       <c r="P19" s="45" t="s">
-        <v>843</v>
+        <v>842</v>
       </c>
     </row>
     <row r="20" spans="1:16" s="9" customFormat="1" ht="11.25">
@@ -4913,7 +4934,7 @@
     <row r="29" spans="1:16" s="9" customFormat="1" ht="11.25" customHeight="1"/>
     <row r="30" spans="1:16" s="9" customFormat="1" ht="11.25" customHeight="1">
       <c r="P30" s="45" t="s">
-        <v>844</v>
+        <v>843</v>
       </c>
     </row>
     <row r="31" spans="1:16" s="9" customFormat="1" ht="11.25">
@@ -5168,12 +5189,6 @@
     </row>
   </sheetData>
   <mergeCells count="18">
-    <mergeCell ref="J19:J28"/>
-    <mergeCell ref="N19:N28"/>
-    <mergeCell ref="E19:E28"/>
-    <mergeCell ref="M19:M28"/>
-    <mergeCell ref="A19:A28"/>
-    <mergeCell ref="L19:L28"/>
     <mergeCell ref="P30:P39"/>
     <mergeCell ref="G19:G28"/>
     <mergeCell ref="A31:B32"/>
@@ -5186,6 +5201,12 @@
     <mergeCell ref="H19:H28"/>
     <mergeCell ref="F19:F28"/>
     <mergeCell ref="I19:I28"/>
+    <mergeCell ref="J19:J28"/>
+    <mergeCell ref="N19:N28"/>
+    <mergeCell ref="E19:E28"/>
+    <mergeCell ref="M19:M28"/>
+    <mergeCell ref="A19:A28"/>
+    <mergeCell ref="L19:L28"/>
   </mergeCells>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -5218,7 +5239,7 @@
         <v>14</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>860</v>
+        <v>859</v>
       </c>
       <c r="E2" s="2"/>
       <c r="F2" s="2"/>
@@ -5252,31 +5273,31 @@
         <v>1</v>
       </c>
       <c r="B6" s="38" t="s">
-        <v>850</v>
+        <v>849</v>
       </c>
       <c r="C6" s="38" t="s">
         <v>168</v>
       </c>
       <c r="D6" s="38" t="s">
+        <v>850</v>
+      </c>
+      <c r="E6" s="38" t="s">
+        <v>852</v>
+      </c>
+      <c r="F6" s="38" t="s">
         <v>851</v>
       </c>
-      <c r="E6" s="38" t="s">
+      <c r="G6" s="38" t="s">
         <v>853</v>
       </c>
-      <c r="F6" s="38" t="s">
-        <v>852</v>
-      </c>
-      <c r="G6" s="38" t="s">
+      <c r="H6" s="38" t="s">
         <v>854</v>
       </c>
-      <c r="H6" s="38" t="s">
+      <c r="I6" s="38" t="s">
         <v>855</v>
       </c>
-      <c r="I6" s="38" t="s">
-        <v>856</v>
-      </c>
       <c r="J6" s="38" t="s">
-        <v>892</v>
+        <v>891</v>
       </c>
     </row>
     <row r="7" spans="1:10" s="22" customFormat="1" ht="11.25">
@@ -5290,25 +5311,25 @@
         <v>112483</v>
       </c>
       <c r="D7" s="35" t="s">
+        <v>857</v>
+      </c>
+      <c r="E7" s="35" t="s">
+        <v>871</v>
+      </c>
+      <c r="F7" s="35" t="s">
+        <v>868</v>
+      </c>
+      <c r="G7" s="35" t="s">
+        <v>879</v>
+      </c>
+      <c r="H7" s="35" t="s">
+        <v>880</v>
+      </c>
+      <c r="I7" s="35" t="s">
+        <v>874</v>
+      </c>
+      <c r="J7" s="31" t="s">
         <v>858</v>
-      </c>
-      <c r="E7" s="35" t="s">
-        <v>872</v>
-      </c>
-      <c r="F7" s="35" t="s">
-        <v>869</v>
-      </c>
-      <c r="G7" s="35" t="s">
-        <v>880</v>
-      </c>
-      <c r="H7" s="35" t="s">
-        <v>881</v>
-      </c>
-      <c r="I7" s="35" t="s">
-        <v>875</v>
-      </c>
-      <c r="J7" s="31" t="s">
-        <v>859</v>
       </c>
     </row>
     <row r="8" spans="1:10" s="22" customFormat="1" ht="11.25">
@@ -5322,25 +5343,25 @@
         <v>112483</v>
       </c>
       <c r="D8" s="35" t="s">
+        <v>857</v>
+      </c>
+      <c r="E8" s="35" t="s">
+        <v>869</v>
+      </c>
+      <c r="F8" s="35" t="s">
+        <v>868</v>
+      </c>
+      <c r="G8" s="35" t="s">
+        <v>881</v>
+      </c>
+      <c r="H8" s="35" t="s">
+        <v>882</v>
+      </c>
+      <c r="I8" s="35" t="s">
+        <v>875</v>
+      </c>
+      <c r="J8" s="31" t="s">
         <v>858</v>
-      </c>
-      <c r="E8" s="35" t="s">
-        <v>870</v>
-      </c>
-      <c r="F8" s="35" t="s">
-        <v>869</v>
-      </c>
-      <c r="G8" s="35" t="s">
-        <v>882</v>
-      </c>
-      <c r="H8" s="35" t="s">
-        <v>883</v>
-      </c>
-      <c r="I8" s="35" t="s">
-        <v>876</v>
-      </c>
-      <c r="J8" s="31" t="s">
-        <v>859</v>
       </c>
     </row>
     <row r="9" spans="1:10" s="22" customFormat="1" ht="11.25">
@@ -5354,25 +5375,25 @@
         <v>112483</v>
       </c>
       <c r="D9" s="35" t="s">
-        <v>858</v>
+        <v>857</v>
       </c>
       <c r="E9" s="35" t="s">
-        <v>866</v>
+        <v>865</v>
       </c>
       <c r="F9" s="35" t="s">
-        <v>865</v>
+        <v>864</v>
       </c>
       <c r="G9" s="35" t="s">
         <v>17</v>
       </c>
       <c r="H9" s="35" t="s">
-        <v>884</v>
+        <v>883</v>
       </c>
       <c r="I9" s="35" t="s">
-        <v>867</v>
+        <v>866</v>
       </c>
       <c r="J9" s="31" t="s">
-        <v>859</v>
+        <v>858</v>
       </c>
     </row>
     <row r="10" spans="1:10" s="22" customFormat="1" ht="11.25">
@@ -5386,25 +5407,25 @@
         <v>112483</v>
       </c>
       <c r="D10" s="35" t="s">
+        <v>857</v>
+      </c>
+      <c r="E10" s="35" t="s">
+        <v>870</v>
+      </c>
+      <c r="F10" s="35" t="s">
+        <v>860</v>
+      </c>
+      <c r="G10" s="35" t="s">
+        <v>884</v>
+      </c>
+      <c r="H10" s="35" t="s">
+        <v>876</v>
+      </c>
+      <c r="I10" s="35" t="s">
+        <v>877</v>
+      </c>
+      <c r="J10" s="31" t="s">
         <v>858</v>
-      </c>
-      <c r="E10" s="35" t="s">
-        <v>871</v>
-      </c>
-      <c r="F10" s="35" t="s">
-        <v>861</v>
-      </c>
-      <c r="G10" s="35" t="s">
-        <v>885</v>
-      </c>
-      <c r="H10" s="35" t="s">
-        <v>877</v>
-      </c>
-      <c r="I10" s="35" t="s">
-        <v>878</v>
-      </c>
-      <c r="J10" s="31" t="s">
-        <v>859</v>
       </c>
     </row>
     <row r="11" spans="1:10" s="22" customFormat="1" ht="11.25">
@@ -5418,25 +5439,25 @@
         <v>112483</v>
       </c>
       <c r="D11" s="35" t="s">
-        <v>858</v>
+        <v>857</v>
       </c>
       <c r="E11" s="35" t="s">
-        <v>868</v>
+        <v>867</v>
       </c>
       <c r="F11" s="35" t="s">
-        <v>857</v>
+        <v>856</v>
       </c>
       <c r="G11" s="35" t="s">
         <v>179</v>
       </c>
       <c r="H11" s="35" t="s">
-        <v>700</v>
+        <v>699</v>
       </c>
       <c r="I11" s="35" t="s">
-        <v>879</v>
+        <v>878</v>
       </c>
       <c r="J11" s="31" t="s">
-        <v>859</v>
+        <v>858</v>
       </c>
     </row>
     <row r="12" spans="1:10" s="22" customFormat="1" ht="11.25">
@@ -5450,25 +5471,25 @@
         <v>112483</v>
       </c>
       <c r="D12" s="35" t="s">
+        <v>861</v>
+      </c>
+      <c r="E12" s="35" t="s">
         <v>862</v>
       </c>
-      <c r="E12" s="35" t="s">
-        <v>863</v>
-      </c>
       <c r="F12" s="35" t="s">
-        <v>861</v>
+        <v>860</v>
       </c>
       <c r="G12" s="35" t="s">
+        <v>884</v>
+      </c>
+      <c r="H12" s="35" t="s">
         <v>885</v>
       </c>
-      <c r="H12" s="35" t="s">
-        <v>886</v>
-      </c>
       <c r="I12" s="35" t="s">
-        <v>878</v>
+        <v>877</v>
       </c>
       <c r="J12" s="31" t="s">
-        <v>859</v>
+        <v>858</v>
       </c>
     </row>
     <row r="13" spans="1:10" s="22" customFormat="1" ht="11.25">
@@ -5525,28 +5546,28 @@
     <row r="18" spans="1:10" s="9" customFormat="1" ht="11.25" customHeight="1">
       <c r="A18" s="45"/>
       <c r="B18" s="45" t="s">
+        <v>887</v>
+      </c>
+      <c r="C18" s="45" t="s">
+        <v>887</v>
+      </c>
+      <c r="D18" s="45" t="s">
+        <v>863</v>
+      </c>
+      <c r="E18" s="45" t="s">
         <v>888</v>
       </c>
-      <c r="C18" s="45" t="s">
-        <v>888</v>
-      </c>
-      <c r="D18" s="45" t="s">
-        <v>864</v>
-      </c>
-      <c r="E18" s="45" t="s">
+      <c r="F18" s="45" t="s">
+        <v>872</v>
+      </c>
+      <c r="G18" s="45" t="s">
         <v>889</v>
       </c>
-      <c r="F18" s="45" t="s">
-        <v>873</v>
-      </c>
-      <c r="G18" s="45" t="s">
+      <c r="H18" s="45" t="s">
         <v>890</v>
       </c>
-      <c r="H18" s="45" t="s">
-        <v>891</v>
-      </c>
       <c r="I18" s="45" t="s">
-        <v>887</v>
+        <v>886</v>
       </c>
       <c r="J18" s="45"/>
     </row>
@@ -5661,7 +5682,7 @@
     <row r="28" spans="1:10" s="9" customFormat="1" ht="11.25" customHeight="1"/>
     <row r="29" spans="1:10" s="9" customFormat="1" ht="11.25" customHeight="1">
       <c r="F29" s="45" t="s">
-        <v>874</v>
+        <v>873</v>
       </c>
     </row>
     <row r="30" spans="1:10" s="9" customFormat="1" ht="11.25">
@@ -5776,13 +5797,13 @@
         <v>112483</v>
       </c>
       <c r="D46" s="7" t="s">
-        <v>858</v>
+        <v>857</v>
       </c>
       <c r="E46" s="7" t="s">
-        <v>869</v>
+        <v>868</v>
       </c>
       <c r="F46" s="7" t="s">
-        <v>872</v>
+        <v>871</v>
       </c>
       <c r="G46" s="7">
         <v>63</v>
@@ -5791,10 +5812,10 @@
         <v>28844308</v>
       </c>
       <c r="I46" s="7" t="s">
-        <v>875</v>
+        <v>874</v>
       </c>
       <c r="J46" s="7" t="s">
-        <v>859</v>
+        <v>858</v>
       </c>
     </row>
     <row r="47" spans="1:10" s="7" customFormat="1" ht="12">
@@ -5808,13 +5829,13 @@
         <v>112483</v>
       </c>
       <c r="D47" s="7" t="s">
-        <v>858</v>
+        <v>857</v>
       </c>
       <c r="E47" s="7" t="s">
+        <v>868</v>
+      </c>
+      <c r="F47" s="7" t="s">
         <v>869</v>
-      </c>
-      <c r="F47" s="7" t="s">
-        <v>870</v>
       </c>
       <c r="G47" s="7">
         <v>50</v>
@@ -5823,10 +5844,10 @@
         <v>2325</v>
       </c>
       <c r="I47" s="7" t="s">
-        <v>876</v>
+        <v>875</v>
       </c>
       <c r="J47" s="7" t="s">
-        <v>859</v>
+        <v>858</v>
       </c>
     </row>
     <row r="48" spans="1:10" s="7" customFormat="1" ht="12">
@@ -5840,13 +5861,13 @@
         <v>112483</v>
       </c>
       <c r="D48" s="7" t="s">
-        <v>858</v>
+        <v>857</v>
       </c>
       <c r="E48" s="7" t="s">
+        <v>864</v>
+      </c>
+      <c r="F48" s="7" t="s">
         <v>865</v>
-      </c>
-      <c r="F48" s="7" t="s">
-        <v>866</v>
       </c>
       <c r="G48" s="7">
         <v>1</v>
@@ -5855,10 +5876,10 @@
         <v>457846</v>
       </c>
       <c r="I48" s="7" t="s">
-        <v>867</v>
+        <v>866</v>
       </c>
       <c r="J48" s="7" t="s">
-        <v>859</v>
+        <v>858</v>
       </c>
     </row>
     <row r="49" spans="1:10" s="7" customFormat="1" ht="12">
@@ -5872,25 +5893,25 @@
         <v>112483</v>
       </c>
       <c r="D49" s="7" t="s">
-        <v>858</v>
+        <v>857</v>
       </c>
       <c r="E49" s="7" t="s">
-        <v>861</v>
+        <v>860</v>
       </c>
       <c r="F49" s="7" t="s">
-        <v>871</v>
+        <v>870</v>
       </c>
       <c r="G49" s="7">
         <v>515</v>
       </c>
       <c r="H49" s="7" t="s">
+        <v>876</v>
+      </c>
+      <c r="I49" s="7" t="s">
         <v>877</v>
       </c>
-      <c r="I49" s="7" t="s">
-        <v>878</v>
-      </c>
       <c r="J49" s="7" t="s">
-        <v>859</v>
+        <v>858</v>
       </c>
     </row>
     <row r="50" spans="1:10" s="7" customFormat="1" ht="12">
@@ -5904,13 +5925,13 @@
         <v>112483</v>
       </c>
       <c r="D50" s="7" t="s">
-        <v>858</v>
+        <v>857</v>
       </c>
       <c r="E50" s="7" t="s">
-        <v>857</v>
+        <v>856</v>
       </c>
       <c r="F50" s="7" t="s">
-        <v>868</v>
+        <v>867</v>
       </c>
       <c r="G50" s="7">
         <v>3</v>
@@ -5919,10 +5940,10 @@
         <v>186</v>
       </c>
       <c r="I50" s="7" t="s">
-        <v>879</v>
+        <v>878</v>
       </c>
       <c r="J50" s="7" t="s">
-        <v>859</v>
+        <v>858</v>
       </c>
     </row>
     <row r="51" spans="1:10" s="7" customFormat="1" ht="12">
@@ -5936,13 +5957,13 @@
         <v>112483</v>
       </c>
       <c r="D51" s="7" t="s">
+        <v>861</v>
+      </c>
+      <c r="E51" s="7" t="s">
+        <v>860</v>
+      </c>
+      <c r="F51" s="7" t="s">
         <v>862</v>
-      </c>
-      <c r="E51" s="7" t="s">
-        <v>861</v>
-      </c>
-      <c r="F51" s="7" t="s">
-        <v>863</v>
       </c>
       <c r="G51" s="7">
         <v>515</v>
@@ -5951,10 +5972,10 @@
         <v>239475</v>
       </c>
       <c r="I51" s="7" t="s">
-        <v>878</v>
+        <v>877</v>
       </c>
       <c r="J51" s="7" t="s">
-        <v>859</v>
+        <v>858</v>
       </c>
     </row>
     <row r="52" spans="1:10" s="7" customFormat="1" ht="12"/>
@@ -6127,10 +6148,10 @@
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="C2:G29"/>
+  <dimension ref="C2:G30"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G16" sqref="G2:G16"/>
+      <selection activeCell="G2" sqref="G2:G30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -6146,210 +6167,259 @@
     </row>
     <row r="3" spans="3:7">
       <c r="C3" t="s">
-        <v>149</v>
+        <v>253</v>
       </c>
       <c r="G3" t="str">
-        <f t="shared" ref="G3:G29" si="0">CONCATENATE(C3,",")</f>
-        <v>NR_PEDIDO_WMS,</v>
+        <f t="shared" ref="G3:G30" si="0">CONCATENATE(C3,",")</f>
+        <v>CD_FILIAL,</v>
       </c>
     </row>
     <row r="4" spans="3:7">
       <c r="C4" t="s">
-        <v>360</v>
+        <v>148</v>
       </c>
       <c r="G4" t="str">
         <f t="shared" si="0"/>
-        <v>CD_EXTERNO_ORDER_KEY,</v>
+        <v>CD_PLANTA,</v>
       </c>
     </row>
     <row r="5" spans="3:7">
       <c r="C5" t="s">
-        <v>363</v>
+        <v>149</v>
       </c>
       <c r="G5" t="str">
         <f t="shared" si="0"/>
-        <v>DT_SAIDA_CAMINHAO,</v>
+        <v>NR_PEDIDO_WMS,</v>
       </c>
     </row>
     <row r="6" spans="3:7">
       <c r="C6" t="s">
-        <v>356</v>
+        <v>333</v>
       </c>
       <c r="G6" t="str">
         <f t="shared" si="0"/>
-        <v>DT_INICIO_PICKING,</v>
+        <v>ORDEM_VENDA_LN,</v>
       </c>
     </row>
     <row r="7" spans="3:7">
       <c r="C7" t="s">
-        <v>359</v>
+        <v>261</v>
       </c>
       <c r="G7" t="str">
         <f t="shared" si="0"/>
-        <v>CD_ULTIMA_OCORRENCIA,</v>
+        <v>DS_SITUACAO,</v>
       </c>
     </row>
     <row r="8" spans="3:7">
       <c r="C8" t="s">
-        <v>355</v>
+        <v>260</v>
       </c>
       <c r="G8" t="str">
         <f t="shared" si="0"/>
-        <v>NR_VOLUME,</v>
+        <v>DT_EMISSAO_PEDIDO,</v>
       </c>
     </row>
     <row r="9" spans="3:7">
       <c r="C9" t="s">
-        <v>357</v>
+        <v>53</v>
       </c>
       <c r="G9" t="str">
         <f t="shared" si="0"/>
-        <v>NR_VOLUME_FINALIZADOS,</v>
+        <v>DT_REGISTRO,</v>
       </c>
     </row>
     <row r="10" spans="3:7">
       <c r="C10" t="s">
-        <v>358</v>
+        <v>265</v>
       </c>
       <c r="G10" t="str">
         <f t="shared" si="0"/>
-        <v>NR_VOLUME_CONFERIDOS,</v>
+        <v>DT_LIMITE_EXPEDICAO,</v>
       </c>
     </row>
     <row r="11" spans="3:7">
       <c r="C11" t="s">
-        <v>263</v>
+        <v>271</v>
       </c>
       <c r="G11" t="str">
         <f t="shared" si="0"/>
-        <v>NR_CNPJ_TRANSPORTADORA,</v>
+        <v>DT_LIMITE_ORIGINAL,</v>
       </c>
     </row>
     <row r="12" spans="3:7">
       <c r="C12" t="s">
-        <v>361</v>
+        <v>259</v>
       </c>
       <c r="G12" t="str">
         <f t="shared" si="0"/>
-        <v>CD_ULTIMO_TRACKING,</v>
+        <v>DT_ESTIMADA_ENTREGA,</v>
       </c>
     </row>
     <row r="13" spans="3:7">
       <c r="C13" t="s">
-        <v>362</v>
+        <v>254</v>
       </c>
       <c r="G13" t="str">
         <f t="shared" si="0"/>
-        <v>DT_INCLUSAO_VL_CARGA,</v>
+        <v>CD_PARCEIRO,</v>
       </c>
     </row>
     <row r="14" spans="3:7">
       <c r="C14" t="s">
-        <v>364</v>
+        <v>270</v>
       </c>
       <c r="G14" t="str">
         <f t="shared" si="0"/>
-        <v>DT_FECHA_GAIOLA,</v>
+        <v>CD_MEGA_ROTA,</v>
       </c>
     </row>
     <row r="15" spans="3:7">
       <c r="C15" t="s">
-        <v>7</v>
+        <v>267</v>
       </c>
       <c r="G15" t="str">
         <f t="shared" si="0"/>
-        <v>DT_ULT_ATUALIZACAO,</v>
+        <v>CD_CEP_ENTREGA,</v>
       </c>
     </row>
     <row r="16" spans="3:7">
       <c r="C16" t="s">
-        <v>148</v>
+        <v>268</v>
       </c>
       <c r="G16" t="str">
         <f t="shared" si="0"/>
-        <v>CD_PLANTA,</v>
-      </c>
-    </row>
-    <row r="17" spans="7:7">
+        <v>DT_MINIMA_EXPEDICAO,</v>
+      </c>
+    </row>
+    <row r="17" spans="3:7">
+      <c r="C17" t="s">
+        <v>263</v>
+      </c>
       <c r="G17" t="str">
         <f t="shared" si="0"/>
-        <v>,</v>
-      </c>
-    </row>
-    <row r="18" spans="7:7">
+        <v>NR_CNPJ_TRANSPORTADORA,</v>
+      </c>
+    </row>
+    <row r="18" spans="3:7">
+      <c r="C18" t="s">
+        <v>258</v>
+      </c>
       <c r="G18" t="str">
         <f t="shared" si="0"/>
-        <v>,</v>
-      </c>
-    </row>
-    <row r="19" spans="7:7">
+        <v>CD_ROTA,</v>
+      </c>
+    </row>
+    <row r="19" spans="3:7">
+      <c r="C19" t="s">
+        <v>264</v>
+      </c>
       <c r="G19" t="str">
         <f t="shared" si="0"/>
-        <v>,</v>
-      </c>
-    </row>
-    <row r="20" spans="7:7">
+        <v>CD_CONTRATO_TRANSPORTADORA,</v>
+      </c>
+    </row>
+    <row r="20" spans="3:7">
+      <c r="C20" t="s">
+        <v>262</v>
+      </c>
       <c r="G20" t="str">
         <f t="shared" si="0"/>
-        <v>,</v>
-      </c>
-    </row>
-    <row r="21" spans="7:7">
+        <v>DT_SITUACAO,</v>
+      </c>
+    </row>
+    <row r="21" spans="3:7">
+      <c r="C21" t="s">
+        <v>0</v>
+      </c>
       <c r="G21" t="str">
         <f t="shared" si="0"/>
-        <v>,</v>
-      </c>
-    </row>
-    <row r="22" spans="7:7">
+        <v>CD_ONDA,</v>
+      </c>
+    </row>
+    <row r="22" spans="3:7">
+      <c r="C22" t="s">
+        <v>5</v>
+      </c>
       <c r="G22" t="str">
         <f t="shared" si="0"/>
-        <v>,</v>
-      </c>
-    </row>
-    <row r="23" spans="7:7">
+        <v>QT_ITENS,</v>
+      </c>
+    </row>
+    <row r="23" spans="3:7">
+      <c r="C23" t="s">
+        <v>255</v>
+      </c>
       <c r="G23" t="str">
         <f t="shared" si="0"/>
-        <v>,</v>
-      </c>
-    </row>
-    <row r="24" spans="7:7">
+        <v>NR_ENTREGA,</v>
+      </c>
+    </row>
+    <row r="24" spans="3:7">
+      <c r="C24" t="s">
+        <v>7</v>
+      </c>
       <c r="G24" t="str">
         <f t="shared" si="0"/>
-        <v>,</v>
-      </c>
-    </row>
-    <row r="25" spans="7:7">
+        <v>DT_ULT_ATUALIZACAO,</v>
+      </c>
+    </row>
+    <row r="25" spans="3:7">
+      <c r="C25" t="s">
+        <v>269</v>
+      </c>
       <c r="G25" t="str">
         <f t="shared" si="0"/>
-        <v>,</v>
-      </c>
-    </row>
-    <row r="26" spans="7:7">
+        <v>CD_REGIAO,</v>
+      </c>
+    </row>
+    <row r="26" spans="3:7">
+      <c r="C26" t="s">
+        <v>272</v>
+      </c>
       <c r="G26" t="str">
         <f t="shared" si="0"/>
-        <v>,</v>
-      </c>
-    </row>
-    <row r="27" spans="7:7">
+        <v>CD_ORIGEM_PEDIDO,</v>
+      </c>
+    </row>
+    <row r="27" spans="3:7">
+      <c r="C27" t="s">
+        <v>2</v>
+      </c>
       <c r="G27" t="str">
         <f t="shared" si="0"/>
-        <v>,</v>
-      </c>
-    </row>
-    <row r="28" spans="7:7">
+        <v>CD_PROGRAMA,</v>
+      </c>
+    </row>
+    <row r="28" spans="3:7">
+      <c r="C28" t="s">
+        <v>256</v>
+      </c>
       <c r="G28" t="str">
         <f t="shared" si="0"/>
-        <v>,</v>
-      </c>
-    </row>
-    <row r="29" spans="7:7">
+        <v>CD_RESTRICAO,</v>
+      </c>
+    </row>
+    <row r="29" spans="3:7">
+      <c r="C29" t="s">
+        <v>257</v>
+      </c>
       <c r="G29" t="str">
         <f t="shared" si="0"/>
-        <v>,</v>
+        <v>CD_IDENTIFICADO_PRE_VOLUME,</v>
+      </c>
+    </row>
+    <row r="30" spans="3:7">
+      <c r="C30" t="s">
+        <v>266</v>
+      </c>
+      <c r="G30" t="str">
+        <f t="shared" si="0"/>
+        <v>CD_CANAL_VENDA,</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -6411,7 +6481,7 @@
       </c>
       <c r="B2" s="50"/>
       <c r="C2" s="1" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="H2" s="2"/>
       <c r="N2" s="3"/>
@@ -6420,11 +6490,11 @@
     </row>
     <row r="3" spans="1:27" ht="21">
       <c r="A3" s="50" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="B3" s="50"/>
       <c r="C3" s="1" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
       <c r="H3" s="2"/>
       <c r="N3" s="3"/>
@@ -6450,45 +6520,45 @@
         <v>148</v>
       </c>
       <c r="B6" s="40" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="C6" s="40" t="s">
         <v>253</v>
       </c>
       <c r="D6" s="41" t="s">
+        <v>468</v>
+      </c>
+      <c r="E6" s="41" t="s">
         <v>469</v>
       </c>
-      <c r="E6" s="41" t="s">
+      <c r="F6" s="41" t="s">
         <v>470</v>
-      </c>
-      <c r="F6" s="41" t="s">
-        <v>471</v>
       </c>
       <c r="G6" s="40" t="s">
         <v>1</v>
       </c>
       <c r="H6" s="40" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
     </row>
     <row r="7" spans="1:27">
       <c r="A7" s="2" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="C7" s="2" t="s">
         <v>35</v>
       </c>
       <c r="D7" s="2" t="s">
+        <v>473</v>
+      </c>
+      <c r="E7" s="2" t="s">
         <v>474</v>
       </c>
-      <c r="E7" s="2" t="s">
+      <c r="F7" s="2" t="s">
         <v>475</v>
-      </c>
-      <c r="F7" s="2" t="s">
-        <v>476</v>
       </c>
       <c r="G7" s="2" t="s">
         <v>38</v>
@@ -6499,22 +6569,22 @@
     </row>
     <row r="8" spans="1:27">
       <c r="A8" s="2" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
       <c r="C8" s="2" t="s">
         <v>57</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
       <c r="E8" s="2" t="s">
+        <v>474</v>
+      </c>
+      <c r="F8" s="2" t="s">
         <v>475</v>
-      </c>
-      <c r="F8" s="2" t="s">
-        <v>476</v>
       </c>
       <c r="G8" s="2" t="s">
         <v>11</v>
@@ -6525,22 +6595,22 @@
     </row>
     <row r="9" spans="1:27">
       <c r="A9" s="2" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
       <c r="C9" s="2" t="s">
         <v>279</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="E9" s="2" t="s">
+        <v>474</v>
+      </c>
+      <c r="F9" s="2" t="s">
         <v>475</v>
-      </c>
-      <c r="F9" s="2" t="s">
-        <v>476</v>
       </c>
       <c r="G9" s="2" t="s">
         <v>10</v>
@@ -6551,22 +6621,22 @@
     </row>
     <row r="10" spans="1:27">
       <c r="A10" s="2" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
       <c r="C10" s="2" t="s">
         <v>179</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="E10" s="2" t="s">
+        <v>474</v>
+      </c>
+      <c r="F10" s="2" t="s">
         <v>475</v>
-      </c>
-      <c r="F10" s="2" t="s">
-        <v>476</v>
       </c>
       <c r="G10" s="2" t="s">
         <v>12</v>
@@ -6577,22 +6647,22 @@
     </row>
     <row r="11" spans="1:27">
       <c r="A11" s="2" t="s">
+        <v>481</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>481</v>
+      </c>
+      <c r="C11" s="2" t="s">
         <v>482</v>
       </c>
-      <c r="B11" s="2" t="s">
-        <v>482</v>
-      </c>
-      <c r="C11" s="2" t="s">
+      <c r="D11" s="2" t="s">
         <v>483</v>
       </c>
-      <c r="D11" s="2" t="s">
-        <v>484</v>
-      </c>
       <c r="E11" s="2" t="s">
+        <v>474</v>
+      </c>
+      <c r="F11" s="2" t="s">
         <v>475</v>
-      </c>
-      <c r="F11" s="2" t="s">
-        <v>476</v>
       </c>
       <c r="G11" s="2" t="s">
         <v>39</v>
@@ -6603,22 +6673,22 @@
     </row>
     <row r="12" spans="1:27">
       <c r="A12" s="2" t="s">
+        <v>484</v>
+      </c>
+      <c r="B12" s="2" t="s">
+        <v>484</v>
+      </c>
+      <c r="C12" s="2" t="s">
+        <v>350</v>
+      </c>
+      <c r="D12" s="2" t="s">
         <v>485</v>
       </c>
-      <c r="B12" s="2" t="s">
-        <v>485</v>
-      </c>
-      <c r="C12" s="2" t="s">
-        <v>351</v>
-      </c>
-      <c r="D12" s="2" t="s">
-        <v>486</v>
-      </c>
       <c r="E12" s="2" t="s">
+        <v>474</v>
+      </c>
+      <c r="F12" s="2" t="s">
         <v>475</v>
-      </c>
-      <c r="F12" s="2" t="s">
-        <v>476</v>
       </c>
       <c r="G12" s="2" t="s">
         <v>8</v>
@@ -6643,16 +6713,16 @@
     </row>
     <row r="15" spans="1:27" ht="11.25" customHeight="1">
       <c r="A15" s="51" t="s">
-        <v>846</v>
+        <v>845</v>
       </c>
       <c r="B15" s="52"/>
       <c r="C15" s="52"/>
       <c r="D15" s="51" t="s">
-        <v>845</v>
+        <v>844</v>
       </c>
       <c r="E15" s="51"/>
       <c r="F15" s="51" t="s">
-        <v>847</v>
+        <v>846</v>
       </c>
       <c r="G15" s="2"/>
       <c r="H15" s="2"/>
@@ -6677,25 +6747,25 @@
     </row>
     <row r="18" spans="1:8" ht="11.25" customHeight="1">
       <c r="A18" s="47" t="s">
+        <v>486</v>
+      </c>
+      <c r="B18" s="47" t="s">
         <v>487</v>
       </c>
-      <c r="B18" s="47" t="s">
+      <c r="C18" s="53" t="s">
         <v>488</v>
       </c>
-      <c r="C18" s="53" t="s">
+      <c r="D18" s="45" t="s">
         <v>489</v>
       </c>
-      <c r="D18" s="45" t="s">
+      <c r="E18" s="54" t="s">
         <v>490</v>
       </c>
-      <c r="E18" s="54" t="s">
+      <c r="F18" s="47" t="s">
         <v>491</v>
       </c>
-      <c r="F18" s="47" t="s">
+      <c r="G18" s="48" t="s">
         <v>492</v>
-      </c>
-      <c r="G18" s="48" t="s">
-        <v>493</v>
       </c>
       <c r="H18" s="47"/>
     </row>
@@ -6724,7 +6794,7 @@
     </row>
     <row r="22" spans="1:8">
       <c r="A22" s="49" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="D22" s="45"/>
     </row>
@@ -7364,7 +7434,7 @@
         <v>14</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
       <c r="E2" s="2"/>
       <c r="F2" s="2"/>
@@ -7408,13 +7478,13 @@
     <row r="4" spans="1:21" s="9" customFormat="1" ht="11.25"/>
     <row r="5" spans="1:21" s="9" customFormat="1" ht="22.5" customHeight="1">
       <c r="A5" s="10" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="B5" s="10" t="s">
+        <v>456</v>
+      </c>
+      <c r="C5" s="10" t="s">
         <v>457</v>
-      </c>
-      <c r="C5" s="10" t="s">
-        <v>458</v>
       </c>
       <c r="D5" s="10" t="s">
         <v>263</v>
@@ -7422,16 +7492,16 @@
     </row>
     <row r="6" spans="1:21" s="7" customFormat="1" ht="12">
       <c r="A6" s="42" t="s">
-        <v>661</v>
+        <v>660</v>
       </c>
       <c r="B6" s="42" t="s">
+        <v>494</v>
+      </c>
+      <c r="C6" s="42" t="s">
         <v>495</v>
       </c>
-      <c r="C6" s="42" t="s">
-        <v>496</v>
-      </c>
       <c r="D6" s="42" t="s">
-        <v>660</v>
+        <v>659</v>
       </c>
     </row>
     <row r="7" spans="1:21" s="7" customFormat="1" ht="12">
@@ -7439,1116 +7509,1116 @@
         <v>145</v>
       </c>
       <c r="B7" s="42" t="s">
+        <v>496</v>
+      </c>
+      <c r="C7" s="42" t="s">
         <v>497</v>
       </c>
-      <c r="C7" s="42" t="s">
-        <v>498</v>
-      </c>
       <c r="D7" s="42" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
     </row>
     <row r="8" spans="1:21" s="7" customFormat="1" ht="12">
       <c r="A8" s="42" t="s">
-        <v>662</v>
+        <v>661</v>
       </c>
       <c r="B8" s="42" t="s">
+        <v>498</v>
+      </c>
+      <c r="C8" s="42" t="s">
         <v>499</v>
       </c>
-      <c r="C8" s="42" t="s">
-        <v>500</v>
-      </c>
       <c r="D8" s="42" t="s">
-        <v>660</v>
+        <v>659</v>
       </c>
     </row>
     <row r="9" spans="1:21" s="7" customFormat="1" ht="12">
       <c r="A9" s="42" t="s">
-        <v>664</v>
+        <v>663</v>
       </c>
       <c r="B9" s="42" t="s">
+        <v>500</v>
+      </c>
+      <c r="C9" s="42" t="s">
         <v>501</v>
       </c>
-      <c r="C9" s="42" t="s">
-        <v>502</v>
-      </c>
       <c r="D9" s="42" t="s">
-        <v>663</v>
+        <v>662</v>
       </c>
     </row>
     <row r="10" spans="1:21" s="7" customFormat="1" ht="12">
       <c r="A10" s="42" t="s">
-        <v>666</v>
+        <v>665</v>
       </c>
       <c r="B10" s="42" t="s">
+        <v>500</v>
+      </c>
+      <c r="C10" s="42" t="s">
         <v>501</v>
       </c>
-      <c r="C10" s="42" t="s">
-        <v>502</v>
-      </c>
       <c r="D10" s="42" t="s">
-        <v>665</v>
+        <v>664</v>
       </c>
     </row>
     <row r="11" spans="1:21" s="7" customFormat="1" ht="12">
       <c r="A11" s="42" t="s">
-        <v>668</v>
+        <v>667</v>
       </c>
       <c r="B11" s="42" t="s">
+        <v>500</v>
+      </c>
+      <c r="C11" s="42" t="s">
         <v>501</v>
       </c>
-      <c r="C11" s="42" t="s">
-        <v>502</v>
-      </c>
       <c r="D11" s="42" t="s">
-        <v>667</v>
+        <v>666</v>
       </c>
     </row>
     <row r="12" spans="1:21" s="7" customFormat="1" ht="12">
       <c r="A12" s="42" t="s">
-        <v>670</v>
+        <v>669</v>
       </c>
       <c r="B12" s="42" t="s">
+        <v>500</v>
+      </c>
+      <c r="C12" s="42" t="s">
         <v>501</v>
       </c>
-      <c r="C12" s="42" t="s">
-        <v>502</v>
-      </c>
       <c r="D12" s="42" t="s">
-        <v>669</v>
+        <v>668</v>
       </c>
     </row>
     <row r="13" spans="1:21" s="7" customFormat="1" ht="12">
       <c r="A13" s="42" t="s">
-        <v>672</v>
+        <v>671</v>
       </c>
       <c r="B13" s="42" t="s">
+        <v>500</v>
+      </c>
+      <c r="C13" s="42" t="s">
         <v>501</v>
       </c>
-      <c r="C13" s="42" t="s">
-        <v>502</v>
-      </c>
       <c r="D13" s="42" t="s">
-        <v>671</v>
+        <v>670</v>
       </c>
     </row>
     <row r="14" spans="1:21" s="7" customFormat="1" ht="12">
       <c r="A14" s="42" t="s">
-        <v>674</v>
+        <v>673</v>
       </c>
       <c r="B14" s="42" t="s">
+        <v>500</v>
+      </c>
+      <c r="C14" s="42" t="s">
         <v>501</v>
       </c>
-      <c r="C14" s="42" t="s">
-        <v>502</v>
-      </c>
       <c r="D14" s="42" t="s">
-        <v>673</v>
+        <v>672</v>
       </c>
     </row>
     <row r="15" spans="1:21" s="7" customFormat="1" ht="12">
       <c r="A15" s="42" t="s">
-        <v>676</v>
+        <v>675</v>
       </c>
       <c r="B15" s="42" t="s">
+        <v>500</v>
+      </c>
+      <c r="C15" s="42" t="s">
         <v>501</v>
       </c>
-      <c r="C15" s="42" t="s">
-        <v>502</v>
-      </c>
       <c r="D15" s="42" t="s">
-        <v>675</v>
+        <v>674</v>
       </c>
     </row>
     <row r="16" spans="1:21" s="7" customFormat="1" ht="12">
       <c r="A16" s="42" t="s">
-        <v>678</v>
+        <v>677</v>
       </c>
       <c r="B16" s="42" t="s">
+        <v>500</v>
+      </c>
+      <c r="C16" s="42" t="s">
         <v>501</v>
       </c>
-      <c r="C16" s="42" t="s">
-        <v>502</v>
-      </c>
       <c r="D16" s="42" t="s">
-        <v>677</v>
+        <v>676</v>
       </c>
     </row>
     <row r="17" spans="1:4" s="7" customFormat="1" ht="12">
       <c r="A17" s="42" t="s">
-        <v>680</v>
+        <v>679</v>
       </c>
       <c r="B17" s="42" t="s">
+        <v>500</v>
+      </c>
+      <c r="C17" s="42" t="s">
         <v>501</v>
       </c>
-      <c r="C17" s="42" t="s">
-        <v>502</v>
-      </c>
       <c r="D17" s="42" t="s">
-        <v>679</v>
+        <v>678</v>
       </c>
     </row>
     <row r="18" spans="1:4" s="7" customFormat="1" ht="12">
       <c r="A18" s="42" t="s">
-        <v>682</v>
+        <v>681</v>
       </c>
       <c r="B18" s="42" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="C18" s="42" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="D18" s="42" t="s">
-        <v>681</v>
+        <v>680</v>
       </c>
     </row>
     <row r="19" spans="1:4" s="7" customFormat="1" ht="12">
       <c r="A19" s="42" t="s">
-        <v>684</v>
+        <v>683</v>
       </c>
       <c r="B19" s="42" t="s">
+        <v>500</v>
+      </c>
+      <c r="C19" s="42" t="s">
         <v>501</v>
       </c>
-      <c r="C19" s="42" t="s">
-        <v>502</v>
-      </c>
       <c r="D19" s="42" t="s">
-        <v>683</v>
+        <v>682</v>
       </c>
     </row>
     <row r="20" spans="1:4" s="7" customFormat="1" ht="12">
       <c r="A20" s="42" t="s">
-        <v>686</v>
+        <v>685</v>
       </c>
       <c r="B20" s="42" t="s">
+        <v>500</v>
+      </c>
+      <c r="C20" s="42" t="s">
         <v>501</v>
       </c>
-      <c r="C20" s="42" t="s">
-        <v>502</v>
-      </c>
       <c r="D20" s="42" t="s">
-        <v>685</v>
+        <v>684</v>
       </c>
     </row>
     <row r="21" spans="1:4" s="7" customFormat="1" ht="12">
       <c r="A21" s="42" t="s">
-        <v>688</v>
+        <v>687</v>
       </c>
       <c r="B21" s="42" t="s">
+        <v>500</v>
+      </c>
+      <c r="C21" s="42" t="s">
         <v>501</v>
       </c>
-      <c r="C21" s="42" t="s">
-        <v>502</v>
-      </c>
       <c r="D21" s="42" t="s">
-        <v>687</v>
+        <v>686</v>
       </c>
     </row>
     <row r="22" spans="1:4" s="7" customFormat="1" ht="12">
       <c r="A22" s="42" t="s">
-        <v>690</v>
+        <v>689</v>
       </c>
       <c r="B22" s="42" t="s">
+        <v>500</v>
+      </c>
+      <c r="C22" s="42" t="s">
         <v>501</v>
       </c>
-      <c r="C22" s="42" t="s">
-        <v>502</v>
-      </c>
       <c r="D22" s="42" t="s">
-        <v>689</v>
+        <v>688</v>
       </c>
     </row>
     <row r="23" spans="1:4" s="7" customFormat="1" ht="12">
       <c r="A23" s="42" t="s">
-        <v>692</v>
+        <v>691</v>
       </c>
       <c r="B23" s="42" t="s">
+        <v>500</v>
+      </c>
+      <c r="C23" s="42" t="s">
         <v>501</v>
       </c>
-      <c r="C23" s="42" t="s">
-        <v>502</v>
-      </c>
       <c r="D23" s="42" t="s">
-        <v>691</v>
+        <v>690</v>
       </c>
     </row>
     <row r="24" spans="1:4" s="7" customFormat="1" ht="12">
       <c r="A24" s="42" t="s">
-        <v>694</v>
+        <v>693</v>
       </c>
       <c r="B24" s="42" t="s">
-        <v>504</v>
+        <v>503</v>
       </c>
       <c r="C24" s="42" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="D24" s="42" t="s">
-        <v>693</v>
+        <v>692</v>
       </c>
     </row>
     <row r="25" spans="1:4" s="7" customFormat="1" ht="12">
       <c r="A25" s="42" t="s">
-        <v>696</v>
+        <v>695</v>
       </c>
       <c r="B25" s="42" t="s">
+        <v>500</v>
+      </c>
+      <c r="C25" s="42" t="s">
         <v>501</v>
       </c>
-      <c r="C25" s="42" t="s">
-        <v>502</v>
-      </c>
       <c r="D25" s="42" t="s">
-        <v>695</v>
+        <v>694</v>
       </c>
     </row>
     <row r="26" spans="1:4" s="7" customFormat="1" ht="12">
       <c r="A26" s="42" t="s">
-        <v>698</v>
+        <v>697</v>
       </c>
       <c r="B26" s="42" t="s">
+        <v>500</v>
+      </c>
+      <c r="C26" s="42" t="s">
         <v>501</v>
       </c>
-      <c r="C26" s="42" t="s">
-        <v>502</v>
-      </c>
       <c r="D26" s="42" t="s">
-        <v>697</v>
+        <v>696</v>
       </c>
     </row>
     <row r="27" spans="1:4" s="7" customFormat="1" ht="12">
       <c r="A27" s="42" t="s">
-        <v>700</v>
+        <v>699</v>
       </c>
       <c r="B27" s="42" t="s">
+        <v>500</v>
+      </c>
+      <c r="C27" s="42" t="s">
         <v>501</v>
       </c>
-      <c r="C27" s="42" t="s">
-        <v>502</v>
-      </c>
       <c r="D27" s="42" t="s">
-        <v>699</v>
+        <v>698</v>
       </c>
     </row>
     <row r="28" spans="1:4" s="7" customFormat="1" ht="12">
       <c r="A28" s="42" t="s">
-        <v>702</v>
+        <v>701</v>
       </c>
       <c r="B28" s="42" t="s">
+        <v>500</v>
+      </c>
+      <c r="C28" s="42" t="s">
         <v>501</v>
       </c>
-      <c r="C28" s="42" t="s">
-        <v>502</v>
-      </c>
       <c r="D28" s="42" t="s">
-        <v>701</v>
+        <v>700</v>
       </c>
     </row>
     <row r="29" spans="1:4" s="7" customFormat="1" ht="12">
       <c r="A29" s="42" t="s">
-        <v>704</v>
+        <v>703</v>
       </c>
       <c r="B29" s="42" t="s">
+        <v>500</v>
+      </c>
+      <c r="C29" s="42" t="s">
         <v>501</v>
       </c>
-      <c r="C29" s="42" t="s">
-        <v>502</v>
-      </c>
       <c r="D29" s="42" t="s">
-        <v>703</v>
+        <v>702</v>
       </c>
     </row>
     <row r="30" spans="1:4" s="7" customFormat="1" ht="12">
       <c r="A30" s="42" t="s">
-        <v>706</v>
+        <v>705</v>
       </c>
       <c r="B30" s="42" t="s">
+        <v>500</v>
+      </c>
+      <c r="C30" s="42" t="s">
         <v>501</v>
       </c>
-      <c r="C30" s="42" t="s">
-        <v>502</v>
-      </c>
       <c r="D30" s="42" t="s">
-        <v>705</v>
+        <v>704</v>
       </c>
     </row>
     <row r="31" spans="1:4" s="7" customFormat="1" ht="12">
       <c r="A31" s="42" t="s">
-        <v>708</v>
+        <v>707</v>
       </c>
       <c r="B31" s="42" t="s">
+        <v>500</v>
+      </c>
+      <c r="C31" s="42" t="s">
         <v>501</v>
       </c>
-      <c r="C31" s="42" t="s">
-        <v>502</v>
-      </c>
       <c r="D31" s="42" t="s">
-        <v>707</v>
+        <v>706</v>
       </c>
     </row>
     <row r="32" spans="1:4" s="7" customFormat="1" ht="12">
       <c r="A32" s="42" t="s">
-        <v>710</v>
+        <v>709</v>
       </c>
       <c r="B32" s="42" t="s">
+        <v>500</v>
+      </c>
+      <c r="C32" s="42" t="s">
         <v>501</v>
       </c>
-      <c r="C32" s="42" t="s">
-        <v>502</v>
-      </c>
       <c r="D32" s="42" t="s">
-        <v>709</v>
+        <v>708</v>
       </c>
     </row>
     <row r="33" spans="1:4" s="7" customFormat="1" ht="12">
       <c r="A33" s="42" t="s">
-        <v>712</v>
+        <v>711</v>
       </c>
       <c r="B33" s="42" t="s">
+        <v>500</v>
+      </c>
+      <c r="C33" s="42" t="s">
         <v>501</v>
       </c>
-      <c r="C33" s="42" t="s">
-        <v>502</v>
-      </c>
       <c r="D33" s="42" t="s">
-        <v>711</v>
+        <v>710</v>
       </c>
     </row>
     <row r="34" spans="1:4" s="7" customFormat="1" ht="12">
       <c r="A34" s="42" t="s">
-        <v>714</v>
+        <v>713</v>
       </c>
       <c r="B34" s="42" t="s">
+        <v>500</v>
+      </c>
+      <c r="C34" s="42" t="s">
         <v>501</v>
       </c>
-      <c r="C34" s="42" t="s">
-        <v>502</v>
-      </c>
       <c r="D34" s="42" t="s">
-        <v>713</v>
+        <v>712</v>
       </c>
     </row>
     <row r="35" spans="1:4" s="7" customFormat="1" ht="12">
       <c r="A35" s="42" t="s">
-        <v>716</v>
+        <v>715</v>
       </c>
       <c r="B35" s="42" t="s">
+        <v>500</v>
+      </c>
+      <c r="C35" s="42" t="s">
         <v>501</v>
       </c>
-      <c r="C35" s="42" t="s">
-        <v>502</v>
-      </c>
       <c r="D35" s="42" t="s">
-        <v>715</v>
+        <v>714</v>
       </c>
     </row>
     <row r="36" spans="1:4" s="7" customFormat="1" ht="12">
       <c r="A36" s="42" t="s">
-        <v>718</v>
+        <v>717</v>
       </c>
       <c r="B36" s="42" t="s">
+        <v>500</v>
+      </c>
+      <c r="C36" s="42" t="s">
         <v>501</v>
       </c>
-      <c r="C36" s="42" t="s">
-        <v>502</v>
-      </c>
       <c r="D36" s="42" t="s">
-        <v>717</v>
+        <v>716</v>
       </c>
     </row>
     <row r="37" spans="1:4" s="7" customFormat="1" ht="12">
       <c r="A37" s="42" t="s">
-        <v>720</v>
+        <v>719</v>
       </c>
       <c r="B37" s="42" t="s">
+        <v>500</v>
+      </c>
+      <c r="C37" s="42" t="s">
         <v>501</v>
       </c>
-      <c r="C37" s="42" t="s">
-        <v>502</v>
-      </c>
       <c r="D37" s="42" t="s">
-        <v>719</v>
+        <v>718</v>
       </c>
     </row>
     <row r="38" spans="1:4" s="7" customFormat="1" ht="12">
       <c r="A38" s="42" t="s">
-        <v>722</v>
+        <v>721</v>
       </c>
       <c r="B38" s="42" t="s">
+        <v>500</v>
+      </c>
+      <c r="C38" s="42" t="s">
         <v>501</v>
       </c>
-      <c r="C38" s="42" t="s">
-        <v>502</v>
-      </c>
       <c r="D38" s="42" t="s">
-        <v>721</v>
+        <v>720</v>
       </c>
     </row>
     <row r="39" spans="1:4" s="7" customFormat="1" ht="12">
       <c r="A39" s="42" t="s">
-        <v>724</v>
+        <v>723</v>
       </c>
       <c r="B39" s="42" t="s">
+        <v>500</v>
+      </c>
+      <c r="C39" s="42" t="s">
         <v>501</v>
       </c>
-      <c r="C39" s="42" t="s">
-        <v>502</v>
-      </c>
       <c r="D39" s="42" t="s">
-        <v>723</v>
+        <v>722</v>
       </c>
     </row>
     <row r="40" spans="1:4" s="7" customFormat="1" ht="12">
       <c r="A40" s="42" t="s">
-        <v>726</v>
+        <v>725</v>
       </c>
       <c r="B40" s="42" t="s">
+        <v>500</v>
+      </c>
+      <c r="C40" s="42" t="s">
         <v>501</v>
       </c>
-      <c r="C40" s="42" t="s">
-        <v>502</v>
-      </c>
       <c r="D40" s="42" t="s">
-        <v>725</v>
+        <v>724</v>
       </c>
     </row>
     <row r="41" spans="1:4" s="7" customFormat="1" ht="12">
       <c r="A41" s="42" t="s">
-        <v>728</v>
+        <v>727</v>
       </c>
       <c r="B41" s="42" t="s">
+        <v>500</v>
+      </c>
+      <c r="C41" s="42" t="s">
         <v>501</v>
       </c>
-      <c r="C41" s="42" t="s">
-        <v>502</v>
-      </c>
       <c r="D41" s="42" t="s">
-        <v>727</v>
+        <v>726</v>
       </c>
     </row>
     <row r="42" spans="1:4" s="7" customFormat="1" ht="12">
       <c r="A42" s="42" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="B42" s="42" t="s">
+        <v>500</v>
+      </c>
+      <c r="C42" s="42" t="s">
         <v>501</v>
       </c>
-      <c r="C42" s="42" t="s">
-        <v>502</v>
-      </c>
       <c r="D42" s="42" t="s">
-        <v>729</v>
+        <v>728</v>
       </c>
     </row>
     <row r="43" spans="1:4" s="7" customFormat="1" ht="12">
       <c r="A43" s="42" t="s">
-        <v>731</v>
+        <v>730</v>
       </c>
       <c r="B43" s="42" t="s">
+        <v>500</v>
+      </c>
+      <c r="C43" s="42" t="s">
         <v>501</v>
       </c>
-      <c r="C43" s="42" t="s">
-        <v>502</v>
-      </c>
       <c r="D43" s="42" t="s">
-        <v>730</v>
+        <v>729</v>
       </c>
     </row>
     <row r="44" spans="1:4" s="7" customFormat="1" ht="12">
       <c r="A44" s="42" t="s">
-        <v>733</v>
+        <v>732</v>
       </c>
       <c r="B44" s="42" t="s">
+        <v>500</v>
+      </c>
+      <c r="C44" s="42" t="s">
         <v>501</v>
       </c>
-      <c r="C44" s="42" t="s">
-        <v>502</v>
-      </c>
       <c r="D44" s="42" t="s">
-        <v>732</v>
+        <v>731</v>
       </c>
     </row>
     <row r="45" spans="1:4" s="7" customFormat="1" ht="12">
       <c r="A45" s="42" t="s">
-        <v>735</v>
+        <v>734</v>
       </c>
       <c r="B45" s="42" t="s">
+        <v>500</v>
+      </c>
+      <c r="C45" s="42" t="s">
         <v>501</v>
       </c>
-      <c r="C45" s="42" t="s">
-        <v>502</v>
-      </c>
       <c r="D45" s="42" t="s">
-        <v>734</v>
+        <v>733</v>
       </c>
     </row>
     <row r="46" spans="1:4" s="7" customFormat="1" ht="12">
       <c r="A46" s="42" t="s">
-        <v>737</v>
+        <v>736</v>
       </c>
       <c r="B46" s="42" t="s">
+        <v>500</v>
+      </c>
+      <c r="C46" s="42" t="s">
         <v>501</v>
       </c>
-      <c r="C46" s="42" t="s">
-        <v>502</v>
-      </c>
       <c r="D46" s="42" t="s">
-        <v>736</v>
+        <v>735</v>
       </c>
     </row>
     <row r="47" spans="1:4" s="7" customFormat="1" ht="12">
       <c r="A47" s="42" t="s">
-        <v>739</v>
+        <v>738</v>
       </c>
       <c r="B47" s="42" t="s">
-        <v>504</v>
+        <v>503</v>
       </c>
       <c r="C47" s="42" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="D47" s="42" t="s">
-        <v>738</v>
+        <v>737</v>
       </c>
     </row>
     <row r="48" spans="1:4" s="7" customFormat="1" ht="12">
       <c r="A48" s="42" t="s">
-        <v>741</v>
+        <v>740</v>
       </c>
       <c r="B48" s="42" t="s">
+        <v>500</v>
+      </c>
+      <c r="C48" s="42" t="s">
         <v>501</v>
       </c>
-      <c r="C48" s="42" t="s">
-        <v>502</v>
-      </c>
       <c r="D48" s="42" t="s">
-        <v>740</v>
+        <v>739</v>
       </c>
     </row>
     <row r="49" spans="1:4" s="7" customFormat="1" ht="12">
       <c r="A49" s="42" t="s">
-        <v>743</v>
+        <v>742</v>
       </c>
       <c r="B49" s="42" t="s">
+        <v>500</v>
+      </c>
+      <c r="C49" s="42" t="s">
         <v>501</v>
       </c>
-      <c r="C49" s="42" t="s">
-        <v>502</v>
-      </c>
       <c r="D49" s="42" t="s">
-        <v>742</v>
+        <v>741</v>
       </c>
     </row>
     <row r="50" spans="1:4" s="7" customFormat="1" ht="12">
       <c r="A50" s="42" t="s">
-        <v>745</v>
+        <v>744</v>
       </c>
       <c r="B50" s="42" t="s">
+        <v>500</v>
+      </c>
+      <c r="C50" s="42" t="s">
         <v>501</v>
       </c>
-      <c r="C50" s="42" t="s">
-        <v>502</v>
-      </c>
       <c r="D50" s="42" t="s">
-        <v>744</v>
+        <v>743</v>
       </c>
     </row>
     <row r="51" spans="1:4" s="7" customFormat="1" ht="12" customHeight="1">
       <c r="A51" s="42" t="s">
-        <v>747</v>
+        <v>746</v>
       </c>
       <c r="B51" s="42" t="s">
+        <v>500</v>
+      </c>
+      <c r="C51" s="42" t="s">
         <v>501</v>
       </c>
-      <c r="C51" s="42" t="s">
-        <v>502</v>
-      </c>
       <c r="D51" s="42" t="s">
-        <v>746</v>
+        <v>745</v>
       </c>
     </row>
     <row r="52" spans="1:4" s="7" customFormat="1" ht="12" customHeight="1">
       <c r="A52" s="42" t="s">
-        <v>749</v>
+        <v>748</v>
       </c>
       <c r="B52" s="42" t="s">
+        <v>500</v>
+      </c>
+      <c r="C52" s="42" t="s">
         <v>501</v>
       </c>
-      <c r="C52" s="42" t="s">
-        <v>502</v>
-      </c>
       <c r="D52" s="42" t="s">
-        <v>748</v>
+        <v>747</v>
       </c>
     </row>
     <row r="53" spans="1:4" s="7" customFormat="1" ht="12" customHeight="1">
       <c r="A53" s="42" t="s">
-        <v>751</v>
+        <v>750</v>
       </c>
       <c r="B53" s="42" t="s">
+        <v>500</v>
+      </c>
+      <c r="C53" s="42" t="s">
         <v>501</v>
       </c>
-      <c r="C53" s="42" t="s">
-        <v>502</v>
-      </c>
       <c r="D53" s="42" t="s">
-        <v>750</v>
+        <v>749</v>
       </c>
     </row>
     <row r="54" spans="1:4" s="7" customFormat="1" ht="12" customHeight="1">
       <c r="A54" s="42" t="s">
-        <v>753</v>
+        <v>752</v>
       </c>
       <c r="B54" s="42" t="s">
+        <v>500</v>
+      </c>
+      <c r="C54" s="42" t="s">
         <v>501</v>
       </c>
-      <c r="C54" s="42" t="s">
-        <v>502</v>
-      </c>
       <c r="D54" s="42" t="s">
-        <v>752</v>
+        <v>751</v>
       </c>
     </row>
     <row r="55" spans="1:4" s="7" customFormat="1" ht="12" customHeight="1">
       <c r="A55" s="42" t="s">
-        <v>755</v>
+        <v>754</v>
       </c>
       <c r="B55" s="42" t="s">
+        <v>500</v>
+      </c>
+      <c r="C55" s="42" t="s">
         <v>501</v>
       </c>
-      <c r="C55" s="42" t="s">
-        <v>502</v>
-      </c>
       <c r="D55" s="42" t="s">
-        <v>754</v>
+        <v>753</v>
       </c>
     </row>
     <row r="56" spans="1:4" s="7" customFormat="1" ht="12" customHeight="1">
       <c r="A56" s="42" t="s">
-        <v>757</v>
+        <v>756</v>
       </c>
       <c r="B56" s="42" t="s">
+        <v>500</v>
+      </c>
+      <c r="C56" s="42" t="s">
         <v>501</v>
       </c>
-      <c r="C56" s="42" t="s">
-        <v>502</v>
-      </c>
       <c r="D56" s="42" t="s">
-        <v>756</v>
+        <v>755</v>
       </c>
     </row>
     <row r="57" spans="1:4" s="7" customFormat="1" ht="12" customHeight="1">
       <c r="A57" s="42" t="s">
-        <v>759</v>
+        <v>758</v>
       </c>
       <c r="B57" s="42" t="s">
+        <v>500</v>
+      </c>
+      <c r="C57" s="42" t="s">
         <v>501</v>
       </c>
-      <c r="C57" s="42" t="s">
-        <v>502</v>
-      </c>
       <c r="D57" s="42" t="s">
-        <v>758</v>
+        <v>757</v>
       </c>
     </row>
     <row r="58" spans="1:4" s="7" customFormat="1" ht="12" customHeight="1">
       <c r="A58" s="42" t="s">
-        <v>761</v>
+        <v>760</v>
       </c>
       <c r="B58" s="42" t="s">
+        <v>500</v>
+      </c>
+      <c r="C58" s="42" t="s">
         <v>501</v>
       </c>
-      <c r="C58" s="42" t="s">
-        <v>502</v>
-      </c>
       <c r="D58" s="42" t="s">
-        <v>760</v>
+        <v>759</v>
       </c>
     </row>
     <row r="59" spans="1:4" s="7" customFormat="1" ht="12" customHeight="1">
       <c r="A59" s="42" t="s">
-        <v>763</v>
+        <v>762</v>
       </c>
       <c r="B59" s="42" t="s">
+        <v>500</v>
+      </c>
+      <c r="C59" s="42" t="s">
         <v>501</v>
       </c>
-      <c r="C59" s="42" t="s">
-        <v>502</v>
-      </c>
       <c r="D59" s="42" t="s">
-        <v>762</v>
+        <v>761</v>
       </c>
     </row>
     <row r="60" spans="1:4" s="7" customFormat="1" ht="12" customHeight="1">
       <c r="A60" s="42" t="s">
-        <v>765</v>
+        <v>764</v>
       </c>
       <c r="B60" s="42" t="s">
+        <v>500</v>
+      </c>
+      <c r="C60" s="42" t="s">
         <v>501</v>
       </c>
-      <c r="C60" s="42" t="s">
-        <v>502</v>
-      </c>
       <c r="D60" s="42" t="s">
-        <v>764</v>
+        <v>763</v>
       </c>
     </row>
     <row r="61" spans="1:4" s="7" customFormat="1" ht="12" customHeight="1">
       <c r="A61" s="42" t="s">
-        <v>767</v>
+        <v>766</v>
       </c>
       <c r="B61" s="42" t="s">
+        <v>500</v>
+      </c>
+      <c r="C61" s="42" t="s">
         <v>501</v>
       </c>
-      <c r="C61" s="42" t="s">
-        <v>502</v>
-      </c>
       <c r="D61" s="42" t="s">
-        <v>766</v>
+        <v>765</v>
       </c>
     </row>
     <row r="62" spans="1:4" s="7" customFormat="1" ht="12" customHeight="1">
       <c r="A62" s="42" t="s">
-        <v>769</v>
+        <v>768</v>
       </c>
       <c r="B62" s="42" t="s">
+        <v>500</v>
+      </c>
+      <c r="C62" s="42" t="s">
         <v>501</v>
       </c>
-      <c r="C62" s="42" t="s">
-        <v>502</v>
-      </c>
       <c r="D62" s="42" t="s">
-        <v>768</v>
+        <v>767</v>
       </c>
     </row>
     <row r="63" spans="1:4" s="7" customFormat="1" ht="12" customHeight="1">
       <c r="A63" s="42" t="s">
-        <v>771</v>
+        <v>770</v>
       </c>
       <c r="B63" s="42" t="s">
+        <v>500</v>
+      </c>
+      <c r="C63" s="42" t="s">
         <v>501</v>
       </c>
-      <c r="C63" s="42" t="s">
-        <v>502</v>
-      </c>
       <c r="D63" s="42" t="s">
-        <v>770</v>
+        <v>769</v>
       </c>
     </row>
     <row r="64" spans="1:4" s="7" customFormat="1" ht="12" customHeight="1">
       <c r="A64" s="42" t="s">
-        <v>773</v>
+        <v>772</v>
       </c>
       <c r="B64" s="42" t="s">
+        <v>500</v>
+      </c>
+      <c r="C64" s="42" t="s">
         <v>501</v>
       </c>
-      <c r="C64" s="42" t="s">
-        <v>502</v>
-      </c>
       <c r="D64" s="42" t="s">
-        <v>772</v>
+        <v>771</v>
       </c>
     </row>
     <row r="65" spans="1:4" s="7" customFormat="1" ht="12" customHeight="1">
       <c r="A65" s="42" t="s">
-        <v>775</v>
+        <v>774</v>
       </c>
       <c r="B65" s="42" t="s">
+        <v>500</v>
+      </c>
+      <c r="C65" s="42" t="s">
         <v>501</v>
       </c>
-      <c r="C65" s="42" t="s">
-        <v>502</v>
-      </c>
       <c r="D65" s="42" t="s">
-        <v>774</v>
+        <v>773</v>
       </c>
     </row>
     <row r="66" spans="1:4" s="7" customFormat="1" ht="12" customHeight="1">
       <c r="A66" s="42" t="s">
-        <v>777</v>
+        <v>776</v>
       </c>
       <c r="B66" s="42" t="s">
+        <v>500</v>
+      </c>
+      <c r="C66" s="42" t="s">
         <v>501</v>
       </c>
-      <c r="C66" s="42" t="s">
-        <v>502</v>
-      </c>
       <c r="D66" s="42" t="s">
-        <v>776</v>
+        <v>775</v>
       </c>
     </row>
     <row r="67" spans="1:4" s="7" customFormat="1" ht="12" customHeight="1">
       <c r="A67" s="42" t="s">
-        <v>779</v>
+        <v>778</v>
       </c>
       <c r="B67" s="42" t="s">
+        <v>500</v>
+      </c>
+      <c r="C67" s="42" t="s">
         <v>501</v>
       </c>
-      <c r="C67" s="42" t="s">
-        <v>502</v>
-      </c>
       <c r="D67" s="42" t="s">
-        <v>778</v>
+        <v>777</v>
       </c>
     </row>
     <row r="68" spans="1:4" s="7" customFormat="1" ht="12" customHeight="1">
       <c r="A68" s="42" t="s">
-        <v>781</v>
+        <v>780</v>
       </c>
       <c r="B68" s="42" t="s">
+        <v>500</v>
+      </c>
+      <c r="C68" s="42" t="s">
         <v>501</v>
       </c>
-      <c r="C68" s="42" t="s">
-        <v>502</v>
-      </c>
       <c r="D68" s="42" t="s">
-        <v>780</v>
+        <v>779</v>
       </c>
     </row>
     <row r="69" spans="1:4" s="7" customFormat="1" ht="12" customHeight="1">
       <c r="A69" s="42" t="s">
-        <v>783</v>
+        <v>782</v>
       </c>
       <c r="B69" s="42" t="s">
+        <v>500</v>
+      </c>
+      <c r="C69" s="42" t="s">
         <v>501</v>
       </c>
-      <c r="C69" s="42" t="s">
-        <v>502</v>
-      </c>
       <c r="D69" s="42" t="s">
-        <v>782</v>
+        <v>781</v>
       </c>
     </row>
     <row r="70" spans="1:4" s="7" customFormat="1" ht="12" customHeight="1">
       <c r="A70" s="42" t="s">
-        <v>785</v>
+        <v>784</v>
       </c>
       <c r="B70" s="42" t="s">
+        <v>500</v>
+      </c>
+      <c r="C70" s="42" t="s">
         <v>501</v>
       </c>
-      <c r="C70" s="42" t="s">
-        <v>502</v>
-      </c>
       <c r="D70" s="42" t="s">
-        <v>784</v>
+        <v>783</v>
       </c>
     </row>
     <row r="71" spans="1:4" s="7" customFormat="1" ht="12" customHeight="1">
       <c r="A71" s="42" t="s">
-        <v>787</v>
+        <v>786</v>
       </c>
       <c r="B71" s="42" t="s">
+        <v>500</v>
+      </c>
+      <c r="C71" s="42" t="s">
         <v>501</v>
       </c>
-      <c r="C71" s="42" t="s">
-        <v>502</v>
-      </c>
       <c r="D71" s="42" t="s">
-        <v>786</v>
+        <v>785</v>
       </c>
     </row>
     <row r="72" spans="1:4" s="7" customFormat="1" ht="12" customHeight="1">
       <c r="A72" s="42" t="s">
-        <v>789</v>
+        <v>788</v>
       </c>
       <c r="B72" s="42" t="s">
+        <v>500</v>
+      </c>
+      <c r="C72" s="42" t="s">
         <v>501</v>
       </c>
-      <c r="C72" s="42" t="s">
-        <v>502</v>
-      </c>
       <c r="D72" s="42" t="s">
-        <v>788</v>
+        <v>787</v>
       </c>
     </row>
     <row r="73" spans="1:4" s="7" customFormat="1" ht="12" customHeight="1">
       <c r="A73" s="42" t="s">
-        <v>791</v>
+        <v>790</v>
       </c>
       <c r="B73" s="42" t="s">
+        <v>500</v>
+      </c>
+      <c r="C73" s="42" t="s">
         <v>501</v>
       </c>
-      <c r="C73" s="42" t="s">
-        <v>502</v>
-      </c>
       <c r="D73" s="42" t="s">
-        <v>790</v>
+        <v>789</v>
       </c>
     </row>
     <row r="74" spans="1:4" s="7" customFormat="1" ht="12" customHeight="1">
       <c r="A74" s="42" t="s">
-        <v>793</v>
+        <v>792</v>
       </c>
       <c r="B74" s="42" t="s">
+        <v>500</v>
+      </c>
+      <c r="C74" s="42" t="s">
         <v>501</v>
       </c>
-      <c r="C74" s="42" t="s">
-        <v>502</v>
-      </c>
       <c r="D74" s="42" t="s">
-        <v>792</v>
+        <v>791</v>
       </c>
     </row>
     <row r="75" spans="1:4" ht="12" customHeight="1">
       <c r="A75" s="42" t="s">
-        <v>795</v>
+        <v>794</v>
       </c>
       <c r="B75" s="42" t="s">
+        <v>500</v>
+      </c>
+      <c r="C75" s="42" t="s">
         <v>501</v>
       </c>
-      <c r="C75" s="42" t="s">
-        <v>502</v>
-      </c>
       <c r="D75" s="42" t="s">
-        <v>794</v>
+        <v>793</v>
       </c>
     </row>
     <row r="76" spans="1:4" ht="12" customHeight="1">
       <c r="A76" s="42" t="s">
-        <v>797</v>
+        <v>796</v>
       </c>
       <c r="B76" s="42" t="s">
+        <v>500</v>
+      </c>
+      <c r="C76" s="42" t="s">
         <v>501</v>
       </c>
-      <c r="C76" s="42" t="s">
-        <v>502</v>
-      </c>
       <c r="D76" s="42" t="s">
-        <v>796</v>
+        <v>795</v>
       </c>
     </row>
     <row r="77" spans="1:4" ht="12" customHeight="1">
       <c r="A77" s="42" t="s">
-        <v>799</v>
+        <v>798</v>
       </c>
       <c r="B77" s="42" t="s">
+        <v>500</v>
+      </c>
+      <c r="C77" s="42" t="s">
         <v>501</v>
       </c>
-      <c r="C77" s="42" t="s">
-        <v>502</v>
-      </c>
       <c r="D77" s="42" t="s">
-        <v>798</v>
+        <v>797</v>
       </c>
     </row>
     <row r="78" spans="1:4" ht="12" customHeight="1">
       <c r="A78" s="42" t="s">
-        <v>801</v>
+        <v>800</v>
       </c>
       <c r="B78" s="42" t="s">
+        <v>500</v>
+      </c>
+      <c r="C78" s="42" t="s">
         <v>501</v>
       </c>
-      <c r="C78" s="42" t="s">
-        <v>502</v>
-      </c>
       <c r="D78" s="42" t="s">
-        <v>800</v>
+        <v>799</v>
       </c>
     </row>
     <row r="79" spans="1:4" ht="12" customHeight="1">
       <c r="A79" s="42" t="s">
-        <v>803</v>
+        <v>802</v>
       </c>
       <c r="B79" s="42" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
       <c r="C79" s="42" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="D79" s="42" t="s">
-        <v>802</v>
+        <v>801</v>
       </c>
     </row>
     <row r="80" spans="1:4" ht="12" customHeight="1">
       <c r="A80" s="42" t="s">
-        <v>804</v>
+        <v>803</v>
       </c>
       <c r="B80" s="42" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
       <c r="C80" s="42" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
       <c r="D80" s="42" t="s">
-        <v>802</v>
+        <v>801</v>
       </c>
     </row>
     <row r="81" spans="1:4" ht="12" customHeight="1">
       <c r="A81" s="42" t="s">
-        <v>806</v>
+        <v>805</v>
       </c>
       <c r="B81" s="42" t="s">
+        <v>506</v>
+      </c>
+      <c r="C81" s="42" t="s">
         <v>507</v>
       </c>
-      <c r="C81" s="42" t="s">
-        <v>508</v>
-      </c>
       <c r="D81" s="42" t="s">
-        <v>805</v>
+        <v>804</v>
       </c>
     </row>
     <row r="82" spans="1:4" ht="12" customHeight="1">
       <c r="A82" s="42" t="s">
-        <v>511</v>
+        <v>510</v>
       </c>
       <c r="B82" s="42" t="s">
+        <v>508</v>
+      </c>
+      <c r="C82" s="42" t="s">
         <v>509</v>
       </c>
-      <c r="C82" s="42" t="s">
-        <v>510</v>
-      </c>
       <c r="D82" s="42" t="s">
-        <v>807</v>
+        <v>806</v>
       </c>
     </row>
     <row r="83" spans="1:4" ht="12" customHeight="1">
       <c r="A83" s="42" t="s">
-        <v>514</v>
+        <v>513</v>
       </c>
       <c r="B83" s="42" t="s">
+        <v>511</v>
+      </c>
+      <c r="C83" s="42" t="s">
         <v>512</v>
       </c>
-      <c r="C83" s="42" t="s">
-        <v>513</v>
-      </c>
       <c r="D83" s="42" t="s">
-        <v>808</v>
+        <v>807</v>
       </c>
     </row>
     <row r="84" spans="1:4" ht="12" customHeight="1">
       <c r="A84" s="42" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
       <c r="B84" s="42" t="s">
+        <v>514</v>
+      </c>
+      <c r="C84" s="42" t="s">
         <v>515</v>
       </c>
-      <c r="C84" s="42" t="s">
-        <v>516</v>
-      </c>
       <c r="D84" s="42" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
     </row>
     <row r="85" spans="1:4" ht="12" customHeight="1">
       <c r="A85" s="42" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="B85" s="42" t="s">
+        <v>446</v>
+      </c>
+      <c r="C85" s="42" t="s">
         <v>447</v>
       </c>
-      <c r="C85" s="42" t="s">
-        <v>448</v>
-      </c>
       <c r="D85" s="42" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
     </row>
     <row r="86" spans="1:4" ht="12" customHeight="1">
       <c r="A86" s="42" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="B86" s="42" t="s">
+        <v>449</v>
+      </c>
+      <c r="C86" s="42" t="s">
         <v>450</v>
-      </c>
-      <c r="C86" s="42" t="s">
-        <v>451</v>
       </c>
       <c r="D86" s="42" t="s">
         <v>296</v>
@@ -8556,41 +8626,41 @@
     </row>
     <row r="87" spans="1:4" ht="12" customHeight="1">
       <c r="A87" s="42" t="s">
-        <v>520</v>
+        <v>519</v>
       </c>
       <c r="B87" s="42" t="s">
+        <v>517</v>
+      </c>
+      <c r="C87" s="42" t="s">
         <v>518</v>
       </c>
-      <c r="C87" s="42" t="s">
-        <v>519</v>
-      </c>
       <c r="D87" s="42" t="s">
-        <v>809</v>
+        <v>808</v>
       </c>
     </row>
     <row r="88" spans="1:4" ht="12" customHeight="1">
       <c r="A88" s="42" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
       <c r="B88" s="42" t="s">
+        <v>453</v>
+      </c>
+      <c r="C88" s="42" t="s">
         <v>454</v>
       </c>
-      <c r="C88" s="42" t="s">
-        <v>455</v>
-      </c>
       <c r="D88" s="42" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
     </row>
     <row r="89" spans="1:4" ht="12" customHeight="1">
       <c r="A89" s="42" t="s">
-        <v>523</v>
+        <v>522</v>
       </c>
       <c r="B89" s="42" t="s">
+        <v>520</v>
+      </c>
+      <c r="C89" s="42" t="s">
         <v>521</v>
-      </c>
-      <c r="C89" s="42" t="s">
-        <v>522</v>
       </c>
       <c r="D89" s="42" t="s">
         <v>295</v>
@@ -8598,69 +8668,69 @@
     </row>
     <row r="90" spans="1:4" ht="12" customHeight="1">
       <c r="A90" s="42" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
       <c r="B90" s="42" t="s">
+        <v>523</v>
+      </c>
+      <c r="C90" s="42" t="s">
         <v>524</v>
       </c>
-      <c r="C90" s="42" t="s">
-        <v>525</v>
-      </c>
       <c r="D90" s="42" t="s">
-        <v>810</v>
+        <v>809</v>
       </c>
     </row>
     <row r="91" spans="1:4" ht="12" customHeight="1">
       <c r="A91" s="42" t="s">
-        <v>529</v>
+        <v>528</v>
       </c>
       <c r="B91" s="42" t="s">
+        <v>526</v>
+      </c>
+      <c r="C91" s="42" t="s">
         <v>527</v>
       </c>
-      <c r="C91" s="42" t="s">
-        <v>528</v>
-      </c>
       <c r="D91" s="42" t="s">
-        <v>811</v>
+        <v>810</v>
       </c>
     </row>
     <row r="92" spans="1:4" ht="12" customHeight="1">
       <c r="A92" s="42" t="s">
-        <v>532</v>
+        <v>531</v>
       </c>
       <c r="B92" s="42" t="s">
+        <v>529</v>
+      </c>
+      <c r="C92" s="42" t="s">
         <v>530</v>
       </c>
-      <c r="C92" s="42" t="s">
-        <v>531</v>
-      </c>
       <c r="D92" s="42" t="s">
-        <v>812</v>
+        <v>811</v>
       </c>
     </row>
     <row r="93" spans="1:4" ht="12" customHeight="1">
       <c r="A93" s="42" t="s">
-        <v>534</v>
+        <v>533</v>
       </c>
       <c r="B93" s="42" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
       <c r="C93" s="42" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="D93" s="42" t="s">
-        <v>813</v>
+        <v>812</v>
       </c>
     </row>
     <row r="94" spans="1:4" ht="12" customHeight="1">
       <c r="A94" s="42" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="B94" s="42" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="C94" s="42" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="D94" s="42" t="s">
         <v>297</v>
@@ -8668,707 +8738,707 @@
     </row>
     <row r="95" spans="1:4" ht="12" customHeight="1">
       <c r="A95" s="42" t="s">
-        <v>536</v>
+        <v>535</v>
       </c>
       <c r="B95" s="42" t="s">
-        <v>535</v>
+        <v>534</v>
       </c>
       <c r="C95" s="42" t="s">
-        <v>535</v>
+        <v>534</v>
       </c>
       <c r="D95" s="42" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
     </row>
     <row r="96" spans="1:4" ht="12" customHeight="1">
       <c r="A96" s="42" t="s">
-        <v>539</v>
+        <v>538</v>
       </c>
       <c r="B96" s="42" t="s">
+        <v>536</v>
+      </c>
+      <c r="C96" s="42" t="s">
         <v>537</v>
       </c>
-      <c r="C96" s="42" t="s">
-        <v>538</v>
-      </c>
       <c r="D96" s="42" t="s">
-        <v>814</v>
+        <v>813</v>
       </c>
     </row>
     <row r="97" spans="1:4" ht="12" customHeight="1">
       <c r="A97" s="42" t="s">
-        <v>542</v>
+        <v>541</v>
       </c>
       <c r="B97" s="42" t="s">
+        <v>539</v>
+      </c>
+      <c r="C97" s="42" t="s">
         <v>540</v>
       </c>
-      <c r="C97" s="42" t="s">
-        <v>541</v>
-      </c>
       <c r="D97" s="42" t="s">
-        <v>815</v>
+        <v>814</v>
       </c>
     </row>
     <row r="98" spans="1:4" ht="12" customHeight="1">
       <c r="A98" s="42" t="s">
-        <v>545</v>
+        <v>544</v>
       </c>
       <c r="B98" s="42" t="s">
+        <v>542</v>
+      </c>
+      <c r="C98" s="42" t="s">
         <v>543</v>
       </c>
-      <c r="C98" s="42" t="s">
-        <v>544</v>
-      </c>
       <c r="D98" s="42" t="s">
-        <v>816</v>
+        <v>815</v>
       </c>
     </row>
     <row r="99" spans="1:4" ht="12" customHeight="1">
       <c r="A99" s="42" t="s">
-        <v>546</v>
+        <v>545</v>
       </c>
       <c r="B99" s="42" t="s">
+        <v>542</v>
+      </c>
+      <c r="C99" s="42" t="s">
         <v>543</v>
       </c>
-      <c r="C99" s="42" t="s">
-        <v>544</v>
-      </c>
       <c r="D99" s="42" t="s">
-        <v>816</v>
+        <v>815</v>
       </c>
     </row>
     <row r="100" spans="1:4" ht="12" customHeight="1">
       <c r="A100" s="42" t="s">
-        <v>549</v>
+        <v>548</v>
       </c>
       <c r="B100" s="42" t="s">
+        <v>546</v>
+      </c>
+      <c r="C100" s="42" t="s">
         <v>547</v>
       </c>
-      <c r="C100" s="42" t="s">
-        <v>548</v>
-      </c>
       <c r="D100" s="42" t="s">
-        <v>817</v>
+        <v>816</v>
       </c>
     </row>
     <row r="101" spans="1:4" ht="12" customHeight="1">
       <c r="A101" s="42" t="s">
-        <v>551</v>
+        <v>550</v>
       </c>
       <c r="B101" s="42" t="s">
-        <v>550</v>
+        <v>549</v>
       </c>
       <c r="C101" s="42" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="D101" s="42" t="s">
-        <v>818</v>
+        <v>817</v>
       </c>
     </row>
     <row r="102" spans="1:4" ht="12" customHeight="1">
       <c r="A102" s="42" t="s">
-        <v>553</v>
+        <v>552</v>
       </c>
       <c r="B102" s="42" t="s">
-        <v>552</v>
+        <v>551</v>
       </c>
       <c r="C102" s="42" t="s">
-        <v>552</v>
+        <v>551</v>
       </c>
       <c r="D102" s="42" t="s">
-        <v>819</v>
+        <v>818</v>
       </c>
     </row>
     <row r="103" spans="1:4" ht="12" customHeight="1">
       <c r="A103" s="42" t="s">
-        <v>555</v>
+        <v>554</v>
       </c>
       <c r="B103" s="42" t="s">
-        <v>554</v>
+        <v>553</v>
       </c>
       <c r="C103" s="42" t="s">
-        <v>554</v>
+        <v>553</v>
       </c>
       <c r="D103" s="42" t="s">
-        <v>820</v>
+        <v>819</v>
       </c>
     </row>
     <row r="104" spans="1:4" ht="12" customHeight="1">
       <c r="A104" s="42" t="s">
-        <v>558</v>
+        <v>557</v>
       </c>
       <c r="B104" s="42" t="s">
+        <v>555</v>
+      </c>
+      <c r="C104" s="42" t="s">
         <v>556</v>
       </c>
-      <c r="C104" s="42" t="s">
-        <v>557</v>
-      </c>
       <c r="D104" s="42" t="s">
-        <v>821</v>
+        <v>820</v>
       </c>
     </row>
     <row r="105" spans="1:4" ht="12" customHeight="1">
       <c r="A105" s="42" t="s">
-        <v>560</v>
+        <v>559</v>
       </c>
       <c r="B105" s="42" t="s">
-        <v>559</v>
+        <v>558</v>
       </c>
       <c r="C105" s="42" t="s">
-        <v>559</v>
+        <v>558</v>
       </c>
       <c r="D105" s="42" t="s">
-        <v>820</v>
+        <v>819</v>
       </c>
     </row>
     <row r="106" spans="1:4" ht="12" customHeight="1">
       <c r="A106" s="42" t="s">
-        <v>562</v>
+        <v>561</v>
       </c>
       <c r="B106" s="42" t="s">
-        <v>561</v>
+        <v>560</v>
       </c>
       <c r="C106" s="42" t="s">
-        <v>561</v>
+        <v>560</v>
       </c>
       <c r="D106" s="42" t="s">
-        <v>820</v>
+        <v>819</v>
       </c>
     </row>
     <row r="107" spans="1:4" ht="12" customHeight="1">
       <c r="A107" s="42" t="s">
-        <v>564</v>
+        <v>563</v>
       </c>
       <c r="B107" s="42" t="s">
-        <v>563</v>
+        <v>562</v>
       </c>
       <c r="C107" s="42" t="s">
-        <v>563</v>
+        <v>562</v>
       </c>
       <c r="D107" s="42" t="s">
-        <v>822</v>
+        <v>821</v>
       </c>
     </row>
     <row r="108" spans="1:4" ht="12" customHeight="1">
       <c r="A108" s="42" t="s">
-        <v>566</v>
+        <v>565</v>
       </c>
       <c r="B108" s="42" t="s">
-        <v>565</v>
+        <v>564</v>
       </c>
       <c r="C108" s="42" t="s">
-        <v>565</v>
+        <v>564</v>
       </c>
       <c r="D108" s="42" t="s">
-        <v>823</v>
+        <v>822</v>
       </c>
     </row>
     <row r="109" spans="1:4" ht="12" customHeight="1">
       <c r="A109" s="42" t="s">
-        <v>569</v>
+        <v>568</v>
       </c>
       <c r="B109" s="42" t="s">
+        <v>566</v>
+      </c>
+      <c r="C109" s="42" t="s">
         <v>567</v>
       </c>
-      <c r="C109" s="42" t="s">
-        <v>568</v>
-      </c>
       <c r="D109" s="42" t="s">
-        <v>820</v>
+        <v>819</v>
       </c>
     </row>
     <row r="110" spans="1:4" ht="12" customHeight="1">
       <c r="A110" s="42" t="s">
-        <v>571</v>
+        <v>570</v>
       </c>
       <c r="B110" s="42" t="s">
-        <v>570</v>
+        <v>569</v>
       </c>
       <c r="C110" s="42" t="s">
-        <v>570</v>
+        <v>569</v>
       </c>
       <c r="D110" s="42" t="s">
-        <v>822</v>
+        <v>821</v>
       </c>
     </row>
     <row r="111" spans="1:4" ht="12" customHeight="1">
       <c r="A111" s="42" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
       <c r="B111" s="42" t="s">
-        <v>572</v>
+        <v>571</v>
       </c>
       <c r="C111" s="42" t="s">
-        <v>572</v>
+        <v>571</v>
       </c>
       <c r="D111" s="42" t="s">
-        <v>824</v>
+        <v>823</v>
       </c>
     </row>
     <row r="112" spans="1:4" ht="12" customHeight="1">
       <c r="A112" s="42" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
       <c r="B112" s="42" t="s">
-        <v>574</v>
+        <v>573</v>
       </c>
       <c r="C112" s="42" t="s">
-        <v>574</v>
+        <v>573</v>
       </c>
       <c r="D112" s="42" t="s">
-        <v>821</v>
+        <v>820</v>
       </c>
     </row>
     <row r="113" spans="1:4" ht="12" customHeight="1">
       <c r="A113" s="42" t="s">
-        <v>578</v>
+        <v>577</v>
       </c>
       <c r="B113" s="42" t="s">
+        <v>575</v>
+      </c>
+      <c r="C113" s="42" t="s">
         <v>576</v>
       </c>
-      <c r="C113" s="42" t="s">
-        <v>577</v>
-      </c>
       <c r="D113" s="42" t="s">
-        <v>821</v>
+        <v>820</v>
       </c>
     </row>
     <row r="114" spans="1:4" ht="12" customHeight="1">
       <c r="A114" s="42" t="s">
-        <v>581</v>
+        <v>580</v>
       </c>
       <c r="B114" s="42" t="s">
+        <v>578</v>
+      </c>
+      <c r="C114" s="42" t="s">
         <v>579</v>
       </c>
-      <c r="C114" s="42" t="s">
-        <v>580</v>
-      </c>
       <c r="D114" s="42" t="s">
-        <v>821</v>
+        <v>820</v>
       </c>
     </row>
     <row r="115" spans="1:4" ht="12" customHeight="1">
       <c r="A115" s="42" t="s">
-        <v>584</v>
+        <v>583</v>
       </c>
       <c r="B115" s="42" t="s">
+        <v>581</v>
+      </c>
+      <c r="C115" s="42" t="s">
         <v>582</v>
       </c>
-      <c r="C115" s="42" t="s">
-        <v>583</v>
-      </c>
       <c r="D115" s="42" t="s">
-        <v>821</v>
+        <v>820</v>
       </c>
     </row>
     <row r="116" spans="1:4" ht="12" customHeight="1">
       <c r="A116" s="42" t="s">
-        <v>587</v>
+        <v>586</v>
       </c>
       <c r="B116" s="42" t="s">
+        <v>584</v>
+      </c>
+      <c r="C116" s="42" t="s">
         <v>585</v>
       </c>
-      <c r="C116" s="42" t="s">
-        <v>586</v>
-      </c>
       <c r="D116" s="42" t="s">
-        <v>821</v>
+        <v>820</v>
       </c>
     </row>
     <row r="117" spans="1:4" ht="12" customHeight="1">
       <c r="A117" s="42" t="s">
-        <v>589</v>
+        <v>588</v>
       </c>
       <c r="B117" s="42" t="s">
-        <v>588</v>
+        <v>587</v>
       </c>
       <c r="C117" s="42" t="s">
-        <v>588</v>
+        <v>587</v>
       </c>
       <c r="D117" s="42" t="s">
-        <v>818</v>
+        <v>817</v>
       </c>
     </row>
     <row r="118" spans="1:4" ht="12" customHeight="1">
       <c r="A118" s="42" t="s">
-        <v>592</v>
+        <v>591</v>
       </c>
       <c r="B118" s="42" t="s">
+        <v>589</v>
+      </c>
+      <c r="C118" s="42" t="s">
         <v>590</v>
       </c>
-      <c r="C118" s="42" t="s">
-        <v>591</v>
-      </c>
       <c r="D118" s="42" t="s">
-        <v>818</v>
+        <v>817</v>
       </c>
     </row>
     <row r="119" spans="1:4" ht="12" customHeight="1">
       <c r="A119" s="42" t="s">
-        <v>594</v>
+        <v>593</v>
       </c>
       <c r="B119" s="42" t="s">
-        <v>593</v>
+        <v>592</v>
       </c>
       <c r="C119" s="42" t="s">
-        <v>593</v>
+        <v>592</v>
       </c>
       <c r="D119" s="42" t="s">
-        <v>818</v>
+        <v>817</v>
       </c>
     </row>
     <row r="120" spans="1:4" ht="12" customHeight="1">
       <c r="A120" s="42" t="s">
-        <v>595</v>
+        <v>594</v>
       </c>
       <c r="B120" s="42" t="s">
-        <v>559</v>
+        <v>558</v>
       </c>
       <c r="C120" s="42" t="s">
-        <v>559</v>
+        <v>558</v>
       </c>
       <c r="D120" s="42" t="s">
-        <v>818</v>
+        <v>817</v>
       </c>
     </row>
     <row r="121" spans="1:4" ht="12" customHeight="1">
       <c r="A121" s="42" t="s">
-        <v>598</v>
+        <v>597</v>
       </c>
       <c r="B121" s="42" t="s">
+        <v>595</v>
+      </c>
+      <c r="C121" s="42" t="s">
         <v>596</v>
       </c>
-      <c r="C121" s="42" t="s">
-        <v>597</v>
-      </c>
       <c r="D121" s="42" t="s">
-        <v>825</v>
+        <v>824</v>
       </c>
     </row>
     <row r="122" spans="1:4" ht="12" customHeight="1">
       <c r="A122" s="42" t="s">
-        <v>600</v>
+        <v>599</v>
       </c>
       <c r="B122" s="42" t="s">
-        <v>599</v>
+        <v>598</v>
       </c>
       <c r="C122" s="42" t="s">
-        <v>599</v>
+        <v>598</v>
       </c>
       <c r="D122" s="42" t="s">
-        <v>826</v>
+        <v>825</v>
       </c>
     </row>
     <row r="123" spans="1:4" ht="12" customHeight="1">
       <c r="A123" s="42" t="s">
-        <v>603</v>
+        <v>602</v>
       </c>
       <c r="B123" s="42" t="s">
+        <v>600</v>
+      </c>
+      <c r="C123" s="42" t="s">
         <v>601</v>
       </c>
-      <c r="C123" s="42" t="s">
-        <v>602</v>
-      </c>
       <c r="D123" s="42" t="s">
-        <v>821</v>
+        <v>820</v>
       </c>
     </row>
     <row r="124" spans="1:4" ht="12" customHeight="1">
       <c r="A124" s="42" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
       <c r="B124" s="42" t="s">
+        <v>603</v>
+      </c>
+      <c r="C124" s="42" t="s">
         <v>604</v>
       </c>
-      <c r="C124" s="42" t="s">
-        <v>605</v>
-      </c>
       <c r="D124" s="42" t="s">
-        <v>827</v>
+        <v>826</v>
       </c>
     </row>
     <row r="125" spans="1:4" ht="12" customHeight="1">
       <c r="A125" s="42" t="s">
-        <v>609</v>
+        <v>608</v>
       </c>
       <c r="B125" s="42" t="s">
+        <v>606</v>
+      </c>
+      <c r="C125" s="42" t="s">
         <v>607</v>
       </c>
-      <c r="C125" s="42" t="s">
-        <v>608</v>
-      </c>
       <c r="D125" s="42" t="s">
-        <v>828</v>
+        <v>827</v>
       </c>
     </row>
     <row r="126" spans="1:4" ht="12" customHeight="1">
       <c r="A126" s="42" t="s">
-        <v>612</v>
+        <v>611</v>
       </c>
       <c r="B126" s="42" t="s">
+        <v>609</v>
+      </c>
+      <c r="C126" s="42" t="s">
         <v>610</v>
       </c>
-      <c r="C126" s="42" t="s">
-        <v>611</v>
-      </c>
       <c r="D126" s="42" t="s">
-        <v>829</v>
+        <v>828</v>
       </c>
     </row>
     <row r="127" spans="1:4" ht="12" customHeight="1">
       <c r="A127" s="42" t="s">
-        <v>615</v>
+        <v>614</v>
       </c>
       <c r="B127" s="42" t="s">
+        <v>612</v>
+      </c>
+      <c r="C127" s="42" t="s">
         <v>613</v>
       </c>
-      <c r="C127" s="42" t="s">
-        <v>614</v>
-      </c>
       <c r="D127" s="42" t="s">
-        <v>830</v>
+        <v>829</v>
       </c>
     </row>
     <row r="128" spans="1:4" ht="12" customHeight="1">
       <c r="A128" s="42" t="s">
-        <v>618</v>
+        <v>617</v>
       </c>
       <c r="B128" s="42" t="s">
+        <v>615</v>
+      </c>
+      <c r="C128" s="42" t="s">
         <v>616</v>
       </c>
-      <c r="C128" s="42" t="s">
-        <v>617</v>
-      </c>
       <c r="D128" s="42" t="s">
-        <v>831</v>
+        <v>830</v>
       </c>
     </row>
     <row r="129" spans="1:4" ht="12" customHeight="1">
       <c r="A129" s="42" t="s">
-        <v>620</v>
+        <v>619</v>
       </c>
       <c r="B129" s="42" t="s">
-        <v>619</v>
+        <v>618</v>
       </c>
       <c r="C129" s="42" t="s">
-        <v>619</v>
+        <v>618</v>
       </c>
       <c r="D129" s="42" t="s">
-        <v>818</v>
+        <v>817</v>
       </c>
     </row>
     <row r="130" spans="1:4" ht="12" customHeight="1">
       <c r="A130" s="42" t="s">
-        <v>622</v>
+        <v>621</v>
       </c>
       <c r="B130" s="42" t="s">
-        <v>621</v>
+        <v>620</v>
       </c>
       <c r="C130" s="42" t="s">
-        <v>621</v>
+        <v>620</v>
       </c>
       <c r="D130" s="42" t="s">
-        <v>818</v>
+        <v>817</v>
       </c>
     </row>
     <row r="131" spans="1:4" ht="12" customHeight="1">
       <c r="A131" s="42" t="s">
-        <v>625</v>
+        <v>624</v>
       </c>
       <c r="B131" s="42" t="s">
+        <v>622</v>
+      </c>
+      <c r="C131" s="42" t="s">
         <v>623</v>
       </c>
-      <c r="C131" s="42" t="s">
-        <v>624</v>
-      </c>
       <c r="D131" s="42" t="s">
-        <v>818</v>
+        <v>817</v>
       </c>
     </row>
     <row r="132" spans="1:4" ht="12" customHeight="1">
       <c r="A132" s="42" t="s">
-        <v>628</v>
+        <v>627</v>
       </c>
       <c r="B132" s="42" t="s">
+        <v>625</v>
+      </c>
+      <c r="C132" s="42" t="s">
         <v>626</v>
       </c>
-      <c r="C132" s="42" t="s">
-        <v>627</v>
-      </c>
       <c r="D132" s="42" t="s">
-        <v>818</v>
+        <v>817</v>
       </c>
     </row>
     <row r="133" spans="1:4" ht="12" customHeight="1">
       <c r="A133" s="42" t="s">
-        <v>629</v>
+        <v>628</v>
       </c>
       <c r="B133" s="42" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="C133" s="42" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="D133" s="42" t="s">
-        <v>832</v>
+        <v>831</v>
       </c>
     </row>
     <row r="134" spans="1:4" ht="12" customHeight="1">
       <c r="A134" s="42" t="s">
-        <v>631</v>
+        <v>630</v>
       </c>
       <c r="B134" s="42" t="s">
-        <v>630</v>
+        <v>629</v>
       </c>
       <c r="C134" s="42" t="s">
-        <v>630</v>
+        <v>629</v>
       </c>
       <c r="D134" s="42" t="s">
-        <v>833</v>
+        <v>832</v>
       </c>
     </row>
     <row r="135" spans="1:4" ht="12" customHeight="1">
       <c r="A135" s="42" t="s">
-        <v>634</v>
+        <v>633</v>
       </c>
       <c r="B135" s="42" t="s">
+        <v>631</v>
+      </c>
+      <c r="C135" s="42" t="s">
         <v>632</v>
       </c>
-      <c r="C135" s="42" t="s">
-        <v>633</v>
-      </c>
       <c r="D135" s="42" t="s">
-        <v>821</v>
+        <v>820</v>
       </c>
     </row>
     <row r="136" spans="1:4" ht="12" customHeight="1">
       <c r="A136" s="42" t="s">
-        <v>636</v>
+        <v>635</v>
       </c>
       <c r="B136" s="42" t="s">
-        <v>635</v>
+        <v>634</v>
       </c>
       <c r="C136" s="42" t="s">
-        <v>635</v>
+        <v>634</v>
       </c>
       <c r="D136" s="42" t="s">
-        <v>834</v>
+        <v>833</v>
       </c>
     </row>
     <row r="137" spans="1:4" ht="12" customHeight="1">
       <c r="A137" s="42" t="s">
-        <v>639</v>
+        <v>638</v>
       </c>
       <c r="B137" s="42" t="s">
+        <v>636</v>
+      </c>
+      <c r="C137" s="42" t="s">
         <v>637</v>
       </c>
-      <c r="C137" s="42" t="s">
-        <v>638</v>
-      </c>
       <c r="D137" s="42" t="s">
-        <v>835</v>
+        <v>834</v>
       </c>
     </row>
     <row r="138" spans="1:4" ht="12" customHeight="1">
       <c r="A138" s="42" t="s">
-        <v>641</v>
+        <v>640</v>
       </c>
       <c r="B138" s="42" t="s">
-        <v>640</v>
+        <v>639</v>
       </c>
       <c r="C138" s="42" t="s">
-        <v>640</v>
+        <v>639</v>
       </c>
       <c r="D138" s="42" t="s">
-        <v>836</v>
+        <v>835</v>
       </c>
     </row>
     <row r="139" spans="1:4" ht="12" customHeight="1">
       <c r="A139" s="42" t="s">
-        <v>644</v>
+        <v>643</v>
       </c>
       <c r="B139" s="42" t="s">
+        <v>641</v>
+      </c>
+      <c r="C139" s="42" t="s">
         <v>642</v>
       </c>
-      <c r="C139" s="42" t="s">
-        <v>643</v>
-      </c>
       <c r="D139" s="42" t="s">
-        <v>837</v>
+        <v>836</v>
       </c>
     </row>
     <row r="140" spans="1:4" ht="12" customHeight="1">
       <c r="A140" s="42" t="s">
-        <v>647</v>
+        <v>646</v>
       </c>
       <c r="B140" s="42" t="s">
+        <v>644</v>
+      </c>
+      <c r="C140" s="42" t="s">
         <v>645</v>
       </c>
-      <c r="C140" s="42" t="s">
-        <v>646</v>
-      </c>
       <c r="D140" s="42" t="s">
-        <v>838</v>
+        <v>837</v>
       </c>
     </row>
     <row r="141" spans="1:4" ht="12" customHeight="1">
       <c r="A141" s="42" t="s">
-        <v>650</v>
+        <v>649</v>
       </c>
       <c r="B141" s="42" t="s">
+        <v>647</v>
+      </c>
+      <c r="C141" s="42" t="s">
         <v>648</v>
       </c>
-      <c r="C141" s="42" t="s">
-        <v>649</v>
-      </c>
       <c r="D141" s="42" t="s">
-        <v>839</v>
+        <v>838</v>
       </c>
     </row>
     <row r="142" spans="1:4" ht="12" customHeight="1">
       <c r="A142" s="42" t="s">
-        <v>653</v>
+        <v>652</v>
       </c>
       <c r="B142" s="42" t="s">
+        <v>650</v>
+      </c>
+      <c r="C142" s="42" t="s">
         <v>651</v>
       </c>
-      <c r="C142" s="42" t="s">
-        <v>652</v>
-      </c>
       <c r="D142" s="42" t="s">
-        <v>840</v>
+        <v>839</v>
       </c>
     </row>
     <row r="143" spans="1:4" ht="12" customHeight="1">
       <c r="A143" s="42" t="s">
-        <v>655</v>
+        <v>654</v>
       </c>
       <c r="B143" s="42" t="s">
-        <v>637</v>
+        <v>636</v>
       </c>
       <c r="C143" s="42" t="s">
-        <v>654</v>
+        <v>653</v>
       </c>
       <c r="D143" s="42" t="s">
-        <v>835</v>
+        <v>834</v>
       </c>
     </row>
     <row r="144" spans="1:4" ht="12" customHeight="1">
       <c r="A144" s="42" t="s">
-        <v>658</v>
+        <v>657</v>
       </c>
       <c r="B144" s="42" t="s">
+        <v>655</v>
+      </c>
+      <c r="C144" s="42" t="s">
         <v>656</v>
       </c>
-      <c r="C144" s="42" t="s">
-        <v>657</v>
-      </c>
       <c r="D144" s="42" t="s">
-        <v>841</v>
+        <v>840</v>
       </c>
     </row>
     <row r="145" spans="1:4" ht="12" customHeight="1">
       <c r="A145" s="42" t="s">
-        <v>659</v>
+        <v>658</v>
       </c>
       <c r="B145" s="42" t="s">
         <v>9</v>
@@ -9377,7 +9447,7 @@
         <v>9</v>
       </c>
       <c r="D145" s="42" t="s">
-        <v>842</v>
+        <v>841</v>
       </c>
     </row>
     <row r="146" spans="1:4" s="22" customFormat="1" ht="11.25">
@@ -9389,16 +9459,16 @@
     <row r="147" spans="1:4" s="9" customFormat="1" ht="11.25"/>
     <row r="148" spans="1:4" s="9" customFormat="1" ht="11.25" customHeight="1">
       <c r="A148" s="45" t="s">
+        <v>460</v>
+      </c>
+      <c r="B148" s="45" t="s">
         <v>461</v>
       </c>
-      <c r="B148" s="45" t="s">
+      <c r="C148" s="45" t="s">
         <v>462</v>
       </c>
-      <c r="C148" s="45" t="s">
+      <c r="D148" s="45" t="s">
         <v>463</v>
-      </c>
-      <c r="D148" s="45" t="s">
-        <v>464</v>
       </c>
     </row>
     <row r="149" spans="1:4" s="9" customFormat="1" ht="11.25">
@@ -11255,7 +11325,7 @@
     </row>
     <row r="16" spans="1:21" s="9" customFormat="1" ht="11.25" customHeight="1">
       <c r="B16" s="45" t="s">
-        <v>849</v>
+        <v>848</v>
       </c>
       <c r="C16" s="45" t="s">
         <v>67</v>
@@ -11855,6 +11925,13 @@
     </row>
   </sheetData>
   <mergeCells count="14">
+    <mergeCell ref="A28:B29"/>
+    <mergeCell ref="K27:K36"/>
+    <mergeCell ref="H16:H25"/>
+    <mergeCell ref="F16:F25"/>
+    <mergeCell ref="I16:I25"/>
+    <mergeCell ref="K16:K25"/>
+    <mergeCell ref="J16:J25"/>
     <mergeCell ref="M16:M25"/>
     <mergeCell ref="B16:B25"/>
     <mergeCell ref="E16:E25"/>
@@ -11862,13 +11939,6 @@
     <mergeCell ref="L16:L25"/>
     <mergeCell ref="G16:G25"/>
     <mergeCell ref="C16:C25"/>
-    <mergeCell ref="A28:B29"/>
-    <mergeCell ref="K27:K36"/>
-    <mergeCell ref="H16:H25"/>
-    <mergeCell ref="F16:F25"/>
-    <mergeCell ref="I16:I25"/>
-    <mergeCell ref="K16:K25"/>
-    <mergeCell ref="J16:J25"/>
   </mergeCells>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -11878,12 +11948,12 @@
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr>
-    <tabColor rgb="FFFFFF00"/>
+    <tabColor rgb="FF00B050"/>
   </sheetPr>
-  <dimension ref="A2:AC46"/>
+  <dimension ref="A2:AC45"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="Q19" sqref="Q19:Q28"/>
+    <sheetView tabSelected="1" topLeftCell="N1" workbookViewId="0">
+      <selection activeCell="P28" sqref="P28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -11983,7 +12053,7 @@
         <v>149</v>
       </c>
       <c r="E6" s="37" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="F6" s="10" t="s">
         <v>261</v>
@@ -12081,8 +12151,8 @@
       <c r="H7" s="31" t="s">
         <v>276</v>
       </c>
-      <c r="I7" s="33">
-        <v>41869.541666666664</v>
+      <c r="I7" s="33" t="s">
+        <v>893</v>
       </c>
       <c r="J7" s="32" t="s">
         <v>275</v>
@@ -12102,7 +12172,7 @@
       <c r="O7" s="32" t="s">
         <v>275</v>
       </c>
-      <c r="P7" s="31" t="s">
+      <c r="P7" s="57" t="s">
         <v>295</v>
       </c>
       <c r="Q7" s="31" t="s">
@@ -12114,11 +12184,11 @@
       <c r="S7" s="31" t="s">
         <v>277</v>
       </c>
-      <c r="T7" s="31" t="s">
-        <v>16</v>
-      </c>
-      <c r="U7" s="31" t="s">
-        <v>298</v>
+      <c r="T7" s="31">
+        <v>6</v>
+      </c>
+      <c r="U7" s="31">
+        <v>30000</v>
       </c>
       <c r="V7" s="31" t="s">
         <v>274</v>
@@ -12130,7 +12200,7 @@
         <v>9</v>
       </c>
       <c r="Y7" s="31" t="s">
-        <v>9</v>
+        <v>277</v>
       </c>
       <c r="Z7" s="31" t="s">
         <v>9</v>
@@ -12159,7 +12229,7 @@
         <v>16</v>
       </c>
       <c r="E8" s="16" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="F8" s="34" t="s">
         <v>87</v>
@@ -12170,8 +12240,8 @@
       <c r="H8" s="35" t="s">
         <v>283</v>
       </c>
-      <c r="I8" s="36">
-        <v>42018.361111111109</v>
+      <c r="I8" s="36" t="s">
+        <v>894</v>
       </c>
       <c r="J8" s="34" t="s">
         <v>282</v>
@@ -12206,8 +12276,8 @@
       <c r="T8" s="35" t="s">
         <v>277</v>
       </c>
-      <c r="U8" s="35" t="s">
-        <v>299</v>
+      <c r="U8" s="35">
+        <v>10000</v>
       </c>
       <c r="V8" s="35" t="s">
         <v>281</v>
@@ -12219,7 +12289,7 @@
         <v>9</v>
       </c>
       <c r="Y8" s="31" t="s">
-        <v>9</v>
+        <v>277</v>
       </c>
       <c r="Z8" s="31" t="s">
         <v>9</v>
@@ -12257,8 +12327,8 @@
       <c r="H9" s="31" t="s">
         <v>287</v>
       </c>
-      <c r="I9" s="33">
-        <v>41877.495833333334</v>
+      <c r="I9" s="33" t="s">
+        <v>895</v>
       </c>
       <c r="J9" s="32" t="s">
         <v>286</v>
@@ -12290,11 +12360,11 @@
       <c r="S9" s="31" t="s">
         <v>277</v>
       </c>
-      <c r="T9" s="31" t="s">
-        <v>16</v>
-      </c>
-      <c r="U9" s="31" t="s">
-        <v>299</v>
+      <c r="T9" s="31">
+        <v>6</v>
+      </c>
+      <c r="U9" s="31">
+        <v>10000</v>
       </c>
       <c r="V9" s="31" t="s">
         <v>285</v>
@@ -12306,7 +12376,7 @@
         <v>9</v>
       </c>
       <c r="Y9" s="31" t="s">
-        <v>9</v>
+        <v>277</v>
       </c>
       <c r="Z9" s="31" t="s">
         <v>9</v>
@@ -12344,8 +12414,8 @@
       <c r="H10" s="35" t="s">
         <v>306</v>
       </c>
-      <c r="I10" s="36">
-        <v>42039.999305555553</v>
+      <c r="I10" s="36" t="s">
+        <v>896</v>
       </c>
       <c r="J10" s="34" t="s">
         <v>308</v>
@@ -12380,8 +12450,8 @@
       <c r="T10" s="31" t="s">
         <v>277</v>
       </c>
-      <c r="U10" s="31" t="s">
-        <v>299</v>
+      <c r="U10" s="31">
+        <v>10000</v>
       </c>
       <c r="V10" s="31" t="s">
         <v>309</v>
@@ -12393,7 +12463,7 @@
         <v>9</v>
       </c>
       <c r="Y10" s="31" t="s">
-        <v>9</v>
+        <v>277</v>
       </c>
       <c r="Z10" s="31" t="s">
         <v>9</v>
@@ -12431,8 +12501,8 @@
       <c r="H11" s="31" t="s">
         <v>311</v>
       </c>
-      <c r="I11" s="33">
-        <v>42062.605555555558</v>
+      <c r="I11" s="33" t="s">
+        <v>897</v>
       </c>
       <c r="J11" s="32" t="s">
         <v>313</v>
@@ -12467,8 +12537,8 @@
       <c r="T11" s="31" t="s">
         <v>277</v>
       </c>
-      <c r="U11" s="31" t="s">
-        <v>299</v>
+      <c r="U11" s="31">
+        <v>10000</v>
       </c>
       <c r="V11" s="31" t="s">
         <v>314</v>
@@ -12480,7 +12550,7 @@
         <v>9</v>
       </c>
       <c r="Y11" s="31" t="s">
-        <v>9</v>
+        <v>277</v>
       </c>
       <c r="Z11" s="31" t="s">
         <v>9</v>
@@ -12509,7 +12579,7 @@
         <v>317</v>
       </c>
       <c r="E12" s="16" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="F12" s="34" t="s">
         <v>79</v>
@@ -12520,8 +12590,8 @@
       <c r="H12" s="35" t="s">
         <v>318</v>
       </c>
-      <c r="I12" s="36">
-        <v>41756.333333333336</v>
+      <c r="I12" s="36" t="s">
+        <v>898</v>
       </c>
       <c r="J12" s="34" t="s">
         <v>319</v>
@@ -12553,23 +12623,23 @@
       <c r="S12" s="35" t="s">
         <v>322</v>
       </c>
-      <c r="T12" s="35" t="s">
-        <v>328</v>
-      </c>
-      <c r="U12" s="35" t="s">
-        <v>310</v>
+      <c r="T12" s="35">
+        <v>63</v>
+      </c>
+      <c r="U12" s="35">
+        <v>20000</v>
       </c>
       <c r="V12" s="35" t="s">
         <v>321</v>
       </c>
       <c r="W12" s="31" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="X12" s="32" t="s">
         <v>9</v>
       </c>
       <c r="Y12" s="31" t="s">
-        <v>9</v>
+        <v>277</v>
       </c>
       <c r="Z12" s="31" t="s">
         <v>9</v>
@@ -12595,20 +12665,20 @@
         <v>151</v>
       </c>
       <c r="D13" s="21" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="E13" s="21"/>
       <c r="F13" s="32" t="s">
         <v>79</v>
       </c>
       <c r="G13" s="31" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="H13" s="31" t="s">
-        <v>331</v>
-      </c>
-      <c r="I13" s="33">
-        <v>41756.333333333336</v>
+        <v>330</v>
+      </c>
+      <c r="I13" s="33" t="s">
+        <v>898</v>
       </c>
       <c r="J13" s="32" t="s">
         <v>319</v>
@@ -12640,23 +12710,23 @@
       <c r="S13" s="31" t="s">
         <v>322</v>
       </c>
-      <c r="T13" s="31" t="s">
+      <c r="T13" s="31">
+        <v>63</v>
+      </c>
+      <c r="U13" s="31">
+        <v>20000</v>
+      </c>
+      <c r="V13" s="31" t="s">
+        <v>331</v>
+      </c>
+      <c r="W13" s="31" t="s">
         <v>328</v>
-      </c>
-      <c r="U13" s="31" t="s">
-        <v>310</v>
-      </c>
-      <c r="V13" s="31" t="s">
-        <v>332</v>
-      </c>
-      <c r="W13" s="31" t="s">
-        <v>329</v>
       </c>
       <c r="X13" s="32" t="s">
         <v>9</v>
       </c>
       <c r="Y13" s="31" t="s">
-        <v>9</v>
+        <v>277</v>
       </c>
       <c r="Z13" s="31" t="s">
         <v>9</v>
@@ -12714,113 +12784,127 @@
       <c r="L16" s="21"/>
       <c r="Q16" s="21"/>
       <c r="S16" s="21"/>
-      <c r="V16" s="21"/>
       <c r="W16" s="21"/>
       <c r="Y16" s="21"/>
       <c r="Z16" s="21"/>
     </row>
-    <row r="17" spans="1:29" s="22" customFormat="1" ht="11.25">
-      <c r="B17" s="21"/>
-      <c r="C17" s="21"/>
+    <row r="17" spans="1:29" s="9" customFormat="1" ht="11.25">
       <c r="D17" s="21"/>
       <c r="E17" s="21"/>
-      <c r="G17" s="21"/>
-      <c r="H17" s="21"/>
-      <c r="K17" s="21"/>
-      <c r="L17" s="21"/>
-      <c r="Q17" s="21"/>
-      <c r="S17" s="21"/>
-      <c r="W17" s="21"/>
-      <c r="Y17" s="21"/>
-      <c r="Z17" s="21"/>
-    </row>
-    <row r="18" spans="1:29" s="9" customFormat="1" ht="11.25">
-      <c r="D18" s="21"/>
-      <c r="E18" s="21"/>
-    </row>
-    <row r="19" spans="1:29" s="9" customFormat="1" ht="11.25" customHeight="1">
-      <c r="B19" s="45" t="s">
+    </row>
+    <row r="18" spans="1:29" s="9" customFormat="1" ht="11.25" customHeight="1">
+      <c r="B18" s="45" t="s">
+        <v>847</v>
+      </c>
+      <c r="C18" s="45" t="s">
         <v>848</v>
       </c>
-      <c r="C19" s="45" t="s">
-        <v>849</v>
-      </c>
-      <c r="D19" s="45" t="s">
+      <c r="D18" s="45" t="s">
         <v>67</v>
       </c>
-      <c r="E19" s="45" t="s">
-        <v>336</v>
-      </c>
-      <c r="F19" s="45" t="s">
+      <c r="E18" s="45" t="s">
+        <v>335</v>
+      </c>
+      <c r="F18" s="45" t="s">
         <v>294</v>
       </c>
-      <c r="G19" s="45" t="s">
+      <c r="G18" s="45" t="s">
         <v>249</v>
       </c>
-      <c r="H19" s="45" t="s">
+      <c r="H18" s="45" t="s">
         <v>249</v>
       </c>
-      <c r="I19" s="45" t="s">
+      <c r="I18" s="45" t="s">
         <v>315</v>
       </c>
-      <c r="J19" s="45" t="s">
+      <c r="J18" s="45" t="s">
         <v>315</v>
       </c>
-      <c r="K19" s="45" t="s">
+      <c r="K18" s="45" t="s">
         <v>316</v>
       </c>
-      <c r="L19" s="45" t="s">
+      <c r="L18" s="45" t="s">
         <v>300</v>
       </c>
-      <c r="M19" s="45" t="s">
+      <c r="M18" s="45" t="s">
         <v>301</v>
       </c>
-      <c r="N19" s="45" t="s">
+      <c r="N18" s="45" t="s">
         <v>302</v>
       </c>
-      <c r="O19" s="45" t="s">
+      <c r="O18" s="45" t="s">
         <v>303</v>
       </c>
-      <c r="P19" s="45" t="s">
-        <v>843</v>
-      </c>
-      <c r="Q19" s="56" t="s">
+      <c r="P18" s="45" t="s">
+        <v>842</v>
+      </c>
+      <c r="Q18" s="56" t="s">
         <v>304</v>
       </c>
-      <c r="R19" s="56" t="s">
+      <c r="R18" s="56" t="s">
         <v>304</v>
       </c>
-      <c r="S19" s="45" t="s">
+      <c r="S18" s="45" t="s">
         <v>323</v>
       </c>
-      <c r="T19" s="45" t="s">
+      <c r="T18" s="45" t="s">
         <v>20</v>
       </c>
-      <c r="U19" s="45" t="s">
-        <v>333</v>
-      </c>
-      <c r="V19" s="45" t="s">
-        <v>340</v>
-      </c>
+      <c r="U18" s="45" t="s">
+        <v>332</v>
+      </c>
+      <c r="V18" s="45" t="s">
+        <v>339</v>
+      </c>
+      <c r="W18" s="45"/>
+      <c r="X18" s="45" t="s">
+        <v>289</v>
+      </c>
+      <c r="Y18" s="45" t="s">
+        <v>289</v>
+      </c>
+      <c r="Z18" s="45" t="s">
+        <v>289</v>
+      </c>
+      <c r="AA18" s="45" t="s">
+        <v>289</v>
+      </c>
+      <c r="AB18" s="45" t="s">
+        <v>289</v>
+      </c>
+      <c r="AC18" s="45" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="19" spans="1:29" s="9" customFormat="1" ht="11.25">
+      <c r="B19" s="45"/>
+      <c r="C19" s="45"/>
+      <c r="D19" s="45"/>
+      <c r="E19" s="45"/>
+      <c r="F19" s="45"/>
+      <c r="G19" s="45"/>
+      <c r="H19" s="45"/>
+      <c r="I19" s="45"/>
+      <c r="J19" s="45"/>
+      <c r="K19" s="45"/>
+      <c r="L19" s="45"/>
+      <c r="M19" s="45"/>
+      <c r="N19" s="45"/>
+      <c r="O19" s="45"/>
+      <c r="P19" s="45"/>
+      <c r="Q19" s="56"/>
+      <c r="R19" s="56"/>
+      <c r="S19" s="45"/>
+      <c r="T19" s="45"/>
+      <c r="U19" s="45"/>
+      <c r="V19" s="45"/>
       <c r="W19" s="45"/>
-      <c r="X19" s="45" t="s">
-        <v>289</v>
-      </c>
-      <c r="Y19" s="45" t="s">
-        <v>289</v>
-      </c>
-      <c r="Z19" s="45" t="s">
-        <v>289</v>
-      </c>
-      <c r="AA19" s="45" t="s">
-        <v>289</v>
-      </c>
-      <c r="AB19" s="45" t="s">
-        <v>289</v>
-      </c>
-      <c r="AC19" s="45" t="s">
-        <v>289</v>
-      </c>
+      <c r="X19" s="45"/>
+      <c r="Y19" s="45"/>
+      <c r="Z19" s="45"/>
+      <c r="AA19" s="45"/>
+      <c r="AB19" s="45"/>
+      <c r="AC19" s="45"/>
     </row>
     <row r="20" spans="1:29" s="9" customFormat="1" ht="11.25">
       <c r="B20" s="45"/>
@@ -13062,156 +13146,149 @@
       <c r="AB27" s="45"/>
       <c r="AC27" s="45"/>
     </row>
-    <row r="28" spans="1:29" s="9" customFormat="1" ht="11.25">
-      <c r="B28" s="45"/>
-      <c r="C28" s="45"/>
-      <c r="D28" s="45"/>
-      <c r="E28" s="45"/>
-      <c r="F28" s="45"/>
-      <c r="G28" s="45"/>
-      <c r="H28" s="45"/>
-      <c r="I28" s="45"/>
-      <c r="J28" s="45"/>
-      <c r="K28" s="45"/>
-      <c r="L28" s="45"/>
-      <c r="M28" s="45"/>
-      <c r="N28" s="45"/>
-      <c r="O28" s="45"/>
-      <c r="P28" s="45"/>
-      <c r="Q28" s="56"/>
-      <c r="R28" s="56"/>
-      <c r="S28" s="45"/>
-      <c r="T28" s="45"/>
-      <c r="U28" s="45"/>
-      <c r="V28" s="45"/>
-      <c r="W28" s="45"/>
-      <c r="X28" s="45"/>
-      <c r="Y28" s="45"/>
-      <c r="Z28" s="45"/>
-      <c r="AA28" s="45"/>
-      <c r="AB28" s="45"/>
-      <c r="AC28" s="45"/>
+    <row r="28" spans="1:29" s="9" customFormat="1" ht="11.25" customHeight="1">
+      <c r="K28" s="14"/>
+      <c r="U28" s="14"/>
+      <c r="W28" s="14"/>
     </row>
     <row r="29" spans="1:29" s="9" customFormat="1" ht="11.25" customHeight="1">
-      <c r="K29" s="14"/>
-      <c r="U29" s="14"/>
-      <c r="W29" s="14"/>
-    </row>
-    <row r="30" spans="1:29" s="9" customFormat="1" ht="11.25" customHeight="1">
-      <c r="I30" s="7"/>
+      <c r="I29" s="7"/>
+      <c r="J29" s="7"/>
+      <c r="K29" s="7"/>
+      <c r="P29" s="45" t="s">
+        <v>843</v>
+      </c>
+      <c r="T29" s="14"/>
+      <c r="U29" s="45" t="s">
+        <v>337</v>
+      </c>
+    </row>
+    <row r="30" spans="1:29" s="9" customFormat="1">
+      <c r="A30" s="46" t="s">
+        <v>49</v>
+      </c>
+      <c r="B30" s="46"/>
+      <c r="D30" s="43"/>
+      <c r="I30"/>
       <c r="J30" s="7"/>
       <c r="K30" s="7"/>
-      <c r="P30" s="45" t="s">
-        <v>844</v>
-      </c>
-      <c r="T30" s="14"/>
-      <c r="U30" s="45" t="s">
-        <v>338</v>
-      </c>
+      <c r="P30" s="45"/>
+      <c r="R30" s="45" t="s">
+        <v>899</v>
+      </c>
+      <c r="T30" s="15"/>
+      <c r="U30" s="45"/>
     </row>
     <row r="31" spans="1:29" s="9" customFormat="1">
-      <c r="A31" s="46" t="s">
-        <v>49</v>
-      </c>
+      <c r="A31" s="46"/>
       <c r="B31" s="46"/>
       <c r="D31" s="43"/>
       <c r="I31"/>
       <c r="J31" s="7"/>
       <c r="K31" s="7"/>
       <c r="P31" s="45"/>
+      <c r="R31" s="45"/>
       <c r="T31" s="15"/>
       <c r="U31" s="45"/>
     </row>
-    <row r="32" spans="1:29" s="9" customFormat="1">
-      <c r="A32" s="46"/>
-      <c r="B32" s="46"/>
+    <row r="32" spans="1:29" s="9" customFormat="1" ht="15.75" customHeight="1">
+      <c r="A32" s="20" t="s">
+        <v>47</v>
+      </c>
+      <c r="B32" s="20" t="s">
+        <v>48</v>
+      </c>
       <c r="D32" s="43"/>
       <c r="I32"/>
-      <c r="J32" s="7"/>
-      <c r="K32" s="7"/>
+      <c r="J32"/>
+      <c r="K32"/>
       <c r="P32" s="45"/>
+      <c r="R32" s="45"/>
       <c r="T32" s="15"/>
       <c r="U32" s="45"/>
     </row>
-    <row r="33" spans="1:21" s="9" customFormat="1" ht="15.75" customHeight="1">
-      <c r="A33" s="20" t="s">
-        <v>47</v>
-      </c>
-      <c r="B33" s="20" t="s">
-        <v>48</v>
+    <row r="33" spans="1:21" s="9" customFormat="1">
+      <c r="A33" s="17" t="s">
+        <v>38</v>
+      </c>
+      <c r="B33" s="18" t="s">
+        <v>41</v>
       </c>
       <c r="D33" s="43"/>
       <c r="I33"/>
       <c r="J33"/>
       <c r="K33"/>
       <c r="P33" s="45"/>
+      <c r="R33" s="45"/>
       <c r="T33" s="15"/>
       <c r="U33" s="45"/>
     </row>
-    <row r="34" spans="1:21" s="9" customFormat="1">
+    <row r="34" spans="1:21" s="7" customFormat="1">
       <c r="A34" s="17" t="s">
-        <v>38</v>
+        <v>8</v>
       </c>
       <c r="B34" s="18" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="D34" s="43"/>
       <c r="I34"/>
       <c r="J34"/>
       <c r="K34"/>
       <c r="P34" s="45"/>
+      <c r="R34" s="45"/>
       <c r="T34" s="15"/>
       <c r="U34" s="45"/>
     </row>
     <row r="35" spans="1:21" s="7" customFormat="1">
       <c r="A35" s="17" t="s">
-        <v>8</v>
+        <v>39</v>
       </c>
       <c r="B35" s="18" t="s">
-        <v>42</v>
+        <v>201</v>
       </c>
       <c r="D35" s="43"/>
       <c r="I35"/>
       <c r="J35"/>
       <c r="K35"/>
       <c r="P35" s="45"/>
-      <c r="T35" s="15"/>
+      <c r="R35" s="45"/>
       <c r="U35" s="45"/>
     </row>
     <row r="36" spans="1:21" s="7" customFormat="1">
       <c r="A36" s="17" t="s">
-        <v>39</v>
-      </c>
-      <c r="B36" s="18" t="s">
-        <v>201</v>
+        <v>10</v>
+      </c>
+      <c r="B36" s="19" t="s">
+        <v>43</v>
       </c>
       <c r="D36" s="43"/>
       <c r="I36"/>
       <c r="J36"/>
       <c r="K36"/>
       <c r="P36" s="45"/>
+      <c r="R36" s="45"/>
       <c r="U36" s="45"/>
     </row>
     <row r="37" spans="1:21" s="7" customFormat="1">
       <c r="A37" s="17" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B37" s="19" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="D37" s="43"/>
       <c r="I37"/>
       <c r="J37"/>
       <c r="K37"/>
       <c r="P37" s="45"/>
-      <c r="U37" s="45"/>
+      <c r="R37" s="45"/>
     </row>
     <row r="38" spans="1:21" s="7" customFormat="1">
       <c r="A38" s="17" t="s">
-        <v>11</v>
+        <v>40</v>
       </c>
       <c r="B38" s="19" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="D38" s="43"/>
       <c r="I38"/>
@@ -13221,23 +13298,22 @@
     </row>
     <row r="39" spans="1:21" s="7" customFormat="1">
       <c r="A39" s="17" t="s">
-        <v>40</v>
+        <v>12</v>
       </c>
       <c r="B39" s="19" t="s">
-        <v>45</v>
+        <v>198</v>
       </c>
       <c r="D39" s="43"/>
       <c r="I39"/>
       <c r="J39"/>
       <c r="K39"/>
-      <c r="P39" s="45"/>
     </row>
     <row r="40" spans="1:21" s="7" customFormat="1">
       <c r="A40" s="17" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B40" s="19" t="s">
-        <v>198</v>
+        <v>46</v>
       </c>
       <c r="D40" s="43"/>
       <c r="I40"/>
@@ -13245,28 +13321,24 @@
       <c r="K40"/>
     </row>
     <row r="41" spans="1:21" s="7" customFormat="1">
-      <c r="A41" s="17" t="s">
-        <v>13</v>
-      </c>
-      <c r="B41" s="19" t="s">
-        <v>46</v>
-      </c>
       <c r="D41" s="43"/>
       <c r="I41"/>
       <c r="J41"/>
       <c r="K41"/>
     </row>
     <row r="42" spans="1:21" s="7" customFormat="1">
-      <c r="D42" s="43"/>
+      <c r="C42" s="43"/>
       <c r="I42"/>
       <c r="J42"/>
       <c r="K42"/>
     </row>
     <row r="43" spans="1:21" s="7" customFormat="1">
       <c r="C43" s="43"/>
+      <c r="D43"/>
       <c r="I43"/>
       <c r="J43"/>
       <c r="K43"/>
+      <c r="S43"/>
     </row>
     <row r="44" spans="1:21" s="7" customFormat="1">
       <c r="C44" s="43"/>
@@ -13276,50 +13348,43 @@
       <c r="K44"/>
       <c r="S44"/>
     </row>
-    <row r="45" spans="1:21" s="7" customFormat="1">
+    <row r="45" spans="1:21">
       <c r="C45" s="43"/>
-      <c r="D45"/>
-      <c r="I45"/>
-      <c r="J45"/>
-      <c r="K45"/>
-      <c r="S45"/>
-    </row>
-    <row r="46" spans="1:21">
-      <c r="C46" s="43"/>
     </row>
   </sheetData>
-  <mergeCells count="31">
-    <mergeCell ref="U30:U37"/>
-    <mergeCell ref="P30:P39"/>
-    <mergeCell ref="D19:D28"/>
-    <mergeCell ref="T19:T28"/>
-    <mergeCell ref="I19:I28"/>
-    <mergeCell ref="O19:O28"/>
-    <mergeCell ref="J19:J28"/>
-    <mergeCell ref="X19:X28"/>
-    <mergeCell ref="S19:S28"/>
-    <mergeCell ref="P19:P28"/>
-    <mergeCell ref="B19:B28"/>
-    <mergeCell ref="V19:V28"/>
-    <mergeCell ref="W19:W28"/>
-    <mergeCell ref="L19:L28"/>
-    <mergeCell ref="E19:E28"/>
-    <mergeCell ref="AB19:AB28"/>
-    <mergeCell ref="AC19:AC28"/>
-    <mergeCell ref="R19:R28"/>
-    <mergeCell ref="A31:B32"/>
-    <mergeCell ref="AA19:AA28"/>
-    <mergeCell ref="F19:F28"/>
-    <mergeCell ref="N19:N28"/>
-    <mergeCell ref="M19:M28"/>
-    <mergeCell ref="C19:C28"/>
-    <mergeCell ref="Z19:Z28"/>
-    <mergeCell ref="Q19:Q28"/>
-    <mergeCell ref="K19:K28"/>
-    <mergeCell ref="G19:G28"/>
-    <mergeCell ref="H19:H28"/>
-    <mergeCell ref="U19:U28"/>
-    <mergeCell ref="Y19:Y28"/>
+  <mergeCells count="32">
+    <mergeCell ref="AB18:AB27"/>
+    <mergeCell ref="AC18:AC27"/>
+    <mergeCell ref="R18:R27"/>
+    <mergeCell ref="A30:B31"/>
+    <mergeCell ref="AA18:AA27"/>
+    <mergeCell ref="F18:F27"/>
+    <mergeCell ref="N18:N27"/>
+    <mergeCell ref="M18:M27"/>
+    <mergeCell ref="C18:C27"/>
+    <mergeCell ref="Z18:Z27"/>
+    <mergeCell ref="Q18:Q27"/>
+    <mergeCell ref="K18:K27"/>
+    <mergeCell ref="G18:G27"/>
+    <mergeCell ref="H18:H27"/>
+    <mergeCell ref="U18:U27"/>
+    <mergeCell ref="Y18:Y27"/>
+    <mergeCell ref="X18:X27"/>
+    <mergeCell ref="S18:S27"/>
+    <mergeCell ref="P18:P27"/>
+    <mergeCell ref="B18:B27"/>
+    <mergeCell ref="V18:V27"/>
+    <mergeCell ref="W18:W27"/>
+    <mergeCell ref="L18:L27"/>
+    <mergeCell ref="E18:E27"/>
+    <mergeCell ref="U29:U36"/>
+    <mergeCell ref="P29:P38"/>
+    <mergeCell ref="D18:D27"/>
+    <mergeCell ref="T18:T27"/>
+    <mergeCell ref="I18:I27"/>
+    <mergeCell ref="O18:O27"/>
+    <mergeCell ref="J18:J27"/>
+    <mergeCell ref="R30:R37"/>
   </mergeCells>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -13352,7 +13417,7 @@
         <v>14</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="E2" s="2"/>
       <c r="F2" s="2"/>
@@ -13386,16 +13451,16 @@
         <v>149</v>
       </c>
       <c r="D6" s="10" t="s">
+        <v>341</v>
+      </c>
+      <c r="E6" s="10" t="s">
+        <v>343</v>
+      </c>
+      <c r="F6" s="10" t="s">
+        <v>340</v>
+      </c>
+      <c r="G6" s="10" t="s">
         <v>342</v>
-      </c>
-      <c r="E6" s="10" t="s">
-        <v>344</v>
-      </c>
-      <c r="F6" s="10" t="s">
-        <v>341</v>
-      </c>
-      <c r="G6" s="10" t="s">
-        <v>343</v>
       </c>
     </row>
     <row r="7" spans="1:7" s="22" customFormat="1" ht="11.25">
@@ -13406,13 +13471,13 @@
         <v>151</v>
       </c>
       <c r="C7" s="16" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="D7" s="34">
         <v>95</v>
       </c>
       <c r="E7" s="35" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="F7" s="32">
         <v>78</v>
@@ -13429,13 +13494,13 @@
         <v>151</v>
       </c>
       <c r="C8" s="16" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="D8" s="34">
         <v>95</v>
       </c>
       <c r="E8" s="35" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="F8" s="32">
         <v>79</v>
@@ -13458,7 +13523,7 @@
         <v>0</v>
       </c>
       <c r="E9" s="31" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="F9" s="32">
         <v>15</v>
@@ -13481,7 +13546,7 @@
         <v>55</v>
       </c>
       <c r="E10" s="31" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="F10" s="32">
         <v>1</v>
@@ -13504,7 +13569,7 @@
         <v>55</v>
       </c>
       <c r="E11" s="31" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="F11" s="32">
         <v>2</v>
@@ -13527,7 +13592,7 @@
         <v>95</v>
       </c>
       <c r="E12" s="31" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="F12" s="32">
         <v>3</v>
@@ -13550,7 +13615,7 @@
         <v>95</v>
       </c>
       <c r="E13" s="31" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="F13" s="32">
         <v>4</v>
@@ -13594,22 +13659,22 @@
     <row r="19" spans="1:7" s="9" customFormat="1" ht="11.25" customHeight="1">
       <c r="A19" s="45"/>
       <c r="B19" s="45" t="s">
-        <v>849</v>
+        <v>848</v>
       </c>
       <c r="C19" s="45" t="s">
         <v>67</v>
       </c>
       <c r="D19" s="45" t="s">
+        <v>351</v>
+      </c>
+      <c r="E19" s="45" t="s">
         <v>352</v>
       </c>
-      <c r="E19" s="45" t="s">
-        <v>353</v>
-      </c>
       <c r="F19" s="45" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="G19" s="45" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
     </row>
     <row r="20" spans="1:7" s="9" customFormat="1" ht="11.25">
